--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\OneDrive\PET PROJECTS\Al-the-Trader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{0F1EDEEF-C5AC-42F7-94BD-610EF81928D4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{4E0D7944-E2F1-4312-897C-7709F46D0244}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{0F1EDEEF-C5AC-42F7-94BD-610EF81928D4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{FEE645C1-E02D-4059-9FAA-B33B73156C66}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{1F250315-142D-43F1-84A9-3B10F3F4598B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{1F250315-142D-43F1-84A9-3B10F3F4598B}"/>
   </bookViews>
   <sheets>
     <sheet name="watchlist" sheetId="1" r:id="rId1"/>
-    <sheet name="portfolio" sheetId="2" r:id="rId2"/>
+    <sheet name="stocks" sheetId="2" r:id="rId2"/>
+    <sheet name="portfolio" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>MSFT</t>
   </si>
@@ -62,6 +63,15 @@
   </si>
   <si>
     <t>value</t>
+  </si>
+  <si>
+    <t>CASH</t>
+  </si>
+  <si>
+    <t>asset</t>
+  </si>
+  <si>
+    <t>STOCKS</t>
   </si>
 </sst>
 </file>
@@ -416,7 +426,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,27 +470,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3993D2E-37EB-47A1-AD85-39D7337DC3A7}">
   <dimension ref="A1:E1"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF103F3-2CB5-4F30-9120-6766BA818176}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\OneDrive\PET PROJECTS\Al-the-Trader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{0F1EDEEF-C5AC-42F7-94BD-610EF81928D4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{FEE645C1-E02D-4059-9FAA-B33B73156C66}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="8_{0F1EDEEF-C5AC-42F7-94BD-610EF81928D4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{C502F530-19FA-47D1-9F3B-8122F789F101}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{1F250315-142D-43F1-84A9-3B10F3F4598B}"/>
+    <workbookView xWindow="22932" yWindow="2784" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{1F250315-142D-43F1-84A9-3B10F3F4598B}"/>
   </bookViews>
   <sheets>
     <sheet name="watchlist" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>AAPL</t>
   </si>
   <si>
-    <t>GOOG</t>
-  </si>
-  <si>
     <t>NVDA</t>
   </si>
   <si>
@@ -72,6 +69,9 @@
   </si>
   <si>
     <t>STOCKS</t>
+  </si>
+  <si>
+    <t>GOOGL</t>
   </si>
 </sst>
 </file>
@@ -425,15 +425,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194368C9-511D-45B6-9535-A3EACA883C9F}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -448,17 +448,17 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -470,7 +470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3993D2E-37EB-47A1-AD85-39D7337DC3A7}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -479,19 +479,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -503,23 +503,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF103F3-2CB5-4F30-9120-6766BA818176}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>10000</v>
@@ -527,7 +527,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,30 +463,6 @@
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>last_activity</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>MSFT</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>172.38</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>172.38</v>
-      </c>
-      <c r="E2" t="n">
-        <v>46.0615153788447</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>buy</t>
         </is>
       </c>
     </row>
@@ -528,7 +504,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9827</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="3">
@@ -538,7 +514,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>172</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="watchlist" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="stocks" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="portfolio" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="trades" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -520,4 +521,50 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ticker</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>buy_sell</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>shares</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -1,40 +1,96 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\OneDrive\PET PROJECTS\Al-the-Trader\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_7EBCB87E1082D1F7837DEA47725D37B3577E973D" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{D7DB0AA3-FB57-41AA-B76A-321B442DE5AE}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="watchlist" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="stocks" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="portfolio" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="trades" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="portfolio" sheetId="3" r:id="rId1"/>
+    <sheet name="watchlist" sheetId="1" r:id="rId2"/>
+    <sheet name="stocks" sheetId="2" r:id="rId3"/>
+    <sheet name="trades" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+  <si>
+    <t>ticker</t>
+  </si>
+  <si>
+    <t>MSFT</t>
+  </si>
+  <si>
+    <t>AAPL</t>
+  </si>
+  <si>
+    <t>GOOGL</t>
+  </si>
+  <si>
+    <t>ZM</t>
+  </si>
+  <si>
+    <t>current_price</t>
+  </si>
+  <si>
+    <t>shares</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>current_rsi</t>
+  </si>
+  <si>
+    <t>last_activity</t>
+  </si>
+  <si>
+    <t>asset</t>
+  </si>
+  <si>
+    <t>CASH</t>
+  </si>
+  <si>
+    <t>STOCKS</t>
+  </si>
+  <si>
+    <t>buy_sell</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,10 +105,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -60,15 +124,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -356,64 +429,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ticker</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
         <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>MSFT</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>AAPL</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GOOGL</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ZM</t>
-        </is>
       </c>
     </row>
   </sheetData>
@@ -422,49 +466,83 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ticker</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>current_price</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>shares</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>current_rsi</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>last_activity</t>
-        </is>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -472,99 +550,34 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8779B27A-E9EE-4629-A1FD-2006C4D58462}">
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>asset</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>CASH</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>STOCKS</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ticker</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>buy_sell</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>shares</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -1,96 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\OneDrive\PET PROJECTS\Al-the-Trader\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_7EBCB87E1082D1F7837DEA47725D37B3577E973D" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{D7DB0AA3-FB57-41AA-B76A-321B442DE5AE}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="portfolio" sheetId="3" r:id="rId1"/>
-    <sheet name="watchlist" sheetId="1" r:id="rId2"/>
-    <sheet name="stocks" sheetId="2" r:id="rId3"/>
-    <sheet name="trades" sheetId="4" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="watchlist" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="stocks" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="portfolio" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="trades" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
-  <si>
-    <t>ticker</t>
-  </si>
-  <si>
-    <t>MSFT</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>GOOGL</t>
-  </si>
-  <si>
-    <t>ZM</t>
-  </si>
-  <si>
-    <t>current_price</t>
-  </si>
-  <si>
-    <t>shares</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>current_rsi</t>
-  </si>
-  <si>
-    <t>last_activity</t>
-  </si>
-  <si>
-    <t>asset</t>
-  </si>
-  <si>
-    <t>CASH</t>
-  </si>
-  <si>
-    <t>STOCKS</t>
-  </si>
-  <si>
-    <t>buy_sell</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -105,18 +49,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -124,24 +60,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -429,35 +356,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ticker</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ZM</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -466,48 +422,121 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ticker</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>current_price</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>shares</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>current_rsi</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>last_activity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>172.15</v>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="D2" t="n">
+        <v>172.15</v>
+      </c>
+      <c r="E2" t="n">
+        <v>45.77932342712615</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>278.98</v>
+      </c>
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
+      <c r="D3" t="n">
+        <v>278.98</v>
+      </c>
+      <c r="E3" t="n">
+        <v>56.93602034826844</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1252.31</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1252.31</v>
+      </c>
+      <c r="E4" t="n">
+        <v>55.25249561928622</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -516,33 +545,49 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>asset</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>CASH</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>8295</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>STOCKS</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1702</v>
       </c>
     </row>
   </sheetData>
@@ -551,33 +596,125 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8779B27A-E9EE-4629-A1FD-2006C4D58462}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ticker</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>buy_sell</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>shares</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>24/04/2020 12:00:37</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>172.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>24/04/2020 12:00:38</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>278.98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>24/04/2020 12:00:38</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1252.31</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702</v>
+        <v>1703</v>
       </c>
     </row>
   </sheetData>
@@ -610,6 +610,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>date</t>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -474,16 +474,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>172.15</v>
+        <v>177.36</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>172.15</v>
+        <v>177.36</v>
       </c>
       <c r="E2" t="n">
-        <v>45.77932342712615</v>
+        <v>54.94932666944332</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -498,16 +498,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>278.98</v>
+        <v>295.7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>278.98</v>
+        <v>295.7</v>
       </c>
       <c r="E3" t="n">
-        <v>56.93602034826844</v>
+        <v>53.4112618592753</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -522,16 +522,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1252.31</v>
+        <v>1334.05</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1252.31</v>
+        <v>1334.05</v>
       </c>
       <c r="E4" t="n">
-        <v>55.25249561928622</v>
+        <v>57.45291685806153</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1703</v>
+        <v>1807</v>
       </c>
     </row>
   </sheetData>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -786,7 +786,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -824,16 +824,6 @@
       </c>
       <c r="B3" t="n">
         <v>137</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>9998</v>
       </c>
     </row>
   </sheetData>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -737,10 +737,10 @@
         <v>96.05</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>96.05</v>
+        <v>960.5</v>
       </c>
       <c r="E2" t="n">
         <v>24.71111111111112</v>
@@ -761,10 +761,10 @@
         <v>41.66</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>41.66</v>
+        <v>999.8399999999999</v>
       </c>
       <c r="E3" t="n">
         <v>28.55110749847591</v>
@@ -813,7 +813,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9861</v>
+        <v>8039.66</v>
       </c>
     </row>
     <row r="3">
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>137</v>
+        <v>1960.34</v>
       </c>
     </row>
   </sheetData>
@@ -878,7 +878,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01/05/2020 16:42:28</t>
+          <t>01/05/2020 17:43:50</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>96.05</v>
+        <v>960.5</v>
       </c>
     </row>
     <row r="3">
@@ -904,7 +904,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>01/05/2020 16:42:30</t>
+          <t>01/05/2020 17:43:52</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="F3" t="n">
-        <v>41.66</v>
+        <v>999.8399999999999</v>
       </c>
     </row>
   </sheetData>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\OneDrive\PET PROJECTS\Al-the-Trader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_D9F369BCFA3E708F611A5D111BB7C8C75A63351B" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_D9F369BCFA3E708F610A5C13BFD5C3255A63379D" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{C293E839-EACB-4FC8-9E2F-D0E466E47563}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="watchlist" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
   <si>
     <t>ticker</t>
   </si>
@@ -182,46 +182,10 @@
     <t>01/05/2020 18:02:19</t>
   </si>
   <si>
-    <t>02/05/2020 06:30:28</t>
-  </si>
-  <si>
-    <t>02/05/2020 06:35:22</t>
-  </si>
-  <si>
     <t>02/05/2020 07:35:22</t>
   </si>
   <si>
-    <t>04/05/2020 09:35:32</t>
-  </si>
-  <si>
-    <t>04/05/2020 10:35:22</t>
-  </si>
-  <si>
-    <t>04/05/2020 11:35:23</t>
-  </si>
-  <si>
-    <t>04/05/2020 12:57:22</t>
-  </si>
-  <si>
-    <t>04/05/2020 13:06:21</t>
-  </si>
-  <si>
-    <t>04/05/2020 13:35:27</t>
-  </si>
-  <si>
-    <t>04/05/2020 14:35:26</t>
-  </si>
-  <si>
-    <t>04/05/2020 15:35:19</t>
-  </si>
-  <si>
-    <t>04/05/2020 16:07:30</t>
-  </si>
-  <si>
-    <t>04/05/2020 16:10:39</t>
-  </si>
-  <si>
-    <t>04/05/2020 16:15:37</t>
+    <t>04/05/2020 17:38:22</t>
   </si>
 </sst>
 </file>
@@ -586,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1035,7 +999,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1221,11 +1187,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1277,177 +1248,9 @@
         <v>8039.66</v>
       </c>
       <c r="C4">
-        <v>1960.34</v>
+        <v>1987.9</v>
       </c>
       <c r="D4">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5">
-        <v>8039.66</v>
-      </c>
-      <c r="C5">
-        <v>1960.34</v>
-      </c>
-      <c r="D5">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6">
-        <v>8039.66</v>
-      </c>
-      <c r="C6">
-        <v>1927.38</v>
-      </c>
-      <c r="D6">
-        <v>9967.0400000000009</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7">
-        <v>8039.66</v>
-      </c>
-      <c r="C7">
-        <v>1951.96</v>
-      </c>
-      <c r="D7">
-        <v>9991.619999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8">
-        <v>8039.66</v>
-      </c>
-      <c r="C8">
-        <v>1972.36</v>
-      </c>
-      <c r="D8">
-        <v>10012.02</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9">
-        <v>8039.66</v>
-      </c>
-      <c r="C9">
-        <v>1970.36</v>
-      </c>
-      <c r="D9">
-        <v>10010.02</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10">
-        <v>8039.66</v>
-      </c>
-      <c r="C10">
-        <v>1968.6</v>
-      </c>
-      <c r="D10">
-        <v>10008.26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11">
-        <v>8039.66</v>
-      </c>
-      <c r="C11">
-        <v>1975.52</v>
-      </c>
-      <c r="D11">
-        <v>10015.18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12">
-        <v>8039.66</v>
-      </c>
-      <c r="C12">
-        <v>1974.18</v>
-      </c>
-      <c r="D12">
-        <v>10013.84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13">
-        <v>8039.66</v>
-      </c>
-      <c r="C13">
-        <v>1992.3</v>
-      </c>
-      <c r="D13">
-        <v>10031.959999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14">
-        <v>8039.66</v>
-      </c>
-      <c r="C14">
-        <v>1992.3</v>
-      </c>
-      <c r="D14">
-        <v>10031.959999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15">
-        <v>8039.66</v>
-      </c>
-      <c r="C15">
-        <v>1988.5</v>
-      </c>
-      <c r="D15">
-        <v>10028.16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16">
-        <v>8039.66</v>
-      </c>
-      <c r="C16">
-        <v>1987.9</v>
-      </c>
-      <c r="D16">
         <v>10027.56</v>
       </c>
     </row>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -395,65 +395,65 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>TRV</t>
+          <t>WBA</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>97.17</v>
+        <v>42.02</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2683</v>
+        <v>-1.013</v>
       </c>
       <c r="D2" t="n">
-        <v>22.80341880341881</v>
+        <v>25.58558558558559</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>WBA</t>
+          <t>RTX</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42.03</v>
+        <v>59</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.9893999999999999</v>
+        <v>0.2549</v>
       </c>
       <c r="D3" t="n">
-        <v>25.6317689530686</v>
+        <v>29.25180519280995</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>RTX</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.05</v>
+        <v>108.91</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3398</v>
+        <v>1.1047</v>
       </c>
       <c r="D4" t="n">
-        <v>29.46852504211977</v>
+        <v>30.06517427033153</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>TRV</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>109.31</v>
+        <v>96.84999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>1.476</v>
+        <v>-0.0619</v>
       </c>
       <c r="D5" t="n">
-        <v>30.8489773045671</v>
+        <v>31.12028158757131</v>
       </c>
     </row>
     <row r="6">
@@ -463,13 +463,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>124.84</v>
+        <v>124.73</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9216</v>
+        <v>0.8327</v>
       </c>
       <c r="D6" t="n">
-        <v>32.40740740740742</v>
+        <v>31.82879377431907</v>
       </c>
     </row>
     <row r="7">
@@ -479,13 +479,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56.58</v>
+        <v>56.51</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6046</v>
+        <v>0.4801</v>
       </c>
       <c r="D7" t="n">
-        <v>34.02061855670104</v>
+        <v>32.3943661971831</v>
       </c>
     </row>
     <row r="8">
@@ -495,13 +495,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>116.11</v>
+        <v>116.01</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2937</v>
+        <v>0.2073</v>
       </c>
       <c r="D8" t="n">
-        <v>36.39185926181442</v>
+        <v>35.27553527553528</v>
       </c>
     </row>
     <row r="9">
@@ -511,13 +511,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>180.1</v>
+        <v>179.24</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.9732</v>
+        <v>-1.4461</v>
       </c>
       <c r="D9" t="n">
-        <v>37.27108589115296</v>
+        <v>35.68782415411212</v>
       </c>
     </row>
     <row r="10">
@@ -527,13 +527,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>58.71</v>
+        <v>58.75</v>
       </c>
       <c r="C10" t="n">
-        <v>1.2416</v>
+        <v>1.3106</v>
       </c>
       <c r="D10" t="n">
-        <v>38.195427877807</v>
+        <v>38.39483766888486</v>
       </c>
     </row>
     <row r="11">
@@ -543,13 +543,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>33.34</v>
+        <v>33.37</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8469</v>
+        <v>0.9377</v>
       </c>
       <c r="D11" t="n">
-        <v>40.12219959266803</v>
+        <v>40.2439024390244</v>
       </c>
     </row>
     <row r="12">
@@ -559,13 +559,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>41.54</v>
+        <v>41.46</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4595</v>
+        <v>0.266</v>
       </c>
       <c r="D12" t="n">
-        <v>42.65298644192012</v>
+        <v>41.97256210604376</v>
       </c>
     </row>
     <row r="13">
@@ -575,13 +575,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>122.81</v>
+        <v>122.58</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9287</v>
+        <v>0.7396</v>
       </c>
       <c r="D13" t="n">
-        <v>42.84549531186302</v>
+        <v>42.30452674897119</v>
       </c>
     </row>
     <row r="14">
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.20999999999999</v>
+        <v>92.89</v>
       </c>
       <c r="C14" t="n">
-        <v>1.9357</v>
+        <v>1.5857</v>
       </c>
       <c r="D14" t="n">
-        <v>43.48503740648379</v>
+        <v>42.91561712846347</v>
       </c>
     </row>
     <row r="15">
@@ -607,125 +607,125 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>125.86</v>
+        <v>125.4</v>
       </c>
       <c r="C15" t="n">
-        <v>-4.2599</v>
+        <v>-4.6098</v>
       </c>
       <c r="D15" t="n">
-        <v>43.8148814011483</v>
+        <v>43.35226946691915</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>XOM</t>
+          <t>DIS</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>44.86</v>
+        <v>101.06</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0446</v>
+        <v>-2.0547</v>
       </c>
       <c r="D16" t="n">
-        <v>44.88888888888889</v>
+        <v>44.59847509654421</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>DIS</t>
+          <t>XOM</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>101.27</v>
+        <v>44.83</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.8511</v>
+        <v>-0.1114</v>
       </c>
       <c r="D17" t="n">
-        <v>45.06704022413448</v>
+        <v>44.71853257432005</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>JPM</t>
+          <t>NKE</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>92.14</v>
+        <v>87.2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1.691</v>
       </c>
       <c r="D18" t="n">
-        <v>47.19350073855244</v>
+        <v>46.7005076142132</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>MRK</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>87.40000000000001</v>
+        <v>78.01000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>1.9242</v>
+        <v>1.4962</v>
       </c>
       <c r="D19" t="n">
-        <v>48.01980198019802</v>
+        <v>47.48294302046838</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>MRK</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>78.18000000000001</v>
+        <v>178.3</v>
       </c>
       <c r="C20" t="n">
-        <v>1.7174</v>
+        <v>1.2896</v>
       </c>
       <c r="D20" t="n">
-        <v>48.29339143064634</v>
+        <v>48.03341454925166</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>UNH</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>179.75</v>
+        <v>293.04</v>
       </c>
       <c r="C21" t="n">
-        <v>2.1133</v>
+        <v>1.9128</v>
       </c>
       <c r="D21" t="n">
-        <v>50.05018400802943</v>
+        <v>51.46884021056208</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>UNH</t>
+          <t>KO</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>293.16</v>
+        <v>45.4</v>
       </c>
       <c r="C22" t="n">
-        <v>1.9545</v>
+        <v>0.576</v>
       </c>
       <c r="D22" t="n">
-        <v>51.56753092696155</v>
+        <v>52.76156264032331</v>
       </c>
     </row>
     <row r="23">
@@ -735,29 +735,29 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>86.54000000000001</v>
+        <v>86.73999999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1852</v>
+        <v>0.4168</v>
       </c>
       <c r="D23" t="n">
-        <v>52.96033722935429</v>
+        <v>53.31812131583951</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>KO</t>
+          <t>JPM</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>45.58</v>
+        <v>92</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9747</v>
+        <v>-0.1519</v>
       </c>
       <c r="D24" t="n">
-        <v>54.59646094087181</v>
+        <v>53.77090564846955</v>
       </c>
     </row>
     <row r="25">
@@ -767,13 +767,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>180.59</v>
+        <v>180.76</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9785</v>
+        <v>1.0736</v>
       </c>
       <c r="D25" t="n">
-        <v>56.38297872340425</v>
+        <v>56.60719685515573</v>
       </c>
     </row>
     <row r="26">
@@ -783,13 +783,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>38.57</v>
+        <v>38.51</v>
       </c>
       <c r="C26" t="n">
-        <v>2.5253</v>
+        <v>2.3658</v>
       </c>
       <c r="D26" t="n">
-        <v>60</v>
+        <v>59.58188153310105</v>
       </c>
     </row>
     <row r="27">
@@ -799,13 +799,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>297.93</v>
+        <v>297.56</v>
       </c>
       <c r="C27" t="n">
-        <v>1.6271</v>
+        <v>1.5009</v>
       </c>
       <c r="D27" t="n">
-        <v>60.79245283018868</v>
+        <v>60.51681550446514</v>
       </c>
     </row>
     <row r="28">
@@ -815,13 +815,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>147.37</v>
+        <v>147.43</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.6941000000000001</v>
+        <v>-0.6536</v>
       </c>
       <c r="D28" t="n">
-        <v>63.08579668348955</v>
+        <v>63.22254335260115</v>
       </c>
     </row>
     <row r="29">
@@ -831,13 +831,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>149.91</v>
+        <v>149.5</v>
       </c>
       <c r="C29" t="n">
-        <v>1.1061</v>
+        <v>0.8296</v>
       </c>
       <c r="D29" t="n">
-        <v>66.78899082568807</v>
+        <v>64.44880923152468</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>179.05</v>
+        <v>178.44</v>
       </c>
       <c r="C30" t="n">
-        <v>1.6463</v>
+        <v>1.3</v>
       </c>
       <c r="D30" t="n">
-        <v>69.1006233303651</v>
+        <v>68.4143455306754</v>
       </c>
     </row>
     <row r="31">
@@ -863,13 +863,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>226.13</v>
+        <v>225.61</v>
       </c>
       <c r="C31" t="n">
-        <v>1.9338</v>
+        <v>1.6994</v>
       </c>
       <c r="D31" t="n">
-        <v>80.64085447263017</v>
+        <v>80.33750188338104</v>
       </c>
     </row>
   </sheetData>
@@ -943,19 +943,19 @@
         <v>96.05</v>
       </c>
       <c r="C2" t="n">
-        <v>97.17</v>
+        <v>96.84999999999999</v>
       </c>
       <c r="D2" t="n">
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>971.7</v>
+        <v>968.5</v>
       </c>
       <c r="F2" t="n">
-        <v>1.1661</v>
+        <v>0.8329</v>
       </c>
       <c r="G2" t="n">
-        <v>22.80341880341881</v>
+        <v>31.12028158757131</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -973,19 +973,19 @@
         <v>41.66</v>
       </c>
       <c r="C3" t="n">
-        <v>42.03</v>
+        <v>42.02</v>
       </c>
       <c r="D3" t="n">
         <v>24</v>
       </c>
       <c r="E3" t="n">
-        <v>1008.72</v>
+        <v>1008.48</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8881</v>
+        <v>0.8641</v>
       </c>
       <c r="G3" t="n">
-        <v>25.6317689530686</v>
+        <v>25.58558558558559</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1003,19 +1003,19 @@
         <v>110.2</v>
       </c>
       <c r="C4" t="n">
-        <v>109.31</v>
+        <v>108.91</v>
       </c>
       <c r="D4" t="n">
         <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>765.1700000000001</v>
+        <v>762.37</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.8076</v>
+        <v>-1.1706</v>
       </c>
       <c r="G4" t="n">
-        <v>30.8489773045671</v>
+        <v>30.06517427033153</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1029,27 +1029,23 @@
           <t>RTX</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="B5" t="n">
+        <v>59.04999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>59.05</v>
+        <v>59</v>
       </c>
       <c r="D5" t="n">
         <v>12</v>
       </c>
       <c r="E5" t="n">
-        <v>708.5999999999999</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+        <v>708</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.0847</v>
       </c>
       <c r="G5" t="n">
-        <v>29.46852504211977</v>
+        <v>29.25180519280995</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1105,7 +1101,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3454.19</v>
+        <v>3447.35</v>
       </c>
     </row>
     <row r="4">
@@ -1115,7 +1111,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10013.85</v>
+        <v>10007.01</v>
       </c>
     </row>
   </sheetData>
@@ -1279,7 +1275,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1360,49 +1356,33 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>05/05/2020 14:07:43</t>
+          <t>05/05/2020 16:35:30</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7268.26</v>
+        <v>6559.66</v>
       </c>
       <c r="C5" t="n">
-        <v>2767.62</v>
+        <v>3447.35</v>
       </c>
       <c r="D5" t="n">
-        <v>10035.88</v>
+        <v>10007.01</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>05/05/2020 14:35:31</t>
+          <t>06/05/2020 06:20:52</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7268.26</v>
+        <v>6559.66</v>
       </c>
       <c r="C6" t="n">
-        <v>2762.52</v>
+        <v>3447.35</v>
       </c>
       <c r="D6" t="n">
-        <v>10030.78</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>05/05/2020 15:35:29</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>6559.66</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3454.19</v>
-      </c>
-      <c r="D7" t="n">
-        <v>10013.85</v>
+        <v>10007.01</v>
       </c>
     </row>
   </sheetData>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -1275,7 +1275,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1385,6 +1385,22 @@
         <v>10007.01</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>06/05/2020 06:58:05</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6559.66</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3447.35</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10007.01</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -395,449 +395,449 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>JNJ</t>
+          <t>MMM</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>149.11</v>
+        <v>135.99</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2757</v>
+        <v>-0.0955</v>
       </c>
       <c r="D2" t="n">
-        <v>25.74906367041204</v>
+        <v>12.90172333488584</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>MRK</t>
+          <t>RTX</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.91</v>
+        <v>53.86</v>
       </c>
       <c r="C3" t="n">
-        <v>1.9764</v>
+        <v>0.4476</v>
       </c>
       <c r="D3" t="n">
-        <v>26.63587374903773</v>
+        <v>14.05817174515236</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>RTX</t>
+          <t>TRV</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>57.36</v>
+        <v>90.22</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.2328</v>
+        <v>0.4006</v>
       </c>
       <c r="D4" t="n">
-        <v>27.31018246027079</v>
+        <v>24.47747329307943</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>WBA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>145.73</v>
+        <v>38.85</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.8719</v>
+        <v>1.3038</v>
       </c>
       <c r="D5" t="n">
-        <v>31.47801683816647</v>
+        <v>25.65789473684217</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>WBA</t>
+          <t>MCD</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41.71</v>
+        <v>175.41</v>
       </c>
       <c r="C6" t="n">
-        <v>0.096</v>
+        <v>1.4987</v>
       </c>
       <c r="D6" t="n">
-        <v>33.53510895883781</v>
+        <v>26.49903288201159</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>TRV</t>
+          <t>IBM</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>95.51000000000001</v>
+        <v>116.95</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.88</v>
+        <v>1.0542</v>
       </c>
       <c r="D7" t="n">
-        <v>34.24423569598633</v>
+        <v>28.07570977917982</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>WMT</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>123.67</v>
+        <v>122.52</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5938</v>
+        <v>0.8395</v>
       </c>
       <c r="D8" t="n">
-        <v>35.41218637992836</v>
+        <v>28.83295194508008</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>JPM</t>
+          <t>VZ</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>89.97</v>
+        <v>54.91</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.945</v>
+        <v>0.1094</v>
       </c>
       <c r="D9" t="n">
-        <v>35.45966228893057</v>
+        <v>28.97350993377476</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>MCD</t>
+          <t>JPM</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>180.88</v>
+        <v>87.52</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1931</v>
+        <v>4.1533</v>
       </c>
       <c r="D10" t="n">
-        <v>35.59516963772285</v>
+        <v>29.48207171314741</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>VZ</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>56.4</v>
+        <v>106.19</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.0526</v>
+        <v>1.6367</v>
       </c>
       <c r="D11" t="n">
-        <v>36.96857670979661</v>
+        <v>30.120952009364</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>KO</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>108.61</v>
+        <v>43.7</v>
       </c>
       <c r="C12" t="n">
-        <v>-3.1219</v>
+        <v>-0.5462</v>
       </c>
       <c r="D12" t="n">
-        <v>38.36921990822448</v>
+        <v>30.89005235602093</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>KO</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45.54</v>
+        <v>113.81</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.2362</v>
+        <v>-0.09660000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>38.80866425992775</v>
+        <v>33.22314049586778</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>DOW</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>115.31</v>
+        <v>33.51</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.552</v>
+        <v>3.5858</v>
       </c>
       <c r="D14" t="n">
-        <v>41.1861614497529</v>
+        <v>35.35911602209943</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>UNH</t>
+          <t>XOM</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>288.69</v>
+        <v>42.3</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5889</v>
+        <v>0.8824</v>
       </c>
       <c r="D15" t="n">
-        <v>43.28168656337314</v>
+        <v>35.99999999999997</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>IBM</t>
+          <t>JNJ</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>122.59</v>
+        <v>147.64</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.3252</v>
+        <v>0.3466</v>
       </c>
       <c r="D16" t="n">
-        <v>43.89705882352942</v>
+        <v>36.54708520179367</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>DOW</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>33.9</v>
+        <v>174.45</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.2525</v>
+        <v>1.5425</v>
       </c>
       <c r="D17" t="n">
-        <v>47.74247491638796</v>
+        <v>37.45454545454545</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>AXP</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>183.16</v>
+        <v>83.81</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.2029</v>
+        <v>7.4074</v>
       </c>
       <c r="D18" t="n">
-        <v>49.45464982778416</v>
+        <v>37.890625</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>DIS</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>128.91</v>
+        <v>105.91</v>
       </c>
       <c r="C19" t="n">
-        <v>-3.3948</v>
+        <v>2.9052</v>
       </c>
       <c r="D19" t="n">
-        <v>50.2415458937198</v>
+        <v>45.48022598870055</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>CVX</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>85.33</v>
+        <v>90.05</v>
       </c>
       <c r="C20" t="n">
-        <v>-4.6592</v>
+        <v>1.522</v>
       </c>
       <c r="D20" t="n">
-        <v>50.40214477211796</v>
+        <v>45.64537740062528</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>PFE</t>
+          <t>INTC</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>38.1</v>
+        <v>59.08</v>
       </c>
       <c r="C21" t="n">
-        <v>2.3643</v>
+        <v>2.3207</v>
       </c>
       <c r="D21" t="n">
-        <v>51.57232704402514</v>
+        <v>46.96312364425162</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>CSCO</t>
+          <t>NKE</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>43.32</v>
+        <v>86.55</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7675999999999999</v>
+        <v>0.6161</v>
       </c>
       <c r="D22" t="n">
-        <v>51.89504373177842</v>
+        <v>47.47393744987968</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>DIS</t>
+          <t>UNH</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>107.77</v>
+        <v>290.61</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.2734</v>
+        <v>4.536</v>
       </c>
       <c r="D23" t="n">
-        <v>53.13991920675724</v>
+        <v>48.19487577639751</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>INTC</t>
+          <t>PFE</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>60.13</v>
+        <v>37.92</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7709</v>
+        <v>2.3482</v>
       </c>
       <c r="D24" t="n">
-        <v>54.47963800904978</v>
+        <v>49.48630136986306</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>XOM</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>44.87</v>
+        <v>180.53</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.9492</v>
+        <v>0.4339</v>
       </c>
       <c r="D25" t="n">
-        <v>56.87645687645686</v>
+        <v>52.68510984540275</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>MRK</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.37</v>
+        <v>80.05</v>
       </c>
       <c r="C26" t="n">
-        <v>-2.1996</v>
+        <v>2.7731</v>
       </c>
       <c r="D26" t="n">
-        <v>57.65690376569039</v>
+        <v>52.975691533948</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>V</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>90.93000000000001</v>
+        <v>180.9</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5196</v>
+        <v>2.1514</v>
       </c>
       <c r="D27" t="n">
-        <v>58.4598698481562</v>
+        <v>55.13670256835133</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>CSCO</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.56</v>
+        <v>43.85</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.8266</v>
+        <v>4.5292</v>
       </c>
       <c r="D28" t="n">
-        <v>70.83333333333336</v>
+        <v>59.48387096774193</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>WMT</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>186.74</v>
+        <v>123.42</v>
       </c>
       <c r="C29" t="n">
-        <v>1.1154</v>
+        <v>-0.2344</v>
       </c>
       <c r="D29" t="n">
-        <v>70.8374384236453</v>
+        <v>65.58441558441558</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>315.01</v>
+        <v>309.54</v>
       </c>
       <c r="C30" t="n">
-        <v>1.5735</v>
+        <v>0.6143</v>
       </c>
       <c r="D30" t="n">
-        <v>81.83593749999997</v>
+        <v>70.312115999017</v>
       </c>
     </row>
     <row r="31">
@@ -863,13 +863,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>236.56</v>
+        <v>234.48</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9086</v>
+        <v>1.9035</v>
       </c>
       <c r="D31" t="n">
-        <v>82.50345781466108</v>
+        <v>71.8852703913952</v>
       </c>
     </row>
   </sheetData>
@@ -883,7 +883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -943,19 +943,19 @@
         <v>96.05</v>
       </c>
       <c r="C2" t="n">
-        <v>95.51000000000001</v>
+        <v>90.22</v>
       </c>
       <c r="D2" t="n">
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>955.1</v>
+        <v>902.2</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.5622</v>
+        <v>-6.0698</v>
       </c>
       <c r="G2" t="n">
-        <v>34.24423569598633</v>
+        <v>24.47747329307943</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -973,19 +973,19 @@
         <v>41.66</v>
       </c>
       <c r="C3" t="n">
-        <v>41.71</v>
+        <v>38.85</v>
       </c>
       <c r="D3" t="n">
         <v>24</v>
       </c>
       <c r="E3" t="n">
-        <v>1001.04</v>
+        <v>932.4000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>0.12</v>
+        <v>-6.7451</v>
       </c>
       <c r="G3" t="n">
-        <v>33.53510895883781</v>
+        <v>25.65789473684217</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1003,19 +1003,19 @@
         <v>110.2</v>
       </c>
       <c r="C4" t="n">
-        <v>108.61</v>
+        <v>106.19</v>
       </c>
       <c r="D4" t="n">
         <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>760.27</v>
+        <v>743.3299999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.4428</v>
+        <v>-3.6388</v>
       </c>
       <c r="G4" t="n">
-        <v>38.36921990822448</v>
+        <v>30.120952009364</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1033,19 +1033,19 @@
         <v>59.04999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>57.36</v>
+        <v>53.86</v>
       </c>
       <c r="D5" t="n">
         <v>12</v>
       </c>
       <c r="E5" t="n">
-        <v>688.3199999999999</v>
+        <v>646.3199999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.862</v>
+        <v>-8.789199999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>27.31018246027079</v>
+        <v>14.05817174515236</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1063,19 +1063,19 @@
         <v>56.55</v>
       </c>
       <c r="C6" t="n">
-        <v>56.4</v>
+        <v>54.91</v>
       </c>
       <c r="D6" t="n">
         <v>11</v>
       </c>
       <c r="E6" t="n">
-        <v>620.4</v>
+        <v>604.01</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2653</v>
+        <v>-2.9001</v>
       </c>
       <c r="G6" t="n">
-        <v>36.96857670979661</v>
+        <v>28.97350993377476</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1090,26 +1090,26 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>124.82</v>
+        <v>124.34</v>
       </c>
       <c r="C7" t="n">
-        <v>123.67</v>
+        <v>123.42</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>494.68</v>
+        <v>370.26</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.9213</v>
+        <v>-0.7399</v>
       </c>
       <c r="G7" t="n">
-        <v>35.41218637992836</v>
+        <v>65.58441558441558</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
     </row>
@@ -1123,19 +1123,19 @@
         <v>114.6</v>
       </c>
       <c r="C8" t="n">
-        <v>115.31</v>
+        <v>113.81</v>
       </c>
       <c r="D8" t="n">
         <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>461.24</v>
+        <v>455.24</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6195000000000001</v>
+        <v>-0.6894</v>
       </c>
       <c r="G8" t="n">
-        <v>41.1861614497529</v>
+        <v>33.22314049586778</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1153,21 +1153,19 @@
         <v>77.91</v>
       </c>
       <c r="C9" t="n">
-        <v>77.91</v>
+        <v>80.05</v>
       </c>
       <c r="D9" t="n">
         <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>467.46</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+        <v>480.3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.7468</v>
       </c>
       <c r="G9" t="n">
-        <v>26.63587374903773</v>
+        <v>52.975691533948</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1185,23 +1183,321 @@
         <v>149.11</v>
       </c>
       <c r="C10" t="n">
-        <v>149.11</v>
+        <v>147.64</v>
       </c>
       <c r="D10" t="n">
         <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>447.33</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+        <v>442.92</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.9858</v>
       </c>
       <c r="G10" t="n">
-        <v>25.74906367041204</v>
+        <v>36.54708520179367</v>
       </c>
       <c r="H10" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>MMM</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>135.99</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>271.98</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-7.1741</v>
+      </c>
+      <c r="G11" t="n">
+        <v>12.90172333488584</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>88.19</v>
+      </c>
+      <c r="C12" t="n">
+        <v>87.52</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" t="n">
+        <v>350.08</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.7597</v>
+      </c>
+      <c r="G12" t="n">
+        <v>29.48207171314741</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>MCD</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>176.54</v>
+      </c>
+      <c r="C13" t="n">
+        <v>175.41</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>175.41</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.6401</v>
+      </c>
+      <c r="G13" t="n">
+        <v>26.49903288201159</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>33.09</v>
+      </c>
+      <c r="C14" t="n">
+        <v>33.51</v>
+      </c>
+      <c r="D14" t="n">
+        <v>9</v>
+      </c>
+      <c r="E14" t="n">
+        <v>301.59</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.2693</v>
+      </c>
+      <c r="G14" t="n">
+        <v>35.35911602209943</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>118.9</v>
+      </c>
+      <c r="C15" t="n">
+        <v>116.95</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>233.9</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-1.64</v>
+      </c>
+      <c r="G15" t="n">
+        <v>28.07570977917982</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>KO</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>44.31</v>
+      </c>
+      <c r="C16" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6</v>
+      </c>
+      <c r="E16" t="n">
+        <v>262.2</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-1.3767</v>
+      </c>
+      <c r="G16" t="n">
+        <v>30.89005235602093</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>80.66</v>
+      </c>
+      <c r="C17" t="n">
+        <v>83.81</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>251.43</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3.9053</v>
+      </c>
+      <c r="G17" t="n">
+        <v>37.890625</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>172.09</v>
+      </c>
+      <c r="C18" t="n">
+        <v>174.45</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>174.45</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.3714</v>
+      </c>
+      <c r="G18" t="n">
+        <v>37.45454545454545</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>120.81</v>
+      </c>
+      <c r="C19" t="n">
+        <v>122.52</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>122.52</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.4154</v>
+      </c>
+      <c r="G19" t="n">
+        <v>28.83295194508008</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>57.43</v>
+      </c>
+      <c r="C20" t="n">
+        <v>59.08</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" t="n">
+        <v>177.24</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2.8731</v>
+      </c>
+      <c r="G20" t="n">
+        <v>46.96312364425162</v>
+      </c>
+      <c r="H20" t="inlineStr">
         <is>
           <t>buy</t>
         </is>
@@ -1245,7 +1541,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4065.14</v>
+        <v>1858.54</v>
       </c>
     </row>
     <row r="3">
@@ -1255,7 +1551,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5895.839999999999</v>
+        <v>7897.78</v>
       </c>
     </row>
     <row r="4">
@@ -1265,7 +1561,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9960.98</v>
+        <v>9756.32</v>
       </c>
     </row>
   </sheetData>
@@ -1279,7 +1575,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1546,6 +1842,292 @@
       </c>
       <c r="F10" t="n">
         <v>447.33</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>12/05/2020 09:35:10</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>MMM</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>12/05/2020 14:35:11</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>352.76</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>12/05/2020 17:35:15</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>MCD</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>176.54</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>13/05/2020 09:35:40</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>9</v>
+      </c>
+      <c r="F14" t="n">
+        <v>297.8100000000001</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>13/05/2020 10:35:18</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>237.8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>13/05/2020 10:35:20</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>KO</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>6</v>
+      </c>
+      <c r="F16" t="n">
+        <v>265.86</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>13/05/2020 10:35:28</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>241.98</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>13/05/2020 13:03:20</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>172.09</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>13/05/2020 13:03:21</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>120.81</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>13/05/2020 13:35:25</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="n">
+        <v>172.29</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>14/05/2020 09:35:49</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>WMT</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>124.34</v>
       </c>
     </row>
   </sheetData>
@@ -1559,7 +2141,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1736,17 +2318,65 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>12/05/2020 07:49:06</t>
+          <t>12/05/2020 19:35:03</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4065.14</v>
+        <v>3242.84</v>
       </c>
       <c r="C11" t="n">
-        <v>5895.839999999999</v>
+        <v>6603.599999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>9960.98</v>
+        <v>9846.439999999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>13/05/2020 18:35:07</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1734.2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7930.200000000001</v>
+      </c>
+      <c r="D12" t="n">
+        <v>9664.400000000001</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>14/05/2020 15:35:07</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1858.54</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7851.440000000001</v>
+      </c>
+      <c r="D13" t="n">
+        <v>9709.98</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>15/05/2020 05:44:59</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1858.54</v>
+      </c>
+      <c r="C14" t="n">
+        <v>7897.78</v>
+      </c>
+      <c r="D14" t="n">
+        <v>9756.32</v>
       </c>
     </row>
   </sheetData>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -395,129 +395,129 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>VZ</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135.99</v>
+        <v>54.1</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0955</v>
+        <v>0.2409</v>
       </c>
       <c r="D2" t="n">
-        <v>12.90172333488584</v>
+        <v>22.64150943396223</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RTX</t>
+          <t>JNJ</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53.86</v>
+        <v>144.37</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4476</v>
+        <v>-0.9127999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>14.05817174515236</v>
+        <v>34.71837488457984</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>TRV</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90.22</v>
+        <v>112.6</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4006</v>
+        <v>0.878</v>
       </c>
       <c r="D4" t="n">
-        <v>24.47747329307943</v>
+        <v>35.79304495335023</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>WBA</t>
+          <t>IBM</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38.85</v>
+        <v>118.39</v>
       </c>
       <c r="C5" t="n">
-        <v>1.3038</v>
+        <v>-0.6128</v>
       </c>
       <c r="D5" t="n">
-        <v>25.65789473684217</v>
+        <v>37.52711496746203</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>MCD</t>
+          <t>WBA</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>175.41</v>
+        <v>39.6</v>
       </c>
       <c r="C6" t="n">
-        <v>1.4987</v>
+        <v>-0.3774</v>
       </c>
       <c r="D6" t="n">
-        <v>26.49903288201159</v>
+        <v>40.31476997578689</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>IBM</t>
+          <t>CVX</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>116.95</v>
+        <v>90.28</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0542</v>
+        <v>-1.9122</v>
       </c>
       <c r="D7" t="n">
-        <v>28.07570977917982</v>
+        <v>41.56706507304116</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>KO</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>122.52</v>
+        <v>45.03</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8395</v>
+        <v>-0.3099</v>
       </c>
       <c r="D8" t="n">
-        <v>28.83295194508008</v>
+        <v>42.50000000000002</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>VZ</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>54.91</v>
+        <v>179.93</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1094</v>
+        <v>-0.0944</v>
       </c>
       <c r="D9" t="n">
-        <v>28.97350993377476</v>
+        <v>42.81578947368421</v>
       </c>
     </row>
     <row r="10">
@@ -527,349 +527,349 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>87.52</v>
+        <v>89.47</v>
       </c>
       <c r="C10" t="n">
-        <v>4.1533</v>
+        <v>-0.7763</v>
       </c>
       <c r="D10" t="n">
-        <v>29.48207171314741</v>
+        <v>43.44295574502638</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>XOM</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>106.19</v>
+        <v>44.6</v>
       </c>
       <c r="C11" t="n">
-        <v>1.6367</v>
+        <v>0.0898</v>
       </c>
       <c r="D11" t="n">
-        <v>30.120952009364</v>
+        <v>46.83544303797471</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>KO</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>43.7</v>
+        <v>183.51</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.5462</v>
+        <v>0.0436</v>
       </c>
       <c r="D12" t="n">
-        <v>30.89005235602093</v>
+        <v>48.37438423645321</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>MMM</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>113.81</v>
+        <v>146.44</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.09660000000000001</v>
+        <v>0.4321</v>
       </c>
       <c r="D13" t="n">
-        <v>33.22314049586778</v>
+        <v>49.00813008130079</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>DOW</t>
+          <t>AXP</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>33.51</v>
+        <v>89.33</v>
       </c>
       <c r="C14" t="n">
-        <v>3.5858</v>
+        <v>-0.5566</v>
       </c>
       <c r="D14" t="n">
-        <v>35.35911602209943</v>
+        <v>49.72624798711755</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>XOM</t>
+          <t>MRK</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>42.3</v>
+        <v>76.37</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8824</v>
+        <v>-0.2351</v>
       </c>
       <c r="D15" t="n">
-        <v>35.99999999999997</v>
+        <v>49.82896237172177</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>JNJ</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>147.64</v>
+        <v>112.47</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3466</v>
+        <v>-1.394</v>
       </c>
       <c r="D16" t="n">
-        <v>36.54708520179367</v>
+        <v>50.64423765211167</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>PFE</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>174.45</v>
+        <v>37.5</v>
       </c>
       <c r="C17" t="n">
-        <v>1.5425</v>
+        <v>0.6441</v>
       </c>
       <c r="D17" t="n">
-        <v>37.45454545454545</v>
+        <v>53.24074074074074</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>UNH</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>83.81</v>
+        <v>289.94</v>
       </c>
       <c r="C18" t="n">
-        <v>7.4074</v>
+        <v>1.0561</v>
       </c>
       <c r="D18" t="n">
-        <v>37.890625</v>
+        <v>53.94948952176249</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>DIS</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.91</v>
+        <v>137.53</v>
       </c>
       <c r="C19" t="n">
-        <v>2.9052</v>
+        <v>-1.0576</v>
       </c>
       <c r="D19" t="n">
-        <v>45.48022598870055</v>
+        <v>54.45048966267682</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>TRV</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>90.05</v>
+        <v>100.1</v>
       </c>
       <c r="C20" t="n">
-        <v>1.522</v>
+        <v>0.9378</v>
       </c>
       <c r="D20" t="n">
-        <v>45.64537740062528</v>
+        <v>56.33608815426995</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>INTC</t>
+          <t>MCD</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>59.08</v>
+        <v>184.41</v>
       </c>
       <c r="C21" t="n">
-        <v>2.3207</v>
+        <v>-0.362</v>
       </c>
       <c r="D21" t="n">
-        <v>46.96312364425162</v>
+        <v>56.34477254588986</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>RTX</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>86.55</v>
+        <v>60</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6161</v>
+        <v>-0.1664</v>
       </c>
       <c r="D22" t="n">
-        <v>47.47393744987968</v>
+        <v>56.77655677655678</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>UNH</t>
+          <t>WMT</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>290.61</v>
+        <v>124.33</v>
       </c>
       <c r="C23" t="n">
-        <v>4.536</v>
+        <v>-0.528</v>
       </c>
       <c r="D23" t="n">
-        <v>48.19487577639751</v>
+        <v>57.11361310133061</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>PFE</t>
+          <t>V</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>37.92</v>
+        <v>190.86</v>
       </c>
       <c r="C24" t="n">
-        <v>2.3482</v>
+        <v>0.1259</v>
       </c>
       <c r="D24" t="n">
-        <v>49.48630136986306</v>
+        <v>59.50594121325831</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>DOW</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>180.53</v>
+        <v>36.12</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4339</v>
+        <v>0.8375</v>
       </c>
       <c r="D25" t="n">
-        <v>52.68510984540275</v>
+        <v>60.32295271049597</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>MRK</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>80.05</v>
+        <v>241.88</v>
       </c>
       <c r="C26" t="n">
-        <v>2.7731</v>
+        <v>0.4151</v>
       </c>
       <c r="D26" t="n">
-        <v>52.975691533948</v>
+        <v>60.68253513048464</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>INTC</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>180.9</v>
+        <v>62.26</v>
       </c>
       <c r="C27" t="n">
-        <v>2.1514</v>
+        <v>0.4518</v>
       </c>
       <c r="D27" t="n">
-        <v>55.13670256835133</v>
+        <v>61.55218554861729</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>CSCO</t>
+          <t>NKE</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>43.85</v>
+        <v>93.75</v>
       </c>
       <c r="C28" t="n">
-        <v>4.5292</v>
+        <v>-0.5411</v>
       </c>
       <c r="D28" t="n">
-        <v>59.48387096774193</v>
+        <v>61.64189667374379</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>WMT</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>123.42</v>
+        <v>318.89</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.2344</v>
+        <v>0.6438</v>
       </c>
       <c r="D29" t="n">
-        <v>65.58441558441558</v>
+        <v>62.32414181204273</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>CSCO</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>309.54</v>
+        <v>44.9</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6143</v>
+        <v>0.5824</v>
       </c>
       <c r="D30" t="n">
-        <v>70.312115999017</v>
+        <v>63.35664335664335</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>DIS</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>234.48</v>
+        <v>118.02</v>
       </c>
       <c r="C31" t="n">
-        <v>1.9035</v>
+        <v>0.1612</v>
       </c>
       <c r="D31" t="n">
-        <v>71.8852703913952</v>
+        <v>64.53412073490814</v>
       </c>
     </row>
   </sheetData>
@@ -943,19 +943,19 @@
         <v>96.05</v>
       </c>
       <c r="C2" t="n">
-        <v>90.22</v>
+        <v>100.1</v>
       </c>
       <c r="D2" t="n">
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>902.2</v>
+        <v>1001</v>
       </c>
       <c r="F2" t="n">
-        <v>-6.0698</v>
+        <v>4.2166</v>
       </c>
       <c r="G2" t="n">
-        <v>24.47747329307943</v>
+        <v>56.33608815426995</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -973,19 +973,19 @@
         <v>41.66</v>
       </c>
       <c r="C3" t="n">
-        <v>38.85</v>
+        <v>39.6</v>
       </c>
       <c r="D3" t="n">
         <v>24</v>
       </c>
       <c r="E3" t="n">
-        <v>932.4000000000001</v>
+        <v>950.4000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>-6.7451</v>
+        <v>-4.9448</v>
       </c>
       <c r="G3" t="n">
-        <v>25.65789473684217</v>
+        <v>40.31476997578689</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1003,19 +1003,19 @@
         <v>110.2</v>
       </c>
       <c r="C4" t="n">
-        <v>106.19</v>
+        <v>112.47</v>
       </c>
       <c r="D4" t="n">
         <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>743.3299999999999</v>
+        <v>787.29</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.6388</v>
+        <v>2.0599</v>
       </c>
       <c r="G4" t="n">
-        <v>30.120952009364</v>
+        <v>50.64423765211167</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1033,19 +1033,19 @@
         <v>59.04999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>53.86</v>
+        <v>60</v>
       </c>
       <c r="D5" t="n">
         <v>12</v>
       </c>
       <c r="E5" t="n">
-        <v>646.3199999999999</v>
+        <v>720</v>
       </c>
       <c r="F5" t="n">
-        <v>-8.789199999999999</v>
+        <v>1.6088</v>
       </c>
       <c r="G5" t="n">
-        <v>14.05817174515236</v>
+        <v>56.77655677655678</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1063,19 +1063,19 @@
         <v>56.55</v>
       </c>
       <c r="C6" t="n">
-        <v>54.91</v>
+        <v>54.1</v>
       </c>
       <c r="D6" t="n">
         <v>11</v>
       </c>
       <c r="E6" t="n">
-        <v>604.01</v>
+        <v>595.1</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.9001</v>
+        <v>-4.3324</v>
       </c>
       <c r="G6" t="n">
-        <v>28.97350993377476</v>
+        <v>22.64150943396223</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1093,19 +1093,19 @@
         <v>124.34</v>
       </c>
       <c r="C7" t="n">
-        <v>123.42</v>
+        <v>124.33</v>
       </c>
       <c r="D7" t="n">
         <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>370.26</v>
+        <v>372.99</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.7399</v>
+        <v>-0.008</v>
       </c>
       <c r="G7" t="n">
-        <v>65.58441558441558</v>
+        <v>57.11361310133061</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1123,19 +1123,19 @@
         <v>114.6</v>
       </c>
       <c r="C8" t="n">
-        <v>113.81</v>
+        <v>112.6</v>
       </c>
       <c r="D8" t="n">
         <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>455.24</v>
+        <v>450.4</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.6894</v>
+        <v>-1.7452</v>
       </c>
       <c r="G8" t="n">
-        <v>33.22314049586778</v>
+        <v>35.79304495335023</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1153,19 +1153,19 @@
         <v>77.91</v>
       </c>
       <c r="C9" t="n">
-        <v>80.05</v>
+        <v>76.37</v>
       </c>
       <c r="D9" t="n">
         <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>480.3</v>
+        <v>458.22</v>
       </c>
       <c r="F9" t="n">
-        <v>2.7468</v>
+        <v>-1.9766</v>
       </c>
       <c r="G9" t="n">
-        <v>52.975691533948</v>
+        <v>49.82896237172177</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1183,19 +1183,19 @@
         <v>149.11</v>
       </c>
       <c r="C10" t="n">
-        <v>147.64</v>
+        <v>144.37</v>
       </c>
       <c r="D10" t="n">
         <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>442.92</v>
+        <v>433.11</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.9858</v>
+        <v>-3.1789</v>
       </c>
       <c r="G10" t="n">
-        <v>36.54708520179367</v>
+        <v>34.71837488457984</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1213,19 +1213,19 @@
         <v>146.5</v>
       </c>
       <c r="C11" t="n">
-        <v>135.99</v>
+        <v>146.44</v>
       </c>
       <c r="D11" t="n">
         <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>271.98</v>
+        <v>292.88</v>
       </c>
       <c r="F11" t="n">
-        <v>-7.1741</v>
+        <v>-0.041</v>
       </c>
       <c r="G11" t="n">
-        <v>12.90172333488584</v>
+        <v>49.00813008130079</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1243,19 +1243,19 @@
         <v>88.19</v>
       </c>
       <c r="C12" t="n">
-        <v>87.52</v>
+        <v>89.47</v>
       </c>
       <c r="D12" t="n">
         <v>4</v>
       </c>
       <c r="E12" t="n">
-        <v>350.08</v>
+        <v>357.88</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.7597</v>
+        <v>1.4514</v>
       </c>
       <c r="G12" t="n">
-        <v>29.48207171314741</v>
+        <v>43.44295574502638</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1273,19 +1273,19 @@
         <v>176.54</v>
       </c>
       <c r="C13" t="n">
-        <v>175.41</v>
+        <v>184.41</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>175.41</v>
+        <v>184.41</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6401</v>
+        <v>4.4579</v>
       </c>
       <c r="G13" t="n">
-        <v>26.49903288201159</v>
+        <v>56.34477254588986</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1303,19 +1303,19 @@
         <v>33.09</v>
       </c>
       <c r="C14" t="n">
-        <v>33.51</v>
+        <v>36.12</v>
       </c>
       <c r="D14" t="n">
         <v>9</v>
       </c>
       <c r="E14" t="n">
-        <v>301.59</v>
+        <v>325.08</v>
       </c>
       <c r="F14" t="n">
-        <v>1.2693</v>
+        <v>9.1568</v>
       </c>
       <c r="G14" t="n">
-        <v>35.35911602209943</v>
+        <v>60.32295271049597</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1333,19 +1333,19 @@
         <v>118.9</v>
       </c>
       <c r="C15" t="n">
-        <v>116.95</v>
+        <v>118.39</v>
       </c>
       <c r="D15" t="n">
         <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>233.9</v>
+        <v>236.78</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.64</v>
+        <v>-0.4289</v>
       </c>
       <c r="G15" t="n">
-        <v>28.07570977917982</v>
+        <v>37.52711496746203</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1363,19 +1363,19 @@
         <v>44.31</v>
       </c>
       <c r="C16" t="n">
-        <v>43.7</v>
+        <v>45.03</v>
       </c>
       <c r="D16" t="n">
         <v>6</v>
       </c>
       <c r="E16" t="n">
-        <v>262.2</v>
+        <v>270.18</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.3767</v>
+        <v>1.6249</v>
       </c>
       <c r="G16" t="n">
-        <v>30.89005235602093</v>
+        <v>42.50000000000002</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1393,19 +1393,19 @@
         <v>80.66</v>
       </c>
       <c r="C17" t="n">
-        <v>83.81</v>
+        <v>89.33</v>
       </c>
       <c r="D17" t="n">
         <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>251.43</v>
+        <v>267.99</v>
       </c>
       <c r="F17" t="n">
-        <v>3.9053</v>
+        <v>10.7488</v>
       </c>
       <c r="G17" t="n">
-        <v>37.890625</v>
+        <v>49.72624798711755</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1423,19 +1423,19 @@
         <v>172.09</v>
       </c>
       <c r="C18" t="n">
-        <v>174.45</v>
+        <v>179.93</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>174.45</v>
+        <v>179.93</v>
       </c>
       <c r="F18" t="n">
-        <v>1.3714</v>
+        <v>4.5558</v>
       </c>
       <c r="G18" t="n">
-        <v>37.45454545454545</v>
+        <v>42.81578947368421</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1453,19 +1453,19 @@
         <v>120.81</v>
       </c>
       <c r="C19" t="n">
-        <v>122.52</v>
+        <v>137.53</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>122.52</v>
+        <v>137.53</v>
       </c>
       <c r="F19" t="n">
-        <v>1.4154</v>
+        <v>13.8399</v>
       </c>
       <c r="G19" t="n">
-        <v>28.83295194508008</v>
+        <v>54.45048966267682</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1483,19 +1483,19 @@
         <v>57.43</v>
       </c>
       <c r="C20" t="n">
-        <v>59.08</v>
+        <v>62.26</v>
       </c>
       <c r="D20" t="n">
         <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>177.24</v>
+        <v>186.78</v>
       </c>
       <c r="F20" t="n">
-        <v>2.8731</v>
+        <v>8.4102</v>
       </c>
       <c r="G20" t="n">
-        <v>46.96312364425162</v>
+        <v>61.55218554861729</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7897.78</v>
+        <v>8207.950000000001</v>
       </c>
     </row>
     <row r="4">
@@ -1561,7 +1561,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9756.32</v>
+        <v>10066.49</v>
       </c>
     </row>
   </sheetData>
@@ -2141,7 +2141,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2379,6 +2379,22 @@
         <v>9756.32</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>25/05/2020 07:36:29</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1858.54</v>
+      </c>
+      <c r="C15" t="n">
+        <v>8207.950000000001</v>
+      </c>
+      <c r="D15" t="n">
+        <v>10066.49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -395,209 +395,209 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>JNJ</t>
+          <t>VZ</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>149.11</v>
+        <v>54.3</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2757</v>
+        <v>0.3697</v>
       </c>
       <c r="D2" t="n">
-        <v>25.74906367041204</v>
+        <v>28.57142857142848</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>MRK</t>
+          <t>JNJ</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.91</v>
+        <v>144.56</v>
       </c>
       <c r="C3" t="n">
-        <v>1.9764</v>
+        <v>0.1316</v>
       </c>
       <c r="D3" t="n">
-        <v>26.63587374903773</v>
+        <v>33.42749529190199</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>RTX</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>57.36</v>
+        <v>112.03</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.2328</v>
+        <v>-0.5062</v>
       </c>
       <c r="D4" t="n">
-        <v>27.31018246027079</v>
+        <v>36.00682593856651</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>145.73</v>
+        <v>181.57</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.8719</v>
+        <v>-1.0572</v>
       </c>
       <c r="D5" t="n">
-        <v>31.47801683816647</v>
+        <v>38.48439821693905</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>WBA</t>
+          <t>PFE</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41.71</v>
+        <v>37.49</v>
       </c>
       <c r="C6" t="n">
-        <v>0.096</v>
+        <v>-0.0267</v>
       </c>
       <c r="D6" t="n">
-        <v>33.53510895883781</v>
+        <v>41.15942028985513</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>TRV</t>
+          <t>MRK</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>95.51000000000001</v>
+        <v>77.26000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.88</v>
+        <v>1.1654</v>
       </c>
       <c r="D7" t="n">
-        <v>34.24423569598633</v>
+        <v>46.01226993865036</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>WMT</t>
+          <t>IBM</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>123.67</v>
+        <v>121.76</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5938</v>
+        <v>2.8465</v>
       </c>
       <c r="D8" t="n">
-        <v>35.41218637992836</v>
+        <v>48.06165343297525</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>JPM</t>
+          <t>WMT</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>89.97</v>
+        <v>123.86</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.945</v>
+        <v>-0.378</v>
       </c>
       <c r="D9" t="n">
-        <v>35.45966228893057</v>
+        <v>50.99894847528917</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>MCD</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>180.88</v>
+        <v>316.73</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1931</v>
+        <v>-0.6773</v>
       </c>
       <c r="D10" t="n">
-        <v>35.59516963772285</v>
+        <v>52.62035344302259</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>VZ</t>
+          <t>CVX</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>56.4</v>
+        <v>93.3</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.0526</v>
+        <v>3.3451</v>
       </c>
       <c r="D11" t="n">
-        <v>36.96857670979661</v>
+        <v>52.71877655055226</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>KO</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>108.61</v>
+        <v>46.09</v>
       </c>
       <c r="C12" t="n">
-        <v>-3.1219</v>
+        <v>2.354</v>
       </c>
       <c r="D12" t="n">
-        <v>38.36921990822448</v>
+        <v>53.57607282184658</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>KO</t>
+          <t>WBA</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45.54</v>
+        <v>42.16</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.2362</v>
+        <v>6.4646</v>
       </c>
       <c r="D13" t="n">
-        <v>38.80866425992775</v>
+        <v>54.26716141001854</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>XOM</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>115.31</v>
+        <v>45.91</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.552</v>
+        <v>2.9372</v>
       </c>
       <c r="D14" t="n">
-        <v>41.1861614497529</v>
+        <v>54.35510887772195</v>
       </c>
     </row>
     <row r="15">
@@ -607,269 +607,269 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>288.69</v>
+        <v>294.89</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5889</v>
+        <v>1.7072</v>
       </c>
       <c r="D15" t="n">
-        <v>43.28168656337314</v>
+        <v>57.65810276679841</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>IBM</t>
+          <t>MCD</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>122.59</v>
+        <v>184.84</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.3252</v>
+        <v>0.2332</v>
       </c>
       <c r="D16" t="n">
-        <v>43.89705882352942</v>
+        <v>57.87589498806682</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>DOW</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>33.9</v>
+        <v>242.48</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.2525</v>
+        <v>0.2481</v>
       </c>
       <c r="D17" t="n">
-        <v>47.74247491638796</v>
+        <v>58.87822435512896</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>INTC</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>183.16</v>
+        <v>62.34</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.2029</v>
+        <v>0.1285</v>
       </c>
       <c r="D18" t="n">
-        <v>49.45464982778416</v>
+        <v>60.20313942751616</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>JPM</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>128.91</v>
+        <v>95.81999999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>-3.3948</v>
+        <v>7.0974</v>
       </c>
       <c r="D19" t="n">
-        <v>50.2415458937198</v>
+        <v>60.35398230088496</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>CSCO</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>85.33</v>
+        <v>44.84</v>
       </c>
       <c r="C20" t="n">
-        <v>-4.6592</v>
+        <v>-0.1336</v>
       </c>
       <c r="D20" t="n">
-        <v>50.40214477211796</v>
+        <v>61.04651162790702</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>PFE</t>
+          <t>MMM</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>38.1</v>
+        <v>152.08</v>
       </c>
       <c r="C21" t="n">
-        <v>2.3643</v>
+        <v>3.8514</v>
       </c>
       <c r="D21" t="n">
-        <v>51.57232704402514</v>
+        <v>61.56361474435194</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>CSCO</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>43.32</v>
+        <v>196.06</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7675999999999999</v>
+        <v>8.964600000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>51.89504373177842</v>
+        <v>62.42774566473992</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>DIS</t>
+          <t>AXP</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>107.77</v>
+        <v>94.31999999999999</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.2734</v>
+        <v>5.586</v>
       </c>
       <c r="D23" t="n">
-        <v>53.13991920675724</v>
+        <v>64.10417320363979</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>INTC</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>60.13</v>
+        <v>117.41</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7709</v>
+        <v>4.3923</v>
       </c>
       <c r="D24" t="n">
-        <v>54.47963800904978</v>
+        <v>64.97617426820968</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>XOM</t>
+          <t>V</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>44.87</v>
+        <v>193.22</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.9492</v>
+        <v>1.2365</v>
       </c>
       <c r="D25" t="n">
-        <v>56.87645687645686</v>
+        <v>65.1935385553185</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.37</v>
+        <v>144.73</v>
       </c>
       <c r="C26" t="n">
-        <v>-2.1996</v>
+        <v>5.2352</v>
       </c>
       <c r="D26" t="n">
-        <v>57.65690376569039</v>
+        <v>66.2690250925545</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>TRV</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>90.93000000000001</v>
+        <v>103.36</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5196</v>
+        <v>3.2567</v>
       </c>
       <c r="D27" t="n">
-        <v>58.4598698481562</v>
+        <v>66.91081430417921</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>NKE</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.56</v>
+        <v>96.62</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.8266</v>
+        <v>3.0613</v>
       </c>
       <c r="D28" t="n">
-        <v>70.83333333333336</v>
+        <v>67.211131276467</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>DIS</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>186.74</v>
+        <v>120.95</v>
       </c>
       <c r="C29" t="n">
-        <v>1.1154</v>
+        <v>2.4826</v>
       </c>
       <c r="D29" t="n">
-        <v>70.8374384236453</v>
+        <v>70.58088694565899</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>DOW</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>315.01</v>
+        <v>38.79</v>
       </c>
       <c r="C30" t="n">
-        <v>1.5735</v>
+        <v>7.392</v>
       </c>
       <c r="D30" t="n">
-        <v>81.83593749999997</v>
+        <v>72.41063244729607</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>RTX</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>236.56</v>
+        <v>64.47</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9086</v>
+        <v>7.45</v>
       </c>
       <c r="D31" t="n">
-        <v>82.50345781466108</v>
+        <v>72.60843731431964</v>
       </c>
     </row>
   </sheetData>
@@ -883,7 +883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -943,19 +943,19 @@
         <v>96.05</v>
       </c>
       <c r="C2" t="n">
-        <v>95.51000000000001</v>
+        <v>103.36</v>
       </c>
       <c r="D2" t="n">
         <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>955.1</v>
+        <v>1033.6</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.5622</v>
+        <v>7.6106</v>
       </c>
       <c r="G2" t="n">
-        <v>34.24423569598633</v>
+        <v>66.91081430417921</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -973,19 +973,19 @@
         <v>41.66</v>
       </c>
       <c r="C3" t="n">
-        <v>41.71</v>
+        <v>42.16</v>
       </c>
       <c r="D3" t="n">
         <v>24</v>
       </c>
       <c r="E3" t="n">
-        <v>1001.04</v>
+        <v>1011.84</v>
       </c>
       <c r="F3" t="n">
-        <v>0.12</v>
+        <v>1.2002</v>
       </c>
       <c r="G3" t="n">
-        <v>33.53510895883781</v>
+        <v>54.26716141001854</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1003,19 +1003,19 @@
         <v>110.2</v>
       </c>
       <c r="C4" t="n">
-        <v>108.61</v>
+        <v>117.41</v>
       </c>
       <c r="D4" t="n">
         <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>760.27</v>
+        <v>821.87</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.4428</v>
+        <v>6.5426</v>
       </c>
       <c r="G4" t="n">
-        <v>38.36921990822448</v>
+        <v>64.97617426820968</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1030,26 +1030,26 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59.04999999999999</v>
+        <v>64.75</v>
       </c>
       <c r="C5" t="n">
-        <v>57.36</v>
+        <v>64.47</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>688.3199999999999</v>
+        <v>644.7</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.862</v>
+        <v>-0.4324</v>
       </c>
       <c r="G5" t="n">
-        <v>27.31018246027079</v>
+        <v>72.60843731431964</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
     </row>
@@ -1063,19 +1063,19 @@
         <v>56.55</v>
       </c>
       <c r="C6" t="n">
-        <v>56.4</v>
+        <v>54.3</v>
       </c>
       <c r="D6" t="n">
         <v>11</v>
       </c>
       <c r="E6" t="n">
-        <v>620.4</v>
+        <v>597.3</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2653</v>
+        <v>-3.9788</v>
       </c>
       <c r="G6" t="n">
-        <v>36.96857670979661</v>
+        <v>28.57142857142848</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1090,26 +1090,26 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>124.82</v>
+        <v>124.34</v>
       </c>
       <c r="C7" t="n">
-        <v>123.67</v>
+        <v>123.86</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>494.68</v>
+        <v>371.58</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.9213</v>
+        <v>-0.386</v>
       </c>
       <c r="G7" t="n">
-        <v>35.41218637992836</v>
+        <v>50.99894847528917</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
     </row>
@@ -1123,19 +1123,19 @@
         <v>114.6</v>
       </c>
       <c r="C8" t="n">
-        <v>115.31</v>
+        <v>112.03</v>
       </c>
       <c r="D8" t="n">
         <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>461.24</v>
+        <v>448.12</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6195000000000001</v>
+        <v>-2.2426</v>
       </c>
       <c r="G8" t="n">
-        <v>41.1861614497529</v>
+        <v>36.00682593856651</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1153,21 +1153,19 @@
         <v>77.91</v>
       </c>
       <c r="C9" t="n">
-        <v>77.91</v>
+        <v>77.26000000000001</v>
       </c>
       <c r="D9" t="n">
         <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>467.46</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+        <v>463.5600000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.8343</v>
       </c>
       <c r="G9" t="n">
-        <v>26.63587374903773</v>
+        <v>46.01226993865036</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1185,23 +1183,321 @@
         <v>149.11</v>
       </c>
       <c r="C10" t="n">
-        <v>149.11</v>
+        <v>144.56</v>
       </c>
       <c r="D10" t="n">
         <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>447.33</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+        <v>433.68</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-3.0514</v>
       </c>
       <c r="G10" t="n">
-        <v>25.74906367041204</v>
+        <v>33.42749529190199</v>
       </c>
       <c r="H10" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>MMM</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>152.08</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>304.16</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3.8089</v>
+      </c>
+      <c r="G11" t="n">
+        <v>61.56361474435194</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>88.19</v>
+      </c>
+      <c r="C12" t="n">
+        <v>95.81999999999999</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" t="n">
+        <v>383.28</v>
+      </c>
+      <c r="F12" t="n">
+        <v>8.6518</v>
+      </c>
+      <c r="G12" t="n">
+        <v>60.35398230088496</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>MCD</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>176.54</v>
+      </c>
+      <c r="C13" t="n">
+        <v>184.84</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>184.84</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4.7015</v>
+      </c>
+      <c r="G13" t="n">
+        <v>57.87589498806682</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>38.13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>38.79</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>193.95</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.7309</v>
+      </c>
+      <c r="G14" t="n">
+        <v>72.41063244729607</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>118.9</v>
+      </c>
+      <c r="C15" t="n">
+        <v>121.76</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>243.52</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.4054</v>
+      </c>
+      <c r="G15" t="n">
+        <v>48.06165343297525</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>KO</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>44.31</v>
+      </c>
+      <c r="C16" t="n">
+        <v>46.09</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6</v>
+      </c>
+      <c r="E16" t="n">
+        <v>276.54</v>
+      </c>
+      <c r="F16" t="n">
+        <v>4.0172</v>
+      </c>
+      <c r="G16" t="n">
+        <v>53.57607282184658</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>80.66</v>
+      </c>
+      <c r="C17" t="n">
+        <v>94.31999999999999</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>282.96</v>
+      </c>
+      <c r="F17" t="n">
+        <v>16.9353</v>
+      </c>
+      <c r="G17" t="n">
+        <v>64.10417320363979</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>172.09</v>
+      </c>
+      <c r="C18" t="n">
+        <v>196.06</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>196.06</v>
+      </c>
+      <c r="F18" t="n">
+        <v>13.9288</v>
+      </c>
+      <c r="G18" t="n">
+        <v>62.42774566473992</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>120.81</v>
+      </c>
+      <c r="C19" t="n">
+        <v>144.73</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>144.73</v>
+      </c>
+      <c r="F19" t="n">
+        <v>19.7997</v>
+      </c>
+      <c r="G19" t="n">
+        <v>66.2690250925545</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>57.43</v>
+      </c>
+      <c r="C20" t="n">
+        <v>62.34</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" t="n">
+        <v>187.02</v>
+      </c>
+      <c r="F20" t="n">
+        <v>8.5495</v>
+      </c>
+      <c r="G20" t="n">
+        <v>60.20313942751616</v>
+      </c>
+      <c r="H20" t="inlineStr">
         <is>
           <t>buy</t>
         </is>
@@ -1245,7 +1541,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4065.14</v>
+        <v>2140.56</v>
       </c>
     </row>
     <row r="3">
@@ -1255,7 +1551,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5895.839999999999</v>
+        <v>8223.309999999999</v>
       </c>
     </row>
     <row r="4">
@@ -1265,7 +1561,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9960.98</v>
+        <v>10363.87</v>
       </c>
     </row>
   </sheetData>
@@ -1279,7 +1575,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1546,6 +1842,344 @@
       </c>
       <c r="F10" t="n">
         <v>447.33</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>12/05/2020 09:35:10</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>MMM</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>12/05/2020 14:35:11</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>352.76</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>12/05/2020 17:35:15</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>MCD</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>176.54</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>13/05/2020 09:35:40</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>9</v>
+      </c>
+      <c r="F14" t="n">
+        <v>297.8100000000001</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>13/05/2020 10:35:18</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>237.8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>13/05/2020 10:35:20</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>KO</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>6</v>
+      </c>
+      <c r="F16" t="n">
+        <v>265.86</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>13/05/2020 10:35:28</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>241.98</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>13/05/2020 13:03:20</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>172.09</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>13/05/2020 13:03:21</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>120.81</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>13/05/2020 13:35:25</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="n">
+        <v>172.29</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>14/05/2020 09:35:49</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>WMT</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>124.34</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>26/05/2020 12:28:56</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>RTX</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>129.5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>26/05/2020 12:29:00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>4</v>
+      </c>
+      <c r="F23" t="n">
+        <v>152.52</v>
       </c>
     </row>
   </sheetData>
@@ -1559,7 +2193,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1736,17 +2370,113 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>12/05/2020 07:49:06</t>
+          <t>12/05/2020 19:35:03</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4065.14</v>
+        <v>3242.84</v>
       </c>
       <c r="C11" t="n">
-        <v>5895.839999999999</v>
+        <v>6603.599999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>9960.98</v>
+        <v>9846.439999999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>13/05/2020 18:35:07</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1734.2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7930.200000000001</v>
+      </c>
+      <c r="D12" t="n">
+        <v>9664.400000000001</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>14/05/2020 15:35:07</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1858.54</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7851.440000000001</v>
+      </c>
+      <c r="D13" t="n">
+        <v>9709.98</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>15/05/2020 05:44:59</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1858.54</v>
+      </c>
+      <c r="C14" t="n">
+        <v>7897.78</v>
+      </c>
+      <c r="D14" t="n">
+        <v>9756.32</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>25/05/2020 09:35:10</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1858.54</v>
+      </c>
+      <c r="C15" t="n">
+        <v>8207.950000000001</v>
+      </c>
+      <c r="D15" t="n">
+        <v>10066.49</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>26/05/2020 17:35:11</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2140.56</v>
+      </c>
+      <c r="C16" t="n">
+        <v>8223.309999999999</v>
+      </c>
+      <c r="D16" t="n">
+        <v>10363.87</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>27/05/2020 04:35:10</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2140.56</v>
+      </c>
+      <c r="C17" t="n">
+        <v>8223.309999999999</v>
+      </c>
+      <c r="D17" t="n">
+        <v>10363.87</v>
       </c>
     </row>
   </sheetData>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -395,17 +395,17 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>VZ</t>
+          <t>WMT</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>54.3</v>
+        <v>123.69</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3697</v>
+        <v>0.9879</v>
       </c>
       <c r="D2" t="n">
-        <v>28.57142857142848</v>
+        <v>49.91610738255036</v>
       </c>
     </row>
     <row r="3">
@@ -415,157 +415,157 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>144.56</v>
+        <v>146.97</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1316</v>
+        <v>1.4356</v>
       </c>
       <c r="D3" t="n">
-        <v>33.42749529190199</v>
+        <v>53.83920505871724</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>MRK</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>112.03</v>
+        <v>79.04000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.5062</v>
+        <v>1.9213</v>
       </c>
       <c r="D4" t="n">
-        <v>36.00682593856651</v>
+        <v>56.75675675675679</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>181.57</v>
+        <v>116.06</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.0572</v>
+        <v>1.9053</v>
       </c>
       <c r="D5" t="n">
-        <v>38.48439821693905</v>
+        <v>57.45125348189417</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>PFE</t>
+          <t>CVX</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37.49</v>
+        <v>90.87</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0267</v>
+        <v>-3.2268</v>
       </c>
       <c r="D6" t="n">
-        <v>41.15942028985513</v>
+        <v>57.64288879042979</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>MRK</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>77.26000000000001</v>
+        <v>181.4</v>
       </c>
       <c r="C7" t="n">
-        <v>1.1654</v>
+        <v>-0.2255</v>
       </c>
       <c r="D7" t="n">
-        <v>46.01226993865036</v>
+        <v>57.75054073540018</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>IBM</t>
+          <t>VZ</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>121.76</v>
+        <v>55.72</v>
       </c>
       <c r="C8" t="n">
-        <v>2.8465</v>
+        <v>1.0519</v>
       </c>
       <c r="D8" t="n">
-        <v>48.06165343297525</v>
+        <v>59.11949685534591</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>WMT</t>
+          <t>XOM</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>123.86</v>
+        <v>45.04</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.378</v>
+        <v>-2.5952</v>
       </c>
       <c r="D9" t="n">
-        <v>50.99894847528917</v>
+        <v>64.76733143399809</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>INTC</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>316.73</v>
+        <v>61.7</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.6773</v>
+        <v>-2.9264</v>
       </c>
       <c r="D10" t="n">
-        <v>52.62035344302259</v>
+        <v>67.1875</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>PFE</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.3</v>
+        <v>38.18</v>
       </c>
       <c r="C11" t="n">
-        <v>3.3451</v>
+        <v>2.0583</v>
       </c>
       <c r="D11" t="n">
-        <v>52.71877655055226</v>
+        <v>67.3846153846153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>KO</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>46.09</v>
+        <v>318.25</v>
       </c>
       <c r="C12" t="n">
-        <v>2.354</v>
+        <v>0.044</v>
       </c>
       <c r="D12" t="n">
-        <v>53.57607282184658</v>
+        <v>69.64418087472205</v>
       </c>
     </row>
     <row r="13">
@@ -575,109 +575,109 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>42.16</v>
+        <v>41.83</v>
       </c>
       <c r="C13" t="n">
-        <v>6.4646</v>
+        <v>-2.653</v>
       </c>
       <c r="D13" t="n">
-        <v>54.26716141001854</v>
+        <v>70.7757704569607</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>XOM</t>
+          <t>DIS</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>45.91</v>
+        <v>116.75</v>
       </c>
       <c r="C14" t="n">
-        <v>2.9372</v>
+        <v>-3.9332</v>
       </c>
       <c r="D14" t="n">
-        <v>54.35510887772195</v>
+        <v>71.2573009529665</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>UNH</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>294.89</v>
+        <v>245.14</v>
       </c>
       <c r="C15" t="n">
-        <v>1.7072</v>
+        <v>-0.8975</v>
       </c>
       <c r="D15" t="n">
-        <v>57.65810276679841</v>
+        <v>72.13066509711591</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>MCD</t>
+          <t>KO</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>184.84</v>
+        <v>47.09</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2332</v>
+        <v>0.7704</v>
       </c>
       <c r="D16" t="n">
-        <v>57.87589498806682</v>
+        <v>72.21438645980257</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>IBM</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>242.48</v>
+        <v>124.53</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2481</v>
+        <v>-0.8045</v>
       </c>
       <c r="D17" t="n">
-        <v>58.87822435512896</v>
+        <v>72.75077559462255</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>INTC</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>62.34</v>
+        <v>201.22</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1285</v>
+        <v>-4.0256</v>
       </c>
       <c r="D18" t="n">
-        <v>60.20313942751616</v>
+        <v>73.50591243208696</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>JPM</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.81999999999999</v>
+        <v>120.74</v>
       </c>
       <c r="C19" t="n">
-        <v>7.0974</v>
+        <v>-1.3723</v>
       </c>
       <c r="D19" t="n">
-        <v>60.35398230088496</v>
+        <v>75.45397620538509</v>
       </c>
     </row>
     <row r="20">
@@ -687,173 +687,171 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>44.84</v>
+        <v>45.6</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1336</v>
+        <v>-0.7833</v>
       </c>
       <c r="D20" t="n">
-        <v>61.04651162790702</v>
+        <v>76.10872675250361</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>JPM</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>152.08</v>
+        <v>99.86</v>
       </c>
       <c r="C21" t="n">
-        <v>3.8514</v>
+        <v>-1.4896</v>
       </c>
       <c r="D21" t="n">
-        <v>61.56361474435194</v>
+        <v>76.94926796050392</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>AXP</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>196.06</v>
+        <v>98.06</v>
       </c>
       <c r="C22" t="n">
-        <v>8.964600000000001</v>
+        <v>-3.1315</v>
       </c>
       <c r="D22" t="n">
-        <v>62.42774566473992</v>
+        <v>78.9033189033189</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>V</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>94.31999999999999</v>
+        <v>194.26</v>
       </c>
       <c r="C23" t="n">
-        <v>5.586</v>
+        <v>0.7468</v>
       </c>
       <c r="D23" t="n">
-        <v>64.10417320363979</v>
+        <v>80.13338013338013</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>117.41</v>
+        <v>149.82</v>
       </c>
       <c r="C24" t="n">
-        <v>4.3923</v>
+        <v>0.2006</v>
       </c>
       <c r="D24" t="n">
-        <v>64.97617426820968</v>
+        <v>80.58315334773218</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>UNH</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>193.22</v>
+        <v>303.97</v>
       </c>
       <c r="C25" t="n">
-        <v>1.2365</v>
+        <v>0.0658</v>
       </c>
       <c r="D25" t="n">
-        <v>65.1935385553185</v>
+        <v>83.40622588114229</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>DOW</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>144.73</v>
-      </c>
-      <c r="C26" t="n">
-        <v>5.2352</v>
-      </c>
+        <v>38.71</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>66.2690250925545</v>
+        <v>84.2163355408388</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>TRV</t>
+          <t>MMM</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>103.36</v>
+        <v>156.82</v>
       </c>
       <c r="C27" t="n">
-        <v>3.2567</v>
+        <v>-0.841</v>
       </c>
       <c r="D27" t="n">
-        <v>66.91081430417921</v>
+        <v>84.96192893401006</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>MCD</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>96.62</v>
+        <v>188.73</v>
       </c>
       <c r="C28" t="n">
-        <v>3.0613</v>
+        <v>0.538</v>
       </c>
       <c r="D28" t="n">
-        <v>67.211131276467</v>
+        <v>87.93514544587495</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>DIS</t>
+          <t>NKE</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>120.95</v>
+        <v>98.45999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>2.4826</v>
+        <v>-1.4118</v>
       </c>
       <c r="D29" t="n">
-        <v>70.58088694565899</v>
+        <v>88.20638820638813</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>DOW</t>
+          <t>TRV</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>38.79</v>
+        <v>107.59</v>
       </c>
       <c r="C30" t="n">
-        <v>7.392</v>
+        <v>0.7208</v>
       </c>
       <c r="D30" t="n">
-        <v>72.41063244729607</v>
+        <v>90.68379990821478</v>
       </c>
     </row>
     <row r="31">
@@ -863,13 +861,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>64.47</v>
+        <v>67.27</v>
       </c>
       <c r="C31" t="n">
-        <v>7.45</v>
+        <v>0.9302</v>
       </c>
       <c r="D31" t="n">
-        <v>72.60843731431964</v>
+        <v>91.64124466137886</v>
       </c>
     </row>
   </sheetData>
@@ -883,7 +881,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -936,26 +934,26 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>TRV</t>
+          <t>VZ</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>96.05</v>
+        <v>56.55</v>
       </c>
       <c r="C2" t="n">
-        <v>103.36</v>
+        <v>55.72</v>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="n">
-        <v>1033.6</v>
+        <v>612.92</v>
       </c>
       <c r="F2" t="n">
-        <v>7.6106</v>
+        <v>-1.4677</v>
       </c>
       <c r="G2" t="n">
-        <v>66.91081430417921</v>
+        <v>59.11949685534591</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -966,56 +964,56 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>WBA</t>
+          <t>WMT</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>41.66</v>
+        <v>124.34</v>
       </c>
       <c r="C3" t="n">
-        <v>42.16</v>
+        <v>123.69</v>
       </c>
       <c r="D3" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>1011.84</v>
+        <v>371.07</v>
       </c>
       <c r="F3" t="n">
-        <v>1.2002</v>
+        <v>-0.5228</v>
       </c>
       <c r="G3" t="n">
-        <v>54.26716141001854</v>
+        <v>49.91610738255036</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>110.2</v>
+        <v>114.6</v>
       </c>
       <c r="C4" t="n">
-        <v>117.41</v>
+        <v>116.06</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>821.87</v>
+        <v>464.24</v>
       </c>
       <c r="F4" t="n">
-        <v>6.5426</v>
+        <v>1.274</v>
       </c>
       <c r="G4" t="n">
-        <v>64.97617426820968</v>
+        <v>57.45125348189417</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1026,478 +1024,58 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>RTX</t>
+          <t>MRK</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64.75</v>
+        <v>77.91</v>
       </c>
       <c r="C5" t="n">
-        <v>64.47</v>
+        <v>79.04000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>644.7</v>
+        <v>474.24</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.4324</v>
+        <v>1.4504</v>
       </c>
       <c r="G5" t="n">
-        <v>72.60843731431964</v>
+        <v>56.75675675675679</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>VZ</t>
+          <t>JNJ</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56.55</v>
+        <v>149.11</v>
       </c>
       <c r="C6" t="n">
-        <v>54.3</v>
+        <v>146.97</v>
       </c>
       <c r="D6" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>597.3</v>
+        <v>440.91</v>
       </c>
       <c r="F6" t="n">
-        <v>-3.9788</v>
+        <v>-1.4352</v>
       </c>
       <c r="G6" t="n">
-        <v>28.57142857142848</v>
+        <v>53.83920505871724</v>
       </c>
       <c r="H6" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>WMT</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>124.34</v>
-      </c>
-      <c r="C7" t="n">
-        <v>123.86</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3</v>
-      </c>
-      <c r="E7" t="n">
-        <v>371.58</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-0.386</v>
-      </c>
-      <c r="G7" t="n">
-        <v>50.99894847528917</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>sell</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>PG</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>114.6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>112.03</v>
-      </c>
-      <c r="D8" t="n">
-        <v>4</v>
-      </c>
-      <c r="E8" t="n">
-        <v>448.12</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-2.2426</v>
-      </c>
-      <c r="G8" t="n">
-        <v>36.00682593856651</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>MRK</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>77.91</v>
-      </c>
-      <c r="C9" t="n">
-        <v>77.26000000000001</v>
-      </c>
-      <c r="D9" t="n">
-        <v>6</v>
-      </c>
-      <c r="E9" t="n">
-        <v>463.5600000000001</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-0.8343</v>
-      </c>
-      <c r="G9" t="n">
-        <v>46.01226993865036</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>JNJ</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>149.11</v>
-      </c>
-      <c r="C10" t="n">
-        <v>144.56</v>
-      </c>
-      <c r="D10" t="n">
-        <v>3</v>
-      </c>
-      <c r="E10" t="n">
-        <v>433.68</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-3.0514</v>
-      </c>
-      <c r="G10" t="n">
-        <v>33.42749529190199</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>MMM</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>146.5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>152.08</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" t="n">
-        <v>304.16</v>
-      </c>
-      <c r="F11" t="n">
-        <v>3.8089</v>
-      </c>
-      <c r="G11" t="n">
-        <v>61.56361474435194</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>JPM</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>88.19</v>
-      </c>
-      <c r="C12" t="n">
-        <v>95.81999999999999</v>
-      </c>
-      <c r="D12" t="n">
-        <v>4</v>
-      </c>
-      <c r="E12" t="n">
-        <v>383.28</v>
-      </c>
-      <c r="F12" t="n">
-        <v>8.6518</v>
-      </c>
-      <c r="G12" t="n">
-        <v>60.35398230088496</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>MCD</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>176.54</v>
-      </c>
-      <c r="C13" t="n">
-        <v>184.84</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>184.84</v>
-      </c>
-      <c r="F13" t="n">
-        <v>4.7015</v>
-      </c>
-      <c r="G13" t="n">
-        <v>57.87589498806682</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>DOW</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>38.13</v>
-      </c>
-      <c r="C14" t="n">
-        <v>38.79</v>
-      </c>
-      <c r="D14" t="n">
-        <v>5</v>
-      </c>
-      <c r="E14" t="n">
-        <v>193.95</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.7309</v>
-      </c>
-      <c r="G14" t="n">
-        <v>72.41063244729607</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>sell</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>IBM</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>118.9</v>
-      </c>
-      <c r="C15" t="n">
-        <v>121.76</v>
-      </c>
-      <c r="D15" t="n">
-        <v>2</v>
-      </c>
-      <c r="E15" t="n">
-        <v>243.52</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2.4054</v>
-      </c>
-      <c r="G15" t="n">
-        <v>48.06165343297525</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>KO</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>44.31</v>
-      </c>
-      <c r="C16" t="n">
-        <v>46.09</v>
-      </c>
-      <c r="D16" t="n">
-        <v>6</v>
-      </c>
-      <c r="E16" t="n">
-        <v>276.54</v>
-      </c>
-      <c r="F16" t="n">
-        <v>4.0172</v>
-      </c>
-      <c r="G16" t="n">
-        <v>53.57607282184658</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>AXP</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>80.66</v>
-      </c>
-      <c r="C17" t="n">
-        <v>94.31999999999999</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3</v>
-      </c>
-      <c r="E17" t="n">
-        <v>282.96</v>
-      </c>
-      <c r="F17" t="n">
-        <v>16.9353</v>
-      </c>
-      <c r="G17" t="n">
-        <v>64.10417320363979</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>GS</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>172.09</v>
-      </c>
-      <c r="C18" t="n">
-        <v>196.06</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" t="n">
-        <v>196.06</v>
-      </c>
-      <c r="F18" t="n">
-        <v>13.9288</v>
-      </c>
-      <c r="G18" t="n">
-        <v>62.42774566473992</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>BA</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>120.81</v>
-      </c>
-      <c r="C19" t="n">
-        <v>144.73</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>144.73</v>
-      </c>
-      <c r="F19" t="n">
-        <v>19.7997</v>
-      </c>
-      <c r="G19" t="n">
-        <v>66.2690250925545</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>INTC</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>57.43</v>
-      </c>
-      <c r="C20" t="n">
-        <v>62.34</v>
-      </c>
-      <c r="D20" t="n">
-        <v>3</v>
-      </c>
-      <c r="E20" t="n">
-        <v>187.02</v>
-      </c>
-      <c r="F20" t="n">
-        <v>8.5495</v>
-      </c>
-      <c r="G20" t="n">
-        <v>60.20313942751616</v>
-      </c>
-      <c r="H20" t="inlineStr">
         <is>
           <t>buy</t>
         </is>
@@ -1541,7 +1119,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2140.56</v>
+        <v>8202.52</v>
       </c>
     </row>
     <row r="3">
@@ -1551,7 +1129,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8223.309999999999</v>
+        <v>2363.38</v>
       </c>
     </row>
     <row r="4">
@@ -1561,7 +1139,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10363.87</v>
+        <v>10565.9</v>
       </c>
     </row>
   </sheetData>
@@ -1575,7 +1153,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2180,6 +1758,370 @@
       </c>
       <c r="F23" t="n">
         <v>152.52</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>27/05/2020 11:02:26</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>MCD</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>187.24</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>27/05/2020 11:02:28</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>4</v>
+      </c>
+      <c r="F25" t="n">
+        <v>398.96</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>27/05/2020 11:02:31</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>MMM</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
+      <c r="F26" t="n">
+        <v>310.84</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>27/05/2020 11:02:32</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>203.71</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>27/05/2020 11:02:33</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>3</v>
+      </c>
+      <c r="F28" t="n">
+        <v>294.06</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>27/05/2020 11:02:34</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>7</v>
+      </c>
+      <c r="F29" t="n">
+        <v>847.35</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>27/05/2020 11:02:37</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="n">
+        <v>144.54</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>27/05/2020 11:02:38</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>TRV</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>10</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1063.3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>28/05/2020 09:53:16</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>WBA</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>24</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1021.68</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>28/05/2020 10:04:14</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>RTX</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>10</v>
+      </c>
+      <c r="F33" t="n">
+        <v>673.1999999999999</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>28/05/2020 10:04:16</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>5</v>
+      </c>
+      <c r="F34" t="n">
+        <v>195.05</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>28/05/2020 10:04:17</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" t="n">
+        <v>251.18</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>28/05/2020 10:04:23</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>3</v>
+      </c>
+      <c r="F36" t="n">
+        <v>189.09</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>28/05/2020 10:04:25</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>KO</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>6</v>
+      </c>
+      <c r="F37" t="n">
+        <v>281.76</v>
       </c>
     </row>
   </sheetData>
@@ -2193,7 +2135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2466,17 +2408,33 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>27/05/2020 04:35:10</t>
+          <t>27/05/2020 18:44:05</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2140.56</v>
+        <v>5590.56</v>
       </c>
       <c r="C17" t="n">
-        <v>8223.309999999999</v>
+        <v>4948.530000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>10363.87</v>
+        <v>10539.09</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>28/05/2020 17:04:00</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>8202.52</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2363.38</v>
+      </c>
+      <c r="D18" t="n">
+        <v>10565.9</v>
       </c>
     </row>
   </sheetData>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -399,13 +399,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.46</v>
+        <v>36.16</v>
       </c>
       <c r="C2" t="n">
-        <v>-7.1485</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>26.81451612903231</v>
+        <v>34.67741935483868</v>
       </c>
     </row>
     <row r="3">
@@ -415,13 +415,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>123.96</v>
+        <v>123.47</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0806</v>
+        <v>-0.3792</v>
       </c>
       <c r="D3" t="n">
-        <v>39.66597077244257</v>
+        <v>36.87943262411344</v>
       </c>
     </row>
     <row r="4">
@@ -431,29 +431,29 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147.19</v>
+        <v>148.65</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.0487</v>
+        <v>0.2698</v>
       </c>
       <c r="D4" t="n">
-        <v>40.0718778077268</v>
+        <v>52.99455535390197</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MRK</t>
+          <t>INTC</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>79.56</v>
+        <v>61.93</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.4371</v>
+        <v>-0.3059</v>
       </c>
       <c r="D5" t="n">
-        <v>48.76681614349776</v>
+        <v>58.10276679841898</v>
       </c>
     </row>
     <row r="6">
@@ -463,381 +463,379 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>182.83</v>
+        <v>185.36</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2292</v>
+        <v>0.2434</v>
       </c>
       <c r="D6" t="n">
-        <v>50.70643642072217</v>
+        <v>59.15032679738569</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>VZ</t>
+          <t>CSCO</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>55.78</v>
+        <v>46.94</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.7884</v>
+        <v>0.1066</v>
       </c>
       <c r="D7" t="n">
-        <v>56.88545688545689</v>
+        <v>64.91677336747762</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>DIS</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>117.25</v>
+        <v>122.18</v>
       </c>
       <c r="C8" t="n">
-        <v>1.1473</v>
+        <v>2.8884</v>
       </c>
       <c r="D8" t="n">
-        <v>58.8471849865952</v>
+        <v>68.08707735062529</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>VZ</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>92.79000000000001</v>
+        <v>56.83</v>
       </c>
       <c r="C9" t="n">
-        <v>1.1887</v>
+        <v>0.7624</v>
       </c>
       <c r="D9" t="n">
-        <v>61.04129263913826</v>
+        <v>68.93353941267382</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>CSCO</t>
+          <t>CVX</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46.3</v>
+        <v>97.18000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.1786</v>
+        <v>2.6296</v>
       </c>
       <c r="D10" t="n">
-        <v>62.06896551724136</v>
+        <v>69.83210912906611</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>V</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>247.29</v>
+        <v>196.87</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.4789</v>
+        <v>0.2597</v>
       </c>
       <c r="D11" t="n">
-        <v>63.59289617486334</v>
+        <v>72.66143633071806</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>INTC</t>
+          <t>MRK</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>61.86</v>
+        <v>82.06</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.7003</v>
+        <v>1.5092</v>
       </c>
       <c r="D12" t="n">
-        <v>65.32534246575341</v>
+        <v>74.53754080522313</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>DIS</t>
+          <t>IBM</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>118.77</v>
+        <v>129.05</v>
       </c>
       <c r="C13" t="n">
-        <v>1.2532</v>
+        <v>2.4206</v>
       </c>
       <c r="D13" t="n">
-        <v>67.10063335679101</v>
+        <v>76.10250297973778</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>XOM</t>
+          <t>WBA</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.28</v>
+        <v>43.61</v>
       </c>
       <c r="C14" t="n">
-        <v>1.7814</v>
+        <v>0.1378</v>
       </c>
       <c r="D14" t="n">
-        <v>69.27927927927927</v>
+        <v>76.66666666666666</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>RTX</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>120.5</v>
+        <v>67.47</v>
       </c>
       <c r="C15" t="n">
-        <v>0.308</v>
+        <v>6.4196</v>
       </c>
       <c r="D15" t="n">
-        <v>71.33649932157394</v>
+        <v>76.84507042253522</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>IBM</t>
+          <t>AXP</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>124.89</v>
+        <v>105.4</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.008</v>
+        <v>6.3894</v>
       </c>
       <c r="D16" t="n">
-        <v>71.41310232809961</v>
+        <v>77.26999398677087</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>JPM</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>98.59999999999999</v>
+        <v>325.12</v>
       </c>
       <c r="C17" t="n">
-        <v>1.3257</v>
+        <v>0.5505</v>
       </c>
       <c r="D17" t="n">
-        <v>72.59786476868327</v>
+        <v>77.62915129151303</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>KO</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>194.35</v>
+        <v>47.9</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.4558</v>
+        <v>2.1322</v>
       </c>
       <c r="D18" t="n">
-        <v>72.66277128547576</v>
+        <v>77.63157894736835</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>96.75</v>
+        <v>210.57</v>
       </c>
       <c r="C19" t="n">
-        <v>1.7671</v>
+        <v>3.1498</v>
       </c>
       <c r="D19" t="n">
-        <v>72.73865414710484</v>
+        <v>77.93000990425882</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>199.93</v>
+        <v>118.53</v>
       </c>
       <c r="C20" t="n">
-        <v>1.7507</v>
+        <v>0.3981</v>
       </c>
       <c r="D20" t="n">
-        <v>72.78986074166795</v>
+        <v>78.11634349030477</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>JPM</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>321.85</v>
+        <v>104.27</v>
       </c>
       <c r="C21" t="n">
-        <v>1.2298</v>
+        <v>5.3978</v>
       </c>
       <c r="D21" t="n">
-        <v>75.72780203784582</v>
+        <v>78.42565597667638</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>KO</t>
+          <t>XOM</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.99</v>
+        <v>49.24</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6641</v>
+        <v>4.0795</v>
       </c>
       <c r="D22" t="n">
-        <v>76.1570827489481</v>
+        <v>78.43347639484981</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>WBA</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>43.3</v>
+        <v>127.09</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8384</v>
+        <v>3.0571</v>
       </c>
       <c r="D23" t="n">
-        <v>76.78391959798998</v>
+        <v>78.83211678832116</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>UNH</t>
+          <t>MMM</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>305.93</v>
+        <v>161.21</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3543</v>
+        <v>2.2647</v>
       </c>
       <c r="D24" t="n">
-        <v>76.85683530678153</v>
+        <v>79.48823772183246</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>DOW</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>38.61</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.0259</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>79.55974842767294</v>
+        <v>83.98492699010842</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>UNH</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>151.39</v>
+        <v>305.35</v>
       </c>
       <c r="C26" t="n">
-        <v>3.7984</v>
+        <v>-0.3134</v>
       </c>
       <c r="D26" t="n">
-        <v>80.02678400612206</v>
+        <v>86.22222222222234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>NKE</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>155.58</v>
+        <v>104.11</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.5497</v>
+        <v>3.3452</v>
       </c>
       <c r="D27" t="n">
-        <v>80.4674457429048</v>
+        <v>88.48230353929206</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>RTX</t>
+          <t>DOW</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>64.12</v>
+        <v>41.63</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.62</v>
+        <v>2.5369</v>
       </c>
       <c r="D28" t="n">
-        <v>81.34287286736382</v>
+        <v>89.59330143540673</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>99.54000000000001</v>
+        <v>173.16</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9738</v>
+        <v>12.9476</v>
       </c>
       <c r="D29" t="n">
-        <v>88.44069837447314</v>
+        <v>89.85074626865672</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +845,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>187.41</v>
+        <v>193.29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.585</v>
+        <v>3.0385</v>
       </c>
       <c r="D30" t="n">
-        <v>89.00052882072984</v>
+        <v>90.18867924528304</v>
       </c>
     </row>
     <row r="31">
@@ -863,13 +861,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>109.15</v>
+        <v>114.47</v>
       </c>
       <c r="C31" t="n">
-        <v>2.0284</v>
+        <v>3.1261</v>
       </c>
       <c r="D31" t="n">
-        <v>89.05472636815921</v>
+        <v>97.2792149866191</v>
       </c>
     </row>
   </sheetData>
@@ -883,7 +881,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -943,19 +941,19 @@
         <v>56.55</v>
       </c>
       <c r="C2" t="n">
-        <v>55.78</v>
+        <v>56.83</v>
       </c>
       <c r="D2" t="n">
         <v>11</v>
       </c>
       <c r="E2" t="n">
-        <v>613.58</v>
+        <v>625.13</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.3616</v>
+        <v>0.4951</v>
       </c>
       <c r="G2" t="n">
-        <v>56.88545688545689</v>
+        <v>68.93353941267382</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -970,52 +968,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>124.34</v>
+        <v>123.94</v>
       </c>
       <c r="C3" t="n">
-        <v>123.96</v>
+        <v>123.47</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>371.88</v>
+        <v>987.76</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.3056</v>
+        <v>-0.3792</v>
       </c>
       <c r="G3" t="n">
-        <v>39.66597077244257</v>
+        <v>36.87943262411344</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>JNJ</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>114.6</v>
+        <v>149.11</v>
       </c>
       <c r="C4" t="n">
-        <v>117.25</v>
+        <v>148.65</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>469</v>
+        <v>445.95</v>
       </c>
       <c r="F4" t="n">
-        <v>2.3124</v>
+        <v>-0.3085</v>
       </c>
       <c r="G4" t="n">
-        <v>58.8471849865952</v>
+        <v>52.99455535390197</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1026,90 +1024,28 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MRK</t>
+          <t>PFE</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77.91</v>
+        <v>35.46</v>
       </c>
       <c r="C5" t="n">
-        <v>79.56</v>
+        <v>36.16</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E5" t="n">
-        <v>477.36</v>
+        <v>831.6799999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>2.1178</v>
+        <v>1.9741</v>
       </c>
       <c r="G5" t="n">
-        <v>48.76681614349776</v>
+        <v>34.67741935483868</v>
       </c>
       <c r="H5" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>JNJ</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>149.11</v>
-      </c>
-      <c r="C6" t="n">
-        <v>147.19</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E6" t="n">
-        <v>441.57</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-1.2876</v>
-      </c>
-      <c r="G6" t="n">
-        <v>40.0718778077268</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>PFE</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>35.46</v>
-      </c>
-      <c r="C7" t="n">
-        <v>35.46</v>
-      </c>
-      <c r="D7" t="n">
-        <v>23</v>
-      </c>
-      <c r="E7" t="n">
-        <v>815.58</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>26.81451612903231</v>
-      </c>
-      <c r="H7" t="inlineStr">
         <is>
           <t>buy</t>
         </is>
@@ -1153,7 +1089,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7386.940000000001</v>
+        <v>7733.720000000001</v>
       </c>
     </row>
     <row r="3">
@@ -1163,7 +1099,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3188.97</v>
+        <v>2890.52</v>
       </c>
     </row>
     <row r="4">
@@ -1173,7 +1109,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10575.91</v>
+        <v>10624.24</v>
       </c>
     </row>
   </sheetData>
@@ -1187,7 +1123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2182,6 +2118,84 @@
       </c>
       <c r="F38" t="n">
         <v>815.58</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>02/06/2020 18:50:13</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>WMT</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>5</v>
+      </c>
+      <c r="F39" t="n">
+        <v>619.7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>03/06/2020 18:22:42</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>4</v>
+      </c>
+      <c r="F40" t="n">
+        <v>474.12</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>03/06/2020 18:22:42</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>MRK</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>6</v>
+      </c>
+      <c r="F41" t="n">
+        <v>492.36</v>
       </c>
     </row>
   </sheetData>
@@ -2195,7 +2209,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2529,6 +2543,38 @@
         <v>10575.91</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>02/06/2020 18:50:11</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>6767.240000000002</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3845.63</v>
+      </c>
+      <c r="D21" t="n">
+        <v>10612.87</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>03/06/2020 18:22:41</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>7733.720000000001</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2890.52</v>
+      </c>
+      <c r="D22" t="n">
+        <v>10624.24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -395,305 +395,305 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>PFE</t>
+          <t>WMT</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36.16</v>
+        <v>121.24</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0.7125</v>
       </c>
       <c r="D2" t="n">
-        <v>34.67741935483868</v>
+        <v>22.86541244573083</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>WMT</t>
+          <t>PFE</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>123.47</v>
+        <v>36.12</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.3792</v>
+        <v>0.3055</v>
       </c>
       <c r="D3" t="n">
-        <v>36.87943262411344</v>
+        <v>38.12499999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>JNJ</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.65</v>
+        <v>185.76</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2698</v>
+        <v>1.5526</v>
       </c>
       <c r="D4" t="n">
-        <v>52.99455535390197</v>
+        <v>59.13725490196072</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>INTC</t>
+          <t>JNJ</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61.93</v>
+        <v>148.95</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.3059</v>
+        <v>1.513</v>
       </c>
       <c r="D5" t="n">
-        <v>58.10276679841898</v>
+        <v>62.62626262626262</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>INTC</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>185.36</v>
+        <v>64.78</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2434</v>
+        <v>2.8744</v>
       </c>
       <c r="D6" t="n">
-        <v>59.15032679738569</v>
+        <v>65.48672566371684</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>CSCO</t>
+          <t>CVX</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.94</v>
+        <v>101.8</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1066</v>
+        <v>5.7333</v>
       </c>
       <c r="D7" t="n">
-        <v>64.91677336747762</v>
+        <v>73.08420056764425</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>DIS</t>
+          <t>CSCO</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>122.18</v>
+        <v>48.12</v>
       </c>
       <c r="C8" t="n">
-        <v>2.8884</v>
+        <v>2.6889</v>
       </c>
       <c r="D8" t="n">
-        <v>68.08707735062529</v>
+        <v>73.13829787234044</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>VZ</t>
+          <t>NKE</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>56.83</v>
+        <v>102.79</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7624</v>
+        <v>1.4909</v>
       </c>
       <c r="D9" t="n">
-        <v>68.93353941267382</v>
+        <v>73.98685651697697</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>V</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>97.18000000000001</v>
+        <v>198.96</v>
       </c>
       <c r="C10" t="n">
-        <v>2.6296</v>
+        <v>2.7474</v>
       </c>
       <c r="D10" t="n">
-        <v>69.83210912906611</v>
+        <v>73.99309551208276</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>DIS</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>196.87</v>
+        <v>126.92</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2597</v>
+        <v>2.6114</v>
       </c>
       <c r="D11" t="n">
-        <v>72.66143633071806</v>
+        <v>74.31781701444623</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>MRK</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>82.06</v>
+        <v>117.97</v>
       </c>
       <c r="C12" t="n">
-        <v>1.5092</v>
+        <v>1.6545</v>
       </c>
       <c r="D12" t="n">
-        <v>74.53754080522313</v>
+        <v>74.94108405341711</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>IBM</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>129.05</v>
+        <v>329.23</v>
       </c>
       <c r="C13" t="n">
-        <v>2.4206</v>
+        <v>2.1438</v>
       </c>
       <c r="D13" t="n">
-        <v>76.10250297973778</v>
+        <v>77.00698080279236</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>WBA</t>
+          <t>VZ</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>43.61</v>
+        <v>57.86</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1378</v>
+        <v>1.1185</v>
       </c>
       <c r="D14" t="n">
-        <v>76.66666666666666</v>
+        <v>77.4330042313117</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>RTX</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>67.47</v>
+        <v>254.47</v>
       </c>
       <c r="C15" t="n">
-        <v>6.4196</v>
+        <v>2.2173</v>
       </c>
       <c r="D15" t="n">
-        <v>76.84507042253522</v>
+        <v>78.51176917236144</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>UNH</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.4</v>
+        <v>309.5</v>
       </c>
       <c r="C16" t="n">
-        <v>6.3894</v>
+        <v>3.8312</v>
       </c>
       <c r="D16" t="n">
-        <v>77.26999398677087</v>
+        <v>78.92445582586424</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>AXP</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>325.12</v>
+        <v>111.51</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5505</v>
+        <v>4.6649</v>
       </c>
       <c r="D17" t="n">
-        <v>77.62915129151303</v>
+        <v>80.97142857142856</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>KO</t>
+          <t>RTX</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>47.9</v>
+        <v>73.06</v>
       </c>
       <c r="C18" t="n">
-        <v>2.1322</v>
+        <v>8.221</v>
       </c>
       <c r="D18" t="n">
-        <v>77.63157894736835</v>
+        <v>81.00478468899522</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>MRK</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>210.57</v>
+        <v>82.63</v>
       </c>
       <c r="C19" t="n">
-        <v>3.1498</v>
+        <v>1.3243</v>
       </c>
       <c r="D19" t="n">
-        <v>77.93000990425882</v>
+        <v>81.08384458077713</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>118.53</v>
+        <v>221.04</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3981</v>
+        <v>2.8954</v>
       </c>
       <c r="D20" t="n">
-        <v>78.11634349030477</v>
+        <v>81.79618990021169</v>
       </c>
     </row>
     <row r="21">
@@ -703,29 +703,29 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>104.27</v>
+        <v>110.97</v>
       </c>
       <c r="C21" t="n">
-        <v>5.3978</v>
+        <v>4.2559</v>
       </c>
       <c r="D21" t="n">
-        <v>78.42565597667638</v>
+        <v>84.30079155672821</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>XOM</t>
+          <t>WBA</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49.24</v>
+        <v>45.92</v>
       </c>
       <c r="C22" t="n">
-        <v>4.0795</v>
+        <v>3.8914</v>
       </c>
       <c r="D22" t="n">
-        <v>78.43347639484981</v>
+        <v>85.25714285714287</v>
       </c>
     </row>
     <row r="23">
@@ -735,91 +735,93 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>127.09</v>
+        <v>135.87</v>
       </c>
       <c r="C23" t="n">
-        <v>3.0571</v>
+        <v>5.3583</v>
       </c>
       <c r="D23" t="n">
-        <v>78.83211678832116</v>
+        <v>86.87859316875209</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>KO</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>161.21</v>
+        <v>49.29</v>
       </c>
       <c r="C24" t="n">
-        <v>2.2647</v>
+        <v>2.8589</v>
       </c>
       <c r="D24" t="n">
-        <v>79.48823772183246</v>
+        <v>88.14814814814804</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>XOM</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>251</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
+        <v>53.3</v>
+      </c>
+      <c r="C25" t="n">
+        <v>8.554</v>
+      </c>
       <c r="D25" t="n">
-        <v>83.98492699010842</v>
+        <v>88.26619964973727</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>UNH</t>
+          <t>IBM</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>305.35</v>
+        <v>132.89</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.3134</v>
+        <v>3.1034</v>
       </c>
       <c r="D26" t="n">
-        <v>86.22222222222234</v>
+        <v>89.1415577032403</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>MCD</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>104.11</v>
+        <v>198.22</v>
       </c>
       <c r="C27" t="n">
-        <v>3.3452</v>
+        <v>2.5771</v>
       </c>
       <c r="D27" t="n">
-        <v>88.48230353929206</v>
+        <v>89.67421314191066</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>DOW</t>
+          <t>MMM</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>41.63</v>
+        <v>167.91</v>
       </c>
       <c r="C28" t="n">
-        <v>2.5369</v>
+        <v>3.2974</v>
       </c>
       <c r="D28" t="n">
-        <v>89.59330143540673</v>
+        <v>90.56534508076361</v>
       </c>
     </row>
     <row r="29">
@@ -829,29 +831,29 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>173.16</v>
+        <v>215.98</v>
       </c>
       <c r="C29" t="n">
-        <v>12.9476</v>
+        <v>17.1894</v>
       </c>
       <c r="D29" t="n">
-        <v>89.85074626865672</v>
+        <v>93.80833143637605</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>MCD</t>
+          <t>DOW</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>193.29</v>
+        <v>44.31</v>
       </c>
       <c r="C30" t="n">
-        <v>3.0385</v>
+        <v>3.7462</v>
       </c>
       <c r="D30" t="n">
-        <v>90.18867924528304</v>
+        <v>94.88188976377957</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +863,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>114.47</v>
+        <v>123.62</v>
       </c>
       <c r="C31" t="n">
-        <v>3.1261</v>
+        <v>4.7627</v>
       </c>
       <c r="D31" t="n">
-        <v>97.2792149866191</v>
+        <v>97.62368523568368</v>
       </c>
     </row>
   </sheetData>
@@ -881,7 +883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -934,26 +936,26 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>VZ</t>
+          <t>WMT</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>56.55</v>
+        <v>123.94</v>
       </c>
       <c r="C2" t="n">
-        <v>56.83</v>
+        <v>121.24</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E2" t="n">
-        <v>625.13</v>
+        <v>969.92</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4951</v>
+        <v>-2.1785</v>
       </c>
       <c r="G2" t="n">
-        <v>68.93353941267382</v>
+        <v>22.86541244573083</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -964,26 +966,26 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>WMT</t>
+          <t>JNJ</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>123.94</v>
+        <v>149.11</v>
       </c>
       <c r="C3" t="n">
-        <v>123.47</v>
+        <v>148.95</v>
       </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>987.76</v>
+        <v>446.85</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.3792</v>
+        <v>-0.1073</v>
       </c>
       <c r="G3" t="n">
-        <v>36.87943262411344</v>
+        <v>62.62626262626262</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -994,58 +996,28 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>JNJ</t>
+          <t>PFE</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>149.11</v>
+        <v>35.46</v>
       </c>
       <c r="C4" t="n">
-        <v>148.65</v>
+        <v>36.12</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E4" t="n">
-        <v>445.95</v>
+        <v>830.76</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3085</v>
+        <v>1.8613</v>
       </c>
       <c r="G4" t="n">
-        <v>52.99455535390197</v>
+        <v>38.12499999999999</v>
       </c>
       <c r="H4" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>PFE</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>35.46</v>
-      </c>
-      <c r="C5" t="n">
-        <v>36.16</v>
-      </c>
-      <c r="D5" t="n">
-        <v>23</v>
-      </c>
-      <c r="E5" t="n">
-        <v>831.6799999999999</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.9741</v>
-      </c>
-      <c r="G5" t="n">
-        <v>34.67741935483868</v>
-      </c>
-      <c r="H5" t="inlineStr">
         <is>
           <t>buy</t>
         </is>
@@ -1089,7 +1061,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7733.720000000001</v>
+        <v>8370.18</v>
       </c>
     </row>
     <row r="3">
@@ -1099,7 +1071,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2890.52</v>
+        <v>2247.53</v>
       </c>
     </row>
     <row r="4">
@@ -1109,7 +1081,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10624.24</v>
+        <v>10617.71</v>
       </c>
     </row>
   </sheetData>
@@ -1123,7 +1095,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2196,6 +2168,32 @@
       </c>
       <c r="F41" t="n">
         <v>492.36</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>05/06/2020 12:11:52</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>VZ</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>11</v>
+      </c>
+      <c r="F42" t="n">
+        <v>636.46</v>
       </c>
     </row>
   </sheetData>
@@ -2209,7 +2207,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2575,6 +2573,22 @@
         <v>10624.24</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>05/06/2020 12:11:50</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>8370.18</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2247.53</v>
+      </c>
+      <c r="D23" t="n">
+        <v>10617.71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -2591,7 +2591,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3261,6 +3261,22 @@
         <v>10625.93</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>11/07/2020 18:08:40</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>5740.570000000002</v>
+      </c>
+      <c r="C42" t="n">
+        <v>4885.360000000001</v>
+      </c>
+      <c r="D42" t="n">
+        <v>10625.93</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -395,161 +395,161 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>XOM</t>
+          <t>INTC</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42.65</v>
+        <v>49.57</v>
       </c>
       <c r="C2" t="n">
-        <v>3.119</v>
+        <v>-2.0162</v>
       </c>
       <c r="D2" t="n">
-        <v>35.45034642032331</v>
+        <v>19.66329966329964</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>85.23</v>
+        <v>203.02</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0094</v>
+        <v>0.7693</v>
       </c>
       <c r="D3" t="n">
-        <v>37.92475728155342</v>
+        <v>38.82532418001531</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93.23</v>
+        <v>170.21</v>
       </c>
       <c r="C4" t="n">
-        <v>2.937</v>
+        <v>-2.043</v>
       </c>
       <c r="D4" t="n">
-        <v>38.45303867403318</v>
+        <v>43.32679097154073</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>WBA</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40.12</v>
+        <v>203.85</v>
       </c>
       <c r="C5" t="n">
-        <v>2.8454</v>
+        <v>1.2668</v>
       </c>
       <c r="D5" t="n">
-        <v>41.48936170212764</v>
+        <v>45.30885780885781</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>JPM</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>97.98999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>1.031</v>
+        <v>-1.4042</v>
       </c>
       <c r="D6" t="n">
-        <v>42.52520824199911</v>
+        <v>46.34858812074002</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>UNH</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>291.23</v>
+        <v>379.24</v>
       </c>
       <c r="C7" t="n">
-        <v>0.024</v>
+        <v>2.37</v>
       </c>
       <c r="D7" t="n">
-        <v>43.82578569660976</v>
+        <v>47.6425922655836</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>UNH</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>152.85</v>
+        <v>298.6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9244</v>
+        <v>-0.7281</v>
       </c>
       <c r="D8" t="n">
-        <v>44.61538461538463</v>
+        <v>48.23192099394718</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>RTX</t>
+          <t>DIS</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>59.64</v>
+        <v>116.31</v>
       </c>
       <c r="C9" t="n">
-        <v>2.6329</v>
+        <v>-1.1053</v>
       </c>
       <c r="D9" t="n">
-        <v>44.75627769571639</v>
+        <v>50.38297872340428</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>WBA</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>192.55</v>
+        <v>39.84</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1769</v>
+        <v>-1.6539</v>
       </c>
       <c r="D10" t="n">
-        <v>46.56745079212678</v>
+        <v>53.00925925925932</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>IBM</t>
+          <t>NKE</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>118.35</v>
+        <v>97.20999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>2.2816</v>
+        <v>-1.2395</v>
       </c>
       <c r="D11" t="n">
-        <v>47.96163069544362</v>
+        <v>53.6800785083415</v>
       </c>
     </row>
     <row r="12">
@@ -559,317 +559,317 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>113.84</v>
+        <v>116.63</v>
       </c>
       <c r="C12" t="n">
-        <v>3.4533</v>
+        <v>-1.395</v>
       </c>
       <c r="D12" t="n">
-        <v>48.05970149253731</v>
+        <v>57.00058582308143</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>JPM</t>
+          <t>XOM</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>96.27</v>
+        <v>44.07</v>
       </c>
       <c r="C13" t="n">
-        <v>5.4667</v>
+        <v>1.4736</v>
       </c>
       <c r="D13" t="n">
-        <v>48.22627037392136</v>
+        <v>58.50422195416165</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>RTX</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>205.56</v>
+        <v>61.09</v>
       </c>
       <c r="C14" t="n">
-        <v>4.4353</v>
+        <v>-1.5789</v>
       </c>
       <c r="D14" t="n">
-        <v>48.74918778427551</v>
+        <v>58.80566801619434</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>MRK</t>
+          <t>AXP</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>76.73</v>
+        <v>95.79000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0522</v>
+        <v>0.4825</v>
       </c>
       <c r="D15" t="n">
-        <v>50.91954022988512</v>
+        <v>59.5872742906277</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>KO</t>
+          <t>MRK</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>45.15</v>
+        <v>78.93000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>2.824</v>
+        <v>2.3735</v>
       </c>
       <c r="D16" t="n">
-        <v>51.97132616487455</v>
+        <v>60.97222222222229</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>JNJ</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>178.44</v>
+        <v>147.18</v>
       </c>
       <c r="C17" t="n">
-        <v>2.9778</v>
+        <v>-0.6346000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>52.42837653478854</v>
+        <v>62.90956749672351</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>DOW</t>
+          <t>CSCO</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>40.76</v>
+        <v>47.19</v>
       </c>
       <c r="C18" t="n">
-        <v>3.3469</v>
+        <v>1.7026</v>
       </c>
       <c r="D18" t="n">
-        <v>55.11811023622048</v>
+        <v>63.23529411764704</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>MCD</t>
+          <t>WMT</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>184.88</v>
+        <v>131.21</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2984</v>
+        <v>-0.0229</v>
       </c>
       <c r="D19" t="n">
-        <v>55.62632696390662</v>
+        <v>63.9209225700166</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>INTC</t>
+          <t>DOW</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>59.53</v>
+        <v>44</v>
       </c>
       <c r="C20" t="n">
-        <v>1.9</v>
+        <v>3.2621</v>
       </c>
       <c r="D20" t="n">
-        <v>56.43939393939397</v>
+        <v>64.87068965517238</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>VZ</t>
+          <t>V</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>54.49</v>
+        <v>196.91</v>
       </c>
       <c r="C21" t="n">
-        <v>1.0197</v>
+        <v>0.9019</v>
       </c>
       <c r="D21" t="n">
-        <v>56.76126878130218</v>
+        <v>65.53761323355647</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>CVX</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>128.01</v>
+        <v>91.04000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>1.8134</v>
+        <v>1.0097</v>
       </c>
       <c r="D22" t="n">
-        <v>59.12610619469027</v>
+        <v>68.31168831168829</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>MMM</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>250.11</v>
+        <v>163.24</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8671</v>
+        <v>2.1271</v>
       </c>
       <c r="D23" t="n">
-        <v>59.45621751299485</v>
+        <v>75.26946107784433</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>JNJ</t>
+          <t>PFE</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>142.37</v>
+        <v>37.54</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.0842</v>
+        <v>-0.3186</v>
       </c>
       <c r="D24" t="n">
-        <v>65.0334075723832</v>
+        <v>75.27114967462037</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>CSCO</t>
+          <t>IBM</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.66</v>
+        <v>126.21</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.0857</v>
+        <v>0.3339</v>
       </c>
       <c r="D25" t="n">
-        <v>67.65285996055221</v>
+        <v>76.17625093353253</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>PFE</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>33.83</v>
+        <v>126.32</v>
       </c>
       <c r="C26" t="n">
-        <v>1.1058</v>
+        <v>0.2858</v>
       </c>
       <c r="D26" t="n">
-        <v>68.10551558752996</v>
+        <v>76.61431064572422</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>VZ</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>383.68</v>
+        <v>56.87</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1749</v>
+        <v>0.0352</v>
       </c>
       <c r="D27" t="n">
-        <v>70.95195729537369</v>
+        <v>78.27102803738325</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>KO</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>213.67</v>
+        <v>48.48</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.3033</v>
+        <v>-0.0206</v>
       </c>
       <c r="D28" t="n">
-        <v>74.19237749546281</v>
+        <v>79.09909909909905</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>123.89</v>
+        <v>139.89</v>
       </c>
       <c r="C29" t="n">
-        <v>1.1512</v>
+        <v>1.679</v>
       </c>
       <c r="D29" t="n">
-        <v>74.71169686985175</v>
+        <v>80.53412462908011</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>DIS</t>
+          <t>MCD</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>119.34</v>
+        <v>201.25</v>
       </c>
       <c r="C30" t="n">
-        <v>2.1659</v>
+        <v>1.2731</v>
       </c>
       <c r="D30" t="n">
-        <v>75.28517110266159</v>
+        <v>90.48091224590971</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>WMT</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>130.68</v>
+        <v>267.42</v>
       </c>
       <c r="C31" t="n">
-        <v>2.2935</v>
+        <v>0.7953</v>
       </c>
       <c r="D31" t="n">
-        <v>76.69099756690997</v>
+        <v>92.50238777459411</v>
       </c>
     </row>
   </sheetData>
@@ -883,7 +883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -936,26 +936,26 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>JNJ</t>
+          <t>XOM</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>149.11</v>
+        <v>45.98</v>
       </c>
       <c r="C2" t="n">
-        <v>142.37</v>
+        <v>44.07</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>427.11</v>
+        <v>528.84</v>
       </c>
       <c r="F2" t="n">
-        <v>-4.5202</v>
+        <v>-4.154</v>
       </c>
       <c r="G2" t="n">
-        <v>65.0334075723832</v>
+        <v>58.50422195416165</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -966,26 +966,26 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>PFE</t>
+          <t>RTX</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.46</v>
+        <v>61.92</v>
       </c>
       <c r="C3" t="n">
-        <v>33.83</v>
+        <v>61.09</v>
       </c>
       <c r="D3" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>778.0899999999999</v>
+        <v>427.63</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.5967</v>
+        <v>-1.3404</v>
       </c>
       <c r="G3" t="n">
-        <v>68.10551558752996</v>
+        <v>58.80566801619434</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -996,26 +996,26 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>INTC</t>
+          <t>AXP</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58.26</v>
+        <v>94.52</v>
       </c>
       <c r="C4" t="n">
-        <v>59.53</v>
+        <v>95.79000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>833.4200000000001</v>
+        <v>478.95</v>
       </c>
       <c r="F4" t="n">
-        <v>2.1799</v>
+        <v>1.3436</v>
       </c>
       <c r="G4" t="n">
-        <v>56.43939393939397</v>
+        <v>59.5872742906277</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1026,148 +1026,28 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>UNH</t>
+          <t>INTC</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>278.89</v>
+        <v>50.59</v>
       </c>
       <c r="C5" t="n">
-        <v>291.23</v>
+        <v>49.57</v>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>873.6900000000001</v>
+        <v>892.26</v>
       </c>
       <c r="F5" t="n">
-        <v>4.4247</v>
+        <v>-2.0162</v>
       </c>
       <c r="G5" t="n">
-        <v>43.82578569660976</v>
+        <v>19.66329966329964</v>
       </c>
       <c r="H5" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>XOM</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>45.98</v>
-      </c>
-      <c r="C6" t="n">
-        <v>42.65</v>
-      </c>
-      <c r="D6" t="n">
-        <v>12</v>
-      </c>
-      <c r="E6" t="n">
-        <v>511.8</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-7.2423</v>
-      </c>
-      <c r="G6" t="n">
-        <v>35.45034642032331</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>JPM</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>97.81</v>
-      </c>
-      <c r="C7" t="n">
-        <v>96.27</v>
-      </c>
-      <c r="D7" t="n">
-        <v>6</v>
-      </c>
-      <c r="E7" t="n">
-        <v>577.62</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-1.5745</v>
-      </c>
-      <c r="G7" t="n">
-        <v>48.22627037392136</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>RTX</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>61.92</v>
-      </c>
-      <c r="C8" t="n">
-        <v>59.64</v>
-      </c>
-      <c r="D8" t="n">
-        <v>7</v>
-      </c>
-      <c r="E8" t="n">
-        <v>417.48</v>
-      </c>
-      <c r="F8" t="n">
-        <v>-3.6822</v>
-      </c>
-      <c r="G8" t="n">
-        <v>44.75627769571639</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>AXP</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>94.52</v>
-      </c>
-      <c r="C9" t="n">
-        <v>93.23</v>
-      </c>
-      <c r="D9" t="n">
-        <v>5</v>
-      </c>
-      <c r="E9" t="n">
-        <v>466.15</v>
-      </c>
-      <c r="F9" t="n">
-        <v>-1.3648</v>
-      </c>
-      <c r="G9" t="n">
-        <v>38.45303867403318</v>
-      </c>
-      <c r="H9" t="inlineStr">
         <is>
           <t>buy</t>
         </is>
@@ -1211,7 +1091,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5740.570000000002</v>
+        <v>8450.829999999998</v>
       </c>
     </row>
     <row r="3">
@@ -1221,7 +1101,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4885.360000000001</v>
+        <v>2327.68</v>
       </c>
     </row>
     <row r="4">
@@ -1231,7 +1111,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10625.93</v>
+        <v>10778.51</v>
       </c>
     </row>
   </sheetData>
@@ -1245,7 +1125,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2578,6 +2458,136 @@
       </c>
       <c r="F51" t="n">
         <v>1022</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>13/07/2020 17:30:12</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>3</v>
+      </c>
+      <c r="F52" t="n">
+        <v>435.63</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>13/07/2020 17:30:14</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>PFE</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>23</v>
+      </c>
+      <c r="F53" t="n">
+        <v>809.83</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>14/07/2020 17:11:16</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>UNH</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>3</v>
+      </c>
+      <c r="F54" t="n">
+        <v>925.5599999999999</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>22/07/2020 06:57:40</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>14</v>
+      </c>
+      <c r="F55" t="n">
+        <v>849.8000000000001</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>25/07/2020 07:03:12</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>18</v>
+      </c>
+      <c r="F56" t="n">
+        <v>910.6200000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2591,7 +2601,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3277,6 +3287,182 @@
         <v>10625.93</v>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>12/07/2020 08:11:30</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>5740.570000000002</v>
+      </c>
+      <c r="C43" t="n">
+        <v>4885.360000000001</v>
+      </c>
+      <c r="D43" t="n">
+        <v>10625.93</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>13/07/2020 17:29:49</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>6986.030000000002</v>
+      </c>
+      <c r="C44" t="n">
+        <v>3700.32</v>
+      </c>
+      <c r="D44" t="n">
+        <v>10686.35</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>14/07/2020 17:10:59</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>7911.590000000002</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2841.309999999999</v>
+      </c>
+      <c r="D45" t="n">
+        <v>10752.9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>15/07/2020 16:39:54</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>7911.590000000002</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2887.74</v>
+      </c>
+      <c r="D46" t="n">
+        <v>10799.33</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>16/07/2020 16:59:59</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>7911.590000000002</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2877.57</v>
+      </c>
+      <c r="D47" t="n">
+        <v>10789.16</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>17/07/2020 17:18:13</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>8511.65</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2273.54</v>
+      </c>
+      <c r="D48" t="n">
+        <v>10785.19</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>20/07/2020 18:12:09</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>8511.65</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2265.97</v>
+      </c>
+      <c r="D49" t="n">
+        <v>10777.62</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>22/07/2020 16:38:05</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>9361.449999999999</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1451.43</v>
+      </c>
+      <c r="D50" t="n">
+        <v>10812.88</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>23/07/2020 16:40:59</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>9361.449999999999</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1449.59</v>
+      </c>
+      <c r="D51" t="n">
+        <v>10811.04</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>24/07/2020 16:02:55</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>8450.829999999998</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2342.92</v>
+      </c>
+      <c r="D52" t="n">
+        <v>10793.75</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>27/07/2020 17:12:04</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>8450.829999999998</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2327.68</v>
+      </c>
+      <c r="D53" t="n">
+        <v>10778.51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -399,445 +399,445 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>49.13</v>
+        <v>48.92</v>
       </c>
       <c r="C2" t="n">
-        <v>1.7184</v>
+        <v>-0.4274</v>
       </c>
       <c r="D2" t="n">
-        <v>11.61247511612474</v>
+        <v>9.377093101138684</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RTX</t>
+          <t>TRV</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.51</v>
+        <v>115.08</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.7507</v>
       </c>
       <c r="D3" t="n">
-        <v>16.866028708134</v>
+        <v>25.74525745257452</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>TRV</t>
+          <t>KO</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>113.1</v>
+        <v>47.22</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.1364</v>
+        <v>1.1351</v>
       </c>
       <c r="D4" t="n">
-        <v>24.93150684931501</v>
+        <v>32.10227272727278</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>RTX</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>201.64</v>
+        <v>60.03</v>
       </c>
       <c r="C5" t="n">
-        <v>1.1284</v>
+        <v>4.3818</v>
       </c>
       <c r="D5" t="n">
-        <v>27.19683655536025</v>
+        <v>32.52427184466021</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>WMT</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.07</v>
+        <v>129.81</v>
       </c>
       <c r="C6" t="n">
-        <v>1.7255</v>
+        <v>-1.3902</v>
       </c>
       <c r="D6" t="n">
-        <v>28.32480818414321</v>
+        <v>33.48783314020845</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>JPM</t>
+          <t>IBM</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>95.55</v>
+        <v>125.45</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.5723</v>
+        <v>-0.3099</v>
       </c>
       <c r="D7" t="n">
-        <v>30.70000000000003</v>
+        <v>36.16838487972509</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>JNJ</t>
+          <t>CVX</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>147.22</v>
+        <v>87.2</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0882</v>
+        <v>0.8209</v>
       </c>
       <c r="D8" t="n">
-        <v>31.57894736842098</v>
+        <v>36.38297872340426</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>DOW</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>86.48999999999999</v>
+        <v>41.99</v>
       </c>
       <c r="C9" t="n">
-        <v>1.9809</v>
+        <v>1.6215</v>
       </c>
       <c r="D9" t="n">
-        <v>32.1688500727802</v>
+        <v>39.04939422180802</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>JNJ</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>93.19</v>
+        <v>148.4</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.3742</v>
+        <v>0.8015</v>
       </c>
       <c r="D10" t="n">
-        <v>33.84773662551446</v>
+        <v>39.61290322580658</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>151.21</v>
+        <v>174.28</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5319</v>
+        <v>5.5795</v>
       </c>
       <c r="D11" t="n">
-        <v>34.24198947871831</v>
+        <v>42.99516908212561</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>MMM</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>131.52</v>
+        <v>155.35</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.1973</v>
+        <v>2.7379</v>
       </c>
       <c r="D12" t="n">
-        <v>38.01652892561982</v>
+        <v>43.04059652029823</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>JPM</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>192.29</v>
+        <v>97.20999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8391</v>
+        <v>1.7373</v>
       </c>
       <c r="D13" t="n">
-        <v>39.48820873055696</v>
+        <v>43.23583180987202</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>DIS</t>
+          <t>V</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>117.29</v>
+        <v>196.1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8079</v>
+        <v>1.9814</v>
       </c>
       <c r="D14" t="n">
-        <v>40.0597907324365</v>
+        <v>43.53932584269658</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>XOM</t>
+          <t>AXP</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>43.47</v>
+        <v>95.39</v>
       </c>
       <c r="C15" t="n">
-        <v>2.8876</v>
+        <v>2.3608</v>
       </c>
       <c r="D15" t="n">
-        <v>41.32352941176473</v>
+        <v>45.08966695132364</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>DOW</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.32</v>
+        <v>134.97</v>
       </c>
       <c r="C16" t="n">
-        <v>3.0681</v>
+        <v>2.6232</v>
       </c>
       <c r="D16" t="n">
-        <v>42.42957746478874</v>
+        <v>45.09516837481699</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>97.33</v>
+        <v>204.52</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.017</v>
+        <v>1.4283</v>
       </c>
       <c r="D17" t="n">
-        <v>42.43759177679885</v>
+        <v>46.22833843017333</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>KO</t>
+          <t>WBA</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>46.69</v>
+        <v>40.81</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8423</v>
+        <v>-0.2932</v>
       </c>
       <c r="D18" t="n">
-        <v>44.02810304449642</v>
+        <v>51.60427807486638</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>WMT</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>131.64</v>
+        <v>212.94</v>
       </c>
       <c r="C19" t="n">
-        <v>1.8097</v>
+        <v>-0.1641</v>
       </c>
       <c r="D19" t="n">
-        <v>45.1612903225804</v>
+        <v>51.78839795611662</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>UNH</t>
+          <t>MCD</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>304.5</v>
+        <v>199.26</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2931</v>
+        <v>-0.0502</v>
       </c>
       <c r="D20" t="n">
-        <v>48.69713797522423</v>
+        <v>51.8912529550827</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>IBM</t>
+          <t>XOM</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>125.84</v>
+        <v>43.85</v>
       </c>
       <c r="C21" t="n">
-        <v>1.2308</v>
+        <v>0.8742</v>
       </c>
       <c r="D21" t="n">
-        <v>49.20634920634921</v>
+        <v>51.95439739413682</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>CSCO</t>
+          <t>PFE</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.67</v>
+        <v>38.45</v>
       </c>
       <c r="C22" t="n">
-        <v>1.0814</v>
+        <v>0.1563</v>
       </c>
       <c r="D22" t="n">
-        <v>56.16698292220112</v>
+        <v>53.89221556886235</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>CSCO</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>213.29</v>
+        <v>47.33</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.5009</v>
+        <v>-0.7131999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>56.3195991091314</v>
+        <v>53.91621129326047</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>WBA</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>40.93</v>
+        <v>267.48</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.3651</v>
+        <v>-0.1456</v>
       </c>
       <c r="D24" t="n">
-        <v>56.66666666666676</v>
+        <v>58.90516576715501</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>MCD</t>
+          <t>UNH</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>199.36</v>
+        <v>312.47</v>
       </c>
       <c r="C25" t="n">
-        <v>2.5514</v>
+        <v>2.6174</v>
       </c>
       <c r="D25" t="n">
-        <v>64.20302760463051</v>
+        <v>59.67092008059107</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>MRK</t>
+          <t>NKE</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>81.67</v>
+        <v>100.94</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.054</v>
+        <v>3.709</v>
       </c>
       <c r="D26" t="n">
-        <v>64.63157894736838</v>
+        <v>60.28368794326239</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>MRK</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>267.87</v>
+        <v>81.64</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6349</v>
+        <v>-0.0367</v>
       </c>
       <c r="D27" t="n">
-        <v>67.77560339204173</v>
+        <v>65.18046709129507</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>PFE</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>38.39</v>
+        <v>440.25</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1043</v>
+        <v>0.3625</v>
       </c>
       <c r="D28" t="n">
-        <v>70.0389105058366</v>
+        <v>75.35685963521016</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>DIS</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>438.66</v>
+        <v>127.61</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6677999999999999</v>
+        <v>8.7987</v>
       </c>
       <c r="D29" t="n">
-        <v>75.23411038055389</v>
+        <v>75.84337349397589</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>57.91</v>
+        <v>57.54</v>
       </c>
       <c r="C30" t="n">
-        <v>1.1705</v>
+        <v>-0.6389</v>
       </c>
       <c r="D30" t="n">
-        <v>83.49514563106797</v>
+        <v>76.55786350148379</v>
       </c>
     </row>
     <row r="31">
@@ -863,13 +863,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>133.79</v>
+        <v>133.44</v>
       </c>
       <c r="C31" t="n">
-        <v>1.9042</v>
+        <v>-0.2616</v>
       </c>
       <c r="D31" t="n">
-        <v>95.23809523809535</v>
+        <v>91.31767109295217</v>
       </c>
     </row>
   </sheetData>
@@ -883,7 +883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -943,19 +943,19 @@
         <v>45.98</v>
       </c>
       <c r="C2" t="n">
-        <v>43.47</v>
+        <v>43.85</v>
       </c>
       <c r="D2" t="n">
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>521.64</v>
+        <v>526.2</v>
       </c>
       <c r="F2" t="n">
-        <v>-5.4589</v>
+        <v>-4.6324</v>
       </c>
       <c r="G2" t="n">
-        <v>41.32352941176473</v>
+        <v>51.95439739413682</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -973,19 +973,19 @@
         <v>61.92</v>
       </c>
       <c r="C3" t="n">
-        <v>57.51</v>
+        <v>60.03</v>
       </c>
       <c r="D3" t="n">
         <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>402.57</v>
+        <v>420.21</v>
       </c>
       <c r="F3" t="n">
-        <v>-7.1221</v>
+        <v>-3.0523</v>
       </c>
       <c r="G3" t="n">
-        <v>16.866028708134</v>
+        <v>32.52427184466021</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1003,19 +1003,19 @@
         <v>94.52</v>
       </c>
       <c r="C4" t="n">
-        <v>93.19</v>
+        <v>95.39</v>
       </c>
       <c r="D4" t="n">
         <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>465.95</v>
+        <v>476.95</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.4071</v>
+        <v>0.9204</v>
       </c>
       <c r="G4" t="n">
-        <v>33.84773662551446</v>
+        <v>45.08966695132364</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1033,19 +1033,19 @@
         <v>50.59</v>
       </c>
       <c r="C5" t="n">
-        <v>49.13</v>
+        <v>48.92</v>
       </c>
       <c r="D5" t="n">
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>884.34</v>
+        <v>880.5600000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.8859</v>
+        <v>-3.301</v>
       </c>
       <c r="G5" t="n">
-        <v>11.61247511612474</v>
+        <v>9.377093101138684</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1063,19 +1063,19 @@
         <v>201.62</v>
       </c>
       <c r="C6" t="n">
-        <v>201.64</v>
+        <v>204.52</v>
       </c>
       <c r="D6" t="n">
         <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>806.5599999999999</v>
+        <v>818.08</v>
       </c>
       <c r="F6" t="n">
-        <v>0.009900000000000001</v>
+        <v>1.4383</v>
       </c>
       <c r="G6" t="n">
-        <v>27.19683655536025</v>
+        <v>46.22833843017333</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1086,26 +1086,26 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>DIS</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>115.61</v>
+        <v>166.01</v>
       </c>
       <c r="C7" t="n">
-        <v>117.29</v>
+        <v>174.28</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>703.74</v>
+        <v>697.12</v>
       </c>
       <c r="F7" t="n">
-        <v>1.4532</v>
+        <v>4.9816</v>
       </c>
       <c r="G7" t="n">
-        <v>40.0597907324365</v>
+        <v>42.99516908212561</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1116,26 +1116,26 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>JNJ</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>166.01</v>
+        <v>146.84</v>
       </c>
       <c r="C8" t="n">
-        <v>165.07</v>
+        <v>148.4</v>
       </c>
       <c r="D8" t="n">
         <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>660.28</v>
+        <v>593.6</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5662</v>
+        <v>1.0624</v>
       </c>
       <c r="G8" t="n">
-        <v>28.32480818414321</v>
+        <v>39.61290322580658</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1146,26 +1146,26 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>JNJ</t>
+          <t>WMT</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>146.84</v>
+        <v>129.4</v>
       </c>
       <c r="C9" t="n">
-        <v>147.22</v>
+        <v>129.81</v>
       </c>
       <c r="D9" t="n">
         <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>588.88</v>
+        <v>519.24</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2588</v>
+        <v>0.3168</v>
       </c>
       <c r="G9" t="n">
-        <v>31.57894736842098</v>
+        <v>33.48783314020845</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1176,60 +1176,28 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>WMT</t>
+          <t>TRV</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>129.4</v>
+        <v>113.1</v>
       </c>
       <c r="C10" t="n">
-        <v>131.64</v>
+        <v>115.08</v>
       </c>
       <c r="D10" t="n">
         <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>526.5599999999999</v>
+        <v>460.32</v>
       </c>
       <c r="F10" t="n">
-        <v>1.7311</v>
+        <v>1.7507</v>
       </c>
       <c r="G10" t="n">
-        <v>45.1612903225804</v>
+        <v>25.74525745257452</v>
       </c>
       <c r="H10" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>TRV</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>113.1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>113.1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>4</v>
-      </c>
-      <c r="E11" t="n">
-        <v>452.4</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>24.93150684931501</v>
-      </c>
-      <c r="H11" t="inlineStr">
         <is>
           <t>buy</t>
         </is>
@@ -1273,7 +1241,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4729.29</v>
+        <v>5494.95</v>
       </c>
     </row>
     <row r="3">
@@ -1283,7 +1251,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6012.92</v>
+        <v>5392.28</v>
       </c>
     </row>
     <row r="4">
@@ -1293,7 +1261,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10742.21</v>
+        <v>10887.23</v>
       </c>
     </row>
   </sheetData>
@@ -1307,7 +1275,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2926,6 +2894,32 @@
       </c>
       <c r="F62" t="n">
         <v>452.4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>05/08/2020 17:30:01</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>6</v>
+      </c>
+      <c r="F63" t="n">
+        <v>765.66</v>
       </c>
     </row>
   </sheetData>
@@ -2939,7 +2933,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3865,6 +3859,22 @@
         <v>10742.21</v>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>05/08/2020 17:29:51</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>5494.95</v>
+      </c>
+      <c r="C58" t="n">
+        <v>5392.28</v>
+      </c>
+      <c r="D58" t="n">
+        <v>10887.23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -399,29 +399,29 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48.92</v>
+        <v>48.03</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.4274</v>
+        <v>-1.1118</v>
       </c>
       <c r="D2" t="n">
-        <v>9.377093101138684</v>
+        <v>27.80000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>TRV</t>
+          <t>CVX</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>115.08</v>
+        <v>86.8</v>
       </c>
       <c r="C3" t="n">
-        <v>1.7507</v>
+        <v>-0.766</v>
       </c>
       <c r="D3" t="n">
-        <v>25.74525745257452</v>
+        <v>38.21656050955416</v>
       </c>
     </row>
     <row r="4">
@@ -431,157 +431,155 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.22</v>
+        <v>47.8</v>
       </c>
       <c r="C4" t="n">
-        <v>1.1351</v>
+        <v>0.674</v>
       </c>
       <c r="D4" t="n">
-        <v>32.10227272727278</v>
+        <v>40.65040650406499</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>RTX</t>
+          <t>WMT</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>60.03</v>
+        <v>129.97</v>
       </c>
       <c r="C5" t="n">
-        <v>4.3818</v>
+        <v>0.4793</v>
       </c>
       <c r="D5" t="n">
-        <v>32.52427184466021</v>
+        <v>42.34016887816635</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>WMT</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>129.81</v>
+        <v>134.92</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.3902</v>
+        <v>0.3944</v>
       </c>
       <c r="D6" t="n">
-        <v>33.48783314020845</v>
+        <v>43.42885375494063</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>IBM</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>125.45</v>
+        <v>170.02</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.3099</v>
+        <v>-1.266</v>
       </c>
       <c r="D7" t="n">
-        <v>36.16838487972509</v>
+        <v>45.02129925452611</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>RTX</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>87.2</v>
+        <v>61.23</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8209</v>
+        <v>2.2716</v>
       </c>
       <c r="D8" t="n">
-        <v>36.38297872340426</v>
+        <v>45.906432748538</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>DOW</t>
+          <t>TRV</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>41.99</v>
+        <v>117.36</v>
       </c>
       <c r="C9" t="n">
-        <v>1.6215</v>
+        <v>3.1827</v>
       </c>
       <c r="D9" t="n">
-        <v>39.04939422180802</v>
+        <v>47.08121827411167</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>JNJ</t>
+          <t>MMM</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>148.4</v>
+        <v>158.33</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8015</v>
+        <v>1.4936</v>
       </c>
       <c r="D10" t="n">
-        <v>39.61290322580658</v>
+        <v>47.09503655252022</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>IBM</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>174.28</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5.5795</v>
-      </c>
+        <v>124.96</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>42.99516908212561</v>
+        <v>49.49381327334081</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>XOM</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>155.35</v>
+        <v>43.44</v>
       </c>
       <c r="C12" t="n">
-        <v>2.7379</v>
+        <v>-0.4583</v>
       </c>
       <c r="D12" t="n">
-        <v>43.04059652029823</v>
+        <v>50.08077544426492</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>JPM</t>
+          <t>DOW</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.20999999999999</v>
+        <v>42.63</v>
       </c>
       <c r="C13" t="n">
-        <v>1.7373</v>
+        <v>1.3793</v>
       </c>
       <c r="D13" t="n">
-        <v>43.23583180987202</v>
+        <v>50.10373443983404</v>
       </c>
     </row>
     <row r="14">
@@ -591,61 +589,61 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>196.1</v>
+        <v>196.36</v>
       </c>
       <c r="C14" t="n">
-        <v>1.9814</v>
+        <v>-1.2125</v>
       </c>
       <c r="D14" t="n">
-        <v>43.53932584269658</v>
+        <v>52.66168059832822</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>JNJ</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>95.39</v>
+        <v>148.6</v>
       </c>
       <c r="C15" t="n">
-        <v>2.3608</v>
+        <v>0.7116</v>
       </c>
       <c r="D15" t="n">
-        <v>45.08966695132364</v>
+        <v>53.09278350515457</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>JPM</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>134.97</v>
+        <v>99.38</v>
       </c>
       <c r="C16" t="n">
-        <v>2.6232</v>
+        <v>2.2007</v>
       </c>
       <c r="D16" t="n">
-        <v>45.09516837481699</v>
+        <v>54.53795379537951</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>CSCO</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>204.52</v>
+        <v>47.43</v>
       </c>
       <c r="C17" t="n">
-        <v>1.4283</v>
+        <v>-0.7117</v>
       </c>
       <c r="D17" t="n">
-        <v>46.22833843017333</v>
+        <v>60.84210526315788</v>
       </c>
     </row>
     <row r="18">
@@ -655,29 +653,29 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>40.81</v>
+        <v>41.52</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.2932</v>
+        <v>1.5407</v>
       </c>
       <c r="D18" t="n">
-        <v>51.60427807486638</v>
+        <v>62.84987277353703</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>AXP</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>212.94</v>
+        <v>99.16</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1641</v>
+        <v>3.3778</v>
       </c>
       <c r="D19" t="n">
-        <v>51.78839795611662</v>
+        <v>63.66880799428976</v>
       </c>
     </row>
     <row r="20">
@@ -687,141 +685,141 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>199.26</v>
+        <v>204.6</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0502</v>
+        <v>0.6989</v>
       </c>
       <c r="D20" t="n">
-        <v>51.8912529550827</v>
+        <v>64.68531468531464</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>XOM</t>
+          <t>NKE</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>43.85</v>
+        <v>101.86</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8742</v>
+        <v>1.4037</v>
       </c>
       <c r="D21" t="n">
-        <v>51.95439739413682</v>
+        <v>65.54850407978236</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>PFE</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>38.45</v>
+        <v>208.27</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1563</v>
+        <v>1.9682</v>
       </c>
       <c r="D22" t="n">
-        <v>53.89221556886235</v>
+        <v>67.54385964912279</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>CSCO</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>47.33</v>
+        <v>212.48</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.7131999999999999</v>
+        <v>-1.7888</v>
       </c>
       <c r="D23" t="n">
-        <v>53.91621129326047</v>
+        <v>68.57142857142857</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>PFE</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>267.48</v>
+        <v>38.45</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.1456</v>
+        <v>0.4703</v>
       </c>
       <c r="D24" t="n">
-        <v>58.90516576715501</v>
+        <v>70.46263345195737</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>UNH</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>312.47</v>
+        <v>271.64</v>
       </c>
       <c r="C25" t="n">
-        <v>2.6174</v>
+        <v>0.8427</v>
       </c>
       <c r="D25" t="n">
-        <v>59.67092008059107</v>
+        <v>72.17939733707084</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>MRK</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>100.94</v>
+        <v>81.02</v>
       </c>
       <c r="C26" t="n">
-        <v>3.709</v>
+        <v>-0.037</v>
       </c>
       <c r="D26" t="n">
-        <v>60.28368794326239</v>
+        <v>73.44497607655495</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>MRK</t>
+          <t>VZ</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>81.64</v>
+        <v>58.53</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.0367</v>
+        <v>1.2104</v>
       </c>
       <c r="D27" t="n">
-        <v>65.18046709129507</v>
+        <v>75.76687116564429</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>UNH</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>440.25</v>
+        <v>317.03</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3625</v>
+        <v>0.9457</v>
       </c>
       <c r="D28" t="n">
-        <v>75.35685963521016</v>
+        <v>78.57142857142847</v>
       </c>
     </row>
     <row r="29">
@@ -831,29 +829,29 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>127.61</v>
+        <v>129.93</v>
       </c>
       <c r="C29" t="n">
-        <v>8.7987</v>
+        <v>-0.6803</v>
       </c>
       <c r="D29" t="n">
-        <v>75.84337349397589</v>
+        <v>81.95020746887971</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>VZ</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>57.54</v>
+        <v>444.45</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.6389</v>
+        <v>-2.4495</v>
       </c>
       <c r="D30" t="n">
-        <v>76.55786350148379</v>
+        <v>84.01213569918173</v>
       </c>
     </row>
     <row r="31">
@@ -863,13 +861,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>133.44</v>
+        <v>133.55</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.2616</v>
+        <v>0.633</v>
       </c>
       <c r="D31" t="n">
-        <v>91.31767109295217</v>
+        <v>86.66666666666693</v>
       </c>
     </row>
   </sheetData>
@@ -943,19 +941,19 @@
         <v>45.98</v>
       </c>
       <c r="C2" t="n">
-        <v>43.85</v>
+        <v>43.44</v>
       </c>
       <c r="D2" t="n">
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>526.2</v>
+        <v>521.28</v>
       </c>
       <c r="F2" t="n">
-        <v>-4.6324</v>
+        <v>-5.5241</v>
       </c>
       <c r="G2" t="n">
-        <v>51.95439739413682</v>
+        <v>50.08077544426492</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -973,19 +971,19 @@
         <v>61.92</v>
       </c>
       <c r="C3" t="n">
-        <v>60.03</v>
+        <v>61.23</v>
       </c>
       <c r="D3" t="n">
         <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>420.21</v>
+        <v>428.61</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.0523</v>
+        <v>-1.1143</v>
       </c>
       <c r="G3" t="n">
-        <v>32.52427184466021</v>
+        <v>45.906432748538</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1003,19 +1001,19 @@
         <v>94.52</v>
       </c>
       <c r="C4" t="n">
-        <v>95.39</v>
+        <v>99.16</v>
       </c>
       <c r="D4" t="n">
         <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>476.95</v>
+        <v>495.8</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9204</v>
+        <v>4.909</v>
       </c>
       <c r="G4" t="n">
-        <v>45.08966695132364</v>
+        <v>63.66880799428976</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1033,19 +1031,19 @@
         <v>50.59</v>
       </c>
       <c r="C5" t="n">
-        <v>48.92</v>
+        <v>48.03</v>
       </c>
       <c r="D5" t="n">
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>880.5600000000001</v>
+        <v>864.54</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.301</v>
+        <v>-5.0603</v>
       </c>
       <c r="G5" t="n">
-        <v>9.377093101138684</v>
+        <v>27.80000000000001</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1063,19 +1061,19 @@
         <v>201.62</v>
       </c>
       <c r="C6" t="n">
-        <v>204.52</v>
+        <v>208.27</v>
       </c>
       <c r="D6" t="n">
         <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>818.08</v>
+        <v>833.08</v>
       </c>
       <c r="F6" t="n">
-        <v>1.4383</v>
+        <v>3.2983</v>
       </c>
       <c r="G6" t="n">
-        <v>46.22833843017333</v>
+        <v>67.54385964912279</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1093,19 +1091,19 @@
         <v>166.01</v>
       </c>
       <c r="C7" t="n">
-        <v>174.28</v>
+        <v>170.02</v>
       </c>
       <c r="D7" t="n">
         <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>697.12</v>
+        <v>680.08</v>
       </c>
       <c r="F7" t="n">
-        <v>4.9816</v>
+        <v>2.4155</v>
       </c>
       <c r="G7" t="n">
-        <v>42.99516908212561</v>
+        <v>45.02129925452611</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1123,19 +1121,19 @@
         <v>146.84</v>
       </c>
       <c r="C8" t="n">
-        <v>148.4</v>
+        <v>148.6</v>
       </c>
       <c r="D8" t="n">
         <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>593.6</v>
+        <v>594.4</v>
       </c>
       <c r="F8" t="n">
-        <v>1.0624</v>
+        <v>1.1986</v>
       </c>
       <c r="G8" t="n">
-        <v>39.61290322580658</v>
+        <v>53.09278350515457</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1153,19 +1151,19 @@
         <v>129.4</v>
       </c>
       <c r="C9" t="n">
-        <v>129.81</v>
+        <v>129.97</v>
       </c>
       <c r="D9" t="n">
         <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>519.24</v>
+        <v>519.88</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3168</v>
+        <v>0.4405</v>
       </c>
       <c r="G9" t="n">
-        <v>33.48783314020845</v>
+        <v>42.34016887816635</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1183,19 +1181,19 @@
         <v>113.1</v>
       </c>
       <c r="C10" t="n">
-        <v>115.08</v>
+        <v>117.36</v>
       </c>
       <c r="D10" t="n">
         <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>460.32</v>
+        <v>469.44</v>
       </c>
       <c r="F10" t="n">
-        <v>1.7507</v>
+        <v>3.7666</v>
       </c>
       <c r="G10" t="n">
-        <v>25.74525745257452</v>
+        <v>47.08121827411167</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1251,7 +1249,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5392.28</v>
+        <v>5407.11</v>
       </c>
     </row>
     <row r="4">
@@ -1261,7 +1259,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10887.23</v>
+        <v>10902.06</v>
       </c>
     </row>
   </sheetData>
@@ -2933,7 +2931,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3875,6 +3873,38 @@
         <v>10887.23</v>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>06/08/2020 16:38:57</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>5494.95</v>
+      </c>
+      <c r="C59" t="n">
+        <v>5364.99</v>
+      </c>
+      <c r="D59" t="n">
+        <v>10859.94</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>07/08/2020 17:02:08</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>5494.95</v>
+      </c>
+      <c r="C60" t="n">
+        <v>5407.11</v>
+      </c>
+      <c r="D60" t="n">
+        <v>10902.06</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -395,17 +395,17 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>INTC</t>
+          <t>KO</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48.03</v>
+        <v>47.72</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.1118</v>
+        <v>-0.1674</v>
       </c>
       <c r="D2" t="n">
-        <v>27.80000000000001</v>
+        <v>39.89361702127661</v>
       </c>
     </row>
     <row r="3">
@@ -415,443 +415,445 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>86.8</v>
+        <v>89.73</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.766</v>
+        <v>3.3756</v>
       </c>
       <c r="D3" t="n">
-        <v>38.21656050955416</v>
+        <v>45.94427244582043</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>KO</t>
+          <t>MMM</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.8</v>
+        <v>161.44</v>
       </c>
       <c r="C4" t="n">
-        <v>0.674</v>
+        <v>1.9643</v>
       </c>
       <c r="D4" t="n">
-        <v>40.65040650406499</v>
+        <v>46.49805447470815</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>WMT</t>
+          <t>V</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>129.97</v>
+        <v>196.79</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4793</v>
+        <v>0.219</v>
       </c>
       <c r="D5" t="n">
-        <v>42.34016887816635</v>
+        <v>49.71962616822428</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>INTC</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>134.92</v>
+        <v>49.22</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3944</v>
+        <v>2.4776</v>
       </c>
       <c r="D6" t="n">
-        <v>43.42885375494063</v>
+        <v>49.80694980694978</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>WMT</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>170.02</v>
+        <v>131.88</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.266</v>
+        <v>1.4696</v>
       </c>
       <c r="D7" t="n">
-        <v>45.02129925452611</v>
+        <v>53.2940019665683</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>RTX</t>
+          <t>XOM</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>61.23</v>
+        <v>44.51</v>
       </c>
       <c r="C8" t="n">
-        <v>2.2716</v>
+        <v>2.4632</v>
       </c>
       <c r="D8" t="n">
-        <v>45.906432748538</v>
+        <v>53.32326283987913</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>TRV</t>
+          <t>DOW</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>117.36</v>
+        <v>44.8</v>
       </c>
       <c r="C9" t="n">
-        <v>3.1827</v>
+        <v>5.0903</v>
       </c>
       <c r="D9" t="n">
-        <v>47.08121827411167</v>
+        <v>53.83877159309019</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>158.33</v>
+        <v>142.02</v>
       </c>
       <c r="C10" t="n">
-        <v>1.4936</v>
+        <v>5.2624</v>
       </c>
       <c r="D10" t="n">
-        <v>47.09503655252022</v>
+        <v>54.25489412704759</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>IBM</t>
+          <t>JNJ</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>124.96</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
+        <v>148.03</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.3836</v>
+      </c>
       <c r="D11" t="n">
-        <v>49.49381327334081</v>
+        <v>55.75101488497965</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>XOM</t>
+          <t>CSCO</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>43.44</v>
+        <v>47.73</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.4583</v>
+        <v>0.6325</v>
       </c>
       <c r="D12" t="n">
-        <v>50.08077544426492</v>
+        <v>56.33802816901405</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>DOW</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>42.63</v>
+        <v>208.25</v>
       </c>
       <c r="C13" t="n">
-        <v>1.3793</v>
+        <v>-1.9908</v>
       </c>
       <c r="D13" t="n">
-        <v>50.10373443983404</v>
+        <v>56.92259282567655</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>TRV</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>196.36</v>
+        <v>119.12</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.2125</v>
+        <v>1.4997</v>
       </c>
       <c r="D14" t="n">
-        <v>52.66168059832822</v>
+        <v>57.84499054820419</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>JNJ</t>
+          <t>MCD</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>148.6</v>
+        <v>204.12</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7116</v>
+        <v>-0.2346</v>
       </c>
       <c r="D15" t="n">
-        <v>53.09278350515457</v>
+        <v>57.98553144129104</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>JPM</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>99.38</v>
+        <v>179.41</v>
       </c>
       <c r="C16" t="n">
-        <v>2.2007</v>
+        <v>5.5229</v>
       </c>
       <c r="D16" t="n">
-        <v>54.53795379537951</v>
+        <v>60.59907834101381</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>CSCO</t>
+          <t>IBM</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>47.43</v>
+        <v>127.11</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.7117</v>
+        <v>1.7206</v>
       </c>
       <c r="D17" t="n">
-        <v>60.84210526315788</v>
+        <v>60.99044309296265</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>WBA</t>
+          <t>RTX</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>41.52</v>
+        <v>64.23</v>
       </c>
       <c r="C18" t="n">
-        <v>1.5407</v>
+        <v>4.8996</v>
       </c>
       <c r="D18" t="n">
-        <v>62.84987277353703</v>
+        <v>62.78501628664494</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>MRK</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>99.16</v>
+        <v>80.91</v>
       </c>
       <c r="C19" t="n">
-        <v>3.3778</v>
+        <v>-0.1358</v>
       </c>
       <c r="D19" t="n">
-        <v>63.66880799428976</v>
+        <v>64.90963855421676</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>MCD</t>
+          <t>JPM</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>204.6</v>
+        <v>100.64</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6989</v>
+        <v>1.2679</v>
       </c>
       <c r="D20" t="n">
-        <v>64.68531468531464</v>
+        <v>65.58333333333329</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>101.86</v>
+        <v>209.38</v>
       </c>
       <c r="C21" t="n">
-        <v>1.4037</v>
+        <v>0.533</v>
       </c>
       <c r="D21" t="n">
-        <v>65.54850407978236</v>
+        <v>66.78986272439276</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>AXP</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>208.27</v>
+        <v>101.62</v>
       </c>
       <c r="C22" t="n">
-        <v>1.9682</v>
+        <v>2.4808</v>
       </c>
       <c r="D22" t="n">
-        <v>67.54385964912279</v>
+        <v>68.20737039350402</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>PFE</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>212.48</v>
+        <v>38.39</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.7888</v>
+        <v>-0.156</v>
       </c>
       <c r="D23" t="n">
-        <v>68.57142857142857</v>
+        <v>71.99999999999996</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>PFE</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>38.45</v>
+        <v>274.73</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4703</v>
+        <v>1.1375</v>
       </c>
       <c r="D24" t="n">
-        <v>70.46263345195737</v>
+        <v>73.9672131147542</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>VZ</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>271.64</v>
+        <v>58.99</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8427</v>
+        <v>0.7859</v>
       </c>
       <c r="D25" t="n">
-        <v>72.17939733707084</v>
+        <v>78.64864864864879</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>MRK</t>
+          <t>NKE</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>81.02</v>
+        <v>105.41</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.037</v>
+        <v>3.4852</v>
       </c>
       <c r="D26" t="n">
-        <v>73.44497607655495</v>
+        <v>80.68862275449104</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>VZ</t>
+          <t>DIS</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>58.53</v>
+        <v>128.79</v>
       </c>
       <c r="C27" t="n">
-        <v>1.2104</v>
+        <v>-0.8774</v>
       </c>
       <c r="D27" t="n">
-        <v>75.76687116564429</v>
+        <v>82.63598326359829</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>UNH</t>
+          <t>WBA</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>317.03</v>
+        <v>42.86</v>
       </c>
       <c r="C28" t="n">
-        <v>0.9457</v>
+        <v>3.2274</v>
       </c>
       <c r="D28" t="n">
-        <v>78.57142857142847</v>
+        <v>82.82608695652183</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>DIS</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>129.93</v>
+        <v>450.91</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.6803</v>
+        <v>1.4535</v>
       </c>
       <c r="D29" t="n">
-        <v>81.95020746887971</v>
+        <v>84.29885275433769</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>UNH</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>444.45</v>
+        <v>319.1</v>
       </c>
       <c r="C30" t="n">
-        <v>-2.4495</v>
+        <v>0.6529</v>
       </c>
       <c r="D30" t="n">
-        <v>84.01213569918173</v>
+        <v>86.21908127208472</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +863,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>133.55</v>
+        <v>134.1</v>
       </c>
       <c r="C31" t="n">
-        <v>0.633</v>
+        <v>0.4118</v>
       </c>
       <c r="D31" t="n">
-        <v>86.66666666666693</v>
+        <v>86.9070208728655</v>
       </c>
     </row>
   </sheetData>
@@ -941,19 +943,19 @@
         <v>45.98</v>
       </c>
       <c r="C2" t="n">
-        <v>43.44</v>
+        <v>44.51</v>
       </c>
       <c r="D2" t="n">
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>521.28</v>
+        <v>534.12</v>
       </c>
       <c r="F2" t="n">
-        <v>-5.5241</v>
+        <v>-3.197</v>
       </c>
       <c r="G2" t="n">
-        <v>50.08077544426492</v>
+        <v>53.32326283987913</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -971,19 +973,19 @@
         <v>61.92</v>
       </c>
       <c r="C3" t="n">
-        <v>61.23</v>
+        <v>64.23</v>
       </c>
       <c r="D3" t="n">
         <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>428.61</v>
+        <v>449.61</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.1143</v>
+        <v>3.7306</v>
       </c>
       <c r="G3" t="n">
-        <v>45.906432748538</v>
+        <v>62.78501628664494</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1001,19 +1003,19 @@
         <v>94.52</v>
       </c>
       <c r="C4" t="n">
-        <v>99.16</v>
+        <v>101.62</v>
       </c>
       <c r="D4" t="n">
         <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>495.8</v>
+        <v>508.1</v>
       </c>
       <c r="F4" t="n">
-        <v>4.909</v>
+        <v>7.5116</v>
       </c>
       <c r="G4" t="n">
-        <v>63.66880799428976</v>
+        <v>68.20737039350402</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1031,19 +1033,19 @@
         <v>50.59</v>
       </c>
       <c r="C5" t="n">
-        <v>48.03</v>
+        <v>49.22</v>
       </c>
       <c r="D5" t="n">
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>864.54</v>
+        <v>885.96</v>
       </c>
       <c r="F5" t="n">
-        <v>-5.0603</v>
+        <v>-2.708</v>
       </c>
       <c r="G5" t="n">
-        <v>27.80000000000001</v>
+        <v>49.80694980694978</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1061,19 +1063,19 @@
         <v>201.62</v>
       </c>
       <c r="C6" t="n">
-        <v>208.27</v>
+        <v>209.38</v>
       </c>
       <c r="D6" t="n">
         <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>833.08</v>
+        <v>837.52</v>
       </c>
       <c r="F6" t="n">
-        <v>3.2983</v>
+        <v>3.8488</v>
       </c>
       <c r="G6" t="n">
-        <v>67.54385964912279</v>
+        <v>66.78986272439276</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1091,19 +1093,19 @@
         <v>166.01</v>
       </c>
       <c r="C7" t="n">
-        <v>170.02</v>
+        <v>179.41</v>
       </c>
       <c r="D7" t="n">
         <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>680.08</v>
+        <v>717.64</v>
       </c>
       <c r="F7" t="n">
-        <v>2.4155</v>
+        <v>8.0718</v>
       </c>
       <c r="G7" t="n">
-        <v>45.02129925452611</v>
+        <v>60.59907834101381</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1121,19 +1123,19 @@
         <v>146.84</v>
       </c>
       <c r="C8" t="n">
-        <v>148.6</v>
+        <v>148.03</v>
       </c>
       <c r="D8" t="n">
         <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>594.4</v>
+        <v>592.12</v>
       </c>
       <c r="F8" t="n">
-        <v>1.1986</v>
+        <v>0.8104</v>
       </c>
       <c r="G8" t="n">
-        <v>53.09278350515457</v>
+        <v>55.75101488497965</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1151,19 +1153,19 @@
         <v>129.4</v>
       </c>
       <c r="C9" t="n">
-        <v>129.97</v>
+        <v>131.88</v>
       </c>
       <c r="D9" t="n">
         <v>4</v>
       </c>
       <c r="E9" t="n">
-        <v>519.88</v>
+        <v>527.52</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4405</v>
+        <v>1.9165</v>
       </c>
       <c r="G9" t="n">
-        <v>42.34016887816635</v>
+        <v>53.2940019665683</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1181,19 +1183,19 @@
         <v>113.1</v>
       </c>
       <c r="C10" t="n">
-        <v>117.36</v>
+        <v>119.12</v>
       </c>
       <c r="D10" t="n">
         <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>469.44</v>
+        <v>476.48</v>
       </c>
       <c r="F10" t="n">
-        <v>3.7666</v>
+        <v>5.3227</v>
       </c>
       <c r="G10" t="n">
-        <v>47.08121827411167</v>
+        <v>57.84499054820419</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1249,7 +1251,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5407.11</v>
+        <v>5529.07</v>
       </c>
     </row>
     <row r="4">
@@ -1259,7 +1261,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10902.06</v>
+        <v>11024.02</v>
       </c>
     </row>
   </sheetData>
@@ -2931,7 +2933,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3905,6 +3907,22 @@
         <v>10902.06</v>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>10/08/2020 17:38:49</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>5494.95</v>
+      </c>
+      <c r="C61" t="n">
+        <v>5529.07</v>
+      </c>
+      <c r="D61" t="n">
+        <v>11024.02</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -395,129 +395,129 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>KO</t>
+          <t>PFE</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>47.72</v>
+        <v>37.79</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1674</v>
+        <v>-1.5629</v>
       </c>
       <c r="D2" t="n">
-        <v>39.89361702127661</v>
+        <v>27.51322751322756</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>WMT</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89.73</v>
+        <v>130.2</v>
       </c>
       <c r="C3" t="n">
-        <v>3.3756</v>
+        <v>-1.2739</v>
       </c>
       <c r="D3" t="n">
-        <v>45.94427244582043</v>
+        <v>43.09734513274332</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>INTC</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>161.44</v>
+        <v>48.19</v>
       </c>
       <c r="C4" t="n">
-        <v>1.9643</v>
+        <v>-2.0926</v>
       </c>
       <c r="D4" t="n">
-        <v>46.49805447470815</v>
+        <v>43.87755102040817</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>KO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>196.79</v>
+        <v>47.93</v>
       </c>
       <c r="C5" t="n">
-        <v>0.219</v>
+        <v>0.4401</v>
       </c>
       <c r="D5" t="n">
-        <v>49.71962616822428</v>
+        <v>46.59400544959129</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>INTC</t>
+          <t>JNJ</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49.22</v>
+        <v>146.97</v>
       </c>
       <c r="C6" t="n">
-        <v>2.4776</v>
+        <v>-0.7161</v>
       </c>
       <c r="D6" t="n">
-        <v>49.80694980694978</v>
+        <v>50.86419753086412</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>WMT</t>
+          <t>CVX</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>131.88</v>
+        <v>89.62</v>
       </c>
       <c r="C7" t="n">
-        <v>1.4696</v>
+        <v>-0.1226</v>
       </c>
       <c r="D7" t="n">
-        <v>53.2940019665683</v>
+        <v>51.77948360083742</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>XOM</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44.51</v>
+        <v>203.38</v>
       </c>
       <c r="C8" t="n">
-        <v>2.4632</v>
+        <v>-2.3385</v>
       </c>
       <c r="D8" t="n">
-        <v>53.32326283987913</v>
+        <v>51.95290063182078</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>DOW</t>
+          <t>V</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>44.8</v>
+        <v>197.77</v>
       </c>
       <c r="C9" t="n">
-        <v>5.0903</v>
+        <v>0.498</v>
       </c>
       <c r="D9" t="n">
-        <v>53.83877159309019</v>
+        <v>52.31877532642953</v>
       </c>
     </row>
     <row r="10">
@@ -527,349 +527,349 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>142.02</v>
+        <v>142.53</v>
       </c>
       <c r="C10" t="n">
-        <v>5.2624</v>
+        <v>0.3591</v>
       </c>
       <c r="D10" t="n">
-        <v>54.25489412704759</v>
+        <v>59.50168918918919</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>JNJ</t>
+          <t>DOW</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>148.03</v>
+        <v>44.5</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.3836</v>
+        <v>-0.6696</v>
       </c>
       <c r="D11" t="n">
-        <v>55.75101488497965</v>
+        <v>60.06423982869381</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>CSCO</t>
+          <t>MRK</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>47.73</v>
+        <v>80.91</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6325</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>56.33802816901405</v>
+        <v>60.3741496598639</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>208.25</v>
+        <v>180.13</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.9908</v>
+        <v>0.4013</v>
       </c>
       <c r="D13" t="n">
-        <v>56.92259282567655</v>
+        <v>60.68061623361692</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>TRV</t>
+          <t>XOM</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>119.12</v>
+        <v>44.97</v>
       </c>
       <c r="C14" t="n">
-        <v>1.4997</v>
+        <v>1.0335</v>
       </c>
       <c r="D14" t="n">
-        <v>57.84499054820419</v>
+        <v>60.8231707317073</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>MCD</t>
+          <t>CSCO</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>204.12</v>
+        <v>47.19</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.2346</v>
+        <v>-1.1314</v>
       </c>
       <c r="D15" t="n">
-        <v>57.98553144129104</v>
+        <v>61.69665809768629</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>WBA</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.41</v>
+        <v>41.85</v>
       </c>
       <c r="C16" t="n">
-        <v>5.5229</v>
+        <v>-2.3565</v>
       </c>
       <c r="D16" t="n">
-        <v>60.59907834101381</v>
+        <v>62.2641509433963</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>IBM</t>
+          <t>RTX</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>127.11</v>
+        <v>64.26000000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>1.7206</v>
+        <v>0.0467</v>
       </c>
       <c r="D17" t="n">
-        <v>60.99044309296265</v>
+        <v>63.33878887070377</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>RTX</t>
+          <t>VZ</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>64.23</v>
+        <v>58.51</v>
       </c>
       <c r="C18" t="n">
-        <v>4.8996</v>
+        <v>-0.8137</v>
       </c>
       <c r="D18" t="n">
-        <v>62.78501628664494</v>
+        <v>64.42577030812329</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>MRK</t>
+          <t>TRV</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>80.91</v>
+        <v>119.92</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1358</v>
+        <v>0.6716</v>
       </c>
       <c r="D19" t="n">
-        <v>64.90963855421676</v>
+        <v>66.22428666224286</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>JPM</t>
+          <t>IBM</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>100.64</v>
+        <v>126.75</v>
       </c>
       <c r="C20" t="n">
-        <v>1.2679</v>
+        <v>-0.2832</v>
       </c>
       <c r="D20" t="n">
-        <v>65.58333333333329</v>
+        <v>69.1625615763547</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>MMM</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>209.38</v>
+        <v>163.38</v>
       </c>
       <c r="C21" t="n">
-        <v>0.533</v>
+        <v>1.2017</v>
       </c>
       <c r="D21" t="n">
-        <v>66.78986272439276</v>
+        <v>70.40040547389759</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>JPM</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>101.62</v>
+        <v>103.82</v>
       </c>
       <c r="C22" t="n">
-        <v>2.4808</v>
+        <v>3.1598</v>
       </c>
       <c r="D22" t="n">
-        <v>68.20737039350402</v>
+        <v>72.01897018970186</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>PFE</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>38.39</v>
+        <v>211.06</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.156</v>
+        <v>0.8024</v>
       </c>
       <c r="D23" t="n">
-        <v>71.99999999999996</v>
+        <v>74.55775234131109</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>UNH</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>274.73</v>
+        <v>315.55</v>
       </c>
       <c r="C24" t="n">
-        <v>1.1375</v>
+        <v>-1.1125</v>
       </c>
       <c r="D24" t="n">
-        <v>73.9672131147542</v>
+        <v>75.58977719528171</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>VZ</t>
+          <t>AXP</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>58.99</v>
+        <v>103.26</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7859</v>
+        <v>1.6139</v>
       </c>
       <c r="D25" t="n">
-        <v>78.64864864864879</v>
+        <v>77.14987714987711</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>105.41</v>
+        <v>133.23</v>
       </c>
       <c r="C26" t="n">
-        <v>3.4852</v>
+        <v>-0.6488</v>
       </c>
       <c r="D26" t="n">
-        <v>80.68862275449104</v>
+        <v>77.15736040609151</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>DIS</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>128.79</v>
+        <v>437.5</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.8774</v>
+        <v>-2.974</v>
       </c>
       <c r="D27" t="n">
-        <v>82.63598326359829</v>
+        <v>78.9188709391088</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>WBA</t>
+          <t>MCD</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>42.86</v>
+        <v>205</v>
       </c>
       <c r="C28" t="n">
-        <v>3.2274</v>
+        <v>0.4311</v>
       </c>
       <c r="D28" t="n">
-        <v>82.82608695652183</v>
+        <v>81.64739884393053</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>DIS</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>450.91</v>
+        <v>130.49</v>
       </c>
       <c r="C29" t="n">
-        <v>1.4535</v>
+        <v>1.32</v>
       </c>
       <c r="D29" t="n">
-        <v>84.29885275433769</v>
+        <v>84.58192363460606</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>UNH</t>
+          <t>NKE</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>319.1</v>
+        <v>105.12</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6529</v>
+        <v>-0.2751</v>
       </c>
       <c r="D30" t="n">
-        <v>86.21908127208472</v>
+        <v>84.81510621557834</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>134.1</v>
+        <v>274.92</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4118</v>
+        <v>0.0692</v>
       </c>
       <c r="D31" t="n">
-        <v>86.9070208728655</v>
+        <v>86.24060150375985</v>
       </c>
     </row>
   </sheetData>
@@ -883,7 +883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -943,19 +943,19 @@
         <v>45.98</v>
       </c>
       <c r="C2" t="n">
-        <v>44.51</v>
+        <v>44.97</v>
       </c>
       <c r="D2" t="n">
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>534.12</v>
+        <v>539.64</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.197</v>
+        <v>-2.1966</v>
       </c>
       <c r="G2" t="n">
-        <v>53.32326283987913</v>
+        <v>60.8231707317073</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -973,19 +973,19 @@
         <v>61.92</v>
       </c>
       <c r="C3" t="n">
-        <v>64.23</v>
+        <v>64.26000000000001</v>
       </c>
       <c r="D3" t="n">
         <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>449.61</v>
+        <v>449.8200000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>3.7306</v>
+        <v>3.7791</v>
       </c>
       <c r="G3" t="n">
-        <v>62.78501628664494</v>
+        <v>63.33878887070377</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -996,26 +996,26 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>INTC</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94.52</v>
+        <v>50.59</v>
       </c>
       <c r="C4" t="n">
-        <v>101.62</v>
+        <v>48.19</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E4" t="n">
-        <v>508.1</v>
+        <v>867.42</v>
       </c>
       <c r="F4" t="n">
-        <v>7.5116</v>
+        <v>-4.744</v>
       </c>
       <c r="G4" t="n">
-        <v>68.20737039350402</v>
+        <v>43.87755102040817</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1026,26 +1026,26 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>INTC</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50.59</v>
+        <v>166.01</v>
       </c>
       <c r="C5" t="n">
-        <v>49.22</v>
+        <v>180.13</v>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>885.96</v>
+        <v>720.52</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.708</v>
+        <v>8.5055</v>
       </c>
       <c r="G5" t="n">
-        <v>49.80694980694978</v>
+        <v>60.68061623361692</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1056,26 +1056,26 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>JNJ</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>201.62</v>
+        <v>146.84</v>
       </c>
       <c r="C6" t="n">
-        <v>209.38</v>
+        <v>146.97</v>
       </c>
       <c r="D6" t="n">
         <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>837.52</v>
+        <v>587.88</v>
       </c>
       <c r="F6" t="n">
-        <v>3.8488</v>
+        <v>0.0885</v>
       </c>
       <c r="G6" t="n">
-        <v>66.78986272439276</v>
+        <v>50.86419753086412</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1086,26 +1086,26 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>WMT</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>166.01</v>
+        <v>129.4</v>
       </c>
       <c r="C7" t="n">
-        <v>179.41</v>
+        <v>130.2</v>
       </c>
       <c r="D7" t="n">
         <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>717.64</v>
+        <v>520.8</v>
       </c>
       <c r="F7" t="n">
-        <v>8.0718</v>
+        <v>0.6182</v>
       </c>
       <c r="G7" t="n">
-        <v>60.59907834101381</v>
+        <v>43.09734513274332</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1116,26 +1116,26 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>JNJ</t>
+          <t>TRV</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>146.84</v>
+        <v>113.1</v>
       </c>
       <c r="C8" t="n">
-        <v>148.03</v>
+        <v>119.92</v>
       </c>
       <c r="D8" t="n">
         <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>592.12</v>
+        <v>479.68</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8104</v>
+        <v>6.0301</v>
       </c>
       <c r="G8" t="n">
-        <v>55.75101488497965</v>
+        <v>66.22428666224286</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1146,58 +1146,30 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>WMT</t>
+          <t>PFE</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>129.4</v>
+        <v>37.79</v>
       </c>
       <c r="C9" t="n">
-        <v>131.88</v>
+        <v>37.79</v>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E9" t="n">
-        <v>527.52</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.9165</v>
+        <v>529.0599999999999</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="G9" t="n">
-        <v>53.2940019665683</v>
+        <v>27.51322751322756</v>
       </c>
       <c r="H9" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>TRV</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>113.1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>119.12</v>
-      </c>
-      <c r="D10" t="n">
-        <v>4</v>
-      </c>
-      <c r="E10" t="n">
-        <v>476.48</v>
-      </c>
-      <c r="F10" t="n">
-        <v>5.3227</v>
-      </c>
-      <c r="G10" t="n">
-        <v>57.84499054820419</v>
-      </c>
-      <c r="H10" t="inlineStr">
         <is>
           <t>buy</t>
         </is>
@@ -1241,7 +1213,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5494.95</v>
+        <v>6326.43</v>
       </c>
     </row>
     <row r="3">
@@ -1251,7 +1223,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5529.07</v>
+        <v>4694.82</v>
       </c>
     </row>
     <row r="4">
@@ -1261,7 +1233,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11024.02</v>
+        <v>11021.25</v>
       </c>
     </row>
   </sheetData>
@@ -1275,7 +1247,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2920,6 +2892,84 @@
       </c>
       <c r="F63" t="n">
         <v>765.66</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>11/08/2020 17:22:37</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>4</v>
+      </c>
+      <c r="F64" t="n">
+        <v>844.24</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>11/08/2020 17:22:38</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>5</v>
+      </c>
+      <c r="F65" t="n">
+        <v>516.3000000000001</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>11/08/2020 17:22:38</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>PFE</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>14</v>
+      </c>
+      <c r="F66" t="n">
+        <v>529.0599999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2933,7 +2983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3923,6 +3973,22 @@
         <v>11024.02</v>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>11/08/2020 17:22:18</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>6326.43</v>
+      </c>
+      <c r="C62" t="n">
+        <v>4694.82</v>
+      </c>
+      <c r="D62" t="n">
+        <v>11021.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -399,333 +399,333 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37.79</v>
+        <v>38.33</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.5629</v>
+        <v>1.4289</v>
       </c>
       <c r="D2" t="n">
-        <v>27.51322751322756</v>
+        <v>37.44292237442915</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>WMT</t>
+          <t>V</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>130.2</v>
+        <v>198.74</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.2739</v>
+        <v>0.4905</v>
       </c>
       <c r="D3" t="n">
-        <v>43.09734513274332</v>
+        <v>50.37488284910965</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>INTC</t>
+          <t>CVX</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48.19</v>
+        <v>90.72</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.0926</v>
+        <v>1.2274</v>
       </c>
       <c r="D4" t="n">
-        <v>43.87755102040817</v>
+        <v>52.24602626123015</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>KO</t>
+          <t>DOW</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>47.93</v>
+        <v>44.28</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4401</v>
+        <v>-0.4944</v>
       </c>
       <c r="D5" t="n">
-        <v>46.59400544959129</v>
+        <v>54.3879907621247</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>JNJ</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>146.97</v>
+        <v>142.57</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.7161</v>
+        <v>0.0281</v>
       </c>
       <c r="D6" t="n">
-        <v>50.86419753086412</v>
+        <v>54.80678605089537</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>WMT</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>89.62</v>
+        <v>131.89</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1226</v>
+        <v>1.298</v>
       </c>
       <c r="D7" t="n">
-        <v>51.77948360083742</v>
+        <v>55.03355704697984</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>KO</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>203.38</v>
+        <v>48.43</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.3385</v>
+        <v>1.0432</v>
       </c>
       <c r="D8" t="n">
-        <v>51.95290063182078</v>
+        <v>55.11221945137152</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>197.77</v>
+        <v>209.19</v>
       </c>
       <c r="C9" t="n">
-        <v>0.498</v>
+        <v>2.8567</v>
       </c>
       <c r="D9" t="n">
-        <v>52.31877532642953</v>
+        <v>56.64679968903862</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>TRV</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>142.53</v>
+        <v>118.86</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3591</v>
+        <v>-0.8839</v>
       </c>
       <c r="D10" t="n">
-        <v>59.50168918918919</v>
+        <v>57.02306079664571</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>DOW</t>
+          <t>WBA</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>44.5</v>
+        <v>41.82</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.6696</v>
+        <v>-0.0717</v>
       </c>
       <c r="D11" t="n">
-        <v>60.06423982869381</v>
+        <v>57.63888888888896</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>MRK</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>80.91</v>
+        <v>175.44</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>-2.6037</v>
       </c>
       <c r="D12" t="n">
-        <v>60.3741496598639</v>
+        <v>60.87658592848906</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>JPM</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>180.13</v>
+        <v>102.94</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4013</v>
+        <v>-0.8476</v>
       </c>
       <c r="D13" t="n">
-        <v>60.68061623361692</v>
+        <v>62.27409638554213</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>XOM</t>
+          <t>INTC</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>44.97</v>
+        <v>49.19</v>
       </c>
       <c r="C14" t="n">
-        <v>1.0335</v>
+        <v>2.0751</v>
       </c>
       <c r="D14" t="n">
-        <v>60.8231707317073</v>
+        <v>62.58741258741257</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>CSCO</t>
+          <t>JNJ</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>47.19</v>
+        <v>149.66</v>
       </c>
       <c r="C15" t="n">
-        <v>-1.1314</v>
+        <v>1.8303</v>
       </c>
       <c r="D15" t="n">
-        <v>61.69665809768629</v>
+        <v>64.85714285714289</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>WBA</t>
+          <t>VZ</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.85</v>
+        <v>58.6</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.3565</v>
+        <v>0.1538</v>
       </c>
       <c r="D16" t="n">
-        <v>62.2641509433963</v>
+        <v>65.84022038567491</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>RTX</t>
+          <t>CSCO</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>64.26000000000001</v>
+        <v>48.1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0467</v>
+        <v>1.9284</v>
       </c>
       <c r="D17" t="n">
-        <v>63.33878887070377</v>
+        <v>65.90389016018301</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>VZ</t>
+          <t>AXP</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>58.51</v>
+        <v>101.68</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.8137</v>
+        <v>-1.5301</v>
       </c>
       <c r="D18" t="n">
-        <v>64.42577030812329</v>
+        <v>66.00384862091084</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>TRV</t>
+          <t>IBM</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>119.92</v>
+        <v>126.7</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6716</v>
+        <v>-0.0394</v>
       </c>
       <c r="D19" t="n">
-        <v>66.22428666224286</v>
+        <v>66.02564102564105</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>IBM</t>
+          <t>MMM</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>126.75</v>
+        <v>164.26</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.2832</v>
+        <v>0.5386</v>
       </c>
       <c r="D20" t="n">
-        <v>69.1625615763547</v>
+        <v>70.34027425088875</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>MRK</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>163.38</v>
+        <v>82.68000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>1.2017</v>
+        <v>2.1876</v>
       </c>
       <c r="D21" t="n">
-        <v>70.40040547389759</v>
+        <v>72.77701778385772</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>JPM</t>
+          <t>RTX</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>103.82</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>3.1598</v>
+        <v>0.0467</v>
       </c>
       <c r="D22" t="n">
-        <v>72.01897018970186</v>
+        <v>72.95774647887325</v>
       </c>
     </row>
     <row r="23">
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>211.06</v>
+        <v>212.13</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8024</v>
+        <v>0.507</v>
       </c>
       <c r="D23" t="n">
-        <v>74.55775234131109</v>
+        <v>74.7025349198137</v>
       </c>
     </row>
     <row r="24">
@@ -751,29 +751,29 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>315.55</v>
+        <v>322.27</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.1125</v>
+        <v>2.1296</v>
       </c>
       <c r="D24" t="n">
-        <v>75.58977719528171</v>
+        <v>75.5657592653328</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>103.26</v>
+        <v>452.04</v>
       </c>
       <c r="C25" t="n">
-        <v>1.6139</v>
+        <v>3.3234</v>
       </c>
       <c r="D25" t="n">
-        <v>77.14987714987711</v>
+        <v>80.2182242212227</v>
       </c>
     </row>
     <row r="26">
@@ -783,45 +783,45 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>133.23</v>
+        <v>135.46</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.6488</v>
+        <v>1.6738</v>
       </c>
       <c r="D26" t="n">
-        <v>77.15736040609151</v>
+        <v>80.68669527897012</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>MCD</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>437.5</v>
+        <v>206.02</v>
       </c>
       <c r="C27" t="n">
-        <v>-2.974</v>
+        <v>0.4976</v>
       </c>
       <c r="D27" t="n">
-        <v>78.9188709391088</v>
+        <v>83.07484828051238</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>MCD</t>
+          <t>NKE</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>205</v>
+        <v>105.22</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4311</v>
+        <v>0.0951</v>
       </c>
       <c r="D28" t="n">
-        <v>81.64739884393053</v>
+        <v>84.06275805119741</v>
       </c>
     </row>
     <row r="29">
@@ -831,29 +831,27 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>130.49</v>
+        <v>131.79</v>
       </c>
       <c r="C29" t="n">
-        <v>1.32</v>
+        <v>0.9962</v>
       </c>
       <c r="D29" t="n">
-        <v>84.58192363460606</v>
+        <v>87.76844070961717</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>XOM</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>105.12</v>
-      </c>
-      <c r="C30" t="n">
-        <v>-0.2751</v>
-      </c>
+        <v>44.09</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
-        <v>84.81510621557834</v>
+        <v>89.58333333333336</v>
       </c>
     </row>
     <row r="31">
@@ -863,13 +861,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>274.92</v>
+        <v>281.58</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0692</v>
+        <v>2.4225</v>
       </c>
       <c r="D31" t="n">
-        <v>86.24060150375985</v>
+        <v>93.74353671147888</v>
       </c>
     </row>
   </sheetData>
@@ -943,19 +941,19 @@
         <v>45.98</v>
       </c>
       <c r="C2" t="n">
-        <v>44.97</v>
+        <v>44.09</v>
       </c>
       <c r="D2" t="n">
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>539.64</v>
+        <v>529.08</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.1966</v>
+        <v>-4.1105</v>
       </c>
       <c r="G2" t="n">
-        <v>60.8231707317073</v>
+        <v>89.58333333333336</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -973,19 +971,19 @@
         <v>61.92</v>
       </c>
       <c r="C3" t="n">
-        <v>64.26000000000001</v>
+        <v>64.29000000000001</v>
       </c>
       <c r="D3" t="n">
         <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>449.8200000000001</v>
+        <v>450.03</v>
       </c>
       <c r="F3" t="n">
-        <v>3.7791</v>
+        <v>3.8275</v>
       </c>
       <c r="G3" t="n">
-        <v>63.33878887070377</v>
+        <v>72.95774647887325</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1003,19 +1001,19 @@
         <v>50.59</v>
       </c>
       <c r="C4" t="n">
-        <v>48.19</v>
+        <v>49.19</v>
       </c>
       <c r="D4" t="n">
         <v>18</v>
       </c>
       <c r="E4" t="n">
-        <v>867.42</v>
+        <v>885.42</v>
       </c>
       <c r="F4" t="n">
-        <v>-4.744</v>
+        <v>-2.7673</v>
       </c>
       <c r="G4" t="n">
-        <v>43.87755102040817</v>
+        <v>62.58741258741257</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1033,19 +1031,19 @@
         <v>166.01</v>
       </c>
       <c r="C5" t="n">
-        <v>180.13</v>
+        <v>175.44</v>
       </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>720.52</v>
+        <v>701.76</v>
       </c>
       <c r="F5" t="n">
-        <v>8.5055</v>
+        <v>5.6804</v>
       </c>
       <c r="G5" t="n">
-        <v>60.68061623361692</v>
+        <v>60.87658592848906</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1063,19 +1061,19 @@
         <v>146.84</v>
       </c>
       <c r="C6" t="n">
-        <v>146.97</v>
+        <v>149.66</v>
       </c>
       <c r="D6" t="n">
         <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>587.88</v>
+        <v>598.64</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0885</v>
+        <v>1.9205</v>
       </c>
       <c r="G6" t="n">
-        <v>50.86419753086412</v>
+        <v>64.85714285714289</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1093,19 +1091,19 @@
         <v>129.4</v>
       </c>
       <c r="C7" t="n">
-        <v>130.2</v>
+        <v>131.89</v>
       </c>
       <c r="D7" t="n">
         <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>520.8</v>
+        <v>527.5599999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6182</v>
+        <v>1.9243</v>
       </c>
       <c r="G7" t="n">
-        <v>43.09734513274332</v>
+        <v>55.03355704697984</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1123,19 +1121,19 @@
         <v>113.1</v>
       </c>
       <c r="C8" t="n">
-        <v>119.92</v>
+        <v>118.86</v>
       </c>
       <c r="D8" t="n">
         <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>479.68</v>
+        <v>475.44</v>
       </c>
       <c r="F8" t="n">
-        <v>6.0301</v>
+        <v>5.0928</v>
       </c>
       <c r="G8" t="n">
-        <v>66.22428666224286</v>
+        <v>57.02306079664571</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1153,21 +1151,19 @@
         <v>37.79</v>
       </c>
       <c r="C9" t="n">
-        <v>37.79</v>
+        <v>38.33</v>
       </c>
       <c r="D9" t="n">
         <v>14</v>
       </c>
       <c r="E9" t="n">
-        <v>529.0599999999999</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+        <v>536.62</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.4289</v>
       </c>
       <c r="G9" t="n">
-        <v>27.51322751322756</v>
+        <v>37.44292237442915</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -1223,7 +1219,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4694.82</v>
+        <v>4704.549999999999</v>
       </c>
     </row>
     <row r="4">
@@ -1233,7 +1229,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11021.25</v>
+        <v>11030.98</v>
       </c>
     </row>
   </sheetData>
@@ -2983,7 +2979,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3989,6 +3985,22 @@
         <v>11021.25</v>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>12/08/2020 17:40:23</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>6326.43</v>
+      </c>
+      <c r="C63" t="n">
+        <v>4704.549999999999</v>
+      </c>
+      <c r="D63" t="n">
+        <v>11030.98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -395,479 +395,481 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>PFE</t>
+          <t>CSCO</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38.33</v>
+        <v>42.5</v>
       </c>
       <c r="C2" t="n">
-        <v>1.4289</v>
+        <v>-0.515</v>
       </c>
       <c r="D2" t="n">
-        <v>37.44292237442915</v>
+        <v>24.55752212389383</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>PFE</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198.74</v>
+        <v>38.06</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4905</v>
+        <v>-0.2882</v>
       </c>
       <c r="D3" t="n">
-        <v>50.37488284910965</v>
+        <v>39.80582524271856</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90.72</v>
+        <v>208.9</v>
       </c>
       <c r="C4" t="n">
-        <v>1.2274</v>
+        <v>0.0958</v>
       </c>
       <c r="D4" t="n">
-        <v>52.24602626123015</v>
+        <v>55.11707445409104</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>DOW</t>
+          <t>WBA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>44.28</v>
+        <v>41.91</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4944</v>
+        <v>2.2195</v>
       </c>
       <c r="D5" t="n">
-        <v>54.3879907621247</v>
+        <v>60.98901098901098</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>JNJ</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>142.57</v>
+        <v>148.24</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0281</v>
+        <v>0.1622</v>
       </c>
       <c r="D6" t="n">
-        <v>54.80678605089537</v>
+        <v>61.25226860254094</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>WMT</t>
+          <t>INTC</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>131.89</v>
+        <v>48.89</v>
       </c>
       <c r="C7" t="n">
-        <v>1.298</v>
+        <v>0.6796</v>
       </c>
       <c r="D7" t="n">
-        <v>55.03355704697984</v>
+        <v>61.67192429022087</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>KO</t>
+          <t>WMT</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48.43</v>
+        <v>132.6</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0432</v>
+        <v>0.5688</v>
       </c>
       <c r="D8" t="n">
-        <v>55.11221945137152</v>
+        <v>65.76500422654263</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>TRV</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>209.19</v>
+        <v>118.6</v>
       </c>
       <c r="C9" t="n">
-        <v>2.8567</v>
+        <v>-0.5618</v>
       </c>
       <c r="D9" t="n">
-        <v>56.64679968903862</v>
+        <v>66.12654320987649</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>TRV</t>
+          <t>VZ</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>118.86</v>
+        <v>58.79</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.8839</v>
+        <v>0.4614</v>
       </c>
       <c r="D10" t="n">
-        <v>57.02306079664571</v>
+        <v>67.94520547945213</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>WBA</t>
+          <t>KO</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>41.82</v>
+        <v>48.45</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0717</v>
+        <v>0.1447</v>
       </c>
       <c r="D11" t="n">
-        <v>57.63888888888896</v>
+        <v>68.05970149253733</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>XOM</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>175.44</v>
+        <v>43.2</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.6037</v>
+        <v>0.4418</v>
       </c>
       <c r="D12" t="n">
-        <v>60.87658592848906</v>
+        <v>69.65376782077391</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>JPM</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>102.94</v>
+        <v>459.63</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.8476</v>
+        <v>-0.0891</v>
       </c>
       <c r="D13" t="n">
-        <v>62.27409638554213</v>
+        <v>71.12465638819167</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>INTC</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>49.19</v>
+        <v>135.1</v>
       </c>
       <c r="C14" t="n">
-        <v>2.0751</v>
+        <v>-0.5008</v>
       </c>
       <c r="D14" t="n">
-        <v>62.58741258741257</v>
+        <v>71.53679653679653</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>JNJ</t>
+          <t>V</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>149.66</v>
+        <v>196.64</v>
       </c>
       <c r="C15" t="n">
-        <v>1.8303</v>
+        <v>-0.4758</v>
       </c>
       <c r="D15" t="n">
-        <v>64.85714285714289</v>
+        <v>71.83946488294306</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>VZ</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>58.6</v>
+        <v>139.96</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1538</v>
+        <v>-0.5047</v>
       </c>
       <c r="D16" t="n">
-        <v>65.84022038567491</v>
+        <v>71.87886279357238</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>CSCO</t>
+          <t>IBM</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>48.1</v>
+        <v>125.27</v>
       </c>
       <c r="C17" t="n">
-        <v>1.9284</v>
+        <v>0.192</v>
       </c>
       <c r="D17" t="n">
-        <v>65.90389016018301</v>
+        <v>72.1719457013575</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>MRK</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>101.68</v>
+        <v>83.48</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.5301</v>
+        <v>-0.0718</v>
       </c>
       <c r="D18" t="n">
-        <v>66.00384862091084</v>
+        <v>74.47129909365553</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>IBM</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>126.7</v>
+        <v>178.08</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.0394</v>
+        <v>1.9172</v>
       </c>
       <c r="D19" t="n">
-        <v>66.02564102564105</v>
+        <v>75.48223350253809</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>AXP</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>164.26</v>
+        <v>100.41</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5386</v>
+        <v>-0.01</v>
       </c>
       <c r="D20" t="n">
-        <v>70.34027425088875</v>
+        <v>76.27872498146769</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>MRK</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>82.68000000000001</v>
+        <v>207.97</v>
       </c>
       <c r="C21" t="n">
-        <v>2.1876</v>
+        <v>-0.2015</v>
       </c>
       <c r="D21" t="n">
-        <v>72.77701778385772</v>
+        <v>76.52358240593531</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>RTX</t>
+          <t>JPM</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>64.29000000000001</v>
+        <v>102.41</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0467</v>
+        <v>0.0391</v>
       </c>
       <c r="D22" t="n">
-        <v>72.95774647887325</v>
+        <v>76.58986175115211</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>DOW</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>212.13</v>
+        <v>44.87</v>
       </c>
       <c r="C23" t="n">
-        <v>0.507</v>
+        <v>0.9903</v>
       </c>
       <c r="D23" t="n">
-        <v>74.7025349198137</v>
+        <v>78.05596465390283</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>UNH</t>
+          <t>DIS</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>322.27</v>
+        <v>130.53</v>
       </c>
       <c r="C24" t="n">
-        <v>2.1296</v>
+        <v>-0.3283</v>
       </c>
       <c r="D24" t="n">
-        <v>75.5657592653328</v>
+        <v>81.82669789227168</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>CVX</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>452.04</v>
+        <v>90.34999999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>3.3234</v>
+        <v>0.5901</v>
       </c>
       <c r="D25" t="n">
-        <v>80.2182242212227</v>
+        <v>82.80450358239504</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>NKE</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>135.46</v>
+        <v>106.43</v>
       </c>
       <c r="C26" t="n">
-        <v>1.6738</v>
+        <v>-0.08450000000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>80.68669527897012</v>
+        <v>85.111464968153</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>MCD</t>
+          <t>UNH</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>206.02</v>
+        <v>323.7</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4976</v>
+        <v>0.678</v>
       </c>
       <c r="D27" t="n">
-        <v>83.07484828051238</v>
+        <v>85.43360433604335</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>105.22</v>
+        <v>280.55</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0951</v>
+        <v>-0.3941</v>
       </c>
       <c r="D28" t="n">
-        <v>84.06275805119741</v>
+        <v>91.69435215946844</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>DIS</t>
+          <t>RTX</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>131.79</v>
+        <v>63.64</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9962</v>
+        <v>0.5371</v>
       </c>
       <c r="D29" t="n">
-        <v>87.76844070961717</v>
+        <v>92.3165137614678</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>XOM</t>
+          <t>MCD</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>44.09</v>
-      </c>
-      <c r="C30" t="inlineStr"/>
+        <v>207.03</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.2615</v>
+      </c>
       <c r="D30" t="n">
-        <v>89.58333333333336</v>
+        <v>95.83033788641256</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>MMM</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>281.58</v>
+        <v>166.1</v>
       </c>
       <c r="C31" t="n">
-        <v>2.4225</v>
+        <v>0.1447</v>
       </c>
       <c r="D31" t="n">
-        <v>93.74353671147888</v>
+        <v>99.61904761904761</v>
       </c>
     </row>
   </sheetData>
@@ -881,7 +883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,19 +943,19 @@
         <v>45.98</v>
       </c>
       <c r="C2" t="n">
-        <v>44.09</v>
+        <v>43.2</v>
       </c>
       <c r="D2" t="n">
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>529.08</v>
+        <v>518.4000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>-4.1105</v>
+        <v>-6.0461</v>
       </c>
       <c r="G2" t="n">
-        <v>89.58333333333336</v>
+        <v>69.65376782077391</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -964,26 +966,26 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RTX</t>
+          <t>INTC</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.92</v>
+        <v>50.59</v>
       </c>
       <c r="C3" t="n">
-        <v>64.29000000000001</v>
+        <v>48.89</v>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E3" t="n">
-        <v>450.03</v>
+        <v>880.02</v>
       </c>
       <c r="F3" t="n">
-        <v>3.8275</v>
+        <v>-3.3603</v>
       </c>
       <c r="G3" t="n">
-        <v>72.95774647887325</v>
+        <v>61.67192429022087</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -994,26 +996,26 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>INTC</t>
+          <t>JNJ</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50.59</v>
+        <v>146.84</v>
       </c>
       <c r="C4" t="n">
-        <v>49.19</v>
+        <v>148.24</v>
       </c>
       <c r="D4" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>885.42</v>
+        <v>592.96</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.7673</v>
+        <v>0.9534</v>
       </c>
       <c r="G4" t="n">
-        <v>62.58741258741257</v>
+        <v>61.25226860254094</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1024,26 +1026,26 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>WMT</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>166.01</v>
+        <v>129.4</v>
       </c>
       <c r="C5" t="n">
-        <v>175.44</v>
+        <v>132.6</v>
       </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>701.76</v>
+        <v>530.4</v>
       </c>
       <c r="F5" t="n">
-        <v>5.6804</v>
+        <v>2.473</v>
       </c>
       <c r="G5" t="n">
-        <v>60.87658592848906</v>
+        <v>65.76500422654263</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1054,26 +1056,26 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>JNJ</t>
+          <t>TRV</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>146.84</v>
+        <v>113.1</v>
       </c>
       <c r="C6" t="n">
-        <v>149.66</v>
+        <v>118.6</v>
       </c>
       <c r="D6" t="n">
         <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>598.64</v>
+        <v>474.4</v>
       </c>
       <c r="F6" t="n">
-        <v>1.9205</v>
+        <v>4.863</v>
       </c>
       <c r="G6" t="n">
-        <v>64.85714285714289</v>
+        <v>66.12654320987649</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1084,26 +1086,26 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>WMT</t>
+          <t>PFE</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>129.4</v>
+        <v>37.79</v>
       </c>
       <c r="C7" t="n">
-        <v>131.89</v>
+        <v>38.06</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E7" t="n">
-        <v>527.5599999999999</v>
+        <v>532.84</v>
       </c>
       <c r="F7" t="n">
-        <v>1.9243</v>
+        <v>0.7145</v>
       </c>
       <c r="G7" t="n">
-        <v>55.03355704697984</v>
+        <v>39.80582524271856</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1114,58 +1116,30 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>TRV</t>
+          <t>CSCO</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>113.1</v>
+        <v>42.5</v>
       </c>
       <c r="C8" t="n">
-        <v>118.86</v>
+        <v>42.5</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>475.44</v>
-      </c>
-      <c r="F8" t="n">
-        <v>5.0928</v>
+        <v>595</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="G8" t="n">
-        <v>57.02306079664571</v>
+        <v>24.55752212389383</v>
       </c>
       <c r="H8" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>PFE</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>37.79</v>
-      </c>
-      <c r="C9" t="n">
-        <v>38.33</v>
-      </c>
-      <c r="D9" t="n">
-        <v>14</v>
-      </c>
-      <c r="E9" t="n">
-        <v>536.62</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.4289</v>
-      </c>
-      <c r="G9" t="n">
-        <v>37.44292237442915</v>
-      </c>
-      <c r="H9" t="inlineStr">
         <is>
           <t>buy</t>
         </is>
@@ -1209,7 +1183,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6326.43</v>
+        <v>6889.23</v>
       </c>
     </row>
     <row r="3">
@@ -1219,7 +1193,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4704.549999999999</v>
+        <v>4124.02</v>
       </c>
     </row>
     <row r="4">
@@ -1229,7 +1203,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11030.98</v>
+        <v>11013.25</v>
       </c>
     </row>
   </sheetData>
@@ -1243,7 +1217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2966,6 +2940,58 @@
       </c>
       <c r="F66" t="n">
         <v>529.0599999999999</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>14/08/2020 17:31:24</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>4</v>
+      </c>
+      <c r="F67" t="n">
+        <v>712.3200000000001</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>14/08/2020 17:31:29</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>CSCO</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>14</v>
+      </c>
+      <c r="F68" t="n">
+        <v>595</v>
       </c>
     </row>
   </sheetData>
@@ -2979,7 +3005,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4001,6 +4027,22 @@
         <v>11030.98</v>
       </c>
     </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>14/08/2020 17:31:14</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>6889.23</v>
+      </c>
+      <c r="C64" t="n">
+        <v>4124.02</v>
+      </c>
+      <c r="D64" t="n">
+        <v>11013.25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -399,45 +399,45 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42.5</v>
+        <v>42.09</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.515</v>
+        <v>-0.9647</v>
       </c>
       <c r="D2" t="n">
-        <v>24.55752212389383</v>
+        <v>23.003194888179</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>PFE</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38.06</v>
+        <v>210.28</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.2882</v>
+        <v>0.6606</v>
       </c>
       <c r="D3" t="n">
-        <v>39.80582524271856</v>
+        <v>38.76525484565688</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>PFE</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>208.9</v>
+        <v>38.35</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0958</v>
+        <v>0.762</v>
       </c>
       <c r="D4" t="n">
-        <v>55.11707445409104</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -447,301 +447,301 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.91</v>
+        <v>41.17</v>
       </c>
       <c r="C5" t="n">
-        <v>2.2195</v>
+        <v>-1.7657</v>
       </c>
       <c r="D5" t="n">
-        <v>60.98901098901098</v>
+        <v>50.7718696397942</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>JNJ</t>
+          <t>TRV</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>148.24</v>
+        <v>115.91</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1622</v>
+        <v>-2.2681</v>
       </c>
       <c r="D6" t="n">
-        <v>61.25226860254094</v>
+        <v>54.83045425463848</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>INTC</t>
+          <t>JNJ</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>48.89</v>
+        <v>148.99</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6796</v>
+        <v>0.5059</v>
       </c>
       <c r="D7" t="n">
-        <v>61.67192429022087</v>
+        <v>58.0550098231828</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>WMT</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>132.6</v>
+        <v>203.07</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5688</v>
+        <v>-2.3561</v>
       </c>
       <c r="D8" t="n">
-        <v>65.76500422654263</v>
+        <v>58.23634735899732</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>TRV</t>
+          <t>INTC</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>118.6</v>
+        <v>48.93</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.5618</v>
+        <v>0.0818</v>
       </c>
       <c r="D9" t="n">
-        <v>66.12654320987649</v>
+        <v>58.2474226804124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>VZ</t>
+          <t>IBM</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>58.79</v>
+        <v>124.44</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4614</v>
+        <v>-0.6626</v>
       </c>
       <c r="D10" t="n">
-        <v>67.94520547945213</v>
+        <v>60.45673076923076</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>KO</t>
+          <t>XOM</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>48.45</v>
+        <v>42.64</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1447</v>
+        <v>-1.2963</v>
       </c>
       <c r="D11" t="n">
-        <v>68.05970149253733</v>
+        <v>61.39359698681731</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>XOM</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>43.2</v>
+        <v>172.01</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4418</v>
+        <v>-3.4086</v>
       </c>
       <c r="D12" t="n">
-        <v>69.65376782077391</v>
+        <v>61.82038834951454</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>AXP</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>459.63</v>
+        <v>97.55</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.0891</v>
+        <v>-2.8483</v>
       </c>
       <c r="D13" t="n">
-        <v>71.12465638819167</v>
+        <v>62.43025418474887</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>JPM</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>135.1</v>
+        <v>99.70999999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.5008</v>
+        <v>-2.6365</v>
       </c>
       <c r="D14" t="n">
-        <v>71.53679653679653</v>
+        <v>63.87394312067643</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>196.64</v>
+        <v>458.43</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.4758</v>
+        <v>-0.2611</v>
       </c>
       <c r="D15" t="n">
-        <v>71.83946488294306</v>
+        <v>65.81288757077375</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>MRK</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>139.96</v>
+        <v>84.76000000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.5047</v>
+        <v>1.5333</v>
       </c>
       <c r="D16" t="n">
-        <v>71.87886279357238</v>
+        <v>69.82142857142848</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>IBM</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>125.27</v>
+        <v>138.72</v>
       </c>
       <c r="C17" t="n">
-        <v>0.192</v>
+        <v>-0.886</v>
       </c>
       <c r="D17" t="n">
-        <v>72.1719457013575</v>
+        <v>71.26225490196079</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>MRK</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>83.48</v>
+        <v>135.5</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0718</v>
+        <v>0.2961</v>
       </c>
       <c r="D18" t="n">
-        <v>74.47129909365553</v>
+        <v>72.22808870116161</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>VZ</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>178.08</v>
+        <v>58.78</v>
       </c>
       <c r="C19" t="n">
-        <v>1.9172</v>
+        <v>-0.017</v>
       </c>
       <c r="D19" t="n">
-        <v>75.48223350253809</v>
+        <v>72.51461988304095</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>WMT</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>100.41</v>
+        <v>135.6</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.01</v>
+        <v>2.2624</v>
       </c>
       <c r="D20" t="n">
-        <v>76.27872498146769</v>
+        <v>73.18397827562788</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>V</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>207.97</v>
+        <v>199.43</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.2015</v>
+        <v>1.4188</v>
       </c>
       <c r="D21" t="n">
-        <v>76.52358240593531</v>
+        <v>75.87392550143264</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>JPM</t>
+          <t>UNH</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>102.41</v>
+        <v>320.51</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0391</v>
+        <v>-0.9855</v>
       </c>
       <c r="D22" t="n">
-        <v>76.58986175115211</v>
+        <v>76.50564617314927</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>DOW</t>
+          <t>NKE</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>44.87</v>
+        <v>105.66</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9903</v>
+        <v>-0.7235</v>
       </c>
       <c r="D23" t="n">
-        <v>78.05596465390283</v>
+        <v>79.06423473433789</v>
       </c>
     </row>
     <row r="24">
@@ -751,13 +751,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>130.53</v>
+        <v>129.37</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.3283</v>
+        <v>-0.8887</v>
       </c>
       <c r="D24" t="n">
-        <v>81.82669789227168</v>
+        <v>79.69890510948909</v>
       </c>
     </row>
     <row r="25">
@@ -767,109 +767,109 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>90.34999999999999</v>
+        <v>90.77</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5901</v>
+        <v>0.4649</v>
       </c>
       <c r="D25" t="n">
-        <v>82.80450358239504</v>
+        <v>81.97424892703857</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>RTX</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>106.43</v>
+        <v>62.77</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.08450000000000001</v>
+        <v>-1.3671</v>
       </c>
       <c r="D26" t="n">
-        <v>85.111464968153</v>
+        <v>82.42009132420087</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>UNH</t>
+          <t>DOW</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>323.7</v>
+        <v>44.46</v>
       </c>
       <c r="C27" t="n">
-        <v>0.678</v>
+        <v>-0.9137999999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>85.43360433604335</v>
+        <v>85.07223113964695</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>KO</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>280.55</v>
+        <v>48.21</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.3941</v>
+        <v>-0.4954</v>
       </c>
       <c r="D28" t="n">
-        <v>91.69435215946844</v>
+        <v>86.0377358490567</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>RTX</t>
+          <t>MMM</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>63.64</v>
+        <v>164.71</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5371</v>
+        <v>-0.8368</v>
       </c>
       <c r="D29" t="n">
-        <v>92.3165137614678</v>
+        <v>91.86182669789234</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>MCD</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>207.03</v>
+        <v>288.24</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2615</v>
+        <v>2.741</v>
       </c>
       <c r="D30" t="n">
-        <v>95.83033788641256</v>
+        <v>94.01436552274541</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>MCD</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>166.1</v>
+        <v>208.67</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1447</v>
+        <v>0.7922</v>
       </c>
       <c r="D31" t="n">
-        <v>99.61904761904761</v>
+        <v>96.2410887880751</v>
       </c>
     </row>
   </sheetData>
@@ -883,7 +883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -943,19 +943,19 @@
         <v>45.98</v>
       </c>
       <c r="C2" t="n">
-        <v>43.2</v>
+        <v>42.64</v>
       </c>
       <c r="D2" t="n">
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>518.4000000000001</v>
+        <v>511.68</v>
       </c>
       <c r="F2" t="n">
-        <v>-6.0461</v>
+        <v>-7.264</v>
       </c>
       <c r="G2" t="n">
-        <v>69.65376782077391</v>
+        <v>61.39359698681731</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -973,19 +973,19 @@
         <v>50.59</v>
       </c>
       <c r="C3" t="n">
-        <v>48.89</v>
+        <v>48.93</v>
       </c>
       <c r="D3" t="n">
         <v>18</v>
       </c>
       <c r="E3" t="n">
-        <v>880.02</v>
+        <v>880.74</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.3603</v>
+        <v>-3.2813</v>
       </c>
       <c r="G3" t="n">
-        <v>61.67192429022087</v>
+        <v>58.2474226804124</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1003,19 +1003,19 @@
         <v>146.84</v>
       </c>
       <c r="C4" t="n">
-        <v>148.24</v>
+        <v>148.99</v>
       </c>
       <c r="D4" t="n">
         <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>592.96</v>
+        <v>595.96</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9534</v>
+        <v>1.4642</v>
       </c>
       <c r="G4" t="n">
-        <v>61.25226860254094</v>
+        <v>58.0550098231828</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1026,26 +1026,26 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>WMT</t>
+          <t>TRV</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>129.4</v>
+        <v>113.1</v>
       </c>
       <c r="C5" t="n">
-        <v>132.6</v>
+        <v>115.91</v>
       </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>530.4</v>
+        <v>463.64</v>
       </c>
       <c r="F5" t="n">
-        <v>2.473</v>
+        <v>2.4845</v>
       </c>
       <c r="G5" t="n">
-        <v>65.76500422654263</v>
+        <v>54.83045425463848</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1056,26 +1056,26 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>TRV</t>
+          <t>PFE</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>113.1</v>
+        <v>37.79</v>
       </c>
       <c r="C6" t="n">
-        <v>118.6</v>
+        <v>38.35</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>474.4</v>
+        <v>536.9</v>
       </c>
       <c r="F6" t="n">
-        <v>4.863</v>
+        <v>1.4819</v>
       </c>
       <c r="G6" t="n">
-        <v>66.12654320987649</v>
+        <v>50</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1086,60 +1086,28 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>PFE</t>
+          <t>CSCO</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37.79</v>
+        <v>42.5</v>
       </c>
       <c r="C7" t="n">
-        <v>38.06</v>
+        <v>42.09</v>
       </c>
       <c r="D7" t="n">
         <v>14</v>
       </c>
       <c r="E7" t="n">
-        <v>532.84</v>
+        <v>589.26</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7145</v>
+        <v>-0.9647</v>
       </c>
       <c r="G7" t="n">
-        <v>39.80582524271856</v>
+        <v>23.003194888179</v>
       </c>
       <c r="H7" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>CSCO</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="D8" t="n">
-        <v>14</v>
-      </c>
-      <c r="E8" t="n">
-        <v>595</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>24.55752212389383</v>
-      </c>
-      <c r="H8" t="inlineStr">
         <is>
           <t>buy</t>
         </is>
@@ -1183,7 +1151,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6889.23</v>
+        <v>7431.629999999999</v>
       </c>
     </row>
     <row r="3">
@@ -1193,7 +1161,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4124.02</v>
+        <v>3578.18</v>
       </c>
     </row>
     <row r="4">
@@ -1203,7 +1171,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11013.25</v>
+        <v>11009.81</v>
       </c>
     </row>
   </sheetData>
@@ -1217,7 +1185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2992,6 +2960,32 @@
       </c>
       <c r="F68" t="n">
         <v>595</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>17/08/2020 17:56:45</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>WMT</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>4</v>
+      </c>
+      <c r="F69" t="n">
+        <v>542.4</v>
       </c>
     </row>
   </sheetData>
@@ -3005,7 +2999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4043,6 +4037,22 @@
         <v>11013.25</v>
       </c>
     </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>17/08/2020 17:56:45</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>7431.629999999999</v>
+      </c>
+      <c r="C65" t="n">
+        <v>3578.18</v>
+      </c>
+      <c r="D65" t="n">
+        <v>11009.81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -399,93 +399,93 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42.09</v>
+        <v>41.87</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.9647</v>
+        <v>-0.262</v>
       </c>
       <c r="D2" t="n">
-        <v>23.003194888179</v>
+        <v>18.8356164383562</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>XOM</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>210.28</v>
+        <v>41.96</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6606</v>
+        <v>-1.1077</v>
       </c>
       <c r="D3" t="n">
-        <v>38.76525484565688</v>
+        <v>38.23529411764709</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>PFE</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.35</v>
+        <v>169.27</v>
       </c>
       <c r="C4" t="n">
-        <v>0.762</v>
+        <v>-0.5639</v>
       </c>
       <c r="D4" t="n">
-        <v>50</v>
+        <v>42.15471343564047</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>WBA</t>
+          <t>TRV</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.17</v>
+        <v>113.2</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.7657</v>
+        <v>-1.5053</v>
       </c>
       <c r="D5" t="n">
-        <v>50.7718696397942</v>
+        <v>43.75830013280214</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>TRV</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>115.91</v>
+        <v>209.7</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.2681</v>
+        <v>-0.8464</v>
       </c>
       <c r="D6" t="n">
-        <v>54.83045425463848</v>
+        <v>44.05722670579603</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>JNJ</t>
+          <t>PFE</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>148.99</v>
+        <v>38.26</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5059</v>
+        <v>-0.2607</v>
       </c>
       <c r="D7" t="n">
-        <v>58.0550098231828</v>
+        <v>45.73991031390123</v>
       </c>
     </row>
     <row r="8">
@@ -495,13 +495,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>203.07</v>
+        <v>203.02</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.3561</v>
+        <v>0.8494</v>
       </c>
       <c r="D8" t="n">
-        <v>58.23634735899732</v>
+        <v>46.37330754352031</v>
       </c>
     </row>
     <row r="9">
@@ -511,285 +511,285 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>48.93</v>
+        <v>48.33</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0818</v>
+        <v>-0.6578000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>58.2474226804124</v>
+        <v>47.58364312267653</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>IBM</t>
+          <t>WBA</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>124.44</v>
+        <v>40.25</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.6626</v>
+        <v>-1.2512</v>
       </c>
       <c r="D10" t="n">
-        <v>60.45673076923076</v>
+        <v>49.17218543046356</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>XOM</t>
+          <t>IBM</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>42.64</v>
+        <v>123.84</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.2963</v>
+        <v>-0.8646</v>
       </c>
       <c r="D11" t="n">
-        <v>61.39359698681731</v>
+        <v>50.06257822277852</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>DIS</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>172.01</v>
+        <v>127.77</v>
       </c>
       <c r="C12" t="n">
-        <v>-3.4086</v>
+        <v>-0.892</v>
       </c>
       <c r="D12" t="n">
-        <v>61.82038834951454</v>
+        <v>50.65252854812396</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>CVX</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.55</v>
+        <v>86.39</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.8483</v>
+        <v>-1.415</v>
       </c>
       <c r="D13" t="n">
-        <v>62.43025418474887</v>
+        <v>52.16952573158428</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>JPM</t>
+          <t>KO</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>99.70999999999999</v>
+        <v>47.37</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.6365</v>
+        <v>-2.1685</v>
       </c>
       <c r="D14" t="n">
-        <v>63.87394312067643</v>
+        <v>52.50836120401335</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>AXP</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>458.43</v>
+        <v>96.89</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.2611</v>
+        <v>0.2276</v>
       </c>
       <c r="D15" t="n">
-        <v>65.81288757077375</v>
+        <v>55.10899182561308</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>MRK</t>
+          <t>UNH</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>84.76000000000001</v>
+        <v>315.4</v>
       </c>
       <c r="C16" t="n">
-        <v>1.5333</v>
+        <v>-0.4451</v>
       </c>
       <c r="D16" t="n">
-        <v>69.82142857142848</v>
+        <v>55.20796302879479</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>JPM</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>138.72</v>
+        <v>98.55</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.886</v>
+        <v>0.2339</v>
       </c>
       <c r="D17" t="n">
-        <v>71.26225490196079</v>
+        <v>55.39452495974237</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>JNJ</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>135.5</v>
+        <v>150.39</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2961</v>
+        <v>0.1999</v>
       </c>
       <c r="D18" t="n">
-        <v>72.22808870116161</v>
+        <v>59.68841285296976</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>VZ</t>
+          <t>WMT</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>58.78</v>
+        <v>132.41</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.017</v>
+        <v>-1.7074</v>
       </c>
       <c r="D19" t="n">
-        <v>72.51461988304095</v>
+        <v>61.36528685548289</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>WMT</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>135.6</v>
+        <v>138.02</v>
       </c>
       <c r="C20" t="n">
-        <v>2.2624</v>
+        <v>-0.2529</v>
       </c>
       <c r="D20" t="n">
-        <v>73.18397827562788</v>
+        <v>61.4575507137491</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>RTX</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>199.43</v>
+        <v>61.64</v>
       </c>
       <c r="C21" t="n">
-        <v>1.4188</v>
+        <v>-0.7407</v>
       </c>
       <c r="D21" t="n">
-        <v>75.87392550143264</v>
+        <v>63.87009472259805</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>UNH</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>320.51</v>
+        <v>135.77</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.9855</v>
+        <v>-0.5421</v>
       </c>
       <c r="D22" t="n">
-        <v>76.50564617314927</v>
+        <v>63.91875746714468</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>105.66</v>
+        <v>462.83</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.7235</v>
+        <v>0.1255</v>
       </c>
       <c r="D23" t="n">
-        <v>79.06423473433789</v>
+        <v>65.77135915778103</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>DIS</t>
+          <t>V</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>129.37</v>
+        <v>200.99</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.8887</v>
+        <v>0.9949</v>
       </c>
       <c r="D24" t="n">
-        <v>79.69890510948909</v>
+        <v>67.95847750865045</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>VZ</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>90.77</v>
+        <v>59.05</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4649</v>
+        <v>-0.2197</v>
       </c>
       <c r="D25" t="n">
-        <v>81.97424892703857</v>
+        <v>75.94501718213053</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>RTX</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>62.77</v>
+        <v>282.86</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.3671</v>
+        <v>-0.7509</v>
       </c>
       <c r="D26" t="n">
-        <v>82.42009132420087</v>
+        <v>77.11565585331451</v>
       </c>
     </row>
     <row r="27">
@@ -799,29 +799,29 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>44.46</v>
+        <v>44.64</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.9137999999999999</v>
+        <v>-0.1566</v>
       </c>
       <c r="D27" t="n">
-        <v>85.07223113964695</v>
+        <v>78.49462365591407</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>KO</t>
+          <t>MRK</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>48.21</v>
+        <v>85.03</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.4954</v>
+        <v>0.5558</v>
       </c>
       <c r="D28" t="n">
-        <v>86.0377358490567</v>
+        <v>81.56424581005577</v>
       </c>
     </row>
     <row r="29">
@@ -831,29 +831,29 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>164.71</v>
+        <v>163.97</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.8368</v>
+        <v>-0.2494</v>
       </c>
       <c r="D29" t="n">
-        <v>91.86182669789234</v>
+        <v>83.46273291925469</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>NKE</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>288.24</v>
+        <v>108.39</v>
       </c>
       <c r="C30" t="n">
-        <v>2.741</v>
+        <v>1.3275</v>
       </c>
       <c r="D30" t="n">
-        <v>94.01436552274541</v>
+        <v>84.71575023299171</v>
       </c>
     </row>
     <row r="31">
@@ -863,13 +863,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>208.67</v>
+        <v>209.51</v>
       </c>
       <c r="C31" t="n">
-        <v>0.7922</v>
+        <v>-0.3851</v>
       </c>
       <c r="D31" t="n">
-        <v>96.2410887880751</v>
+        <v>89.94544037412319</v>
       </c>
     </row>
   </sheetData>
@@ -943,19 +943,19 @@
         <v>45.98</v>
       </c>
       <c r="C2" t="n">
-        <v>42.64</v>
+        <v>41.96</v>
       </c>
       <c r="D2" t="n">
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>511.68</v>
+        <v>503.52</v>
       </c>
       <c r="F2" t="n">
-        <v>-7.264</v>
+        <v>-8.742900000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>61.39359698681731</v>
+        <v>38.23529411764709</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -973,19 +973,19 @@
         <v>50.59</v>
       </c>
       <c r="C3" t="n">
-        <v>48.93</v>
+        <v>48.33</v>
       </c>
       <c r="D3" t="n">
         <v>18</v>
       </c>
       <c r="E3" t="n">
-        <v>880.74</v>
+        <v>869.9399999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.2813</v>
+        <v>-4.4673</v>
       </c>
       <c r="G3" t="n">
-        <v>58.2474226804124</v>
+        <v>47.58364312267653</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1003,19 +1003,19 @@
         <v>146.84</v>
       </c>
       <c r="C4" t="n">
-        <v>148.99</v>
+        <v>150.39</v>
       </c>
       <c r="D4" t="n">
         <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>595.96</v>
+        <v>601.5599999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>1.4642</v>
+        <v>2.4176</v>
       </c>
       <c r="G4" t="n">
-        <v>58.0550098231828</v>
+        <v>59.68841285296976</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1033,19 +1033,19 @@
         <v>113.1</v>
       </c>
       <c r="C5" t="n">
-        <v>115.91</v>
+        <v>113.2</v>
       </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>463.64</v>
+        <v>452.8</v>
       </c>
       <c r="F5" t="n">
-        <v>2.4845</v>
+        <v>0.08840000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>54.83045425463848</v>
+        <v>43.75830013280214</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1063,19 +1063,19 @@
         <v>37.79</v>
       </c>
       <c r="C6" t="n">
-        <v>38.35</v>
+        <v>38.26</v>
       </c>
       <c r="D6" t="n">
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>536.9</v>
+        <v>535.64</v>
       </c>
       <c r="F6" t="n">
-        <v>1.4819</v>
+        <v>1.2437</v>
       </c>
       <c r="G6" t="n">
-        <v>50</v>
+        <v>45.73991031390123</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1093,19 +1093,19 @@
         <v>42.5</v>
       </c>
       <c r="C7" t="n">
-        <v>42.09</v>
+        <v>41.87</v>
       </c>
       <c r="D7" t="n">
         <v>14</v>
       </c>
       <c r="E7" t="n">
-        <v>589.26</v>
+        <v>586.1799999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.9647</v>
+        <v>-1.4824</v>
       </c>
       <c r="G7" t="n">
-        <v>23.003194888179</v>
+        <v>18.8356164383562</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1161,7 +1161,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3578.18</v>
+        <v>3549.64</v>
       </c>
     </row>
     <row r="4">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11009.81</v>
+        <v>10981.27</v>
       </c>
     </row>
   </sheetData>
@@ -2999,7 +2999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4053,6 +4053,38 @@
         <v>11009.81</v>
       </c>
     </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>18/08/2020 17:22:15</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>7431.629999999999</v>
+      </c>
+      <c r="C66" t="n">
+        <v>3569.699999999999</v>
+      </c>
+      <c r="D66" t="n">
+        <v>11001.33</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>19/08/2020 17:04:31</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>7431.629999999999</v>
+      </c>
+      <c r="C67" t="n">
+        <v>3549.64</v>
+      </c>
+      <c r="D67" t="n">
+        <v>10981.27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -399,10 +399,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.87</v>
+        <v>42.31</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.262</v>
+        <v>1.0509</v>
       </c>
       <c r="D2" t="n">
         <v>18.8356164383562</v>
@@ -415,189 +415,189 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>41.96</v>
+        <v>41.32</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.1077</v>
+        <v>-1.5253</v>
       </c>
       <c r="D3" t="n">
-        <v>38.23529411764709</v>
+        <v>34.77366255144038</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>DIS</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169.27</v>
+        <v>128.12</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.5639</v>
+        <v>0.2739</v>
       </c>
       <c r="D4" t="n">
-        <v>42.15471343564047</v>
+        <v>35.63829787234049</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>TRV</t>
+          <t>IBM</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>113.2</v>
+        <v>123.15</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.5053</v>
+        <v>-0.5572</v>
       </c>
       <c r="D5" t="n">
-        <v>43.75830013280214</v>
+        <v>41.64588528678311</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>CVX</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>209.7</v>
+        <v>84.81</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.8464</v>
+        <v>-1.8289</v>
       </c>
       <c r="D6" t="n">
-        <v>44.05722670579603</v>
+        <v>43.67201426024958</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>PFE</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.26</v>
+        <v>201.85</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.2607</v>
+        <v>-0.5763</v>
       </c>
       <c r="D7" t="n">
-        <v>45.73991031390123</v>
+        <v>44.43929564411491</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>WBA</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>203.02</v>
+        <v>39.71</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8494</v>
+        <v>-1.3416</v>
       </c>
       <c r="D8" t="n">
-        <v>46.37330754352031</v>
+        <v>44.46153846153847</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>INTC</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>48.33</v>
+        <v>169.58</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.6578000000000001</v>
+        <v>0.1831</v>
       </c>
       <c r="D9" t="n">
-        <v>47.58364312267653</v>
+        <v>45.65649867374009</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>WBA</t>
+          <t>TRV</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>40.25</v>
+        <v>112.53</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.2512</v>
+        <v>-0.5919</v>
       </c>
       <c r="D10" t="n">
-        <v>49.17218543046356</v>
+        <v>45.79569145239752</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>IBM</t>
+          <t>KO</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>123.84</v>
+        <v>47.35</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.8646</v>
+        <v>-0.0422</v>
       </c>
       <c r="D11" t="n">
-        <v>50.06257822277852</v>
+        <v>47.63636363636373</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>DIS</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>127.77</v>
+        <v>214.58</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.892</v>
+        <v>2.3271</v>
       </c>
       <c r="D12" t="n">
-        <v>50.65252854812396</v>
+        <v>47.78132765353214</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>UNH</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>86.39</v>
+        <v>313.33</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.415</v>
+        <v>-0.6563</v>
       </c>
       <c r="D13" t="n">
-        <v>52.16952573158428</v>
+        <v>48.72422229989511</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>KO</t>
+          <t>JPM</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>47.37</v>
+        <v>97.37</v>
       </c>
       <c r="C14" t="n">
-        <v>-2.1685</v>
+        <v>-1.1974</v>
       </c>
       <c r="D14" t="n">
-        <v>52.50836120401335</v>
+        <v>50.47899778924101</v>
       </c>
     </row>
     <row r="15">
@@ -607,77 +607,77 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>96.89</v>
+        <v>96.72</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2276</v>
+        <v>-0.1755</v>
       </c>
       <c r="D15" t="n">
-        <v>55.10899182561308</v>
+        <v>52.79329608938547</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>UNH</t>
+          <t>INTC</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>315.4</v>
+        <v>49.17</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.4451</v>
+        <v>1.7381</v>
       </c>
       <c r="D16" t="n">
-        <v>55.20796302879479</v>
+        <v>54.83870967741937</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>JPM</t>
+          <t>WMT</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>98.55</v>
+        <v>130.57</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2339</v>
+        <v>-1.3896</v>
       </c>
       <c r="D17" t="n">
-        <v>55.39452495974237</v>
+        <v>55.77557755775576</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>JNJ</t>
+          <t>PFE</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>150.39</v>
+        <v>38.72</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1999</v>
+        <v>1.2023</v>
       </c>
       <c r="D18" t="n">
-        <v>59.68841285296976</v>
+        <v>58.96414342629474</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>WMT</t>
+          <t>RTX</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>132.41</v>
+        <v>60.99</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.7074</v>
+        <v>-1.0545</v>
       </c>
       <c r="D19" t="n">
-        <v>61.36528685548289</v>
+        <v>59.8984771573604</v>
       </c>
     </row>
     <row r="20">
@@ -687,61 +687,61 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>138.02</v>
+        <v>137.48</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.2529</v>
+        <v>-0.3912</v>
       </c>
       <c r="D20" t="n">
-        <v>61.4575507137491</v>
+        <v>61.64280331574982</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>RTX</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>61.64</v>
+        <v>473.1</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.7407</v>
+        <v>2.219</v>
       </c>
       <c r="D21" t="n">
-        <v>63.87009472259805</v>
+        <v>63.26234970302764</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>DOW</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>135.77</v>
+        <v>43.69</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.5421</v>
+        <v>-2.1281</v>
       </c>
       <c r="D22" t="n">
-        <v>63.91875746714468</v>
+        <v>64.80144404332133</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>JNJ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>462.83</v>
+        <v>151.42</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1255</v>
+        <v>0.6849</v>
       </c>
       <c r="D23" t="n">
-        <v>65.77135915778103</v>
+        <v>68.51674641148321</v>
       </c>
     </row>
     <row r="24">
@@ -751,125 +751,125 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>200.99</v>
+        <v>204.15</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9949</v>
+        <v>1.5722</v>
       </c>
       <c r="D24" t="n">
-        <v>67.95847750865045</v>
+        <v>69.00937081659968</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>VZ</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>59.05</v>
+        <v>280.68</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.2197</v>
+        <v>-0.7707000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>75.94501718213053</v>
+        <v>69.73821989528794</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>VZ</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>282.86</v>
+        <v>58.96</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.7509</v>
+        <v>-0.1524</v>
       </c>
       <c r="D26" t="n">
-        <v>77.11565585331451</v>
+        <v>70.84870848708491</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>DOW</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>44.64</v>
+        <v>136.85</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.1566</v>
+        <v>0.7955</v>
       </c>
       <c r="D27" t="n">
-        <v>78.49462365591407</v>
+        <v>73.73853211009174</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>MRK</t>
+          <t>MMM</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>85.03</v>
+        <v>162.97</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5558</v>
+        <v>-0.6099</v>
       </c>
       <c r="D28" t="n">
-        <v>81.56424581005577</v>
+        <v>76.34164777021921</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>NKE</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>163.97</v>
+        <v>108.01</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.2494</v>
+        <v>-0.3506</v>
       </c>
       <c r="D29" t="n">
-        <v>83.46273291925469</v>
+        <v>85.59322033898314</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>MCD</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>108.39</v>
+        <v>209.88</v>
       </c>
       <c r="C30" t="n">
-        <v>1.3275</v>
+        <v>0.1766</v>
       </c>
       <c r="D30" t="n">
-        <v>84.71575023299171</v>
+        <v>86.09913793103453</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>MCD</t>
+          <t>MRK</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>209.51</v>
+        <v>85.03</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.3851</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>89.94544037412319</v>
+        <v>91.63179916317982</v>
       </c>
     </row>
   </sheetData>
@@ -943,19 +943,19 @@
         <v>45.98</v>
       </c>
       <c r="C2" t="n">
-        <v>41.96</v>
+        <v>41.32</v>
       </c>
       <c r="D2" t="n">
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>503.52</v>
+        <v>495.84</v>
       </c>
       <c r="F2" t="n">
-        <v>-8.742900000000001</v>
+        <v>-10.1348</v>
       </c>
       <c r="G2" t="n">
-        <v>38.23529411764709</v>
+        <v>34.77366255144038</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -973,19 +973,19 @@
         <v>50.59</v>
       </c>
       <c r="C3" t="n">
-        <v>48.33</v>
+        <v>49.17</v>
       </c>
       <c r="D3" t="n">
         <v>18</v>
       </c>
       <c r="E3" t="n">
-        <v>869.9399999999999</v>
+        <v>885.0600000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.4673</v>
+        <v>-2.8069</v>
       </c>
       <c r="G3" t="n">
-        <v>47.58364312267653</v>
+        <v>54.83870967741937</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1003,19 +1003,19 @@
         <v>146.84</v>
       </c>
       <c r="C4" t="n">
-        <v>150.39</v>
+        <v>151.42</v>
       </c>
       <c r="D4" t="n">
         <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>601.5599999999999</v>
+        <v>605.6799999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>2.4176</v>
+        <v>3.119</v>
       </c>
       <c r="G4" t="n">
-        <v>59.68841285296976</v>
+        <v>68.51674641148321</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1033,19 +1033,19 @@
         <v>113.1</v>
       </c>
       <c r="C5" t="n">
-        <v>113.2</v>
+        <v>112.53</v>
       </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>452.8</v>
+        <v>450.12</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08840000000000001</v>
+        <v>-0.504</v>
       </c>
       <c r="G5" t="n">
-        <v>43.75830013280214</v>
+        <v>45.79569145239752</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1063,19 +1063,19 @@
         <v>37.79</v>
       </c>
       <c r="C6" t="n">
-        <v>38.26</v>
+        <v>38.72</v>
       </c>
       <c r="D6" t="n">
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>535.64</v>
+        <v>542.0799999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>1.2437</v>
+        <v>2.461</v>
       </c>
       <c r="G6" t="n">
-        <v>45.73991031390123</v>
+        <v>58.96414342629474</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1093,16 +1093,16 @@
         <v>42.5</v>
       </c>
       <c r="C7" t="n">
-        <v>41.87</v>
+        <v>42.31</v>
       </c>
       <c r="D7" t="n">
         <v>14</v>
       </c>
       <c r="E7" t="n">
-        <v>586.1799999999999</v>
+        <v>592.34</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.4824</v>
+        <v>-0.4471</v>
       </c>
       <c r="G7" t="n">
         <v>18.8356164383562</v>
@@ -1161,7 +1161,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3549.64</v>
+        <v>3571.12</v>
       </c>
     </row>
     <row r="4">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10981.27</v>
+        <v>11002.75</v>
       </c>
     </row>
   </sheetData>
@@ -2999,7 +2999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4085,6 +4085,22 @@
         <v>10981.27</v>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>20/08/2020 17:45:39</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>7431.629999999999</v>
+      </c>
+      <c r="C68" t="n">
+        <v>3571.12</v>
+      </c>
+      <c r="D68" t="n">
+        <v>11002.75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -399,237 +399,237 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42.31</v>
+        <v>42.25</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0509</v>
+        <v>-0.1418</v>
       </c>
       <c r="D2" t="n">
-        <v>18.8356164383562</v>
+        <v>19.45754716981136</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>XOM</t>
+          <t>TRV</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>41.32</v>
+        <v>111.83</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.5253</v>
+        <v>-0.6221</v>
       </c>
       <c r="D3" t="n">
-        <v>34.77366255144038</v>
+        <v>25.89363557105492</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>DIS</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>128.12</v>
+        <v>202.43</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2739</v>
+        <v>0.2873</v>
       </c>
       <c r="D4" t="n">
-        <v>35.63829787234049</v>
+        <v>33.90297684674752</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>IBM</t>
+          <t>XOM</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>123.15</v>
+        <v>41.01</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.5572</v>
+        <v>-0.7502</v>
       </c>
       <c r="D5" t="n">
-        <v>41.64588528678311</v>
+        <v>34.00402414486922</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>DIS</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>84.81</v>
+        <v>127.44</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.8289</v>
+        <v>-0.5308</v>
       </c>
       <c r="D6" t="n">
-        <v>43.67201426024958</v>
+        <v>36.45266594124047</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>WBA</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>201.85</v>
+        <v>39.46</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.5763</v>
+        <v>-0.6296</v>
       </c>
       <c r="D7" t="n">
-        <v>44.43929564411491</v>
+        <v>37.0309951060359</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>WBA</t>
+          <t>AXP</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>39.71</v>
+        <v>96.15000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.3416</v>
+        <v>-0.5893</v>
       </c>
       <c r="D8" t="n">
-        <v>44.46153846153847</v>
+        <v>37.08154506437773</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>IBM</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>169.58</v>
+        <v>123.16</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1831</v>
+        <v>0.0081</v>
       </c>
       <c r="D9" t="n">
-        <v>45.65649867374009</v>
+        <v>38.09523809523809</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>TRV</t>
+          <t>KO</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>112.53</v>
+        <v>47.28</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.5919</v>
+        <v>-0.1478</v>
       </c>
       <c r="D10" t="n">
-        <v>45.79569145239752</v>
+        <v>39.60000000000008</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>KO</t>
+          <t>JPM</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>47.35</v>
+        <v>97.31999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0422</v>
+        <v>-0.0514</v>
       </c>
       <c r="D11" t="n">
-        <v>47.63636363636373</v>
+        <v>41.02787456445991</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>UNH</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>214.58</v>
+        <v>314.14</v>
       </c>
       <c r="C12" t="n">
-        <v>2.3271</v>
+        <v>0.2585</v>
       </c>
       <c r="D12" t="n">
-        <v>47.78132765353214</v>
+        <v>44.53686200378076</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>UNH</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>313.33</v>
+        <v>167.5</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.6563</v>
+        <v>-1.2266</v>
       </c>
       <c r="D13" t="n">
-        <v>48.72422229989511</v>
+        <v>45.80838323353292</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>JPM</t>
+          <t>RTX</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>97.37</v>
+        <v>60.27</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.1974</v>
+        <v>-1.1805</v>
       </c>
       <c r="D14" t="n">
-        <v>50.47899778924101</v>
+        <v>46.48275862068967</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>CVX</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>96.72</v>
+        <v>85.08</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.1755</v>
+        <v>0.3184</v>
       </c>
       <c r="D15" t="n">
-        <v>52.79329608938547</v>
+        <v>47.73776546629735</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>INTC</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>49.17</v>
+        <v>213.02</v>
       </c>
       <c r="C16" t="n">
-        <v>1.7381</v>
+        <v>-0.727</v>
       </c>
       <c r="D16" t="n">
-        <v>54.83870967741937</v>
+        <v>52.02937765751838</v>
       </c>
     </row>
     <row r="17">
@@ -639,13 +639,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.57</v>
+        <v>131.63</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.3896</v>
+        <v>0.8118</v>
       </c>
       <c r="D17" t="n">
-        <v>55.77557755775576</v>
+        <v>57.02373316228349</v>
       </c>
     </row>
     <row r="18">
@@ -655,109 +655,107 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>38.72</v>
+        <v>38.88</v>
       </c>
       <c r="C18" t="n">
-        <v>1.2023</v>
+        <v>0.4132</v>
       </c>
       <c r="D18" t="n">
-        <v>58.96414342629474</v>
+        <v>58.63453815261043</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>RTX</t>
+          <t>DOW</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>60.99</v>
+        <v>43.59</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.0545</v>
+        <v>-0.2289</v>
       </c>
       <c r="D19" t="n">
-        <v>59.8984771573604</v>
+        <v>59.48616600790518</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>MMM</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>137.48</v>
-      </c>
-      <c r="C20" t="n">
-        <v>-0.3912</v>
-      </c>
+        <v>161.71</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>61.64280331574982</v>
+        <v>59.8445595854923</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>INTC</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>473.1</v>
+        <v>49.28</v>
       </c>
       <c r="C21" t="n">
-        <v>2.219</v>
+        <v>0.2237</v>
       </c>
       <c r="D21" t="n">
-        <v>63.26234970302764</v>
+        <v>60.83188908145581</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>DOW</t>
+          <t>VZ</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>43.69</v>
+        <v>58.99</v>
       </c>
       <c r="C22" t="n">
-        <v>-2.1281</v>
+        <v>0.0509</v>
       </c>
       <c r="D22" t="n">
-        <v>64.80144404332133</v>
+        <v>61.27450980392159</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>JNJ</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>151.42</v>
+        <v>138.43</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6849</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>68.51674641148321</v>
+        <v>62.81957633308989</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>JNJ</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>204.15</v>
+        <v>152.76</v>
       </c>
       <c r="C24" t="n">
-        <v>1.5722</v>
+        <v>0.885</v>
       </c>
       <c r="D24" t="n">
-        <v>69.00937081659968</v>
+        <v>69.36685288640598</v>
       </c>
     </row>
     <row r="25">
@@ -767,61 +765,61 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>280.68</v>
+        <v>283.23</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.7707000000000001</v>
+        <v>0.9085</v>
       </c>
       <c r="D25" t="n">
-        <v>69.73821989528794</v>
+        <v>70.03110957483582</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>VZ</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>58.96</v>
+        <v>137.44</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.1524</v>
+        <v>0.4311</v>
       </c>
       <c r="D26" t="n">
-        <v>70.84870848708491</v>
+        <v>72.96340023612751</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>136.85</v>
+        <v>497.48</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7955</v>
+        <v>5.1532</v>
       </c>
       <c r="D27" t="n">
-        <v>73.73853211009174</v>
+        <v>81.91886360900443</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>V</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>162.97</v>
+        <v>204.13</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.6099</v>
+        <v>-0.0098</v>
       </c>
       <c r="D28" t="n">
-        <v>76.34164777021921</v>
+        <v>82.15139442231056</v>
       </c>
     </row>
     <row r="29">
@@ -831,13 +829,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>108.01</v>
+        <v>109.75</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.3506</v>
+        <v>1.611</v>
       </c>
       <c r="D29" t="n">
-        <v>85.59322033898314</v>
+        <v>86.02739726027406</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +845,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>209.88</v>
+        <v>211.57</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1766</v>
+        <v>0.8052</v>
       </c>
       <c r="D30" t="n">
-        <v>86.09913793103453</v>
+        <v>86.4921465968587</v>
       </c>
     </row>
     <row r="31">
@@ -863,13 +861,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>85.03</v>
+        <v>84.98</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>-0.0588</v>
       </c>
       <c r="D31" t="n">
-        <v>91.63179916317982</v>
+        <v>91.24999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -943,19 +941,19 @@
         <v>45.98</v>
       </c>
       <c r="C2" t="n">
-        <v>41.32</v>
+        <v>41.01</v>
       </c>
       <c r="D2" t="n">
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>495.84</v>
+        <v>492.12</v>
       </c>
       <c r="F2" t="n">
-        <v>-10.1348</v>
+        <v>-10.809</v>
       </c>
       <c r="G2" t="n">
-        <v>34.77366255144038</v>
+        <v>34.00402414486922</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -973,19 +971,19 @@
         <v>50.59</v>
       </c>
       <c r="C3" t="n">
-        <v>49.17</v>
+        <v>49.28</v>
       </c>
       <c r="D3" t="n">
         <v>18</v>
       </c>
       <c r="E3" t="n">
-        <v>885.0600000000001</v>
+        <v>887.04</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.8069</v>
+        <v>-2.5894</v>
       </c>
       <c r="G3" t="n">
-        <v>54.83870967741937</v>
+        <v>60.83188908145581</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1003,19 +1001,19 @@
         <v>146.84</v>
       </c>
       <c r="C4" t="n">
-        <v>151.42</v>
+        <v>152.76</v>
       </c>
       <c r="D4" t="n">
         <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>605.6799999999999</v>
+        <v>611.04</v>
       </c>
       <c r="F4" t="n">
-        <v>3.119</v>
+        <v>4.0316</v>
       </c>
       <c r="G4" t="n">
-        <v>68.51674641148321</v>
+        <v>69.36685288640598</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1033,19 +1031,19 @@
         <v>113.1</v>
       </c>
       <c r="C5" t="n">
-        <v>112.53</v>
+        <v>111.83</v>
       </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>450.12</v>
+        <v>447.32</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.504</v>
+        <v>-1.1229</v>
       </c>
       <c r="G5" t="n">
-        <v>45.79569145239752</v>
+        <v>25.89363557105492</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1063,19 +1061,19 @@
         <v>37.79</v>
       </c>
       <c r="C6" t="n">
-        <v>38.72</v>
+        <v>38.88</v>
       </c>
       <c r="D6" t="n">
         <v>14</v>
       </c>
       <c r="E6" t="n">
-        <v>542.0799999999999</v>
+        <v>544.3200000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>2.461</v>
+        <v>2.8844</v>
       </c>
       <c r="G6" t="n">
-        <v>58.96414342629474</v>
+        <v>58.63453815261043</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1093,19 +1091,19 @@
         <v>42.5</v>
       </c>
       <c r="C7" t="n">
-        <v>42.31</v>
+        <v>42.25</v>
       </c>
       <c r="D7" t="n">
         <v>14</v>
       </c>
       <c r="E7" t="n">
-        <v>592.34</v>
+        <v>591.5</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.4471</v>
+        <v>-0.5881999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>18.8356164383562</v>
+        <v>19.45754716981136</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1161,7 +1159,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3571.12</v>
+        <v>3573.34</v>
       </c>
     </row>
     <row r="4">
@@ -1171,7 +1169,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11002.75</v>
+        <v>11004.97</v>
       </c>
     </row>
   </sheetData>
@@ -2999,7 +2997,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4101,6 +4099,22 @@
         <v>11002.75</v>
       </c>
     </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>21/08/2020 16:49:05</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>7431.629999999999</v>
+      </c>
+      <c r="C69" t="n">
+        <v>3573.34</v>
+      </c>
+      <c r="D69" t="n">
+        <v>11004.97</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -395,479 +395,481 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>CSCO</t>
+          <t>WMT</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42.25</v>
+        <v>136.69</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1418</v>
+        <v>0.3156</v>
       </c>
       <c r="D2" t="n">
-        <v>19.45754716981136</v>
+        <v>15.76323987538953</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>TRV</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>111.83</v>
+        <v>110.34</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.6221</v>
+        <v>-1.5964</v>
       </c>
       <c r="D3" t="n">
-        <v>25.89363557105492</v>
+        <v>21.76943699731903</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202.43</v>
+        <v>202.91</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2873</v>
+        <v>-1.0436</v>
       </c>
       <c r="D4" t="n">
-        <v>33.90297684674752</v>
+        <v>24.1081081081081</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>XOM</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>41.01</v>
+        <v>194.83</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.7502</v>
+        <v>-2.9151</v>
       </c>
       <c r="D5" t="n">
-        <v>34.00402414486922</v>
+        <v>24.64154718239416</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>DIS</t>
+          <t>CSCO</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127.44</v>
+        <v>40.37</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.5308</v>
+        <v>-0.1237</v>
       </c>
       <c r="D6" t="n">
-        <v>36.45266594124047</v>
+        <v>26.5446224256293</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>WBA</t>
+          <t>DIS</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39.46</v>
+        <v>130.22</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.6296</v>
+        <v>-1.4157</v>
       </c>
       <c r="D7" t="n">
-        <v>37.0309951060359</v>
+        <v>27.10363153232942</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>JNJ</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>96.15000000000001</v>
+        <v>147.17</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.5893</v>
+        <v>-0.8288</v>
       </c>
       <c r="D8" t="n">
-        <v>37.08154506437773</v>
+        <v>28.51612903225798</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>IBM</t>
+          <t>V</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>123.16</v>
+        <v>205.27</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0081</v>
+        <v>0.0682</v>
       </c>
       <c r="D9" t="n">
-        <v>38.09523809523809</v>
+        <v>30.53143452587705</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>KO</t>
+          <t>CVX</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.28</v>
+        <v>78.79000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1478</v>
+        <v>0.2928</v>
       </c>
       <c r="D10" t="n">
-        <v>39.60000000000008</v>
+        <v>30.70175438596499</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>JPM</t>
+          <t>UNH</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>97.31999999999999</v>
+        <v>304.98</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0514</v>
+        <v>-0.5024</v>
       </c>
       <c r="D11" t="n">
-        <v>41.02787456445991</v>
+        <v>31.46425724156256</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>UNH</t>
+          <t>INTC</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>314.14</v>
+        <v>50.32</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2585</v>
+        <v>-0.0993</v>
       </c>
       <c r="D12" t="n">
-        <v>44.53686200378076</v>
+        <v>34.35980551053484</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>XOM</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>167.5</v>
+        <v>37.8</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.2266</v>
+        <v>-0.0264</v>
       </c>
       <c r="D13" t="n">
-        <v>45.80838323353292</v>
+        <v>34.45190156599551</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>RTX</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>60.27</v>
+        <v>137.52</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.1805</v>
+        <v>-0.1307</v>
       </c>
       <c r="D14" t="n">
-        <v>46.48275862068967</v>
+        <v>36.73469387755112</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>TRV</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>85.08</v>
+        <v>112.6</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3184</v>
+        <v>-0.5037</v>
       </c>
       <c r="D15" t="n">
-        <v>47.73776546629735</v>
+        <v>36.89384010484927</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>IBM</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>213.02</v>
+        <v>124.92</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.727</v>
+        <v>0.5635</v>
       </c>
       <c r="D16" t="n">
-        <v>52.02937765751838</v>
+        <v>38.42329545454546</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>WMT</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>131.63</v>
+        <v>167.53</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8118</v>
+        <v>0.0418</v>
       </c>
       <c r="D17" t="n">
-        <v>57.02373316228349</v>
+        <v>39.70462936665719</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>PFE</t>
+          <t>JPM</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>38.88</v>
+        <v>98.56</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4132</v>
+        <v>-1.1434</v>
       </c>
       <c r="D18" t="n">
-        <v>58.63453815261043</v>
+        <v>40.02582311168496</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>DOW</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>43.59</v>
+        <v>279.96</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.2289</v>
+        <v>-0.593</v>
       </c>
       <c r="D19" t="n">
-        <v>59.48616600790518</v>
+        <v>42.54530477759472</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>PFE</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>161.71</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
+        <v>36.82</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1088</v>
+      </c>
       <c r="D20" t="n">
-        <v>59.8445595854923</v>
+        <v>44.8369565217391</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>INTC</t>
+          <t>MRK</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>49.28</v>
+        <v>85.64</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2237</v>
+        <v>0.0818</v>
       </c>
       <c r="D21" t="n">
-        <v>60.83188908145581</v>
+        <v>46.36563876651984</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>VZ</t>
+          <t>KO</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>58.99</v>
+        <v>50.55</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0509</v>
+        <v>-0.4725</v>
       </c>
       <c r="D22" t="n">
-        <v>61.27450980392159</v>
+        <v>47.70459081836324</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>NKE</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>138.43</v>
+        <v>116.36</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6909999999999999</v>
+        <v>-1.8804</v>
       </c>
       <c r="D23" t="n">
-        <v>62.81957633308989</v>
+        <v>48.4743411927878</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>JNJ</t>
+          <t>WBA</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>152.76</v>
+        <v>37.21</v>
       </c>
       <c r="C24" t="n">
-        <v>0.885</v>
+        <v>2.5634</v>
       </c>
       <c r="D24" t="n">
-        <v>69.36685288640598</v>
+        <v>50.39682539682538</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>VZ</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>283.23</v>
+        <v>60.59</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9085</v>
+        <v>0.3644</v>
       </c>
       <c r="D25" t="n">
-        <v>70.03110957483582</v>
+        <v>51.05633802816905</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>AXP</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>137.44</v>
+        <v>104.66</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4311</v>
+        <v>-1.2455</v>
       </c>
       <c r="D26" t="n">
-        <v>72.96340023612751</v>
+        <v>51.13043478260865</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>RTX</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>497.48</v>
+        <v>62.81</v>
       </c>
       <c r="C27" t="n">
-        <v>5.1532</v>
+        <v>-0.1748</v>
       </c>
       <c r="D27" t="n">
-        <v>81.91886360900443</v>
+        <v>54.86194477791118</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>MMM</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>204.13</v>
+        <v>172.38</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.0098</v>
+        <v>1.6931</v>
       </c>
       <c r="D28" t="n">
-        <v>82.15139442231056</v>
+        <v>55.87392550143267</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>109.75</v>
+        <v>153.87</v>
       </c>
       <c r="C29" t="n">
-        <v>1.611</v>
+        <v>1.8265</v>
       </c>
       <c r="D29" t="n">
-        <v>86.02739726027406</v>
+        <v>58.93550893550891</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>MCD</t>
+          <t>DOW</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>211.57</v>
+        <v>50.97</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8052</v>
+        <v>2.5553</v>
       </c>
       <c r="D30" t="n">
-        <v>86.4921465968587</v>
+        <v>60.23391812865499</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>MRK</t>
+          <t>MCD</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>84.98</v>
+        <v>222.58</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.0588</v>
+        <v>-0.9919</v>
       </c>
       <c r="D31" t="n">
-        <v>91.24999999999999</v>
+        <v>66.0272589601212</v>
       </c>
     </row>
   </sheetData>
@@ -881,7 +883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,19 +943,19 @@
         <v>45.98</v>
       </c>
       <c r="C2" t="n">
-        <v>41.01</v>
+        <v>37.8</v>
       </c>
       <c r="D2" t="n">
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>492.12</v>
+        <v>453.6</v>
       </c>
       <c r="F2" t="n">
-        <v>-10.809</v>
+        <v>-17.7903</v>
       </c>
       <c r="G2" t="n">
-        <v>34.00402414486922</v>
+        <v>34.45190156599551</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -964,26 +966,26 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>INTC</t>
+          <t>TRV</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50.59</v>
+        <v>113.1</v>
       </c>
       <c r="C3" t="n">
-        <v>49.28</v>
+        <v>112.6</v>
       </c>
       <c r="D3" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>887.04</v>
+        <v>450.4</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.5894</v>
+        <v>-0.4421</v>
       </c>
       <c r="G3" t="n">
-        <v>60.83188908145581</v>
+        <v>36.89384010484927</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -994,26 +996,26 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>JNJ</t>
+          <t>PFE</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146.84</v>
+        <v>37.79</v>
       </c>
       <c r="C4" t="n">
-        <v>152.76</v>
+        <v>36.82</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>611.04</v>
+        <v>515.48</v>
       </c>
       <c r="F4" t="n">
-        <v>4.0316</v>
+        <v>-2.5668</v>
       </c>
       <c r="G4" t="n">
-        <v>69.36685288640598</v>
+        <v>44.8369565217391</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1024,26 +1026,26 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>TRV</t>
+          <t>CSCO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>113.1</v>
+        <v>42.5</v>
       </c>
       <c r="C5" t="n">
-        <v>111.83</v>
+        <v>40.37</v>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E5" t="n">
-        <v>447.32</v>
+        <v>565.1799999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.1229</v>
+        <v>-5.0118</v>
       </c>
       <c r="G5" t="n">
-        <v>25.89363557105492</v>
+        <v>26.5446224256293</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1054,26 +1056,26 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>PFE</t>
+          <t>WBA</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37.79</v>
+        <v>39.74</v>
       </c>
       <c r="C6" t="n">
-        <v>38.88</v>
+        <v>37.21</v>
       </c>
       <c r="D6" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E6" t="n">
-        <v>544.3200000000001</v>
+        <v>669.78</v>
       </c>
       <c r="F6" t="n">
-        <v>2.8844</v>
+        <v>-6.3664</v>
       </c>
       <c r="G6" t="n">
-        <v>58.63453815261043</v>
+        <v>50.39682539682538</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1084,28 +1086,280 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>CSCO</t>
+          <t>RTX</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42.5</v>
+        <v>60.95</v>
       </c>
       <c r="C7" t="n">
-        <v>42.25</v>
+        <v>62.81</v>
       </c>
       <c r="D7" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>591.5</v>
+        <v>753.72</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5881999999999999</v>
+        <v>3.0517</v>
       </c>
       <c r="G7" t="n">
-        <v>19.45754716981136</v>
+        <v>54.86194477791118</v>
       </c>
       <c r="H7" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>84.78</v>
+      </c>
+      <c r="C8" t="n">
+        <v>78.79000000000001</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="n">
+        <v>551.5300000000001</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-7.0653</v>
+      </c>
+      <c r="G8" t="n">
+        <v>30.70175438596499</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>UNH</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>308.82</v>
+      </c>
+      <c r="C9" t="n">
+        <v>304.98</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>609.96</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-1.2434</v>
+      </c>
+      <c r="G9" t="n">
+        <v>31.46425724156256</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>147.17</v>
+      </c>
+      <c r="C10" t="n">
+        <v>147.17</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" t="n">
+        <v>588.6799999999999</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>28.51612903225798</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>202.91</v>
+      </c>
+      <c r="C11" t="n">
+        <v>202.91</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>608.73</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>24.1081081081081</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>110.34</v>
+      </c>
+      <c r="C12" t="n">
+        <v>110.34</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>551.7</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>21.76943699731903</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>130.22</v>
+      </c>
+      <c r="C13" t="n">
+        <v>130.22</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" t="n">
+        <v>520.88</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>27.10363153232942</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>194.83</v>
+      </c>
+      <c r="C14" t="n">
+        <v>194.83</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>584.49</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>24.64154718239416</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>WMT</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>136.69</v>
+      </c>
+      <c r="C15" t="n">
+        <v>136.69</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" t="n">
+        <v>546.76</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>15.76323987538953</v>
+      </c>
+      <c r="H15" t="inlineStr">
         <is>
           <t>buy</t>
         </is>
@@ -1149,7 +1403,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7431.629999999999</v>
+        <v>2898.27</v>
       </c>
     </row>
     <row r="3">
@@ -1159,7 +1413,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3573.34</v>
+        <v>7970.889999999999</v>
       </c>
     </row>
     <row r="4">
@@ -1169,7 +1423,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11004.97</v>
+        <v>10869.16</v>
       </c>
     </row>
   </sheetData>
@@ -1183,7 +1437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2984,6 +3238,318 @@
       </c>
       <c r="F69" t="n">
         <v>542.4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>24/08/2020 17:38:32</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>WBA</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>18</v>
+      </c>
+      <c r="F70" t="n">
+        <v>715.3200000000001</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>24/08/2020 17:38:46</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>4</v>
+      </c>
+      <c r="F71" t="n">
+        <v>608.6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>25/08/2020 19:35:09</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>RTX</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>12</v>
+      </c>
+      <c r="F72" t="n">
+        <v>731.4000000000001</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>26/08/2020 18:54:00</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>7</v>
+      </c>
+      <c r="F73" t="n">
+        <v>593.46</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>26/08/2020 18:54:03</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>UNH</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>2</v>
+      </c>
+      <c r="F74" t="n">
+        <v>617.64</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>31/08/2020 18:53:55</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>18</v>
+      </c>
+      <c r="F75" t="n">
+        <v>917.1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>17/09/2020 19:24:37</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>4</v>
+      </c>
+      <c r="F76" t="n">
+        <v>588.6799999999999</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>17/09/2020 19:24:40</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>3</v>
+      </c>
+      <c r="F77" t="n">
+        <v>608.73</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>17/09/2020 19:24:43</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>5</v>
+      </c>
+      <c r="F78" t="n">
+        <v>551.7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>17/09/2020 19:24:50</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>4</v>
+      </c>
+      <c r="F79" t="n">
+        <v>520.88</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>17/09/2020 19:24:52</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>3</v>
+      </c>
+      <c r="F80" t="n">
+        <v>584.49</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>17/09/2020 19:25:00</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>WMT</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>4</v>
+      </c>
+      <c r="F81" t="n">
+        <v>546.76</v>
       </c>
     </row>
   </sheetData>
@@ -2997,7 +3563,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4115,6 +4681,134 @@
         <v>11004.97</v>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>24/08/2020 17:38:27</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>7324.91</v>
+      </c>
+      <c r="C70" t="n">
+        <v>3700.36</v>
+      </c>
+      <c r="D70" t="n">
+        <v>11025.27</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>25/08/2020 19:35:05</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>6593.51</v>
+      </c>
+      <c r="C71" t="n">
+        <v>4410.360000000001</v>
+      </c>
+      <c r="D71" t="n">
+        <v>11003.87</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>26/08/2020 18:53:52</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>5382.41</v>
+      </c>
+      <c r="C72" t="n">
+        <v>5586.780000000001</v>
+      </c>
+      <c r="D72" t="n">
+        <v>10969.19</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>28/08/2020 05:39:57</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>5382.41</v>
+      </c>
+      <c r="C73" t="n">
+        <v>5613.530000000001</v>
+      </c>
+      <c r="D73" t="n">
+        <v>10995.94</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>31/08/2020 18:53:34</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>6299.51</v>
+      </c>
+      <c r="C74" t="n">
+        <v>4692.55</v>
+      </c>
+      <c r="D74" t="n">
+        <v>10992.06</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>02/09/2020 19:25:58</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>6299.51</v>
+      </c>
+      <c r="C75" t="n">
+        <v>4690.75</v>
+      </c>
+      <c r="D75" t="n">
+        <v>10990.26</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>03/09/2020 19:40:12</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>6299.51</v>
+      </c>
+      <c r="C76" t="n">
+        <v>4619.98</v>
+      </c>
+      <c r="D76" t="n">
+        <v>10919.49</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>17/09/2020 19:24:26</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>2898.27</v>
+      </c>
+      <c r="C77" t="n">
+        <v>7970.889999999999</v>
+      </c>
+      <c r="D77" t="n">
+        <v>10869.16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9cefadc21042b88c/PET_PROJECTS/Al-the-Trader/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_B1C150B80D03F194F17B52340BF2FAA582AF4364" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1A6B543B-9403-3647-B979-8B9A1351C073}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_B1C150B80D03F194F17B52340BF2FAA582AF4364" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2A19E093-4B26-CF4A-83E1-4DEE33C99FEC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="17920" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="17920" windowHeight="21900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="watchlist" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="204">
   <si>
     <t>ticker</t>
   </si>
@@ -140,9 +140,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>performance</t>
-  </si>
-  <si>
     <t>current_rsi</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
   </si>
   <si>
     <t>buy</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>asset</t>
@@ -1006,7 +1000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -1453,13 +1447,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1481,11 +1477,8 @@
       <c r="G1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1502,16 +1495,13 @@
         <v>453.6</v>
       </c>
       <c r="F2">
-        <v>-17.790299999999998</v>
-      </c>
-      <c r="G2">
         <v>34.451901565995513</v>
       </c>
-      <c r="H2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1528,16 +1518,13 @@
         <v>450.4</v>
       </c>
       <c r="F3">
-        <v>-0.44209999999999999</v>
-      </c>
-      <c r="G3">
         <v>36.893840104849268</v>
       </c>
-      <c r="H3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -1554,16 +1541,13 @@
         <v>515.48</v>
       </c>
       <c r="F4">
-        <v>-2.5668000000000002</v>
-      </c>
-      <c r="G4">
         <v>44.836956521739097</v>
       </c>
-      <c r="H4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1580,16 +1564,13 @@
         <v>565.17999999999995</v>
       </c>
       <c r="F5">
-        <v>-5.0118</v>
-      </c>
-      <c r="G5">
         <v>26.544622425629299</v>
       </c>
-      <c r="H5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -1606,16 +1587,13 @@
         <v>669.78</v>
       </c>
       <c r="F6">
-        <v>-6.3663999999999996</v>
-      </c>
-      <c r="G6">
         <v>50.396825396825378</v>
       </c>
-      <c r="H6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -1632,16 +1610,13 @@
         <v>753.72</v>
       </c>
       <c r="F7">
-        <v>3.0516999999999999</v>
-      </c>
-      <c r="G7">
         <v>54.861944777911177</v>
       </c>
-      <c r="H7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1658,16 +1633,13 @@
         <v>551.53000000000009</v>
       </c>
       <c r="F8">
-        <v>-7.0652999999999997</v>
-      </c>
-      <c r="G8">
         <v>30.701754385964989</v>
       </c>
-      <c r="H8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1684,16 +1656,13 @@
         <v>609.96</v>
       </c>
       <c r="F9">
-        <v>-1.2434000000000001</v>
-      </c>
-      <c r="G9">
         <v>31.46425724156256</v>
       </c>
-      <c r="H9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1709,17 +1678,14 @@
       <c r="E10">
         <v>588.67999999999995</v>
       </c>
-      <c r="F10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10">
+      <c r="F10">
         <v>28.516129032257979</v>
       </c>
-      <c r="H10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1735,17 +1701,14 @@
       <c r="E11">
         <v>608.73</v>
       </c>
-      <c r="F11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11">
+      <c r="F11">
         <v>24.108108108108102</v>
       </c>
-      <c r="H11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -1761,17 +1724,14 @@
       <c r="E12">
         <v>551.70000000000005</v>
       </c>
-      <c r="F12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12">
+      <c r="F12">
         <v>21.76943699731903</v>
       </c>
-      <c r="H12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1787,17 +1747,14 @@
       <c r="E13">
         <v>520.88</v>
       </c>
-      <c r="F13" t="s">
-        <v>42</v>
-      </c>
-      <c r="G13">
+      <c r="F13">
         <v>27.10363153232942</v>
       </c>
-      <c r="H13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -1813,17 +1770,14 @@
       <c r="E14">
         <v>584.49</v>
       </c>
-      <c r="F14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14">
+      <c r="F14">
         <v>24.641547182394159</v>
       </c>
-      <c r="H14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1839,14 +1793,11 @@
       <c r="E15">
         <v>546.76</v>
       </c>
-      <c r="F15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15">
+      <c r="F15">
         <v>15.76323987538953</v>
       </c>
-      <c r="H15" t="s">
-        <v>41</v>
+      <c r="G15" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1864,7 +1815,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>37</v>
@@ -1872,7 +1823,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>2898.27</v>
@@ -1880,7 +1831,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3">
         <v>7970.8899999999994</v>
@@ -1888,7 +1839,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4">
         <v>10869.16</v>
@@ -1909,13 +1860,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>36</v>
@@ -1929,13 +1880,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -1949,13 +1900,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3">
         <v>24</v>
@@ -1969,13 +1920,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4">
         <v>7</v>
@@ -1989,13 +1940,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5">
         <v>12</v>
@@ -2009,13 +1960,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>11</v>
@@ -2029,13 +1980,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -2049,13 +2000,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -2069,13 +2020,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9">
         <v>6</v>
@@ -2089,13 +2040,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -2109,13 +2060,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -2129,13 +2080,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -2149,13 +2100,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2169,13 +2120,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
         <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14">
         <v>9</v>
@@ -2189,13 +2140,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -2209,13 +2160,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16">
         <v>6</v>
@@ -2229,13 +2180,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -2249,13 +2200,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2269,13 +2220,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2289,13 +2240,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -2309,13 +2260,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2329,13 +2280,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -2349,13 +2300,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
         <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E23">
         <v>4</v>
@@ -2369,13 +2320,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
         <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2389,13 +2340,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
         <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E25">
         <v>4</v>
@@ -2409,13 +2360,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
         <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -2429,13 +2380,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2449,13 +2400,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2469,13 +2420,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C29" t="s">
         <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E29">
         <v>7</v>
@@ -2489,13 +2440,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
         <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2509,13 +2460,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
         <v>17</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E31">
         <v>10</v>
@@ -2529,13 +2480,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C32" t="s">
         <v>26</v>
       </c>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E32">
         <v>24</v>
@@ -2549,13 +2500,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
         <v>29</v>
       </c>
       <c r="D33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>10</v>
@@ -2569,13 +2520,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C34" t="s">
         <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E34">
         <v>5</v>
@@ -2589,13 +2540,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C35" t="s">
         <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E35">
         <v>2</v>
@@ -2609,13 +2560,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E36">
         <v>3</v>
@@ -2629,13 +2580,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C37" t="s">
         <v>24</v>
       </c>
       <c r="D37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E37">
         <v>6</v>
@@ -2649,13 +2600,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
         <v>22</v>
       </c>
       <c r="D38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E38">
         <v>23</v>
@@ -2669,13 +2620,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E39">
         <v>5</v>
@@ -2689,13 +2640,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s">
         <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E40">
         <v>4</v>
@@ -2709,13 +2660,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C41" t="s">
         <v>23</v>
       </c>
       <c r="D41" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E41">
         <v>6</v>
@@ -2729,13 +2680,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s">
         <v>27</v>
       </c>
       <c r="D42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E42">
         <v>11</v>
@@ -2749,13 +2700,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
         <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E43">
         <v>14</v>
@@ -2769,13 +2720,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E44">
         <v>3</v>
@@ -2789,13 +2740,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C45" t="s">
         <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E45">
         <v>18</v>
@@ -2809,13 +2760,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C46" t="s">
         <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E46">
         <v>12</v>
@@ -2829,13 +2780,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C47" t="s">
         <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E47">
         <v>6</v>
@@ -2849,13 +2800,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C48" t="s">
         <v>29</v>
       </c>
       <c r="D48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E48">
         <v>7</v>
@@ -2869,13 +2820,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
       </c>
       <c r="D49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E49">
         <v>5</v>
@@ -2889,13 +2840,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C50" t="s">
         <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E50">
         <v>18</v>
@@ -2909,13 +2860,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C51" t="s">
         <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E51">
         <v>8</v>
@@ -2929,13 +2880,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C52" t="s">
         <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E52">
         <v>3</v>
@@ -2949,13 +2900,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C53" t="s">
         <v>22</v>
       </c>
       <c r="D53" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E53">
         <v>23</v>
@@ -2969,13 +2920,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C54" t="s">
         <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E54">
         <v>3</v>
@@ -2989,13 +2940,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C55" t="s">
         <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E55">
         <v>14</v>
@@ -3009,13 +2960,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C56" t="s">
         <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E56">
         <v>18</v>
@@ -3029,13 +2980,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E57">
         <v>4</v>
@@ -3049,13 +3000,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C58" t="s">
         <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E58">
         <v>6</v>
@@ -3069,13 +3020,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C59" t="s">
         <v>19</v>
       </c>
       <c r="D59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E59">
         <v>4</v>
@@ -3089,13 +3040,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C60" t="s">
         <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E60">
         <v>4</v>
@@ -3109,13 +3060,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C61" t="s">
         <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E61">
         <v>4</v>
@@ -3129,13 +3080,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C62" t="s">
         <v>17</v>
       </c>
       <c r="D62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E62">
         <v>4</v>
@@ -3149,13 +3100,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C63" t="s">
         <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E63">
         <v>6</v>
@@ -3169,13 +3120,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C64" t="s">
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E64">
         <v>4</v>
@@ -3189,13 +3140,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
       </c>
       <c r="D65" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E65">
         <v>5</v>
@@ -3209,13 +3160,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C66" t="s">
         <v>22</v>
       </c>
       <c r="D66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E66">
         <v>14</v>
@@ -3229,13 +3180,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C67" t="s">
         <v>19</v>
       </c>
       <c r="D67" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E67">
         <v>4</v>
@@ -3249,13 +3200,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C68" t="s">
         <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E68">
         <v>14</v>
@@ -3269,13 +3220,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C69" t="s">
         <v>4</v>
       </c>
       <c r="D69" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E69">
         <v>4</v>
@@ -3289,13 +3240,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C70" t="s">
         <v>26</v>
       </c>
       <c r="D70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E70">
         <v>18</v>
@@ -3309,13 +3260,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C71" t="s">
         <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E71">
         <v>4</v>
@@ -3329,13 +3280,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C72" t="s">
         <v>29</v>
       </c>
       <c r="D72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E72">
         <v>12</v>
@@ -3349,13 +3300,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C73" t="s">
         <v>12</v>
       </c>
       <c r="D73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E73">
         <v>7</v>
@@ -3369,13 +3320,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C74" t="s">
         <v>13</v>
       </c>
       <c r="D74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E74">
         <v>2</v>
@@ -3389,13 +3340,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C75" t="s">
         <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E75">
         <v>18</v>
@@ -3409,13 +3360,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C76" t="s">
         <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E76">
         <v>4</v>
@@ -3429,13 +3380,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C77" t="s">
         <v>6</v>
       </c>
       <c r="D77" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E77">
         <v>3</v>
@@ -3449,13 +3400,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
       </c>
       <c r="D78" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E78">
         <v>5</v>
@@ -3469,13 +3420,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C79" t="s">
         <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E79">
         <v>4</v>
@@ -3489,13 +3440,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C80" t="s">
         <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E80">
         <v>3</v>
@@ -3509,13 +3460,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C81" t="s">
         <v>4</v>
       </c>
       <c r="D81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E81">
         <v>4</v>
@@ -3539,21 +3490,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B2">
         <v>8039.66</v>
@@ -3567,7 +3518,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B3">
         <v>8039.66</v>
@@ -3581,7 +3532,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B4">
         <v>8039.66</v>
@@ -3595,7 +3546,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B5">
         <v>6559.66</v>
@@ -3609,7 +3560,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B6">
         <v>4979.93</v>
@@ -3623,7 +3574,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B7">
         <v>4979.93</v>
@@ -3637,7 +3588,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B8">
         <v>4979.93</v>
@@ -3651,7 +3602,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B9">
         <v>4979.93</v>
@@ -3665,7 +3616,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B10">
         <v>4979.93</v>
@@ -3679,7 +3630,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B11">
         <v>3242.84</v>
@@ -3693,7 +3644,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B12">
         <v>1734.2</v>
@@ -3707,7 +3658,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B13">
         <v>1858.54</v>
@@ -3721,7 +3672,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B14">
         <v>1858.54</v>
@@ -3735,7 +3686,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B15">
         <v>1858.54</v>
@@ -3749,7 +3700,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B16">
         <v>2140.56</v>
@@ -3763,7 +3714,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B17">
         <v>5590.56</v>
@@ -3777,7 +3728,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B18">
         <v>8202.52</v>
@@ -3791,7 +3742,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B19">
         <v>8202.52</v>
@@ -3805,7 +3756,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B20">
         <v>7386.9400000000014</v>
@@ -3819,7 +3770,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B21">
         <v>6767.2400000000016</v>
@@ -3833,7 +3784,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B22">
         <v>7733.7200000000012</v>
@@ -3847,7 +3798,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B23">
         <v>8370.18</v>
@@ -3861,7 +3812,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B24">
         <v>8370.18</v>
@@ -3875,7 +3826,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B25">
         <v>8370.18</v>
@@ -3889,7 +3840,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B26">
         <v>8370.18</v>
@@ -3903,7 +3854,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B27">
         <v>5922.63</v>
@@ -3917,7 +3868,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B28">
         <v>5922.63</v>
@@ -3931,7 +3882,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B29">
         <v>5922.63</v>
@@ -3945,7 +3896,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B30">
         <v>5922.63</v>
@@ -3959,7 +3910,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B31">
         <v>4784.01</v>
@@ -3973,7 +3924,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B32">
         <v>3877.9700000000012</v>
@@ -3987,7 +3938,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B33">
         <v>3877.9700000000012</v>
@@ -4001,7 +3952,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B34">
         <v>3877.9700000000012</v>
@@ -4015,7 +3966,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B35">
         <v>3877.9700000000012</v>
@@ -4029,7 +3980,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B36">
         <v>3877.9700000000012</v>
@@ -4043,7 +3994,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B37">
         <v>3877.9700000000012</v>
@@ -4057,7 +4008,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B38">
         <v>3877.9700000000012</v>
@@ -4071,7 +4022,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B39">
         <v>3877.9700000000012</v>
@@ -4085,7 +4036,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B40">
         <v>5740.5700000000024</v>
@@ -4099,7 +4050,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B41">
         <v>5740.5700000000024</v>
@@ -4113,7 +4064,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B42">
         <v>5740.5700000000024</v>
@@ -4127,7 +4078,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B43">
         <v>5740.5700000000024</v>
@@ -4141,7 +4092,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B44">
         <v>6986.0300000000016</v>
@@ -4155,7 +4106,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B45">
         <v>7911.590000000002</v>
@@ -4169,7 +4120,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B46">
         <v>7911.590000000002</v>
@@ -4183,7 +4134,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B47">
         <v>7911.590000000002</v>
@@ -4197,7 +4148,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B48">
         <v>8511.65</v>
@@ -4211,7 +4162,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B49">
         <v>8511.65</v>
@@ -4225,7 +4176,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B50">
         <v>9361.4499999999989</v>
@@ -4239,7 +4190,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B51">
         <v>9361.4499999999989</v>
@@ -4253,7 +4204,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B52">
         <v>8450.8299999999981</v>
@@ -4267,7 +4218,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B53">
         <v>8450.8299999999981</v>
@@ -4281,7 +4232,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B54">
         <v>7644.3499999999995</v>
@@ -4295,7 +4246,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B55">
         <v>5699.29</v>
@@ -4309,7 +4260,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B56">
         <v>5181.6899999999996</v>
@@ -4323,7 +4274,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B57">
         <v>4729.29</v>
@@ -4337,7 +4288,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B58">
         <v>5494.95</v>
@@ -4351,7 +4302,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B59">
         <v>5494.95</v>
@@ -4365,7 +4316,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B60">
         <v>5494.95</v>
@@ -4379,7 +4330,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B61">
         <v>5494.95</v>
@@ -4393,7 +4344,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B62">
         <v>6326.43</v>
@@ -4407,7 +4358,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B63">
         <v>6326.43</v>
@@ -4421,7 +4372,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B64">
         <v>6889.23</v>
@@ -4435,7 +4386,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B65">
         <v>7431.6299999999992</v>
@@ -4449,7 +4400,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B66">
         <v>7431.6299999999992</v>
@@ -4463,7 +4414,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B67">
         <v>7431.6299999999992</v>
@@ -4477,7 +4428,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B68">
         <v>7431.6299999999992</v>
@@ -4491,7 +4442,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B69">
         <v>7431.6299999999992</v>
@@ -4505,7 +4456,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B70">
         <v>7324.91</v>
@@ -4519,7 +4470,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B71">
         <v>6593.51</v>
@@ -4533,7 +4484,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B72">
         <v>5382.41</v>
@@ -4547,7 +4498,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B73">
         <v>5382.41</v>
@@ -4561,7 +4512,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B74">
         <v>6299.51</v>
@@ -4575,7 +4526,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B75">
         <v>6299.51</v>
@@ -4589,7 +4540,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B76">
         <v>6299.51</v>
@@ -4603,7 +4554,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B77">
         <v>2898.27</v>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -938,16 +938,16 @@
         <v>52.96</v>
       </c>
       <c r="C2" t="n">
-        <v>52.96</v>
+        <v>47.2</v>
       </c>
       <c r="D2" t="n">
         <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>953.28</v>
+        <v>849.6</v>
       </c>
       <c r="F2" t="n">
-        <v>24.80620155038761</v>
+        <v>30.42452830188694</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -965,16 +965,16 @@
         <v>137.78</v>
       </c>
       <c r="C3" t="n">
-        <v>137.78</v>
+        <v>125.98</v>
       </c>
       <c r="D3" t="n">
         <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>964.46</v>
+        <v>881.86</v>
       </c>
       <c r="F3" t="n">
-        <v>29.24528301886784</v>
+        <v>45.43269230769231</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -992,16 +992,16 @@
         <v>59.28</v>
       </c>
       <c r="C4" t="n">
-        <v>59.28</v>
+        <v>56</v>
       </c>
       <c r="D4" t="n">
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>948.48</v>
+        <v>896</v>
       </c>
       <c r="F4" t="n">
-        <v>29.85915492957741</v>
+        <v>45.59686888454011</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -1019,16 +1019,16 @@
         <v>36.98</v>
       </c>
       <c r="C5" t="n">
-        <v>36.98</v>
+        <v>34.39</v>
       </c>
       <c r="D5" t="n">
         <v>27</v>
       </c>
       <c r="E5" t="n">
-        <v>998.4599999999999</v>
+        <v>928.53</v>
       </c>
       <c r="F5" t="n">
-        <v>21.7967599410898</v>
+        <v>49.08424908424913</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -1046,16 +1046,16 @@
         <v>75.04000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>75.04000000000001</v>
+        <v>73.13</v>
       </c>
       <c r="D6" t="n">
         <v>13</v>
       </c>
       <c r="E6" t="n">
-        <v>975.5200000000001</v>
+        <v>950.6899999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>16.82953311617815</v>
+        <v>40.69400630914822</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -1073,16 +1073,16 @@
         <v>129.87</v>
       </c>
       <c r="C7" t="n">
-        <v>129.87</v>
+        <v>121.42</v>
       </c>
       <c r="D7" t="n">
         <v>7</v>
       </c>
       <c r="E7" t="n">
-        <v>909.09</v>
+        <v>849.9400000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>6.539833531510226</v>
+        <v>32.84612261469755</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -1100,16 +1100,16 @@
         <v>234.51</v>
       </c>
       <c r="C8" t="n">
-        <v>234.51</v>
+        <v>231.6</v>
       </c>
       <c r="D8" t="n">
         <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>938.04</v>
+        <v>926.4</v>
       </c>
       <c r="F8" t="n">
-        <v>28.69097429766896</v>
+        <v>37.52994410433855</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -1127,16 +1127,16 @@
         <v>45.43</v>
       </c>
       <c r="C9" t="n">
-        <v>45.43</v>
+        <v>46.25</v>
       </c>
       <c r="D9" t="n">
         <v>22</v>
       </c>
       <c r="E9" t="n">
-        <v>999.46</v>
+        <v>1017.5</v>
       </c>
       <c r="F9" t="n">
-        <v>24.66539196940727</v>
+        <v>55.15370705244122</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1154,16 +1154,16 @@
         <v>136.39</v>
       </c>
       <c r="C10" t="n">
-        <v>136.39</v>
+        <v>133.35</v>
       </c>
       <c r="D10" t="n">
         <v>7</v>
       </c>
       <c r="E10" t="n">
-        <v>954.7299999999999</v>
+        <v>933.4499999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>27.44783306581064</v>
+        <v>24.97013142174436</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1181,16 +1181,16 @@
         <v>135.47</v>
       </c>
       <c r="C11" t="n">
-        <v>135.47</v>
+        <v>129.12</v>
       </c>
       <c r="D11" t="n">
         <v>7</v>
       </c>
       <c r="E11" t="n">
-        <v>948.29</v>
+        <v>903.84</v>
       </c>
       <c r="F11" t="n">
-        <v>24.68220338983049</v>
+        <v>19.86928104575172</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1208,16 +1208,16 @@
         <v>156.22</v>
       </c>
       <c r="C12" t="n">
-        <v>156.22</v>
+        <v>156.1</v>
       </c>
       <c r="D12" t="n">
         <v>6</v>
       </c>
       <c r="E12" t="n">
-        <v>937.3199999999999</v>
+        <v>936.5999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>21.83523107836568</v>
+        <v>33.95297977036628</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11287</v>
+        <v>10834</v>
       </c>
     </row>
     <row r="4">
@@ -1310,7 +1310,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11641</v>
+        <v>11188</v>
       </c>
     </row>
   </sheetData>
@@ -5066,10 +5066,10 @@
         <v>8196</v>
       </c>
       <c r="C3" t="n">
-        <v>1803</v>
+        <v>1825</v>
       </c>
       <c r="D3" t="n">
-        <v>9999</v>
+        <v>10021</v>
       </c>
     </row>
     <row r="4">
@@ -5082,10 +5082,10 @@
         <v>8196</v>
       </c>
       <c r="C4" t="n">
-        <v>1803</v>
+        <v>1806</v>
       </c>
       <c r="D4" t="n">
-        <v>9999</v>
+        <v>10002</v>
       </c>
     </row>
     <row r="5">
@@ -5098,10 +5098,10 @@
         <v>7225</v>
       </c>
       <c r="C5" t="n">
-        <v>2774</v>
+        <v>2770</v>
       </c>
       <c r="D5" t="n">
-        <v>9999</v>
+        <v>9995</v>
       </c>
     </row>
     <row r="6">
@@ -5114,10 +5114,10 @@
         <v>5317</v>
       </c>
       <c r="C6" t="n">
-        <v>4681</v>
+        <v>4669</v>
       </c>
       <c r="D6" t="n">
-        <v>9998</v>
+        <v>9986</v>
       </c>
     </row>
     <row r="7">
@@ -5130,10 +5130,10 @@
         <v>2429</v>
       </c>
       <c r="C7" t="n">
-        <v>7568</v>
+        <v>7566</v>
       </c>
       <c r="D7" t="n">
-        <v>9997</v>
+        <v>9995</v>
       </c>
     </row>
     <row r="8">
@@ -5146,10 +5146,10 @@
         <v>2429</v>
       </c>
       <c r="C8" t="n">
-        <v>7568</v>
+        <v>7555</v>
       </c>
       <c r="D8" t="n">
-        <v>9997</v>
+        <v>9984</v>
       </c>
     </row>
     <row r="9">
@@ -5162,10 +5162,10 @@
         <v>2429</v>
       </c>
       <c r="C9" t="n">
-        <v>7568</v>
+        <v>7521</v>
       </c>
       <c r="D9" t="n">
-        <v>9997</v>
+        <v>9950</v>
       </c>
     </row>
     <row r="10">
@@ -5178,10 +5178,10 @@
         <v>2429</v>
       </c>
       <c r="C10" t="n">
-        <v>7568</v>
+        <v>7537</v>
       </c>
       <c r="D10" t="n">
-        <v>9997</v>
+        <v>9966</v>
       </c>
     </row>
     <row r="11">
@@ -5194,10 +5194,10 @@
         <v>2429</v>
       </c>
       <c r="C11" t="n">
-        <v>7568</v>
+        <v>7554</v>
       </c>
       <c r="D11" t="n">
-        <v>9997</v>
+        <v>9983</v>
       </c>
     </row>
     <row r="12">
@@ -5210,10 +5210,10 @@
         <v>2429</v>
       </c>
       <c r="C12" t="n">
-        <v>7568</v>
+        <v>7565</v>
       </c>
       <c r="D12" t="n">
-        <v>9997</v>
+        <v>9994</v>
       </c>
     </row>
     <row r="13">
@@ -5226,10 +5226,10 @@
         <v>3407</v>
       </c>
       <c r="C13" t="n">
-        <v>6621</v>
+        <v>6613</v>
       </c>
       <c r="D13" t="n">
-        <v>10028</v>
+        <v>10020</v>
       </c>
     </row>
     <row r="14">
@@ -5242,10 +5242,10 @@
         <v>3407</v>
       </c>
       <c r="C14" t="n">
-        <v>6621</v>
+        <v>6611</v>
       </c>
       <c r="D14" t="n">
-        <v>10028</v>
+        <v>10018</v>
       </c>
     </row>
     <row r="15">
@@ -5258,10 +5258,10 @@
         <v>3407</v>
       </c>
       <c r="C15" t="n">
-        <v>6621</v>
+        <v>6611</v>
       </c>
       <c r="D15" t="n">
-        <v>10028</v>
+        <v>10018</v>
       </c>
     </row>
     <row r="16">
@@ -5274,10 +5274,10 @@
         <v>1487</v>
       </c>
       <c r="C16" t="n">
-        <v>8540</v>
+        <v>8481</v>
       </c>
       <c r="D16" t="n">
-        <v>10027</v>
+        <v>9968</v>
       </c>
     </row>
     <row r="17">
@@ -5290,10 +5290,10 @@
         <v>2471</v>
       </c>
       <c r="C17" t="n">
-        <v>7580</v>
+        <v>7440</v>
       </c>
       <c r="D17" t="n">
-        <v>10051</v>
+        <v>9911</v>
       </c>
     </row>
     <row r="18">
@@ -5306,10 +5306,10 @@
         <v>2471</v>
       </c>
       <c r="C18" t="n">
-        <v>7580</v>
+        <v>7423</v>
       </c>
       <c r="D18" t="n">
-        <v>10051</v>
+        <v>9894</v>
       </c>
     </row>
     <row r="19">
@@ -5322,10 +5322,10 @@
         <v>1515</v>
       </c>
       <c r="C19" t="n">
-        <v>8535</v>
+        <v>8271</v>
       </c>
       <c r="D19" t="n">
-        <v>10050</v>
+        <v>9786</v>
       </c>
     </row>
     <row r="20">
@@ -5338,10 +5338,10 @@
         <v>675</v>
       </c>
       <c r="C20" t="n">
-        <v>9375</v>
+        <v>8992</v>
       </c>
       <c r="D20" t="n">
-        <v>10050</v>
+        <v>9667</v>
       </c>
     </row>
     <row r="21">
@@ -5354,10 +5354,10 @@
         <v>675</v>
       </c>
       <c r="C21" t="n">
-        <v>9375</v>
+        <v>8987</v>
       </c>
       <c r="D21" t="n">
-        <v>10050</v>
+        <v>9662</v>
       </c>
     </row>
     <row r="22">
@@ -5370,10 +5370,10 @@
         <v>675</v>
       </c>
       <c r="C22" t="n">
-        <v>9375</v>
+        <v>8995</v>
       </c>
       <c r="D22" t="n">
-        <v>10050</v>
+        <v>9670</v>
       </c>
     </row>
     <row r="23">
@@ -5386,10 +5386,10 @@
         <v>675</v>
       </c>
       <c r="C23" t="n">
-        <v>9375</v>
+        <v>8996</v>
       </c>
       <c r="D23" t="n">
-        <v>10050</v>
+        <v>9671</v>
       </c>
     </row>
     <row r="24">
@@ -5402,10 +5402,10 @@
         <v>675</v>
       </c>
       <c r="C24" t="n">
-        <v>9375</v>
+        <v>8773</v>
       </c>
       <c r="D24" t="n">
-        <v>10050</v>
+        <v>9448</v>
       </c>
     </row>
     <row r="25">
@@ -5418,10 +5418,10 @@
         <v>675</v>
       </c>
       <c r="C25" t="n">
-        <v>9375</v>
+        <v>8768</v>
       </c>
       <c r="D25" t="n">
-        <v>10050</v>
+        <v>9443</v>
       </c>
     </row>
     <row r="26">
@@ -5434,10 +5434,10 @@
         <v>675</v>
       </c>
       <c r="C26" t="n">
-        <v>9375</v>
+        <v>8884</v>
       </c>
       <c r="D26" t="n">
-        <v>10050</v>
+        <v>9559</v>
       </c>
     </row>
     <row r="27">
@@ -5450,10 +5450,10 @@
         <v>1657</v>
       </c>
       <c r="C27" t="n">
-        <v>8440</v>
+        <v>8061</v>
       </c>
       <c r="D27" t="n">
-        <v>10097</v>
+        <v>9718</v>
       </c>
     </row>
     <row r="28">
@@ -5466,10 +5466,10 @@
         <v>681</v>
       </c>
       <c r="C28" t="n">
-        <v>9416</v>
+        <v>9022</v>
       </c>
       <c r="D28" t="n">
-        <v>10097</v>
+        <v>9703</v>
       </c>
     </row>
     <row r="29">
@@ -5482,10 +5482,10 @@
         <v>681</v>
       </c>
       <c r="C29" t="n">
-        <v>9416</v>
+        <v>8925</v>
       </c>
       <c r="D29" t="n">
-        <v>10097</v>
+        <v>9606</v>
       </c>
     </row>
     <row r="30">
@@ -5498,10 +5498,10 @@
         <v>681</v>
       </c>
       <c r="C30" t="n">
-        <v>9416</v>
+        <v>8936</v>
       </c>
       <c r="D30" t="n">
-        <v>10097</v>
+        <v>9617</v>
       </c>
     </row>
     <row r="31">
@@ -5514,10 +5514,10 @@
         <v>681</v>
       </c>
       <c r="C31" t="n">
-        <v>9416</v>
+        <v>8979</v>
       </c>
       <c r="D31" t="n">
-        <v>10097</v>
+        <v>9660</v>
       </c>
     </row>
     <row r="32">
@@ -5530,10 +5530,10 @@
         <v>681</v>
       </c>
       <c r="C32" t="n">
-        <v>9416</v>
+        <v>9040</v>
       </c>
       <c r="D32" t="n">
-        <v>10097</v>
+        <v>9721</v>
       </c>
     </row>
     <row r="33">
@@ -5546,10 +5546,10 @@
         <v>681</v>
       </c>
       <c r="C33" t="n">
-        <v>9416</v>
+        <v>8958</v>
       </c>
       <c r="D33" t="n">
-        <v>10097</v>
+        <v>9639</v>
       </c>
     </row>
     <row r="34">
@@ -5562,10 +5562,10 @@
         <v>2543</v>
       </c>
       <c r="C34" t="n">
-        <v>7492</v>
+        <v>7068</v>
       </c>
       <c r="D34" t="n">
-        <v>10035</v>
+        <v>9611</v>
       </c>
     </row>
     <row r="35">
@@ -5578,10 +5578,10 @@
         <v>2543</v>
       </c>
       <c r="C35" t="n">
-        <v>7492</v>
+        <v>7068</v>
       </c>
       <c r="D35" t="n">
-        <v>10035</v>
+        <v>9611</v>
       </c>
     </row>
     <row r="36">
@@ -5594,10 +5594,10 @@
         <v>2543</v>
       </c>
       <c r="C36" t="n">
-        <v>7492</v>
+        <v>7002</v>
       </c>
       <c r="D36" t="n">
-        <v>10035</v>
+        <v>9545</v>
       </c>
     </row>
     <row r="37">
@@ -5610,10 +5610,10 @@
         <v>2543</v>
       </c>
       <c r="C37" t="n">
-        <v>7492</v>
+        <v>7019</v>
       </c>
       <c r="D37" t="n">
-        <v>10035</v>
+        <v>9562</v>
       </c>
     </row>
     <row r="38">
@@ -5626,10 +5626,10 @@
         <v>775</v>
       </c>
       <c r="C38" t="n">
-        <v>9258</v>
+        <v>8784</v>
       </c>
       <c r="D38" t="n">
-        <v>10033</v>
+        <v>9559</v>
       </c>
     </row>
     <row r="39">
@@ -5642,10 +5642,10 @@
         <v>775</v>
       </c>
       <c r="C39" t="n">
-        <v>9258</v>
+        <v>8739</v>
       </c>
       <c r="D39" t="n">
-        <v>10033</v>
+        <v>9514</v>
       </c>
     </row>
     <row r="40">
@@ -5658,10 +5658,10 @@
         <v>775</v>
       </c>
       <c r="C40" t="n">
-        <v>9258</v>
+        <v>8448</v>
       </c>
       <c r="D40" t="n">
-        <v>10033</v>
+        <v>9223</v>
       </c>
     </row>
     <row r="41">
@@ -5674,10 +5674,10 @@
         <v>775</v>
       </c>
       <c r="C41" t="n">
-        <v>9258</v>
+        <v>8205</v>
       </c>
       <c r="D41" t="n">
-        <v>10033</v>
+        <v>8980</v>
       </c>
     </row>
     <row r="42">
@@ -5690,10 +5690,10 @@
         <v>775</v>
       </c>
       <c r="C42" t="n">
-        <v>9258</v>
+        <v>8153</v>
       </c>
       <c r="D42" t="n">
-        <v>10033</v>
+        <v>8928</v>
       </c>
     </row>
     <row r="43">
@@ -5706,10 +5706,10 @@
         <v>775</v>
       </c>
       <c r="C43" t="n">
-        <v>9258</v>
+        <v>7867</v>
       </c>
       <c r="D43" t="n">
-        <v>10033</v>
+        <v>8642</v>
       </c>
     </row>
     <row r="44">
@@ -5722,10 +5722,10 @@
         <v>22</v>
       </c>
       <c r="C44" t="n">
-        <v>10011</v>
+        <v>8576</v>
       </c>
       <c r="D44" t="n">
-        <v>10033</v>
+        <v>8598</v>
       </c>
     </row>
     <row r="45">
@@ -5738,10 +5738,10 @@
         <v>22</v>
       </c>
       <c r="C45" t="n">
-        <v>10011</v>
+        <v>8935</v>
       </c>
       <c r="D45" t="n">
-        <v>10033</v>
+        <v>8957</v>
       </c>
     </row>
     <row r="46">
@@ -5754,10 +5754,10 @@
         <v>22</v>
       </c>
       <c r="C46" t="n">
-        <v>10011</v>
+        <v>8643</v>
       </c>
       <c r="D46" t="n">
-        <v>10033</v>
+        <v>8665</v>
       </c>
     </row>
     <row r="47">
@@ -5770,10 +5770,10 @@
         <v>22</v>
       </c>
       <c r="C47" t="n">
-        <v>10011</v>
+        <v>9053</v>
       </c>
       <c r="D47" t="n">
-        <v>10033</v>
+        <v>9075</v>
       </c>
     </row>
     <row r="48">
@@ -5786,10 +5786,10 @@
         <v>22</v>
       </c>
       <c r="C48" t="n">
-        <v>10011</v>
+        <v>8800</v>
       </c>
       <c r="D48" t="n">
-        <v>10033</v>
+        <v>8822</v>
       </c>
     </row>
     <row r="49">
@@ -5802,10 +5802,10 @@
         <v>22</v>
       </c>
       <c r="C49" t="n">
-        <v>10011</v>
+        <v>8762</v>
       </c>
       <c r="D49" t="n">
-        <v>10033</v>
+        <v>8784</v>
       </c>
     </row>
     <row r="50">
@@ -5818,10 +5818,10 @@
         <v>22</v>
       </c>
       <c r="C50" t="n">
-        <v>10011</v>
+        <v>8042</v>
       </c>
       <c r="D50" t="n">
-        <v>10033</v>
+        <v>8064</v>
       </c>
     </row>
     <row r="51">
@@ -5834,10 +5834,10 @@
         <v>22</v>
       </c>
       <c r="C51" t="n">
-        <v>10011</v>
+        <v>8347</v>
       </c>
       <c r="D51" t="n">
-        <v>10033</v>
+        <v>8369</v>
       </c>
     </row>
     <row r="52">
@@ -5850,10 +5850,10 @@
         <v>22</v>
       </c>
       <c r="C52" t="n">
-        <v>10011</v>
+        <v>7899</v>
       </c>
       <c r="D52" t="n">
-        <v>10033</v>
+        <v>7921</v>
       </c>
     </row>
     <row r="53">
@@ -5866,10 +5866,10 @@
         <v>22</v>
       </c>
       <c r="C53" t="n">
-        <v>10011</v>
+        <v>7147</v>
       </c>
       <c r="D53" t="n">
-        <v>10033</v>
+        <v>7169</v>
       </c>
     </row>
     <row r="54">
@@ -5882,10 +5882,10 @@
         <v>22</v>
       </c>
       <c r="C54" t="n">
-        <v>10011</v>
+        <v>7765</v>
       </c>
       <c r="D54" t="n">
-        <v>10033</v>
+        <v>7787</v>
       </c>
     </row>
     <row r="55">
@@ -5898,10 +5898,10 @@
         <v>22</v>
       </c>
       <c r="C55" t="n">
-        <v>10011</v>
+        <v>7076</v>
       </c>
       <c r="D55" t="n">
-        <v>10033</v>
+        <v>7098</v>
       </c>
     </row>
     <row r="56">
@@ -5914,10 +5914,10 @@
         <v>22</v>
       </c>
       <c r="C56" t="n">
-        <v>10011</v>
+        <v>7556</v>
       </c>
       <c r="D56" t="n">
-        <v>10033</v>
+        <v>7578</v>
       </c>
     </row>
     <row r="57">
@@ -5930,10 +5930,10 @@
         <v>22</v>
       </c>
       <c r="C57" t="n">
-        <v>10011</v>
+        <v>7349</v>
       </c>
       <c r="D57" t="n">
-        <v>10033</v>
+        <v>7371</v>
       </c>
     </row>
     <row r="58">
@@ -5946,10 +5946,10 @@
         <v>22</v>
       </c>
       <c r="C58" t="n">
-        <v>10011</v>
+        <v>7325</v>
       </c>
       <c r="D58" t="n">
-        <v>10033</v>
+        <v>7347</v>
       </c>
     </row>
     <row r="59">
@@ -5962,10 +5962,10 @@
         <v>22</v>
       </c>
       <c r="C59" t="n">
-        <v>10011</v>
+        <v>6932</v>
       </c>
       <c r="D59" t="n">
-        <v>10033</v>
+        <v>6954</v>
       </c>
     </row>
     <row r="60">
@@ -5978,10 +5978,10 @@
         <v>22</v>
       </c>
       <c r="C60" t="n">
-        <v>10011</v>
+        <v>6622</v>
       </c>
       <c r="D60" t="n">
-        <v>10033</v>
+        <v>6644</v>
       </c>
     </row>
     <row r="61">
@@ -5994,10 +5994,10 @@
         <v>22</v>
       </c>
       <c r="C61" t="n">
-        <v>10011</v>
+        <v>7208</v>
       </c>
       <c r="D61" t="n">
-        <v>10033</v>
+        <v>7230</v>
       </c>
     </row>
     <row r="62">
@@ -6010,10 +6010,10 @@
         <v>22</v>
       </c>
       <c r="C62" t="n">
-        <v>10011</v>
+        <v>7282</v>
       </c>
       <c r="D62" t="n">
-        <v>10033</v>
+        <v>7304</v>
       </c>
     </row>
     <row r="63">
@@ -6026,10 +6026,10 @@
         <v>22</v>
       </c>
       <c r="C63" t="n">
-        <v>10011</v>
+        <v>7708</v>
       </c>
       <c r="D63" t="n">
-        <v>10033</v>
+        <v>7730</v>
       </c>
     </row>
     <row r="64">
@@ -6042,10 +6042,10 @@
         <v>22</v>
       </c>
       <c r="C64" t="n">
-        <v>10011</v>
+        <v>7400</v>
       </c>
       <c r="D64" t="n">
-        <v>10033</v>
+        <v>7422</v>
       </c>
     </row>
     <row r="65">
@@ -6058,10 +6058,10 @@
         <v>22</v>
       </c>
       <c r="C65" t="n">
-        <v>10011</v>
+        <v>7704</v>
       </c>
       <c r="D65" t="n">
-        <v>10033</v>
+        <v>7726</v>
       </c>
     </row>
     <row r="66">
@@ -6074,10 +6074,10 @@
         <v>22</v>
       </c>
       <c r="C66" t="n">
-        <v>10011</v>
+        <v>7699</v>
       </c>
       <c r="D66" t="n">
-        <v>10033</v>
+        <v>7721</v>
       </c>
     </row>
     <row r="67">
@@ -6090,10 +6090,10 @@
         <v>22</v>
       </c>
       <c r="C67" t="n">
-        <v>10011</v>
+        <v>7404</v>
       </c>
       <c r="D67" t="n">
-        <v>10033</v>
+        <v>7426</v>
       </c>
     </row>
     <row r="68">
@@ -6106,10 +6106,10 @@
         <v>22</v>
       </c>
       <c r="C68" t="n">
-        <v>10011</v>
+        <v>7605</v>
       </c>
       <c r="D68" t="n">
-        <v>10033</v>
+        <v>7627</v>
       </c>
     </row>
     <row r="69">
@@ -6122,10 +6122,10 @@
         <v>22</v>
       </c>
       <c r="C69" t="n">
-        <v>10011</v>
+        <v>7515</v>
       </c>
       <c r="D69" t="n">
-        <v>10033</v>
+        <v>7537</v>
       </c>
     </row>
     <row r="70">
@@ -6138,10 +6138,10 @@
         <v>22</v>
       </c>
       <c r="C70" t="n">
-        <v>10011</v>
+        <v>7922</v>
       </c>
       <c r="D70" t="n">
-        <v>10033</v>
+        <v>7944</v>
       </c>
     </row>
     <row r="71">
@@ -6154,10 +6154,10 @@
         <v>22</v>
       </c>
       <c r="C71" t="n">
-        <v>10011</v>
+        <v>7982</v>
       </c>
       <c r="D71" t="n">
-        <v>10033</v>
+        <v>8004</v>
       </c>
     </row>
     <row r="72">
@@ -6170,10 +6170,10 @@
         <v>22</v>
       </c>
       <c r="C72" t="n">
-        <v>10011</v>
+        <v>8323</v>
       </c>
       <c r="D72" t="n">
-        <v>10033</v>
+        <v>8345</v>
       </c>
     </row>
     <row r="73">
@@ -6186,10 +6186,10 @@
         <v>22</v>
       </c>
       <c r="C73" t="n">
-        <v>10011</v>
+        <v>8395</v>
       </c>
       <c r="D73" t="n">
-        <v>10033</v>
+        <v>8417</v>
       </c>
     </row>
     <row r="74">
@@ -6202,10 +6202,10 @@
         <v>22</v>
       </c>
       <c r="C74" t="n">
-        <v>10011</v>
+        <v>8395</v>
       </c>
       <c r="D74" t="n">
-        <v>10033</v>
+        <v>8417</v>
       </c>
     </row>
     <row r="75">
@@ -6218,10 +6218,10 @@
         <v>22</v>
       </c>
       <c r="C75" t="n">
-        <v>10011</v>
+        <v>8222</v>
       </c>
       <c r="D75" t="n">
-        <v>10033</v>
+        <v>8244</v>
       </c>
     </row>
     <row r="76">
@@ -6234,10 +6234,10 @@
         <v>22</v>
       </c>
       <c r="C76" t="n">
-        <v>10011</v>
+        <v>8420</v>
       </c>
       <c r="D76" t="n">
-        <v>10033</v>
+        <v>8442</v>
       </c>
     </row>
     <row r="77">
@@ -6250,10 +6250,10 @@
         <v>884</v>
       </c>
       <c r="C77" t="n">
-        <v>9150</v>
+        <v>7368</v>
       </c>
       <c r="D77" t="n">
-        <v>10034</v>
+        <v>8252</v>
       </c>
     </row>
     <row r="78">
@@ -6266,10 +6266,10 @@
         <v>1768</v>
       </c>
       <c r="C78" t="n">
-        <v>8397</v>
+        <v>6503</v>
       </c>
       <c r="D78" t="n">
-        <v>10165</v>
+        <v>8271</v>
       </c>
     </row>
     <row r="79">
@@ -6282,10 +6282,10 @@
         <v>1768</v>
       </c>
       <c r="C79" t="n">
-        <v>8397</v>
+        <v>6738</v>
       </c>
       <c r="D79" t="n">
-        <v>10165</v>
+        <v>8506</v>
       </c>
     </row>
     <row r="80">
@@ -6298,10 +6298,10 @@
         <v>1768</v>
       </c>
       <c r="C80" t="n">
-        <v>8397</v>
+        <v>6556</v>
       </c>
       <c r="D80" t="n">
-        <v>10165</v>
+        <v>8324</v>
       </c>
     </row>
     <row r="81">
@@ -6314,10 +6314,10 @@
         <v>1768</v>
       </c>
       <c r="C81" t="n">
-        <v>8397</v>
+        <v>6396</v>
       </c>
       <c r="D81" t="n">
-        <v>10165</v>
+        <v>8164</v>
       </c>
     </row>
     <row r="82">
@@ -6330,10 +6330,10 @@
         <v>1768</v>
       </c>
       <c r="C82" t="n">
-        <v>8397</v>
+        <v>6502</v>
       </c>
       <c r="D82" t="n">
-        <v>10165</v>
+        <v>8270</v>
       </c>
     </row>
     <row r="83">
@@ -6346,10 +6346,10 @@
         <v>1768</v>
       </c>
       <c r="C83" t="n">
-        <v>8397</v>
+        <v>6575</v>
       </c>
       <c r="D83" t="n">
-        <v>10165</v>
+        <v>8343</v>
       </c>
     </row>
     <row r="84">
@@ -6362,10 +6362,10 @@
         <v>782</v>
       </c>
       <c r="C84" t="n">
-        <v>9383</v>
+        <v>7632</v>
       </c>
       <c r="D84" t="n">
-        <v>10165</v>
+        <v>8414</v>
       </c>
     </row>
     <row r="85">
@@ -6378,10 +6378,10 @@
         <v>1759</v>
       </c>
       <c r="C85" t="n">
-        <v>8407</v>
+        <v>6864</v>
       </c>
       <c r="D85" t="n">
-        <v>10166</v>
+        <v>8623</v>
       </c>
     </row>
     <row r="86">
@@ -6394,10 +6394,10 @@
         <v>1759</v>
       </c>
       <c r="C86" t="n">
-        <v>8407</v>
+        <v>6952</v>
       </c>
       <c r="D86" t="n">
-        <v>10166</v>
+        <v>8711</v>
       </c>
     </row>
     <row r="87">
@@ -6410,10 +6410,10 @@
         <v>2898</v>
       </c>
       <c r="C87" t="n">
-        <v>7421</v>
+        <v>6055</v>
       </c>
       <c r="D87" t="n">
-        <v>10319</v>
+        <v>8953</v>
       </c>
     </row>
     <row r="88">
@@ -6426,10 +6426,10 @@
         <v>1937</v>
       </c>
       <c r="C88" t="n">
-        <v>8382</v>
+        <v>6838</v>
       </c>
       <c r="D88" t="n">
-        <v>10319</v>
+        <v>8775</v>
       </c>
     </row>
     <row r="89">
@@ -6442,10 +6442,10 @@
         <v>78</v>
       </c>
       <c r="C89" t="n">
-        <v>10241</v>
+        <v>8466</v>
       </c>
       <c r="D89" t="n">
-        <v>10319</v>
+        <v>8544</v>
       </c>
     </row>
     <row r="90">
@@ -6458,10 +6458,10 @@
         <v>78</v>
       </c>
       <c r="C90" t="n">
-        <v>10241</v>
+        <v>8446</v>
       </c>
       <c r="D90" t="n">
-        <v>10319</v>
+        <v>8524</v>
       </c>
     </row>
     <row r="91">
@@ -6474,10 +6474,10 @@
         <v>78</v>
       </c>
       <c r="C91" t="n">
-        <v>10241</v>
+        <v>8465</v>
       </c>
       <c r="D91" t="n">
-        <v>10319</v>
+        <v>8543</v>
       </c>
     </row>
     <row r="92">
@@ -6490,10 +6490,10 @@
         <v>78</v>
       </c>
       <c r="C92" t="n">
-        <v>10241</v>
+        <v>8312</v>
       </c>
       <c r="D92" t="n">
-        <v>10319</v>
+        <v>8390</v>
       </c>
     </row>
     <row r="93">
@@ -6506,10 +6506,10 @@
         <v>78</v>
       </c>
       <c r="C93" t="n">
-        <v>10241</v>
+        <v>8362</v>
       </c>
       <c r="D93" t="n">
-        <v>10319</v>
+        <v>8440</v>
       </c>
     </row>
     <row r="94">
@@ -6522,10 +6522,10 @@
         <v>78</v>
       </c>
       <c r="C94" t="n">
-        <v>10241</v>
+        <v>8578</v>
       </c>
       <c r="D94" t="n">
-        <v>10319</v>
+        <v>8656</v>
       </c>
     </row>
     <row r="95">
@@ -6538,10 +6538,10 @@
         <v>78</v>
       </c>
       <c r="C95" t="n">
-        <v>10241</v>
+        <v>8509</v>
       </c>
       <c r="D95" t="n">
-        <v>10319</v>
+        <v>8587</v>
       </c>
     </row>
     <row r="96">
@@ -6554,10 +6554,10 @@
         <v>78</v>
       </c>
       <c r="C96" t="n">
-        <v>10241</v>
+        <v>8359</v>
       </c>
       <c r="D96" t="n">
-        <v>10319</v>
+        <v>8437</v>
       </c>
     </row>
     <row r="97">
@@ -6570,10 +6570,10 @@
         <v>78</v>
       </c>
       <c r="C97" t="n">
-        <v>10241</v>
+        <v>8163</v>
       </c>
       <c r="D97" t="n">
-        <v>10319</v>
+        <v>8241</v>
       </c>
     </row>
     <row r="98">
@@ -6586,10 +6586,10 @@
         <v>78</v>
       </c>
       <c r="C98" t="n">
-        <v>10241</v>
+        <v>8262</v>
       </c>
       <c r="D98" t="n">
-        <v>10319</v>
+        <v>8340</v>
       </c>
     </row>
     <row r="99">
@@ -6602,10 +6602,10 @@
         <v>95</v>
       </c>
       <c r="C99" t="n">
-        <v>10262</v>
+        <v>8290</v>
       </c>
       <c r="D99" t="n">
-        <v>10357</v>
+        <v>8385</v>
       </c>
     </row>
     <row r="100">
@@ -6618,10 +6618,10 @@
         <v>95</v>
       </c>
       <c r="C100" t="n">
-        <v>10262</v>
+        <v>8786</v>
       </c>
       <c r="D100" t="n">
-        <v>10357</v>
+        <v>8881</v>
       </c>
     </row>
     <row r="101">
@@ -6634,10 +6634,10 @@
         <v>95</v>
       </c>
       <c r="C101" t="n">
-        <v>10262</v>
+        <v>8605</v>
       </c>
       <c r="D101" t="n">
-        <v>10357</v>
+        <v>8700</v>
       </c>
     </row>
     <row r="102">
@@ -6650,10 +6650,10 @@
         <v>95</v>
       </c>
       <c r="C102" t="n">
-        <v>10262</v>
+        <v>8741</v>
       </c>
       <c r="D102" t="n">
-        <v>10357</v>
+        <v>8836</v>
       </c>
     </row>
     <row r="103">
@@ -6666,10 +6666,10 @@
         <v>95</v>
       </c>
       <c r="C103" t="n">
-        <v>10262</v>
+        <v>8736</v>
       </c>
       <c r="D103" t="n">
-        <v>10357</v>
+        <v>8831</v>
       </c>
     </row>
     <row r="104">
@@ -6682,10 +6682,10 @@
         <v>95</v>
       </c>
       <c r="C104" t="n">
-        <v>10262</v>
+        <v>8745</v>
       </c>
       <c r="D104" t="n">
-        <v>10357</v>
+        <v>8840</v>
       </c>
     </row>
     <row r="105">
@@ -6698,10 +6698,10 @@
         <v>95</v>
       </c>
       <c r="C105" t="n">
-        <v>10262</v>
+        <v>8745</v>
       </c>
       <c r="D105" t="n">
-        <v>10357</v>
+        <v>8840</v>
       </c>
     </row>
     <row r="106">
@@ -6714,10 +6714,10 @@
         <v>1294</v>
       </c>
       <c r="C106" t="n">
-        <v>9280</v>
+        <v>7923</v>
       </c>
       <c r="D106" t="n">
-        <v>10574</v>
+        <v>9217</v>
       </c>
     </row>
     <row r="107">
@@ -6730,10 +6730,10 @@
         <v>3160</v>
       </c>
       <c r="C107" t="n">
-        <v>7434</v>
+        <v>6267</v>
       </c>
       <c r="D107" t="n">
-        <v>10594</v>
+        <v>9427</v>
       </c>
     </row>
     <row r="108">
@@ -6746,10 +6746,10 @@
         <v>3160</v>
       </c>
       <c r="C108" t="n">
-        <v>7434</v>
+        <v>6207</v>
       </c>
       <c r="D108" t="n">
-        <v>10594</v>
+        <v>9367</v>
       </c>
     </row>
     <row r="109">
@@ -6762,10 +6762,10 @@
         <v>3160</v>
       </c>
       <c r="C109" t="n">
-        <v>7434</v>
+        <v>6245</v>
       </c>
       <c r="D109" t="n">
-        <v>10594</v>
+        <v>9405</v>
       </c>
     </row>
     <row r="110">
@@ -6778,10 +6778,10 @@
         <v>2181</v>
       </c>
       <c r="C110" t="n">
-        <v>8412</v>
+        <v>7248</v>
       </c>
       <c r="D110" t="n">
-        <v>10593</v>
+        <v>9429</v>
       </c>
     </row>
     <row r="111">
@@ -6794,10 +6794,10 @@
         <v>1197</v>
       </c>
       <c r="C111" t="n">
-        <v>9396</v>
+        <v>8358</v>
       </c>
       <c r="D111" t="n">
-        <v>10593</v>
+        <v>9555</v>
       </c>
     </row>
     <row r="112">
@@ -6810,10 +6810,10 @@
         <v>2128</v>
       </c>
       <c r="C112" t="n">
-        <v>8478</v>
+        <v>7554</v>
       </c>
       <c r="D112" t="n">
-        <v>10606</v>
+        <v>9682</v>
       </c>
     </row>
     <row r="113">
@@ -6826,10 +6826,10 @@
         <v>3013</v>
       </c>
       <c r="C113" t="n">
-        <v>7523</v>
+        <v>6705</v>
       </c>
       <c r="D113" t="n">
-        <v>10536</v>
+        <v>9718</v>
       </c>
     </row>
     <row r="114">
@@ -6842,10 +6842,10 @@
         <v>3013</v>
       </c>
       <c r="C114" t="n">
-        <v>7523</v>
+        <v>6842</v>
       </c>
       <c r="D114" t="n">
-        <v>10536</v>
+        <v>9855</v>
       </c>
     </row>
     <row r="115">
@@ -6858,10 +6858,10 @@
         <v>3013</v>
       </c>
       <c r="C115" t="n">
-        <v>7523</v>
+        <v>6966</v>
       </c>
       <c r="D115" t="n">
-        <v>10536</v>
+        <v>9979</v>
       </c>
     </row>
     <row r="116">
@@ -6874,10 +6874,10 @@
         <v>3013</v>
       </c>
       <c r="C116" t="n">
-        <v>7523</v>
+        <v>6851</v>
       </c>
       <c r="D116" t="n">
-        <v>10536</v>
+        <v>9864</v>
       </c>
     </row>
     <row r="117">
@@ -6890,10 +6890,10 @@
         <v>3013</v>
       </c>
       <c r="C117" t="n">
-        <v>7523</v>
+        <v>6736</v>
       </c>
       <c r="D117" t="n">
-        <v>10536</v>
+        <v>9749</v>
       </c>
     </row>
     <row r="118">
@@ -6906,10 +6906,10 @@
         <v>3013</v>
       </c>
       <c r="C118" t="n">
-        <v>7523</v>
+        <v>6283</v>
       </c>
       <c r="D118" t="n">
-        <v>10536</v>
+        <v>9296</v>
       </c>
     </row>
     <row r="119">
@@ -6922,10 +6922,10 @@
         <v>3013</v>
       </c>
       <c r="C119" t="n">
-        <v>7523</v>
+        <v>6365</v>
       </c>
       <c r="D119" t="n">
-        <v>10536</v>
+        <v>9378</v>
       </c>
     </row>
     <row r="120">
@@ -6938,10 +6938,10 @@
         <v>3013</v>
       </c>
       <c r="C120" t="n">
-        <v>7523</v>
+        <v>6371</v>
       </c>
       <c r="D120" t="n">
-        <v>10536</v>
+        <v>9384</v>
       </c>
     </row>
     <row r="121">
@@ -6954,10 +6954,10 @@
         <v>3013</v>
       </c>
       <c r="C121" t="n">
-        <v>7523</v>
+        <v>6467</v>
       </c>
       <c r="D121" t="n">
-        <v>10536</v>
+        <v>9480</v>
       </c>
     </row>
     <row r="122">
@@ -6970,10 +6970,10 @@
         <v>3013</v>
       </c>
       <c r="C122" t="n">
-        <v>7523</v>
+        <v>6408</v>
       </c>
       <c r="D122" t="n">
-        <v>10536</v>
+        <v>9421</v>
       </c>
     </row>
     <row r="123">
@@ -6986,10 +6986,10 @@
         <v>3013</v>
       </c>
       <c r="C123" t="n">
-        <v>7523</v>
+        <v>6404</v>
       </c>
       <c r="D123" t="n">
-        <v>10536</v>
+        <v>9417</v>
       </c>
     </row>
     <row r="124">
@@ -7002,10 +7002,10 @@
         <v>198</v>
       </c>
       <c r="C124" t="n">
-        <v>10336</v>
+        <v>9250</v>
       </c>
       <c r="D124" t="n">
-        <v>10534</v>
+        <v>9448</v>
       </c>
     </row>
     <row r="125">
@@ -7018,10 +7018,10 @@
         <v>198</v>
       </c>
       <c r="C125" t="n">
-        <v>10336</v>
+        <v>9241</v>
       </c>
       <c r="D125" t="n">
-        <v>10534</v>
+        <v>9439</v>
       </c>
     </row>
     <row r="126">
@@ -7034,10 +7034,10 @@
         <v>198</v>
       </c>
       <c r="C126" t="n">
-        <v>10336</v>
+        <v>9253</v>
       </c>
       <c r="D126" t="n">
-        <v>10534</v>
+        <v>9451</v>
       </c>
     </row>
     <row r="127">
@@ -7050,10 +7050,10 @@
         <v>198</v>
       </c>
       <c r="C127" t="n">
-        <v>10336</v>
+        <v>8974</v>
       </c>
       <c r="D127" t="n">
-        <v>10534</v>
+        <v>9172</v>
       </c>
     </row>
     <row r="128">
@@ -7066,10 +7066,10 @@
         <v>80</v>
       </c>
       <c r="C128" t="n">
-        <v>10468</v>
+        <v>9203</v>
       </c>
       <c r="D128" t="n">
-        <v>10548</v>
+        <v>9283</v>
       </c>
     </row>
     <row r="129">
@@ -7082,10 +7082,10 @@
         <v>80</v>
       </c>
       <c r="C129" t="n">
-        <v>10468</v>
+        <v>9013</v>
       </c>
       <c r="D129" t="n">
-        <v>10548</v>
+        <v>9093</v>
       </c>
     </row>
     <row r="130">
@@ -7098,10 +7098,10 @@
         <v>80</v>
       </c>
       <c r="C130" t="n">
-        <v>10468</v>
+        <v>9174</v>
       </c>
       <c r="D130" t="n">
-        <v>10548</v>
+        <v>9254</v>
       </c>
     </row>
     <row r="131">
@@ -7114,10 +7114,10 @@
         <v>80</v>
       </c>
       <c r="C131" t="n">
-        <v>10468</v>
+        <v>9243</v>
       </c>
       <c r="D131" t="n">
-        <v>10548</v>
+        <v>9323</v>
       </c>
     </row>
     <row r="132">
@@ -7130,10 +7130,10 @@
         <v>80</v>
       </c>
       <c r="C132" t="n">
-        <v>10468</v>
+        <v>9211</v>
       </c>
       <c r="D132" t="n">
-        <v>10548</v>
+        <v>9291</v>
       </c>
     </row>
     <row r="133">
@@ -7146,10 +7146,10 @@
         <v>80</v>
       </c>
       <c r="C133" t="n">
-        <v>10468</v>
+        <v>9290</v>
       </c>
       <c r="D133" t="n">
-        <v>10548</v>
+        <v>9370</v>
       </c>
     </row>
     <row r="134">
@@ -7162,10 +7162,10 @@
         <v>80</v>
       </c>
       <c r="C134" t="n">
-        <v>10468</v>
+        <v>9290</v>
       </c>
       <c r="D134" t="n">
-        <v>10548</v>
+        <v>9370</v>
       </c>
     </row>
     <row r="135">
@@ -7178,10 +7178,10 @@
         <v>80</v>
       </c>
       <c r="C135" t="n">
-        <v>10468</v>
+        <v>9395</v>
       </c>
       <c r="D135" t="n">
-        <v>10548</v>
+        <v>9475</v>
       </c>
     </row>
     <row r="136">
@@ -7194,10 +7194,10 @@
         <v>80</v>
       </c>
       <c r="C136" t="n">
-        <v>10468</v>
+        <v>9316</v>
       </c>
       <c r="D136" t="n">
-        <v>10548</v>
+        <v>9396</v>
       </c>
     </row>
     <row r="137">
@@ -7210,10 +7210,10 @@
         <v>80</v>
       </c>
       <c r="C137" t="n">
-        <v>10468</v>
+        <v>9292</v>
       </c>
       <c r="D137" t="n">
-        <v>10548</v>
+        <v>9372</v>
       </c>
     </row>
     <row r="138">
@@ -7226,10 +7226,10 @@
         <v>1094</v>
       </c>
       <c r="C138" t="n">
-        <v>9484</v>
+        <v>8129</v>
       </c>
       <c r="D138" t="n">
-        <v>10578</v>
+        <v>9223</v>
       </c>
     </row>
     <row r="139">
@@ -7242,10 +7242,10 @@
         <v>1094</v>
       </c>
       <c r="C139" t="n">
-        <v>9484</v>
+        <v>8303</v>
       </c>
       <c r="D139" t="n">
-        <v>10578</v>
+        <v>9397</v>
       </c>
     </row>
     <row r="140">
@@ -7258,10 +7258,10 @@
         <v>2065</v>
       </c>
       <c r="C140" t="n">
-        <v>8505</v>
+        <v>7364</v>
       </c>
       <c r="D140" t="n">
-        <v>10570</v>
+        <v>9429</v>
       </c>
     </row>
     <row r="141">
@@ -7274,10 +7274,10 @@
         <v>2065</v>
       </c>
       <c r="C141" t="n">
-        <v>8505</v>
+        <v>7491</v>
       </c>
       <c r="D141" t="n">
-        <v>10570</v>
+        <v>9556</v>
       </c>
     </row>
     <row r="142">
@@ -7290,10 +7290,10 @@
         <v>2065</v>
       </c>
       <c r="C142" t="n">
-        <v>8505</v>
+        <v>7565</v>
       </c>
       <c r="D142" t="n">
-        <v>10570</v>
+        <v>9630</v>
       </c>
     </row>
     <row r="143">
@@ -7306,10 +7306,10 @@
         <v>3048</v>
       </c>
       <c r="C143" t="n">
-        <v>7552</v>
+        <v>6612</v>
       </c>
       <c r="D143" t="n">
-        <v>10600</v>
+        <v>9660</v>
       </c>
     </row>
     <row r="144">
@@ -7322,10 +7322,10 @@
         <v>4095</v>
       </c>
       <c r="C144" t="n">
-        <v>6554</v>
+        <v>5573</v>
       </c>
       <c r="D144" t="n">
-        <v>10649</v>
+        <v>9668</v>
       </c>
     </row>
     <row r="145">
@@ -7338,10 +7338,10 @@
         <v>4095</v>
       </c>
       <c r="C145" t="n">
-        <v>6554</v>
+        <v>5506</v>
       </c>
       <c r="D145" t="n">
-        <v>10649</v>
+        <v>9601</v>
       </c>
     </row>
     <row r="146">
@@ -7354,10 +7354,10 @@
         <v>5106</v>
       </c>
       <c r="C146" t="n">
-        <v>5560</v>
+        <v>4540</v>
       </c>
       <c r="D146" t="n">
-        <v>10666</v>
+        <v>9646</v>
       </c>
     </row>
     <row r="147">
@@ -7370,10 +7370,10 @@
         <v>5106</v>
       </c>
       <c r="C147" t="n">
-        <v>5560</v>
+        <v>4559</v>
       </c>
       <c r="D147" t="n">
-        <v>10666</v>
+        <v>9665</v>
       </c>
     </row>
     <row r="148">
@@ -7386,10 +7386,10 @@
         <v>5106</v>
       </c>
       <c r="C148" t="n">
-        <v>5560</v>
+        <v>4515</v>
       </c>
       <c r="D148" t="n">
-        <v>10666</v>
+        <v>9621</v>
       </c>
     </row>
     <row r="149">
@@ -7402,10 +7402,10 @@
         <v>4114</v>
       </c>
       <c r="C149" t="n">
-        <v>6552</v>
+        <v>5491</v>
       </c>
       <c r="D149" t="n">
-        <v>10666</v>
+        <v>9605</v>
       </c>
     </row>
     <row r="150">
@@ -7418,10 +7418,10 @@
         <v>4114</v>
       </c>
       <c r="C150" t="n">
-        <v>6552</v>
+        <v>5524</v>
       </c>
       <c r="D150" t="n">
-        <v>10666</v>
+        <v>9638</v>
       </c>
     </row>
     <row r="151">
@@ -7434,10 +7434,10 @@
         <v>3121</v>
       </c>
       <c r="C151" t="n">
-        <v>7545</v>
+        <v>6459</v>
       </c>
       <c r="D151" t="n">
-        <v>10666</v>
+        <v>9580</v>
       </c>
     </row>
     <row r="152">
@@ -7450,10 +7450,10 @@
         <v>1134</v>
       </c>
       <c r="C152" t="n">
-        <v>9530</v>
+        <v>8456</v>
       </c>
       <c r="D152" t="n">
-        <v>10664</v>
+        <v>9590</v>
       </c>
     </row>
     <row r="153">
@@ -7466,10 +7466,10 @@
         <v>270</v>
       </c>
       <c r="C153" t="n">
-        <v>10393</v>
+        <v>9147</v>
       </c>
       <c r="D153" t="n">
-        <v>10663</v>
+        <v>9417</v>
       </c>
     </row>
     <row r="154">
@@ -7482,10 +7482,10 @@
         <v>270</v>
       </c>
       <c r="C154" t="n">
-        <v>10393</v>
+        <v>9096</v>
       </c>
       <c r="D154" t="n">
-        <v>10663</v>
+        <v>9366</v>
       </c>
     </row>
     <row r="155">
@@ -7498,10 +7498,10 @@
         <v>270</v>
       </c>
       <c r="C155" t="n">
-        <v>10393</v>
+        <v>9175</v>
       </c>
       <c r="D155" t="n">
-        <v>10663</v>
+        <v>9445</v>
       </c>
     </row>
     <row r="156">
@@ -7514,10 +7514,10 @@
         <v>270</v>
       </c>
       <c r="C156" t="n">
-        <v>10393</v>
+        <v>9258</v>
       </c>
       <c r="D156" t="n">
-        <v>10663</v>
+        <v>9528</v>
       </c>
     </row>
     <row r="157">
@@ -7530,10 +7530,10 @@
         <v>270</v>
       </c>
       <c r="C157" t="n">
-        <v>10393</v>
+        <v>9470</v>
       </c>
       <c r="D157" t="n">
-        <v>10663</v>
+        <v>9740</v>
       </c>
     </row>
     <row r="158">
@@ -7546,10 +7546,10 @@
         <v>270</v>
       </c>
       <c r="C158" t="n">
-        <v>10393</v>
+        <v>9464</v>
       </c>
       <c r="D158" t="n">
-        <v>10663</v>
+        <v>9734</v>
       </c>
     </row>
     <row r="159">
@@ -7562,10 +7562,10 @@
         <v>270</v>
       </c>
       <c r="C159" t="n">
-        <v>10393</v>
+        <v>9513</v>
       </c>
       <c r="D159" t="n">
-        <v>10663</v>
+        <v>9783</v>
       </c>
     </row>
     <row r="160">
@@ -7578,10 +7578,10 @@
         <v>270</v>
       </c>
       <c r="C160" t="n">
-        <v>10393</v>
+        <v>9734</v>
       </c>
       <c r="D160" t="n">
-        <v>10663</v>
+        <v>10004</v>
       </c>
     </row>
     <row r="161">
@@ -7594,10 +7594,10 @@
         <v>325</v>
       </c>
       <c r="C161" t="n">
-        <v>10384</v>
+        <v>9667</v>
       </c>
       <c r="D161" t="n">
-        <v>10709</v>
+        <v>9992</v>
       </c>
     </row>
     <row r="162">
@@ -7610,10 +7610,10 @@
         <v>1395</v>
       </c>
       <c r="C162" t="n">
-        <v>9395</v>
+        <v>8645</v>
       </c>
       <c r="D162" t="n">
-        <v>10790</v>
+        <v>10040</v>
       </c>
     </row>
     <row r="163">
@@ -7626,10 +7626,10 @@
         <v>1395</v>
       </c>
       <c r="C163" t="n">
-        <v>9395</v>
+        <v>8599</v>
       </c>
       <c r="D163" t="n">
-        <v>10790</v>
+        <v>9994</v>
       </c>
     </row>
     <row r="164">
@@ -7642,10 +7642,10 @@
         <v>1502</v>
       </c>
       <c r="C164" t="n">
-        <v>9359</v>
+        <v>8541</v>
       </c>
       <c r="D164" t="n">
-        <v>10861</v>
+        <v>10043</v>
       </c>
     </row>
     <row r="165">
@@ -7658,10 +7658,10 @@
         <v>1502</v>
       </c>
       <c r="C165" t="n">
-        <v>9359</v>
+        <v>8516</v>
       </c>
       <c r="D165" t="n">
-        <v>10861</v>
+        <v>10018</v>
       </c>
     </row>
     <row r="166">
@@ -7674,10 +7674,10 @@
         <v>1502</v>
       </c>
       <c r="C166" t="n">
-        <v>9359</v>
+        <v>8510</v>
       </c>
       <c r="D166" t="n">
-        <v>10861</v>
+        <v>10012</v>
       </c>
     </row>
     <row r="167">
@@ -7690,10 +7690,10 @@
         <v>2423</v>
       </c>
       <c r="C167" t="n">
-        <v>8415</v>
+        <v>7558</v>
       </c>
       <c r="D167" t="n">
-        <v>10838</v>
+        <v>9981</v>
       </c>
     </row>
     <row r="168">
@@ -7706,10 +7706,10 @@
         <v>2423</v>
       </c>
       <c r="C168" t="n">
-        <v>8415</v>
+        <v>7562</v>
       </c>
       <c r="D168" t="n">
-        <v>10838</v>
+        <v>9985</v>
       </c>
     </row>
     <row r="169">
@@ -7722,10 +7722,10 @@
         <v>1430</v>
       </c>
       <c r="C169" t="n">
-        <v>9408</v>
+        <v>8554</v>
       </c>
       <c r="D169" t="n">
-        <v>10838</v>
+        <v>9984</v>
       </c>
     </row>
     <row r="170">
@@ -7738,10 +7738,10 @@
         <v>2330</v>
       </c>
       <c r="C170" t="n">
-        <v>8544</v>
+        <v>7777</v>
       </c>
       <c r="D170" t="n">
-        <v>10874</v>
+        <v>10107</v>
       </c>
     </row>
     <row r="171">
@@ -7754,10 +7754,10 @@
         <v>1367</v>
       </c>
       <c r="C171" t="n">
-        <v>9506</v>
+        <v>8693</v>
       </c>
       <c r="D171" t="n">
-        <v>10873</v>
+        <v>10060</v>
       </c>
     </row>
     <row r="172">
@@ -7770,10 +7770,10 @@
         <v>378</v>
       </c>
       <c r="C172" t="n">
-        <v>10495</v>
+        <v>9665</v>
       </c>
       <c r="D172" t="n">
-        <v>10873</v>
+        <v>10043</v>
       </c>
     </row>
     <row r="173">
@@ -7786,10 +7786,10 @@
         <v>378</v>
       </c>
       <c r="C173" t="n">
-        <v>10495</v>
+        <v>9708</v>
       </c>
       <c r="D173" t="n">
-        <v>10873</v>
+        <v>10086</v>
       </c>
     </row>
     <row r="174">
@@ -7802,10 +7802,10 @@
         <v>1373</v>
       </c>
       <c r="C174" t="n">
-        <v>9503</v>
+        <v>8785</v>
       </c>
       <c r="D174" t="n">
-        <v>10876</v>
+        <v>10158</v>
       </c>
     </row>
     <row r="175">
@@ -7818,10 +7818,10 @@
         <v>1373</v>
       </c>
       <c r="C175" t="n">
-        <v>9503</v>
+        <v>8667</v>
       </c>
       <c r="D175" t="n">
-        <v>10876</v>
+        <v>10040</v>
       </c>
     </row>
     <row r="176">
@@ -7834,10 +7834,10 @@
         <v>1373</v>
       </c>
       <c r="C176" t="n">
-        <v>9503</v>
+        <v>8642</v>
       </c>
       <c r="D176" t="n">
-        <v>10876</v>
+        <v>10015</v>
       </c>
     </row>
     <row r="177">
@@ -7850,10 +7850,10 @@
         <v>3167</v>
       </c>
       <c r="C177" t="n">
-        <v>7693</v>
+        <v>6987</v>
       </c>
       <c r="D177" t="n">
-        <v>10860</v>
+        <v>10154</v>
       </c>
     </row>
     <row r="178">
@@ -7866,10 +7866,10 @@
         <v>3167</v>
       </c>
       <c r="C178" t="n">
-        <v>7693</v>
+        <v>6870</v>
       </c>
       <c r="D178" t="n">
-        <v>10860</v>
+        <v>10037</v>
       </c>
     </row>
     <row r="179">
@@ -7882,10 +7882,10 @@
         <v>3167</v>
       </c>
       <c r="C179" t="n">
-        <v>7693</v>
+        <v>6866</v>
       </c>
       <c r="D179" t="n">
-        <v>10860</v>
+        <v>10033</v>
       </c>
     </row>
     <row r="180">
@@ -7898,10 +7898,10 @@
         <v>3167</v>
       </c>
       <c r="C180" t="n">
-        <v>7693</v>
+        <v>6866</v>
       </c>
       <c r="D180" t="n">
-        <v>10860</v>
+        <v>10033</v>
       </c>
     </row>
     <row r="181">
@@ -7914,10 +7914,10 @@
         <v>1396</v>
       </c>
       <c r="C181" t="n">
-        <v>9462</v>
+        <v>8502</v>
       </c>
       <c r="D181" t="n">
-        <v>10858</v>
+        <v>9898</v>
       </c>
     </row>
     <row r="182">
@@ -7930,10 +7930,10 @@
         <v>1396</v>
       </c>
       <c r="C182" t="n">
-        <v>9462</v>
+        <v>8535</v>
       </c>
       <c r="D182" t="n">
-        <v>10858</v>
+        <v>9931</v>
       </c>
     </row>
     <row r="183">
@@ -7946,10 +7946,10 @@
         <v>1396</v>
       </c>
       <c r="C183" t="n">
-        <v>9462</v>
+        <v>8411</v>
       </c>
       <c r="D183" t="n">
-        <v>10858</v>
+        <v>9807</v>
       </c>
     </row>
     <row r="184">
@@ -7962,10 +7962,10 @@
         <v>1396</v>
       </c>
       <c r="C184" t="n">
-        <v>9462</v>
+        <v>8472</v>
       </c>
       <c r="D184" t="n">
-        <v>10858</v>
+        <v>9868</v>
       </c>
     </row>
     <row r="185">
@@ -7978,10 +7978,10 @@
         <v>578</v>
       </c>
       <c r="C185" t="n">
-        <v>10280</v>
+        <v>9395</v>
       </c>
       <c r="D185" t="n">
-        <v>10858</v>
+        <v>9973</v>
       </c>
     </row>
     <row r="186">
@@ -7994,10 +7994,10 @@
         <v>578</v>
       </c>
       <c r="C186" t="n">
-        <v>10280</v>
+        <v>9372</v>
       </c>
       <c r="D186" t="n">
-        <v>10858</v>
+        <v>9950</v>
       </c>
     </row>
     <row r="187">
@@ -8010,10 +8010,10 @@
         <v>578</v>
       </c>
       <c r="C187" t="n">
-        <v>10280</v>
+        <v>9465</v>
       </c>
       <c r="D187" t="n">
-        <v>10858</v>
+        <v>10043</v>
       </c>
     </row>
     <row r="188">
@@ -8026,10 +8026,10 @@
         <v>578</v>
       </c>
       <c r="C188" t="n">
-        <v>10280</v>
+        <v>9453</v>
       </c>
       <c r="D188" t="n">
-        <v>10858</v>
+        <v>10031</v>
       </c>
     </row>
     <row r="189">
@@ -8042,10 +8042,10 @@
         <v>578</v>
       </c>
       <c r="C189" t="n">
-        <v>10280</v>
+        <v>9326</v>
       </c>
       <c r="D189" t="n">
-        <v>10858</v>
+        <v>9904</v>
       </c>
     </row>
     <row r="190">
@@ -8058,10 +8058,10 @@
         <v>578</v>
       </c>
       <c r="C190" t="n">
-        <v>10280</v>
+        <v>9135</v>
       </c>
       <c r="D190" t="n">
-        <v>10858</v>
+        <v>9713</v>
       </c>
     </row>
     <row r="191">
@@ -8074,10 +8074,10 @@
         <v>578</v>
       </c>
       <c r="C191" t="n">
-        <v>10280</v>
+        <v>9154</v>
       </c>
       <c r="D191" t="n">
-        <v>10858</v>
+        <v>9732</v>
       </c>
     </row>
     <row r="192">
@@ -8090,10 +8090,10 @@
         <v>578</v>
       </c>
       <c r="C192" t="n">
-        <v>10280</v>
+        <v>8909</v>
       </c>
       <c r="D192" t="n">
-        <v>10858</v>
+        <v>9487</v>
       </c>
     </row>
     <row r="193">
@@ -8106,10 +8106,10 @@
         <v>578</v>
       </c>
       <c r="C193" t="n">
-        <v>10280</v>
+        <v>8850</v>
       </c>
       <c r="D193" t="n">
-        <v>10858</v>
+        <v>9428</v>
       </c>
     </row>
     <row r="194">
@@ -8122,10 +8122,10 @@
         <v>578</v>
       </c>
       <c r="C194" t="n">
-        <v>10280</v>
+        <v>8984</v>
       </c>
       <c r="D194" t="n">
-        <v>10858</v>
+        <v>9562</v>
       </c>
     </row>
     <row r="195">
@@ -8138,10 +8138,10 @@
         <v>578</v>
       </c>
       <c r="C195" t="n">
-        <v>10280</v>
+        <v>9185</v>
       </c>
       <c r="D195" t="n">
-        <v>10858</v>
+        <v>9763</v>
       </c>
     </row>
     <row r="196">
@@ -8154,10 +8154,10 @@
         <v>578</v>
       </c>
       <c r="C196" t="n">
-        <v>10280</v>
+        <v>9053</v>
       </c>
       <c r="D196" t="n">
-        <v>10858</v>
+        <v>9631</v>
       </c>
     </row>
     <row r="197">
@@ -8170,10 +8170,10 @@
         <v>578</v>
       </c>
       <c r="C197" t="n">
-        <v>10280</v>
+        <v>9122</v>
       </c>
       <c r="D197" t="n">
-        <v>10858</v>
+        <v>9700</v>
       </c>
     </row>
     <row r="198">
@@ -8186,10 +8186,10 @@
         <v>578</v>
       </c>
       <c r="C198" t="n">
-        <v>10280</v>
+        <v>9085</v>
       </c>
       <c r="D198" t="n">
-        <v>10858</v>
+        <v>9663</v>
       </c>
     </row>
     <row r="199">
@@ -8202,10 +8202,10 @@
         <v>578</v>
       </c>
       <c r="C199" t="n">
-        <v>10280</v>
+        <v>9092</v>
       </c>
       <c r="D199" t="n">
-        <v>10858</v>
+        <v>9670</v>
       </c>
     </row>
     <row r="200">
@@ -8218,10 +8218,10 @@
         <v>578</v>
       </c>
       <c r="C200" t="n">
-        <v>10280</v>
+        <v>9234</v>
       </c>
       <c r="D200" t="n">
-        <v>10858</v>
+        <v>9812</v>
       </c>
     </row>
     <row r="201">
@@ -8234,10 +8234,10 @@
         <v>578</v>
       </c>
       <c r="C201" t="n">
-        <v>10280</v>
+        <v>9057</v>
       </c>
       <c r="D201" t="n">
-        <v>10858</v>
+        <v>9635</v>
       </c>
     </row>
     <row r="202">
@@ -8250,10 +8250,10 @@
         <v>2438</v>
       </c>
       <c r="C202" t="n">
-        <v>8484</v>
+        <v>7368</v>
       </c>
       <c r="D202" t="n">
-        <v>10922</v>
+        <v>9806</v>
       </c>
     </row>
     <row r="203">
@@ -8266,10 +8266,10 @@
         <v>4405</v>
       </c>
       <c r="C203" t="n">
-        <v>6555</v>
+        <v>5516</v>
       </c>
       <c r="D203" t="n">
-        <v>10960</v>
+        <v>9921</v>
       </c>
     </row>
     <row r="204">
@@ -8282,10 +8282,10 @@
         <v>4405</v>
       </c>
       <c r="C204" t="n">
-        <v>6555</v>
+        <v>5512</v>
       </c>
       <c r="D204" t="n">
-        <v>10960</v>
+        <v>9917</v>
       </c>
     </row>
     <row r="205">
@@ -8298,10 +8298,10 @@
         <v>4405</v>
       </c>
       <c r="C205" t="n">
-        <v>6555</v>
+        <v>5561</v>
       </c>
       <c r="D205" t="n">
-        <v>10960</v>
+        <v>9966</v>
       </c>
     </row>
     <row r="206">
@@ -8314,10 +8314,10 @@
         <v>5292</v>
       </c>
       <c r="C206" t="n">
-        <v>5738</v>
+        <v>4661</v>
       </c>
       <c r="D206" t="n">
-        <v>11030</v>
+        <v>9953</v>
       </c>
     </row>
     <row r="207">
@@ -8330,10 +8330,10 @@
         <v>4333</v>
       </c>
       <c r="C207" t="n">
-        <v>6696</v>
+        <v>5594</v>
       </c>
       <c r="D207" t="n">
-        <v>11029</v>
+        <v>9927</v>
       </c>
     </row>
     <row r="208">
@@ -8346,10 +8346,10 @@
         <v>4333</v>
       </c>
       <c r="C208" t="n">
-        <v>6696</v>
+        <v>5618</v>
       </c>
       <c r="D208" t="n">
-        <v>11029</v>
+        <v>9951</v>
       </c>
     </row>
     <row r="209">
@@ -8362,10 +8362,10 @@
         <v>5320</v>
       </c>
       <c r="C209" t="n">
-        <v>5713</v>
+        <v>4660</v>
       </c>
       <c r="D209" t="n">
-        <v>11033</v>
+        <v>9980</v>
       </c>
     </row>
     <row r="210">
@@ -8378,10 +8378,10 @@
         <v>4356</v>
       </c>
       <c r="C210" t="n">
-        <v>6677</v>
+        <v>5538</v>
       </c>
       <c r="D210" t="n">
-        <v>11033</v>
+        <v>9894</v>
       </c>
     </row>
     <row r="211">
@@ -8394,10 +8394,10 @@
         <v>4356</v>
       </c>
       <c r="C211" t="n">
-        <v>6677</v>
+        <v>5553</v>
       </c>
       <c r="D211" t="n">
-        <v>11033</v>
+        <v>9909</v>
       </c>
     </row>
     <row r="212">
@@ -8410,10 +8410,10 @@
         <v>4356</v>
       </c>
       <c r="C212" t="n">
-        <v>6677</v>
+        <v>5529</v>
       </c>
       <c r="D212" t="n">
-        <v>11033</v>
+        <v>9885</v>
       </c>
     </row>
     <row r="213">
@@ -8426,10 +8426,10 @@
         <v>3455</v>
       </c>
       <c r="C213" t="n">
-        <v>7578</v>
+        <v>6511</v>
       </c>
       <c r="D213" t="n">
-        <v>11033</v>
+        <v>9966</v>
       </c>
     </row>
     <row r="214">
@@ -8442,10 +8442,10 @@
         <v>607</v>
       </c>
       <c r="C214" t="n">
-        <v>10424</v>
+        <v>9371</v>
       </c>
       <c r="D214" t="n">
-        <v>11031</v>
+        <v>9978</v>
       </c>
     </row>
     <row r="215">
@@ -8458,10 +8458,10 @@
         <v>607</v>
       </c>
       <c r="C215" t="n">
-        <v>10424</v>
+        <v>9166</v>
       </c>
       <c r="D215" t="n">
-        <v>11031</v>
+        <v>9773</v>
       </c>
     </row>
     <row r="216">
@@ -8474,10 +8474,10 @@
         <v>607</v>
       </c>
       <c r="C216" t="n">
-        <v>10424</v>
+        <v>9024</v>
       </c>
       <c r="D216" t="n">
-        <v>11031</v>
+        <v>9631</v>
       </c>
     </row>
     <row r="217">
@@ -8490,10 +8490,10 @@
         <v>607</v>
       </c>
       <c r="C217" t="n">
-        <v>10424</v>
+        <v>8721</v>
       </c>
       <c r="D217" t="n">
-        <v>11031</v>
+        <v>9328</v>
       </c>
     </row>
     <row r="218">
@@ -8506,10 +8506,10 @@
         <v>607</v>
       </c>
       <c r="C218" t="n">
-        <v>10424</v>
+        <v>8796</v>
       </c>
       <c r="D218" t="n">
-        <v>11031</v>
+        <v>9403</v>
       </c>
     </row>
     <row r="219">
@@ -8522,10 +8522,10 @@
         <v>607</v>
       </c>
       <c r="C219" t="n">
-        <v>10424</v>
+        <v>8816</v>
       </c>
       <c r="D219" t="n">
-        <v>11031</v>
+        <v>9423</v>
       </c>
     </row>
     <row r="220">
@@ -8538,10 +8538,10 @@
         <v>607</v>
       </c>
       <c r="C220" t="n">
-        <v>10424</v>
+        <v>8960</v>
       </c>
       <c r="D220" t="n">
-        <v>11031</v>
+        <v>9567</v>
       </c>
     </row>
     <row r="221">
@@ -8554,10 +8554,10 @@
         <v>607</v>
       </c>
       <c r="C221" t="n">
-        <v>10424</v>
+        <v>9053</v>
       </c>
       <c r="D221" t="n">
-        <v>11031</v>
+        <v>9660</v>
       </c>
     </row>
     <row r="222">
@@ -8570,10 +8570,10 @@
         <v>607</v>
       </c>
       <c r="C222" t="n">
-        <v>10424</v>
+        <v>9104</v>
       </c>
       <c r="D222" t="n">
-        <v>11031</v>
+        <v>9711</v>
       </c>
     </row>
     <row r="223">
@@ -8586,10 +8586,10 @@
         <v>607</v>
       </c>
       <c r="C223" t="n">
-        <v>10424</v>
+        <v>9218</v>
       </c>
       <c r="D223" t="n">
-        <v>11031</v>
+        <v>9825</v>
       </c>
     </row>
     <row r="224">
@@ -8602,10 +8602,10 @@
         <v>607</v>
       </c>
       <c r="C224" t="n">
-        <v>10424</v>
+        <v>9219</v>
       </c>
       <c r="D224" t="n">
-        <v>11031</v>
+        <v>9826</v>
       </c>
     </row>
     <row r="225">
@@ -8618,10 +8618,10 @@
         <v>689</v>
       </c>
       <c r="C225" t="n">
-        <v>10277</v>
+        <v>9591</v>
       </c>
       <c r="D225" t="n">
-        <v>10966</v>
+        <v>10280</v>
       </c>
     </row>
     <row r="226">
@@ -8634,10 +8634,10 @@
         <v>2779</v>
       </c>
       <c r="C226" t="n">
-        <v>8327</v>
+        <v>7628</v>
       </c>
       <c r="D226" t="n">
-        <v>11106</v>
+        <v>10407</v>
       </c>
     </row>
     <row r="227">
@@ -8650,10 +8650,10 @@
         <v>6511</v>
       </c>
       <c r="C227" t="n">
-        <v>4609</v>
+        <v>3889</v>
       </c>
       <c r="D227" t="n">
-        <v>11120</v>
+        <v>10400</v>
       </c>
     </row>
     <row r="228">
@@ -8666,10 +8666,10 @@
         <v>6511</v>
       </c>
       <c r="C228" t="n">
-        <v>4609</v>
+        <v>3810</v>
       </c>
       <c r="D228" t="n">
-        <v>11120</v>
+        <v>10321</v>
       </c>
     </row>
     <row r="229">
@@ -8682,10 +8682,10 @@
         <v>6511</v>
       </c>
       <c r="C229" t="n">
-        <v>4609</v>
+        <v>3937</v>
       </c>
       <c r="D229" t="n">
-        <v>11120</v>
+        <v>10448</v>
       </c>
     </row>
     <row r="230">
@@ -8698,10 +8698,10 @@
         <v>8349</v>
       </c>
       <c r="C230" t="n">
-        <v>2780</v>
+        <v>2233</v>
       </c>
       <c r="D230" t="n">
-        <v>11129</v>
+        <v>10582</v>
       </c>
     </row>
     <row r="231">
@@ -8714,10 +8714,10 @@
         <v>8349</v>
       </c>
       <c r="C231" t="n">
-        <v>2780</v>
+        <v>2164</v>
       </c>
       <c r="D231" t="n">
-        <v>11129</v>
+        <v>10513</v>
       </c>
     </row>
     <row r="232">
@@ -8730,10 +8730,10 @@
         <v>8349</v>
       </c>
       <c r="C232" t="n">
-        <v>2780</v>
+        <v>2118</v>
       </c>
       <c r="D232" t="n">
-        <v>11129</v>
+        <v>10467</v>
       </c>
     </row>
     <row r="233">
@@ -8746,10 +8746,10 @@
         <v>7677</v>
       </c>
       <c r="C233" t="n">
-        <v>3452</v>
+        <v>2785</v>
       </c>
       <c r="D233" t="n">
-        <v>11129</v>
+        <v>10462</v>
       </c>
     </row>
     <row r="234">
@@ -8762,10 +8762,10 @@
         <v>6837</v>
       </c>
       <c r="C234" t="n">
-        <v>4291</v>
+        <v>3603</v>
       </c>
       <c r="D234" t="n">
-        <v>11128</v>
+        <v>10440</v>
       </c>
     </row>
     <row r="235">
@@ -8778,10 +8778,10 @@
         <v>6837</v>
       </c>
       <c r="C235" t="n">
-        <v>4291</v>
+        <v>3660</v>
       </c>
       <c r="D235" t="n">
-        <v>11128</v>
+        <v>10497</v>
       </c>
     </row>
     <row r="236">
@@ -8794,10 +8794,10 @@
         <v>6837</v>
       </c>
       <c r="C236" t="n">
-        <v>4291</v>
+        <v>3738</v>
       </c>
       <c r="D236" t="n">
-        <v>11128</v>
+        <v>10575</v>
       </c>
     </row>
     <row r="237">
@@ -8810,10 +8810,10 @@
         <v>6837</v>
       </c>
       <c r="C237" t="n">
-        <v>4291</v>
+        <v>3723</v>
       </c>
       <c r="D237" t="n">
-        <v>11128</v>
+        <v>10560</v>
       </c>
     </row>
     <row r="238">
@@ -8826,10 +8826,10 @@
         <v>6837</v>
       </c>
       <c r="C238" t="n">
-        <v>4291</v>
+        <v>3723</v>
       </c>
       <c r="D238" t="n">
-        <v>11128</v>
+        <v>10560</v>
       </c>
     </row>
     <row r="239">
@@ -8842,10 +8842,10 @@
         <v>5872</v>
       </c>
       <c r="C239" t="n">
-        <v>5256</v>
+        <v>4687</v>
       </c>
       <c r="D239" t="n">
-        <v>11128</v>
+        <v>10559</v>
       </c>
     </row>
     <row r="240">
@@ -8858,10 +8858,10 @@
         <v>5873</v>
       </c>
       <c r="C240" t="n">
-        <v>5276</v>
+        <v>4631</v>
       </c>
       <c r="D240" t="n">
-        <v>11149</v>
+        <v>10504</v>
       </c>
     </row>
     <row r="241">
@@ -8874,10 +8874,10 @@
         <v>5873</v>
       </c>
       <c r="C241" t="n">
-        <v>5276</v>
+        <v>4683</v>
       </c>
       <c r="D241" t="n">
-        <v>11149</v>
+        <v>10556</v>
       </c>
     </row>
     <row r="242">
@@ -8890,10 +8890,10 @@
         <v>5873</v>
       </c>
       <c r="C242" t="n">
-        <v>5276</v>
+        <v>4736</v>
       </c>
       <c r="D242" t="n">
-        <v>11149</v>
+        <v>10609</v>
       </c>
     </row>
     <row r="243">
@@ -8906,10 +8906,10 @@
         <v>5873</v>
       </c>
       <c r="C243" t="n">
-        <v>5276</v>
+        <v>4790</v>
       </c>
       <c r="D243" t="n">
-        <v>11149</v>
+        <v>10663</v>
       </c>
     </row>
     <row r="244">
@@ -8922,10 +8922,10 @@
         <v>7468</v>
       </c>
       <c r="C244" t="n">
-        <v>3742</v>
+        <v>3241</v>
       </c>
       <c r="D244" t="n">
-        <v>11210</v>
+        <v>10709</v>
       </c>
     </row>
     <row r="245">
@@ -8938,10 +8938,10 @@
         <v>7468</v>
       </c>
       <c r="C245" t="n">
-        <v>3742</v>
+        <v>3213</v>
       </c>
       <c r="D245" t="n">
-        <v>11210</v>
+        <v>10681</v>
       </c>
     </row>
     <row r="246">
@@ -8954,10 +8954,10 @@
         <v>6715</v>
       </c>
       <c r="C246" t="n">
-        <v>4516</v>
+        <v>3987</v>
       </c>
       <c r="D246" t="n">
-        <v>11231</v>
+        <v>10702</v>
       </c>
     </row>
     <row r="247">
@@ -8970,10 +8970,10 @@
         <v>6715</v>
       </c>
       <c r="C247" t="n">
-        <v>4516</v>
+        <v>3993</v>
       </c>
       <c r="D247" t="n">
-        <v>11231</v>
+        <v>10708</v>
       </c>
     </row>
     <row r="248">
@@ -8986,10 +8986,10 @@
         <v>5832</v>
       </c>
       <c r="C248" t="n">
-        <v>5398</v>
+        <v>4881</v>
       </c>
       <c r="D248" t="n">
-        <v>11230</v>
+        <v>10713</v>
       </c>
     </row>
     <row r="249">
@@ -9002,10 +9002,10 @@
         <v>5832</v>
       </c>
       <c r="C249" t="n">
-        <v>5398</v>
+        <v>4881</v>
       </c>
       <c r="D249" t="n">
-        <v>11230</v>
+        <v>10713</v>
       </c>
     </row>
     <row r="250">
@@ -9018,10 +9018,10 @@
         <v>5832</v>
       </c>
       <c r="C250" t="n">
-        <v>5398</v>
+        <v>4862</v>
       </c>
       <c r="D250" t="n">
-        <v>11230</v>
+        <v>10694</v>
       </c>
     </row>
     <row r="251">
@@ -9034,10 +9034,10 @@
         <v>5832</v>
       </c>
       <c r="C251" t="n">
-        <v>5398</v>
+        <v>4896</v>
       </c>
       <c r="D251" t="n">
-        <v>11230</v>
+        <v>10728</v>
       </c>
     </row>
     <row r="252">
@@ -9050,10 +9050,10 @@
         <v>4883</v>
       </c>
       <c r="C252" t="n">
-        <v>6346</v>
+        <v>5843</v>
       </c>
       <c r="D252" t="n">
-        <v>11229</v>
+        <v>10726</v>
       </c>
     </row>
     <row r="253">
@@ -9066,10 +9066,10 @@
         <v>3998</v>
       </c>
       <c r="C253" t="n">
-        <v>7231</v>
+        <v>6759</v>
       </c>
       <c r="D253" t="n">
-        <v>11229</v>
+        <v>10757</v>
       </c>
     </row>
     <row r="254">
@@ -9082,10 +9082,10 @@
         <v>447</v>
       </c>
       <c r="C254" t="n">
-        <v>10781</v>
+        <v>10293</v>
       </c>
       <c r="D254" t="n">
-        <v>11228</v>
+        <v>10740</v>
       </c>
     </row>
     <row r="255">
@@ -9098,10 +9098,10 @@
         <v>260</v>
       </c>
       <c r="C255" t="n">
-        <v>10994</v>
+        <v>10378</v>
       </c>
       <c r="D255" t="n">
-        <v>11254</v>
+        <v>10638</v>
       </c>
     </row>
     <row r="256">
@@ -9114,10 +9114,10 @@
         <v>260</v>
       </c>
       <c r="C256" t="n">
-        <v>10994</v>
+        <v>10258</v>
       </c>
       <c r="D256" t="n">
-        <v>11254</v>
+        <v>10518</v>
       </c>
     </row>
     <row r="257">
@@ -9130,10 +9130,10 @@
         <v>260</v>
       </c>
       <c r="C257" t="n">
-        <v>10994</v>
+        <v>10340</v>
       </c>
       <c r="D257" t="n">
-        <v>11254</v>
+        <v>10600</v>
       </c>
     </row>
     <row r="258">
@@ -9146,10 +9146,10 @@
         <v>260</v>
       </c>
       <c r="C258" t="n">
-        <v>10994</v>
+        <v>10341</v>
       </c>
       <c r="D258" t="n">
-        <v>11254</v>
+        <v>10601</v>
       </c>
     </row>
     <row r="259">
@@ -9162,10 +9162,10 @@
         <v>260</v>
       </c>
       <c r="C259" t="n">
-        <v>10994</v>
+        <v>10341</v>
       </c>
       <c r="D259" t="n">
-        <v>11254</v>
+        <v>10601</v>
       </c>
     </row>
     <row r="260">
@@ -9178,10 +9178,10 @@
         <v>260</v>
       </c>
       <c r="C260" t="n">
-        <v>10994</v>
+        <v>10371</v>
       </c>
       <c r="D260" t="n">
-        <v>11254</v>
+        <v>10631</v>
       </c>
     </row>
     <row r="261">
@@ -9194,10 +9194,10 @@
         <v>954</v>
       </c>
       <c r="C261" t="n">
-        <v>10318</v>
+        <v>9702</v>
       </c>
       <c r="D261" t="n">
-        <v>11272</v>
+        <v>10656</v>
       </c>
     </row>
     <row r="262">
@@ -9210,10 +9210,10 @@
         <v>954</v>
       </c>
       <c r="C262" t="n">
-        <v>10318</v>
+        <v>9684</v>
       </c>
       <c r="D262" t="n">
-        <v>11272</v>
+        <v>10638</v>
       </c>
     </row>
     <row r="263">
@@ -9226,10 +9226,10 @@
         <v>954</v>
       </c>
       <c r="C263" t="n">
-        <v>10318</v>
+        <v>9734</v>
       </c>
       <c r="D263" t="n">
-        <v>11272</v>
+        <v>10688</v>
       </c>
     </row>
     <row r="264">
@@ -9242,10 +9242,10 @@
         <v>954</v>
       </c>
       <c r="C264" t="n">
-        <v>10318</v>
+        <v>9734</v>
       </c>
       <c r="D264" t="n">
-        <v>11272</v>
+        <v>10688</v>
       </c>
     </row>
     <row r="265">
@@ -9258,10 +9258,10 @@
         <v>162</v>
       </c>
       <c r="C265" t="n">
-        <v>11109</v>
+        <v>10479</v>
       </c>
       <c r="D265" t="n">
-        <v>11271</v>
+        <v>10641</v>
       </c>
     </row>
     <row r="266">
@@ -9274,10 +9274,10 @@
         <v>367</v>
       </c>
       <c r="C266" t="n">
-        <v>10970</v>
+        <v>10404</v>
       </c>
       <c r="D266" t="n">
-        <v>11337</v>
+        <v>10771</v>
       </c>
     </row>
     <row r="267">
@@ -9290,10 +9290,10 @@
         <v>1348</v>
       </c>
       <c r="C267" t="n">
-        <v>10033</v>
+        <v>9571</v>
       </c>
       <c r="D267" t="n">
-        <v>11381</v>
+        <v>10919</v>
       </c>
     </row>
     <row r="268">
@@ -9306,10 +9306,10 @@
         <v>2326</v>
       </c>
       <c r="C268" t="n">
-        <v>9087</v>
+        <v>8620</v>
       </c>
       <c r="D268" t="n">
-        <v>11413</v>
+        <v>10946</v>
       </c>
     </row>
     <row r="269">
@@ -9322,10 +9322,10 @@
         <v>3205</v>
       </c>
       <c r="C269" t="n">
-        <v>8205</v>
+        <v>7734</v>
       </c>
       <c r="D269" t="n">
-        <v>11410</v>
+        <v>10939</v>
       </c>
     </row>
     <row r="270">
@@ -9338,10 +9338,10 @@
         <v>3205</v>
       </c>
       <c r="C270" t="n">
-        <v>8205</v>
+        <v>7786</v>
       </c>
       <c r="D270" t="n">
-        <v>11410</v>
+        <v>10991</v>
       </c>
     </row>
     <row r="271">
@@ -9354,10 +9354,10 @@
         <v>2252</v>
       </c>
       <c r="C271" t="n">
-        <v>9157</v>
+        <v>8753</v>
       </c>
       <c r="D271" t="n">
-        <v>11409</v>
+        <v>11005</v>
       </c>
     </row>
     <row r="272">
@@ -9370,10 +9370,10 @@
         <v>2252</v>
       </c>
       <c r="C272" t="n">
-        <v>9157</v>
+        <v>8758</v>
       </c>
       <c r="D272" t="n">
-        <v>11409</v>
+        <v>11010</v>
       </c>
     </row>
     <row r="273">
@@ -9386,10 +9386,10 @@
         <v>577</v>
       </c>
       <c r="C273" t="n">
-        <v>10830</v>
+        <v>10417</v>
       </c>
       <c r="D273" t="n">
-        <v>11407</v>
+        <v>10994</v>
       </c>
     </row>
     <row r="274">
@@ -9402,10 +9402,10 @@
         <v>577</v>
       </c>
       <c r="C274" t="n">
-        <v>10830</v>
+        <v>10349</v>
       </c>
       <c r="D274" t="n">
-        <v>11407</v>
+        <v>10926</v>
       </c>
     </row>
     <row r="275">
@@ -9418,10 +9418,10 @@
         <v>577</v>
       </c>
       <c r="C275" t="n">
-        <v>10830</v>
+        <v>10349</v>
       </c>
       <c r="D275" t="n">
-        <v>11407</v>
+        <v>10926</v>
       </c>
     </row>
     <row r="276">
@@ -9434,10 +9434,10 @@
         <v>577</v>
       </c>
       <c r="C276" t="n">
-        <v>10830</v>
+        <v>10370</v>
       </c>
       <c r="D276" t="n">
-        <v>11407</v>
+        <v>10947</v>
       </c>
     </row>
     <row r="277">
@@ -9450,10 +9450,10 @@
         <v>577</v>
       </c>
       <c r="C277" t="n">
-        <v>10830</v>
+        <v>10423</v>
       </c>
       <c r="D277" t="n">
-        <v>11407</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="278">
@@ -9466,10 +9466,10 @@
         <v>577</v>
       </c>
       <c r="C278" t="n">
-        <v>10830</v>
+        <v>10371</v>
       </c>
       <c r="D278" t="n">
-        <v>11407</v>
+        <v>10948</v>
       </c>
     </row>
     <row r="279">
@@ -9482,10 +9482,10 @@
         <v>1429</v>
       </c>
       <c r="C279" t="n">
-        <v>10039</v>
+        <v>9500</v>
       </c>
       <c r="D279" t="n">
-        <v>11468</v>
+        <v>10929</v>
       </c>
     </row>
     <row r="280">
@@ -9498,10 +9498,10 @@
         <v>733</v>
       </c>
       <c r="C280" t="n">
-        <v>10734</v>
+        <v>10237</v>
       </c>
       <c r="D280" t="n">
-        <v>11467</v>
+        <v>10970</v>
       </c>
     </row>
     <row r="281">
@@ -9514,10 +9514,10 @@
         <v>1605</v>
       </c>
       <c r="C281" t="n">
-        <v>9883</v>
+        <v>9373</v>
       </c>
       <c r="D281" t="n">
-        <v>11488</v>
+        <v>10978</v>
       </c>
     </row>
     <row r="282">
@@ -9530,10 +9530,10 @@
         <v>788</v>
       </c>
       <c r="C282" t="n">
-        <v>10700</v>
+        <v>9972</v>
       </c>
       <c r="D282" t="n">
-        <v>11488</v>
+        <v>10760</v>
       </c>
     </row>
     <row r="283">
@@ -9546,10 +9546,10 @@
         <v>788</v>
       </c>
       <c r="C283" t="n">
-        <v>10700</v>
+        <v>10089</v>
       </c>
       <c r="D283" t="n">
-        <v>11488</v>
+        <v>10877</v>
       </c>
     </row>
     <row r="284">
@@ -9562,10 +9562,10 @@
         <v>788</v>
       </c>
       <c r="C284" t="n">
-        <v>10700</v>
+        <v>9952</v>
       </c>
       <c r="D284" t="n">
-        <v>11488</v>
+        <v>10740</v>
       </c>
     </row>
     <row r="285">
@@ -9578,10 +9578,10 @@
         <v>788</v>
       </c>
       <c r="C285" t="n">
-        <v>10700</v>
+        <v>9982</v>
       </c>
       <c r="D285" t="n">
-        <v>11488</v>
+        <v>10770</v>
       </c>
     </row>
     <row r="286">
@@ -9594,10 +9594,10 @@
         <v>788</v>
       </c>
       <c r="C286" t="n">
-        <v>10700</v>
+        <v>10096</v>
       </c>
       <c r="D286" t="n">
-        <v>11488</v>
+        <v>10884</v>
       </c>
     </row>
     <row r="287">
@@ -9610,10 +9610,10 @@
         <v>788</v>
       </c>
       <c r="C287" t="n">
-        <v>10700</v>
+        <v>10148</v>
       </c>
       <c r="D287" t="n">
-        <v>11488</v>
+        <v>10936</v>
       </c>
     </row>
     <row r="288">
@@ -9626,10 +9626,10 @@
         <v>788</v>
       </c>
       <c r="C288" t="n">
-        <v>10700</v>
+        <v>10252</v>
       </c>
       <c r="D288" t="n">
-        <v>11488</v>
+        <v>11040</v>
       </c>
     </row>
     <row r="289">
@@ -9642,10 +9642,10 @@
         <v>788</v>
       </c>
       <c r="C289" t="n">
-        <v>10700</v>
+        <v>10294</v>
       </c>
       <c r="D289" t="n">
-        <v>11488</v>
+        <v>11082</v>
       </c>
     </row>
     <row r="290">
@@ -9658,10 +9658,10 @@
         <v>762</v>
       </c>
       <c r="C290" t="n">
-        <v>10808</v>
+        <v>10419</v>
       </c>
       <c r="D290" t="n">
-        <v>11570</v>
+        <v>11181</v>
       </c>
     </row>
     <row r="291">
@@ -9674,10 +9674,10 @@
         <v>1659</v>
       </c>
       <c r="C291" t="n">
-        <v>9992</v>
+        <v>9549</v>
       </c>
       <c r="D291" t="n">
-        <v>11651</v>
+        <v>11208</v>
       </c>
     </row>
     <row r="292">
@@ -9690,10 +9690,10 @@
         <v>3358</v>
       </c>
       <c r="C292" t="n">
-        <v>8278</v>
+        <v>7860</v>
       </c>
       <c r="D292" t="n">
-        <v>11636</v>
+        <v>11218</v>
       </c>
     </row>
     <row r="293">
@@ -9706,10 +9706,10 @@
         <v>4200</v>
       </c>
       <c r="C293" t="n">
-        <v>7472</v>
+        <v>6986</v>
       </c>
       <c r="D293" t="n">
-        <v>11672</v>
+        <v>11186</v>
       </c>
     </row>
     <row r="294">
@@ -9722,10 +9722,10 @@
         <v>5163</v>
       </c>
       <c r="C294" t="n">
-        <v>6520</v>
+        <v>6035</v>
       </c>
       <c r="D294" t="n">
-        <v>11683</v>
+        <v>11198</v>
       </c>
     </row>
     <row r="295">
@@ -9738,10 +9738,10 @@
         <v>5163</v>
       </c>
       <c r="C295" t="n">
-        <v>6520</v>
+        <v>6035</v>
       </c>
       <c r="D295" t="n">
-        <v>11683</v>
+        <v>11198</v>
       </c>
     </row>
     <row r="296">
@@ -9754,10 +9754,10 @@
         <v>5163</v>
       </c>
       <c r="C296" t="n">
-        <v>6520</v>
+        <v>6021</v>
       </c>
       <c r="D296" t="n">
-        <v>11683</v>
+        <v>11184</v>
       </c>
     </row>
     <row r="297">
@@ -9770,10 +9770,10 @@
         <v>5163</v>
       </c>
       <c r="C297" t="n">
-        <v>6520</v>
+        <v>6118</v>
       </c>
       <c r="D297" t="n">
-        <v>11683</v>
+        <v>11281</v>
       </c>
     </row>
     <row r="298">
@@ -9786,10 +9786,10 @@
         <v>5163</v>
       </c>
       <c r="C298" t="n">
-        <v>6520</v>
+        <v>6101</v>
       </c>
       <c r="D298" t="n">
-        <v>11683</v>
+        <v>11264</v>
       </c>
     </row>
     <row r="299">
@@ -9802,10 +9802,10 @@
         <v>4253</v>
       </c>
       <c r="C299" t="n">
-        <v>7429</v>
+        <v>6964</v>
       </c>
       <c r="D299" t="n">
-        <v>11682</v>
+        <v>11217</v>
       </c>
     </row>
     <row r="300">
@@ -9818,10 +9818,10 @@
         <v>1359</v>
       </c>
       <c r="C300" t="n">
-        <v>10321</v>
+        <v>9866</v>
       </c>
       <c r="D300" t="n">
-        <v>11680</v>
+        <v>11225</v>
       </c>
     </row>
     <row r="301">
@@ -9834,10 +9834,10 @@
         <v>410</v>
       </c>
       <c r="C301" t="n">
-        <v>11270</v>
+        <v>10815</v>
       </c>
       <c r="D301" t="n">
-        <v>11680</v>
+        <v>11225</v>
       </c>
     </row>
     <row r="302">
@@ -9850,10 +9850,10 @@
         <v>410</v>
       </c>
       <c r="C302" t="n">
-        <v>11270</v>
+        <v>10846</v>
       </c>
       <c r="D302" t="n">
-        <v>11680</v>
+        <v>11256</v>
       </c>
     </row>
     <row r="303">
@@ -9866,10 +9866,10 @@
         <v>410</v>
       </c>
       <c r="C303" t="n">
-        <v>11270</v>
+        <v>10726</v>
       </c>
       <c r="D303" t="n">
-        <v>11680</v>
+        <v>11136</v>
       </c>
     </row>
     <row r="304">
@@ -9882,10 +9882,10 @@
         <v>410</v>
       </c>
       <c r="C304" t="n">
-        <v>11270</v>
+        <v>10613</v>
       </c>
       <c r="D304" t="n">
-        <v>11680</v>
+        <v>11023</v>
       </c>
     </row>
     <row r="305">
@@ -9898,10 +9898,10 @@
         <v>410</v>
       </c>
       <c r="C305" t="n">
-        <v>11270</v>
+        <v>10775</v>
       </c>
       <c r="D305" t="n">
-        <v>11680</v>
+        <v>11185</v>
       </c>
     </row>
     <row r="306">
@@ -9914,10 +9914,10 @@
         <v>1079</v>
       </c>
       <c r="C306" t="n">
-        <v>10574</v>
+        <v>10032</v>
       </c>
       <c r="D306" t="n">
-        <v>11653</v>
+        <v>11111</v>
       </c>
     </row>
     <row r="307">
@@ -9930,10 +9930,10 @@
         <v>141</v>
       </c>
       <c r="C307" t="n">
-        <v>11511</v>
+        <v>10919</v>
       </c>
       <c r="D307" t="n">
-        <v>11652</v>
+        <v>11060</v>
       </c>
     </row>
     <row r="308">
@@ -9946,10 +9946,10 @@
         <v>141</v>
       </c>
       <c r="C308" t="n">
-        <v>11511</v>
+        <v>10839</v>
       </c>
       <c r="D308" t="n">
-        <v>11652</v>
+        <v>10980</v>
       </c>
     </row>
     <row r="309">
@@ -9962,10 +9962,10 @@
         <v>354</v>
       </c>
       <c r="C309" t="n">
-        <v>11287</v>
+        <v>10834</v>
       </c>
       <c r="D309" t="n">
-        <v>11641</v>
+        <v>11188</v>
       </c>
     </row>
   </sheetData>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -54,7 +54,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -70,6 +69,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -715,161 +782,161 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>MRK</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.64</v>
+        <v>234.9900054931641</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0818</v>
+        <v>-0.7937</v>
       </c>
       <c r="D22" t="n">
-        <v>46.36563876651984</v>
+        <v>46.29892390089049</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>KO</t>
+          <t>MRK</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>50.55</v>
+        <v>85.64</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.4725</v>
+        <v>0.0818</v>
       </c>
       <c r="D23" t="n">
-        <v>47.70459081836324</v>
+        <v>46.36563876651984</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>KO</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>116.36</v>
+        <v>50.55</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.8804</v>
+        <v>-0.4725</v>
       </c>
       <c r="D24" t="n">
-        <v>48.4743411927878</v>
+        <v>47.70459081836324</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>WBA</t>
+          <t>NKE</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>37.21</v>
+        <v>116.36</v>
       </c>
       <c r="C25" t="n">
-        <v>2.5634</v>
+        <v>-1.8804</v>
       </c>
       <c r="D25" t="n">
-        <v>50.39682539682538</v>
+        <v>48.4743411927878</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>VZ</t>
+          <t>WBA</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>60.59</v>
+        <v>37.21</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3644</v>
+        <v>2.5634</v>
       </c>
       <c r="D26" t="n">
-        <v>51.05633802816905</v>
+        <v>50.39682539682538</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AXP</t>
+          <t>MMM</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>104.66</v>
+        <v>201.8600006103516</v>
       </c>
       <c r="C27" t="n">
-        <v>-1.2455</v>
+        <v>0.1041</v>
       </c>
       <c r="D27" t="n">
-        <v>51.13043478260865</v>
+        <v>50.6199174827178</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>RTX</t>
+          <t>VZ</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>62.81</v>
+        <v>60.59</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.1748</v>
+        <v>0.3644</v>
       </c>
       <c r="D28" t="n">
-        <v>54.86194477791118</v>
+        <v>51.05633802816905</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>MMM</t>
+          <t>AXP</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>172.38</v>
+        <v>104.66</v>
       </c>
       <c r="C29" t="n">
-        <v>1.6931</v>
+        <v>-1.2455</v>
       </c>
       <c r="D29" t="n">
-        <v>55.87392550143267</v>
+        <v>51.13043478260865</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>DOW</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>153.87</v>
+        <v>68.55000305175781</v>
       </c>
       <c r="C30" t="n">
-        <v>1.8265</v>
+        <v>-1.4095</v>
       </c>
       <c r="D30" t="n">
-        <v>58.93550893550891</v>
+        <v>52.97031432502126</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>DOW</t>
+          <t>RTX</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>50.97</v>
+        <v>89.40000152587891</v>
       </c>
       <c r="C31" t="n">
-        <v>2.5553</v>
+        <v>0.7665</v>
       </c>
       <c r="D31" t="n">
-        <v>60.23391812865499</v>
+        <v>55.38065048399822</v>
       </c>
     </row>
   </sheetData>
@@ -883,7 +950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -931,23 +998,23 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>WBA</t>
+          <t>DIS</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52.96</v>
+        <v>192.8600006103516</v>
       </c>
       <c r="C2" t="n">
-        <v>47.2</v>
+        <v>175.8600006103516</v>
       </c>
       <c r="D2" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>849.6</v>
+        <v>175.8600006103516</v>
       </c>
       <c r="F2" t="n">
-        <v>30.42452830188694</v>
+        <v>33.69799848747157</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -958,23 +1025,23 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>137.78</v>
+        <v>244.1499938964844</v>
       </c>
       <c r="C3" t="n">
-        <v>125.98</v>
+        <v>246.5399932861328</v>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>881.86</v>
+        <v>246.5399932861328</v>
       </c>
       <c r="F3" t="n">
-        <v>45.43269230769231</v>
+        <v>28.45867600763502</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -985,23 +1052,23 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>VZ</t>
+          <t>INTC</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.28</v>
+        <v>62.18698501586914</v>
       </c>
       <c r="C4" t="n">
-        <v>56</v>
+        <v>57.9900016784668</v>
       </c>
       <c r="D4" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>896</v>
+        <v>57.9900016784668</v>
       </c>
       <c r="F4" t="n">
-        <v>45.59686888454011</v>
+        <v>61.65259185802829</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -1012,23 +1079,23 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>PFE</t>
+          <t>CSCO</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36.98</v>
+        <v>50.90999984741211</v>
       </c>
       <c r="C5" t="n">
-        <v>34.39</v>
+        <v>53.79000091552734</v>
       </c>
       <c r="D5" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>928.53</v>
+        <v>53.79000091552734</v>
       </c>
       <c r="F5" t="n">
-        <v>49.08424908424913</v>
+        <v>64.028794089692</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -1039,23 +1106,23 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>MRK</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>75.04000000000001</v>
+        <v>247.7899932861328</v>
       </c>
       <c r="C6" t="n">
-        <v>73.13</v>
+        <v>258.3599853515625</v>
       </c>
       <c r="D6" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>950.6899999999999</v>
+        <v>258.3599853515625</v>
       </c>
       <c r="F6" t="n">
-        <v>40.69400630914822</v>
+        <v>77.56536409242464</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -1070,19 +1137,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>129.87</v>
+        <v>126.8499984741211</v>
       </c>
       <c r="C7" t="n">
-        <v>121.42</v>
+        <v>129.6399993896484</v>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>849.9400000000001</v>
+        <v>129.6399993896484</v>
       </c>
       <c r="F7" t="n">
-        <v>32.84612261469755</v>
+        <v>72.11225048628029</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -1093,23 +1160,23 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>V</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>234.51</v>
+        <v>220.3099975585938</v>
       </c>
       <c r="C8" t="n">
-        <v>231.6</v>
+        <v>232.9799957275391</v>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>926.4</v>
+        <v>232.9799957275391</v>
       </c>
       <c r="F8" t="n">
-        <v>37.52994410433855</v>
+        <v>73.67629338251943</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -1120,23 +1187,23 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>CSCO</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>45.43</v>
+        <v>315.8999938964844</v>
       </c>
       <c r="C9" t="n">
-        <v>46.25</v>
+        <v>306.4500122070312</v>
       </c>
       <c r="D9" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1017.5</v>
+        <v>306.4500122070312</v>
       </c>
       <c r="F9" t="n">
-        <v>55.15370705244122</v>
+        <v>25.78170995846365</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1147,23 +1214,23 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>VZ</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>136.39</v>
+        <v>56.79000091552734</v>
       </c>
       <c r="C10" t="n">
-        <v>133.35</v>
+        <v>57.29000091552734</v>
       </c>
       <c r="D10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>933.4499999999999</v>
+        <v>572.9000091552734</v>
       </c>
       <c r="F10" t="n">
-        <v>24.97013142174436</v>
+        <v>76.30058058384729</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1174,23 +1241,23 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>WMT</t>
+          <t>PFE</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>135.47</v>
+        <v>38.65000152587891</v>
       </c>
       <c r="C11" t="n">
-        <v>129.12</v>
+        <v>39.59000015258789</v>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>903.84</v>
+        <v>554.2600021362305</v>
       </c>
       <c r="F11" t="n">
-        <v>19.86928104575172</v>
+        <v>64.08266543387427</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1201,23 +1268,23 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>JNJ</t>
+          <t>MRK</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>156.22</v>
+        <v>75.91999816894531</v>
       </c>
       <c r="C12" t="n">
-        <v>156.1</v>
+        <v>75.69999694824219</v>
       </c>
       <c r="D12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E12" t="n">
-        <v>936.5999999999999</v>
+        <v>529.8999786376953</v>
       </c>
       <c r="F12" t="n">
-        <v>33.95297977036628</v>
+        <v>77.54007796970131</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1228,25 +1295,241 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>HD</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>253.52</v>
+        <v>134.8500061035156</v>
       </c>
       <c r="C13" t="n">
-        <v>253.52</v>
+        <v>134.6499938964844</v>
       </c>
       <c r="D13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" t="n">
+        <v>538.5999755859375</v>
+      </c>
+      <c r="F13" t="n">
+        <v>61.94323980379801</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>165.5299987792969</v>
+      </c>
+      <c r="C14" t="n">
+        <v>164.4900054931641</v>
+      </c>
+      <c r="D14" t="n">
         <v>3</v>
       </c>
-      <c r="E13" t="n">
-        <v>760.5600000000001</v>
-      </c>
-      <c r="F13" t="n">
-        <v>20.3451407811081</v>
-      </c>
-      <c r="G13" t="inlineStr">
+      <c r="E14" t="n">
+        <v>493.4700164794922</v>
+      </c>
+      <c r="F14" t="n">
+        <v>45.0850845653613</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>UNH</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>400.25</v>
+      </c>
+      <c r="C15" t="n">
+        <v>400.2799987792969</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>800.5599975585938</v>
+      </c>
+      <c r="F15" t="n">
+        <v>33.22906434477432</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>WMT</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>139.8300018310547</v>
+      </c>
+      <c r="C16" t="n">
+        <v>140</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6</v>
+      </c>
+      <c r="E16" t="n">
+        <v>840</v>
+      </c>
+      <c r="F16" t="n">
+        <v>36.16663614908854</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>225.7299957275391</v>
+      </c>
+      <c r="C17" t="n">
+        <v>219.4600067138672</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3</v>
+      </c>
+      <c r="E17" t="n">
+        <v>658.3800201416016</v>
+      </c>
+      <c r="F17" t="n">
+        <v>7.667250329072473</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>NKE</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>130.9799957275391</v>
+      </c>
+      <c r="C18" t="n">
+        <v>130.2899932861328</v>
+      </c>
+      <c r="D18" t="n">
+        <v>6</v>
+      </c>
+      <c r="E18" t="n">
+        <v>781.7399597167969</v>
+      </c>
+      <c r="F18" t="n">
+        <v>17.835344578941</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>TRV</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>154.4799957275391</v>
+      </c>
+      <c r="C19" t="n">
+        <v>154.6199951171875</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>773.0999755859375</v>
+      </c>
+      <c r="F19" t="n">
+        <v>24.71697706655941</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>160.2899932861328</v>
+      </c>
+      <c r="C20" t="n">
+        <v>155.1799926757812</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>775.8999633789062</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3.347631615138269</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>67.22000122070312</v>
+      </c>
+      <c r="C21" t="n">
+        <v>67.22000122070312</v>
+      </c>
+      <c r="D21" t="n">
+        <v>12</v>
+      </c>
+      <c r="E21" t="n">
+        <v>806.6400146484375</v>
+      </c>
+      <c r="F21" t="n">
+        <v>28.24014321995088</v>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>buy</t>
         </is>
@@ -1290,7 +1573,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>354</v>
+        <v>3737</v>
       </c>
     </row>
     <row r="3">
@@ -1300,7 +1583,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10834</v>
+        <v>9587</v>
       </c>
     </row>
     <row r="4">
@@ -1310,7 +1593,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11188</v>
+        <v>13324</v>
       </c>
     </row>
   </sheetData>
@@ -1324,7 +1607,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F141"/>
+  <dimension ref="A1:F335"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4997,6 +5280,5050 @@
       </c>
       <c r="F141" t="n">
         <v>760.5600000000001</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>04/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>MCD</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>1</v>
+      </c>
+      <c r="F142" t="n">
+        <v>204.8399963378906</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>10/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>PFE</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>27</v>
+      </c>
+      <c r="F143" t="n">
+        <v>933.9077568054199</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>11/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>CSCO</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>22</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1065.9580078125</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>11/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>3</v>
+      </c>
+      <c r="F145" t="n">
+        <v>806.5500183105469</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>11/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>WBA</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>18</v>
+      </c>
+      <c r="F146" t="n">
+        <v>927.3600082397461</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>12/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>MRK</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>13</v>
+      </c>
+      <c r="F147" t="n">
+        <v>969.7999801635742</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>15/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>MCD</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>1</v>
+      </c>
+      <c r="F148" t="n">
+        <v>220.4600067138672</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>16/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>7</v>
+      </c>
+      <c r="F149" t="n">
+        <v>896.8419952392578</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>17/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>WMT</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>7</v>
+      </c>
+      <c r="F150" t="n">
+        <v>918.5028381347656</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>17/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>NKE</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>7</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1013.740051269531</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>18/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>6</v>
+      </c>
+      <c r="F152" t="n">
+        <v>962.8200073242188</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>19/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>1</v>
+      </c>
+      <c r="F153" t="n">
+        <v>103.379997253418</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>19/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>XOM</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>1</v>
+      </c>
+      <c r="F154" t="n">
+        <v>55.67887115478516</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>22/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>1</v>
+      </c>
+      <c r="F155" t="n">
+        <v>192.8600006103516</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>22/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>1</v>
+      </c>
+      <c r="F156" t="n">
+        <v>207.6983184814453</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>22/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>TRV</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>1</v>
+      </c>
+      <c r="F157" t="n">
+        <v>147.5899963378906</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>22/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>1</v>
+      </c>
+      <c r="F158" t="n">
+        <v>139.5306091308594</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>25/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>NKE</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>1</v>
+      </c>
+      <c r="F159" t="n">
+        <v>128.6399993896484</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>25/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>VZ</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>16</v>
+      </c>
+      <c r="F160" t="n">
+        <v>908.3079223632812</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>26/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>1</v>
+      </c>
+      <c r="F161" t="n">
+        <v>327.3900146484375</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>26/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>1</v>
+      </c>
+      <c r="F162" t="n">
+        <v>244.8699951171875</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>05/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>4</v>
+      </c>
+      <c r="F163" t="n">
+        <v>996.280029296875</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>05/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>1</v>
+      </c>
+      <c r="F164" t="n">
+        <v>218.7222900390625</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>07/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>7</v>
+      </c>
+      <c r="F165" t="n">
+        <v>893.7818450927734</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>07/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>TRV</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>1</v>
+      </c>
+      <c r="F166" t="n">
+        <v>152.2899932861328</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>07/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>1</v>
+      </c>
+      <c r="F167" t="n">
+        <v>147.1300048828125</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>08/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>1</v>
+      </c>
+      <c r="F168" t="n">
+        <v>254.9499969482422</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>09/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>NKE</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>1</v>
+      </c>
+      <c r="F169" t="n">
+        <v>135.4499969482422</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>12/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>1</v>
+      </c>
+      <c r="F170" t="n">
+        <v>161.6399993896484</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>16/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>1</v>
+      </c>
+      <c r="F171" t="n">
+        <v>342.3099975585938</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>19/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>1</v>
+      </c>
+      <c r="F172" t="n">
+        <v>244.1499938964844</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>19/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>WBA</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>1</v>
+      </c>
+      <c r="F173" t="n">
+        <v>53.79000091552734</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>20/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>NKE</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>1</v>
+      </c>
+      <c r="F174" t="n">
+        <v>127.1100006103516</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>22/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>1</v>
+      </c>
+      <c r="F175" t="n">
+        <v>62.18698501586914</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>22/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>1</v>
+      </c>
+      <c r="F176" t="n">
+        <v>147.3699951171875</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>26/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>1</v>
+      </c>
+      <c r="F177" t="n">
+        <v>131.2599945068359</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>27/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>VZ</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>1</v>
+      </c>
+      <c r="F178" t="n">
+        <v>56.31999969482422</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>30/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>CSCO</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>1</v>
+      </c>
+      <c r="F179" t="n">
+        <v>50.90999984741211</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>04/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>1</v>
+      </c>
+      <c r="F180" t="n">
+        <v>247.7899932861328</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>04/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>XOM</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>1</v>
+      </c>
+      <c r="F181" t="n">
+        <v>58.3400993347168</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>05/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>1</v>
+      </c>
+      <c r="F182" t="n">
+        <v>157.5200042724609</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>06/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>1</v>
+      </c>
+      <c r="F183" t="n">
+        <v>109.0199966430664</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>06/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>WBA</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>1</v>
+      </c>
+      <c r="F184" t="n">
+        <v>54.45999908447266</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>06/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>VZ</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>1</v>
+      </c>
+      <c r="F185" t="n">
+        <v>59.29000091552734</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>07/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>NKE</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>1</v>
+      </c>
+      <c r="F186" t="n">
+        <v>137.8099975585938</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>10/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>AAPL</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>1</v>
+      </c>
+      <c r="F187" t="n">
+        <v>126.8499984741211</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>10/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>1</v>
+      </c>
+      <c r="F188" t="n">
+        <v>170.2700042724609</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>10/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>1</v>
+      </c>
+      <c r="F189" t="n">
+        <v>137.6699981689453</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>12/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>1</v>
+      </c>
+      <c r="F190" t="n">
+        <v>220.3099975585938</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>20/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>3</v>
+      </c>
+      <c r="F191" t="n">
+        <v>947.6999816894531</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>20/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>VZ</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>18</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1022.220016479492</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>27/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>PFE</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>22</v>
+      </c>
+      <c r="F193" t="n">
+        <v>850.3000335693359</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>27/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>MRK</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>11</v>
+      </c>
+      <c r="F194" t="n">
+        <v>835.1199798583984</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>28/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>5</v>
+      </c>
+      <c r="F195" t="n">
+        <v>674.2500305175781</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>01/06/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>3</v>
+      </c>
+      <c r="F196" t="n">
+        <v>496.5899963378906</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>06/01/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>3</v>
+      </c>
+      <c r="F197" t="n">
+        <v>473.5640258789062</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>06/01/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>MRK</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>11</v>
+      </c>
+      <c r="F198" t="n">
+        <v>898.287483215332</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>08/01/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>MMM</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>3</v>
+      </c>
+      <c r="F199" t="n">
+        <v>492.1528930664062</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>12/01/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>KO</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>11</v>
+      </c>
+      <c r="F200" t="n">
+        <v>546.6599349975586</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>22/01/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>UNH</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>1</v>
+      </c>
+      <c r="F201" t="n">
+        <v>346.3196411132812</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>22/01/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>4</v>
+      </c>
+      <c r="F202" t="n">
+        <v>463.0104370117188</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>22/01/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>3</v>
+      </c>
+      <c r="F203" t="n">
+        <v>846.6942443847656</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>25/01/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>NKE</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>4</v>
+      </c>
+      <c r="F204" t="n">
+        <v>547.9779663085938</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>25/01/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>RTX</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>8</v>
+      </c>
+      <c r="F205" t="n">
+        <v>523.8430786132812</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>26/01/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>4</v>
+      </c>
+      <c r="F206" t="n">
+        <v>523.23828125</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>26/01/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>MRK</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
+        <v>7</v>
+      </c>
+      <c r="F207" t="n">
+        <v>556.8573913574219</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>26/01/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>MMM</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
+        <v>3</v>
+      </c>
+      <c r="F208" t="n">
+        <v>519.7113189697266</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>27/01/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
+        <v>2</v>
+      </c>
+      <c r="F209" t="n">
+        <v>542.6882934570312</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>27/01/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>3</v>
+      </c>
+      <c r="F210" t="n">
+        <v>539.4515075683594</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>27/01/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>10</v>
+      </c>
+      <c r="F211" t="n">
+        <v>532.5096893310547</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>29/01/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>6</v>
+      </c>
+      <c r="F212" t="n">
+        <v>497.9789886474609</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>29/01/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>XOM</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>13</v>
+      </c>
+      <c r="F213" t="n">
+        <v>564.955738067627</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>08/02/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>XOM</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>13</v>
+      </c>
+      <c r="F214" t="n">
+        <v>656.4271507263184</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>08/02/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>4</v>
+      </c>
+      <c r="F215" t="n">
+        <v>557.27783203125</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>08/02/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>RTX</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>8</v>
+      </c>
+      <c r="F216" t="n">
+        <v>572.9237060546875</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>09/02/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
+        <v>2</v>
+      </c>
+      <c r="F217" t="n">
+        <v>596.5540771484375</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>10/02/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>3</v>
+      </c>
+      <c r="F218" t="n">
+        <v>590.4907836914062</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>10/02/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>NKE</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
+        <v>4</v>
+      </c>
+      <c r="F219" t="n">
+        <v>567.5386352539062</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>12/02/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E220" t="n">
+        <v>6</v>
+      </c>
+      <c r="F220" t="n">
+        <v>540.9385070800781</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>12/02/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>KO</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E221" t="n">
+        <v>11</v>
+      </c>
+      <c r="F221" t="n">
+        <v>552.9872512817383</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>12/02/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E222" t="n">
+        <v>10</v>
+      </c>
+      <c r="F222" t="n">
+        <v>569.3222808837891</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>17/02/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>VZ</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E223" t="n">
+        <v>18</v>
+      </c>
+      <c r="F223" t="n">
+        <v>1014.90113067627</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>18/02/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E224" t="n">
+        <v>4</v>
+      </c>
+      <c r="F224" t="n">
+        <v>477.5838623046875</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>22/02/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>NKE</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E225" t="n">
+        <v>4</v>
+      </c>
+      <c r="F225" t="n">
+        <v>544.47216796875</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>23/02/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>WMT</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E226" t="n">
+        <v>4</v>
+      </c>
+      <c r="F226" t="n">
+        <v>537.5159912109375</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>24/02/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E227" t="n">
+        <v>2</v>
+      </c>
+      <c r="F227" t="n">
+        <v>516.7021484375</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>25/02/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>WBA</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E228" t="n">
+        <v>12</v>
+      </c>
+      <c r="F228" t="n">
+        <v>574.2940979003906</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>26/02/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E229" t="n">
+        <v>3</v>
+      </c>
+      <c r="F229" t="n">
+        <v>472.4325256347656</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>26/02/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>MCD</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E230" t="n">
+        <v>2</v>
+      </c>
+      <c r="F230" t="n">
+        <v>410.0155029296875</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>02/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>UNH</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E231" t="n">
+        <v>1</v>
+      </c>
+      <c r="F231" t="n">
+        <v>333.4553527832031</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>03/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>VZ</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E232" t="n">
+        <v>10</v>
+      </c>
+      <c r="F232" t="n">
+        <v>547.9053115844727</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>10/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>PFE</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E233" t="n">
+        <v>22</v>
+      </c>
+      <c r="F233" t="n">
+        <v>760.9618759155273</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>11/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E234" t="n">
+        <v>2</v>
+      </c>
+      <c r="F234" t="n">
+        <v>537.7000122070312</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>11/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>WBA</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E235" t="n">
+        <v>12</v>
+      </c>
+      <c r="F235" t="n">
+        <v>612.9611206054688</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>12/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>MRK</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E236" t="n">
+        <v>7</v>
+      </c>
+      <c r="F236" t="n">
+        <v>522.1999893188477</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>15/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>MCD</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E237" t="n">
+        <v>2</v>
+      </c>
+      <c r="F237" t="n">
+        <v>438.4981994628906</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>16/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E238" t="n">
+        <v>5</v>
+      </c>
+      <c r="F238" t="n">
+        <v>640.6014251708984</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>17/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>WMT</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E239" t="n">
+        <v>4</v>
+      </c>
+      <c r="F239" t="n">
+        <v>524.8587646484375</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>17/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>NKE</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E240" t="n">
+        <v>4</v>
+      </c>
+      <c r="F240" t="n">
+        <v>578.113525390625</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>18/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E241" t="n">
+        <v>3</v>
+      </c>
+      <c r="F241" t="n">
+        <v>478.4251556396484</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>19/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E242" t="n">
+        <v>5</v>
+      </c>
+      <c r="F242" t="n">
+        <v>510.6492233276367</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>19/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>XOM</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E243" t="n">
+        <v>10</v>
+      </c>
+      <c r="F243" t="n">
+        <v>556.7887115478516</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>22/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>TRV</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E244" t="n">
+        <v>3</v>
+      </c>
+      <c r="F244" t="n">
+        <v>442.7699890136719</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>22/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E245" t="n">
+        <v>4</v>
+      </c>
+      <c r="F245" t="n">
+        <v>558.1224365234375</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>25/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>NKE</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E246" t="n">
+        <v>4</v>
+      </c>
+      <c r="F246" t="n">
+        <v>513.5238037109375</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>25/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>VZ</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E247" t="n">
+        <v>10</v>
+      </c>
+      <c r="F247" t="n">
+        <v>567.6924514770508</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>26/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E248" t="n">
+        <v>1</v>
+      </c>
+      <c r="F248" t="n">
+        <v>326.2880554199219</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>07/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>TRV</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E249" t="n">
+        <v>3</v>
+      </c>
+      <c r="F249" t="n">
+        <v>456.8699798583984</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>07/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E250" t="n">
+        <v>4</v>
+      </c>
+      <c r="F250" t="n">
+        <v>588.52001953125</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>09/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>NKE</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E251" t="n">
+        <v>4</v>
+      </c>
+      <c r="F251" t="n">
+        <v>540.7089233398438</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>12/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E252" t="n">
+        <v>3</v>
+      </c>
+      <c r="F252" t="n">
+        <v>481.9133605957031</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>16/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E253" t="n">
+        <v>1</v>
+      </c>
+      <c r="F253" t="n">
+        <v>341.1578063964844</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>19/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>WBA</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E254" t="n">
+        <v>10</v>
+      </c>
+      <c r="F254" t="n">
+        <v>533.3070755004883</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>20/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>NKE</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E255" t="n">
+        <v>4</v>
+      </c>
+      <c r="F255" t="n">
+        <v>507.4161376953125</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>22/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E256" t="n">
+        <v>3</v>
+      </c>
+      <c r="F256" t="n">
+        <v>442.1099853515625</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>26/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E257" t="n">
+        <v>4</v>
+      </c>
+      <c r="F257" t="n">
+        <v>525.0399780273438</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>27/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>VZ</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E258" t="n">
+        <v>10</v>
+      </c>
+      <c r="F258" t="n">
+        <v>563.1999969482422</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>04/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>XOM</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E259" t="n">
+        <v>10</v>
+      </c>
+      <c r="F259" t="n">
+        <v>583.400993347168</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>05/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E260" t="n">
+        <v>3</v>
+      </c>
+      <c r="F260" t="n">
+        <v>472.5600128173828</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>06/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E261" t="n">
+        <v>5</v>
+      </c>
+      <c r="F261" t="n">
+        <v>538.5082244873047</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>06/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>WBA</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E262" t="n">
+        <v>10</v>
+      </c>
+      <c r="F262" t="n">
+        <v>539.9498748779297</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>06/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>VZ</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E263" t="n">
+        <v>10</v>
+      </c>
+      <c r="F263" t="n">
+        <v>592.9000091552734</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>07/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>NKE</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E264" t="n">
+        <v>4</v>
+      </c>
+      <c r="F264" t="n">
+        <v>550.1299438476562</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>10/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E265" t="n">
+        <v>3</v>
+      </c>
+      <c r="F265" t="n">
+        <v>507.6428833007812</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>10/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E266" t="n">
+        <v>4</v>
+      </c>
+      <c r="F266" t="n">
+        <v>550.6799926757812</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>20/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E267" t="n">
+        <v>1</v>
+      </c>
+      <c r="F267" t="n">
+        <v>315.8999938964844</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>20/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>VZ</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E268" t="n">
+        <v>10</v>
+      </c>
+      <c r="F268" t="n">
+        <v>567.9000091552734</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>27/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>PFE</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E269" t="n">
+        <v>14</v>
+      </c>
+      <c r="F269" t="n">
+        <v>541.1000213623047</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>27/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>MRK</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E270" t="n">
+        <v>7</v>
+      </c>
+      <c r="F270" t="n">
+        <v>531.4399871826172</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>28/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E271" t="n">
+        <v>4</v>
+      </c>
+      <c r="F271" t="n">
+        <v>539.4000244140625</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>01/06/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E272" t="n">
+        <v>3</v>
+      </c>
+      <c r="F272" t="n">
+        <v>496.5899963378906</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>08/02/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>UNH</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E273" t="n">
+        <v>2</v>
+      </c>
+      <c r="F273" t="n">
+        <v>646.3836059570312</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>22/02/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>NKE</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E274" t="n">
+        <v>6</v>
+      </c>
+      <c r="F274" t="n">
+        <v>816.708251953125</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>23/02/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>WMT</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E275" t="n">
+        <v>6</v>
+      </c>
+      <c r="F275" t="n">
+        <v>806.2739868164062</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>25/02/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>WBA</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E276" t="n">
+        <v>17</v>
+      </c>
+      <c r="F276" t="n">
+        <v>813.5833053588867</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>26/02/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>MCD</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E277" t="n">
+        <v>3</v>
+      </c>
+      <c r="F277" t="n">
+        <v>615.0232543945312</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>02/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>UNH</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E278" t="n">
+        <v>2</v>
+      </c>
+      <c r="F278" t="n">
+        <v>666.9107055664062</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>11/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>WBA</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E279" t="n">
+        <v>17</v>
+      </c>
+      <c r="F279" t="n">
+        <v>868.3615875244141</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>15/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>MCD</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E280" t="n">
+        <v>3</v>
+      </c>
+      <c r="F280" t="n">
+        <v>657.7472991943359</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>17/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>WMT</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E281" t="n">
+        <v>6</v>
+      </c>
+      <c r="F281" t="n">
+        <v>787.2881469726562</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>17/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>NKE</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E282" t="n">
+        <v>6</v>
+      </c>
+      <c r="F282" t="n">
+        <v>867.1702880859375</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>19/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E283" t="n">
+        <v>8</v>
+      </c>
+      <c r="F283" t="n">
+        <v>817.0387573242188</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>19/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>XOM</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E284" t="n">
+        <v>14</v>
+      </c>
+      <c r="F284" t="n">
+        <v>779.5041961669922</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>22/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>TRV</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E285" t="n">
+        <v>5</v>
+      </c>
+      <c r="F285" t="n">
+        <v>737.9499816894531</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>22/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E286" t="n">
+        <v>5</v>
+      </c>
+      <c r="F286" t="n">
+        <v>697.6530456542969</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>25/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>NKE</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E287" t="n">
+        <v>6</v>
+      </c>
+      <c r="F287" t="n">
+        <v>770.2857055664062</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>26/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E288" t="n">
+        <v>2</v>
+      </c>
+      <c r="F288" t="n">
+        <v>652.5761108398438</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>07/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>TRV</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E289" t="n">
+        <v>5</v>
+      </c>
+      <c r="F289" t="n">
+        <v>761.4499664306641</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>07/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E290" t="n">
+        <v>5</v>
+      </c>
+      <c r="F290" t="n">
+        <v>735.6500244140625</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>09/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>NKE</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E291" t="n">
+        <v>6</v>
+      </c>
+      <c r="F291" t="n">
+        <v>811.0633850097656</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>16/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E292" t="n">
+        <v>2</v>
+      </c>
+      <c r="F292" t="n">
+        <v>682.3156127929688</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>19/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>WBA</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E293" t="n">
+        <v>15</v>
+      </c>
+      <c r="F293" t="n">
+        <v>799.9606132507324</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>20/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>NKE</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E294" t="n">
+        <v>6</v>
+      </c>
+      <c r="F294" t="n">
+        <v>761.1242065429688</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>22/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E295" t="n">
+        <v>5</v>
+      </c>
+      <c r="F295" t="n">
+        <v>736.8499755859375</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>04/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>XOM</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E296" t="n">
+        <v>14</v>
+      </c>
+      <c r="F296" t="n">
+        <v>816.7613906860352</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>05/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E297" t="n">
+        <v>5</v>
+      </c>
+      <c r="F297" t="n">
+        <v>787.6000213623047</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>06/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E298" t="n">
+        <v>8</v>
+      </c>
+      <c r="F298" t="n">
+        <v>861.6131591796875</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>06/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>WBA</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E299" t="n">
+        <v>15</v>
+      </c>
+      <c r="F299" t="n">
+        <v>809.9248123168945</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>07/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>NKE</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E300" t="n">
+        <v>6</v>
+      </c>
+      <c r="F300" t="n">
+        <v>825.1949157714844</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>08/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>WMT</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E301" t="n">
+        <v>6</v>
+      </c>
+      <c r="F301" t="n">
+        <v>761.1008148193359</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>17/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>WMT</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E302" t="n">
+        <v>6</v>
+      </c>
+      <c r="F302" t="n">
+        <v>787.2881469726562</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>19/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E303" t="n">
+        <v>8</v>
+      </c>
+      <c r="F303" t="n">
+        <v>817.0387573242188</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>19/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>XOM</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E304" t="n">
+        <v>15</v>
+      </c>
+      <c r="F304" t="n">
+        <v>835.1830673217773</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>22/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>TRV</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E305" t="n">
+        <v>5</v>
+      </c>
+      <c r="F305" t="n">
+        <v>737.9499816894531</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>22/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E306" t="n">
+        <v>6</v>
+      </c>
+      <c r="F306" t="n">
+        <v>837.1836547851562</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>25/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>NKE</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E307" t="n">
+        <v>6</v>
+      </c>
+      <c r="F307" t="n">
+        <v>770.2857055664062</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>26/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E308" t="n">
+        <v>2</v>
+      </c>
+      <c r="F308" t="n">
+        <v>652.5761108398438</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>07/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>TRV</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E309" t="n">
+        <v>5</v>
+      </c>
+      <c r="F309" t="n">
+        <v>761.4499664306641</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>07/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E310" t="n">
+        <v>6</v>
+      </c>
+      <c r="F310" t="n">
+        <v>882.780029296875</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>09/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>NKE</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E311" t="n">
+        <v>6</v>
+      </c>
+      <c r="F311" t="n">
+        <v>811.0633850097656</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>16/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E312" t="n">
+        <v>2</v>
+      </c>
+      <c r="F312" t="n">
+        <v>682.3156127929688</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>19/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>WBA</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E313" t="n">
+        <v>16</v>
+      </c>
+      <c r="F313" t="n">
+        <v>853.2913208007812</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>20/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>NKE</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E314" t="n">
+        <v>6</v>
+      </c>
+      <c r="F314" t="n">
+        <v>761.1242065429688</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>22/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E315" t="n">
+        <v>5</v>
+      </c>
+      <c r="F315" t="n">
+        <v>736.8499755859375</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>04/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>XOM</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E316" t="n">
+        <v>15</v>
+      </c>
+      <c r="F316" t="n">
+        <v>875.101490020752</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>05/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E317" t="n">
+        <v>5</v>
+      </c>
+      <c r="F317" t="n">
+        <v>787.6000213623047</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>06/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E318" t="n">
+        <v>8</v>
+      </c>
+      <c r="F318" t="n">
+        <v>861.6131591796875</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>06/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>WBA</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E319" t="n">
+        <v>16</v>
+      </c>
+      <c r="F319" t="n">
+        <v>863.9197998046875</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>07/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>NKE</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E320" t="n">
+        <v>6</v>
+      </c>
+      <c r="F320" t="n">
+        <v>825.1949157714844</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>12/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E321" t="n">
+        <v>8</v>
+      </c>
+      <c r="F321" t="n">
+        <v>804.3935546875</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>19/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>WBA</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E322" t="n">
+        <v>16</v>
+      </c>
+      <c r="F322" t="n">
+        <v>853.2913208007812</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>20/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>NKE</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E323" t="n">
+        <v>7</v>
+      </c>
+      <c r="F323" t="n">
+        <v>887.9782409667969</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>22/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E324" t="n">
+        <v>6</v>
+      </c>
+      <c r="F324" t="n">
+        <v>884.219970703125</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>05/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E325" t="n">
+        <v>6</v>
+      </c>
+      <c r="F325" t="n">
+        <v>945.1200256347656</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>06/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E326" t="n">
+        <v>8</v>
+      </c>
+      <c r="F326" t="n">
+        <v>861.6131591796875</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>06/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>WBA</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E327" t="n">
+        <v>16</v>
+      </c>
+      <c r="F327" t="n">
+        <v>863.9197998046875</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>07/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>NKE</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="E328" t="n">
+        <v>7</v>
+      </c>
+      <c r="F328" t="n">
+        <v>962.7274017333984</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>07/06/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>UNH</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E329" t="n">
+        <v>2</v>
+      </c>
+      <c r="F329" t="n">
+        <v>800.5</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>08/06/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>WMT</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E330" t="n">
+        <v>6</v>
+      </c>
+      <c r="F330" t="n">
+        <v>838.9800109863281</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>10/06/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E331" t="n">
+        <v>3</v>
+      </c>
+      <c r="F331" t="n">
+        <v>677.1899871826172</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>10/06/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>NKE</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E332" t="n">
+        <v>6</v>
+      </c>
+      <c r="F332" t="n">
+        <v>785.8799743652344</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>11/06/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>TRV</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E333" t="n">
+        <v>5</v>
+      </c>
+      <c r="F333" t="n">
+        <v>772.3999786376953</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>11/06/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E334" t="n">
+        <v>5</v>
+      </c>
+      <c r="F334" t="n">
+        <v>801.4499664306641</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>15/06/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="E335" t="n">
+        <v>12</v>
+      </c>
+      <c r="F335" t="n">
+        <v>806.6400146484375</v>
       </c>
     </row>
   </sheetData>
@@ -5010,7 +10337,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D309"/>
+  <dimension ref="A1:D381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9287,13 +14614,13 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>1348</v>
+        <v>7138</v>
       </c>
       <c r="C267" t="n">
-        <v>9571</v>
+        <v>4363</v>
       </c>
       <c r="D267" t="n">
-        <v>10919</v>
+        <v>11501</v>
       </c>
     </row>
     <row r="268">
@@ -9303,13 +14630,13 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>2326</v>
+        <v>7138</v>
       </c>
       <c r="C268" t="n">
-        <v>8620</v>
+        <v>4368</v>
       </c>
       <c r="D268" t="n">
-        <v>10946</v>
+        <v>11506</v>
       </c>
     </row>
     <row r="269">
@@ -9319,13 +14646,13 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>3205</v>
+        <v>6645</v>
       </c>
       <c r="C269" t="n">
-        <v>7734</v>
+        <v>4858</v>
       </c>
       <c r="D269" t="n">
-        <v>10939</v>
+        <v>11503</v>
       </c>
     </row>
     <row r="270">
@@ -9335,13 +14662,13 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>3205</v>
+        <v>6645</v>
       </c>
       <c r="C270" t="n">
-        <v>7786</v>
+        <v>4853</v>
       </c>
       <c r="D270" t="n">
-        <v>10991</v>
+        <v>11498</v>
       </c>
     </row>
     <row r="271">
@@ -9351,13 +14678,13 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>2252</v>
+        <v>6098</v>
       </c>
       <c r="C271" t="n">
-        <v>8753</v>
+        <v>5393</v>
       </c>
       <c r="D271" t="n">
-        <v>11005</v>
+        <v>11491</v>
       </c>
     </row>
     <row r="272">
@@ -9367,13 +14694,13 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>2252</v>
+        <v>6098</v>
       </c>
       <c r="C272" t="n">
-        <v>8758</v>
+        <v>5382</v>
       </c>
       <c r="D272" t="n">
-        <v>11010</v>
+        <v>11480</v>
       </c>
     </row>
     <row r="273">
@@ -9383,13 +14710,13 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>577</v>
+        <v>6098</v>
       </c>
       <c r="C273" t="n">
-        <v>10417</v>
+        <v>5335</v>
       </c>
       <c r="D273" t="n">
-        <v>10994</v>
+        <v>11433</v>
       </c>
     </row>
     <row r="274">
@@ -9399,13 +14726,13 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>577</v>
+        <v>6098</v>
       </c>
       <c r="C274" t="n">
-        <v>10349</v>
+        <v>5337</v>
       </c>
       <c r="D274" t="n">
-        <v>10926</v>
+        <v>11435</v>
       </c>
     </row>
     <row r="275">
@@ -9415,13 +14742,13 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>577</v>
+        <v>6098</v>
       </c>
       <c r="C275" t="n">
-        <v>10349</v>
+        <v>5337</v>
       </c>
       <c r="D275" t="n">
-        <v>10926</v>
+        <v>11435</v>
       </c>
     </row>
     <row r="276">
@@ -9431,13 +14758,13 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>577</v>
+        <v>6098</v>
       </c>
       <c r="C276" t="n">
-        <v>10370</v>
+        <v>5339</v>
       </c>
       <c r="D276" t="n">
-        <v>10947</v>
+        <v>11437</v>
       </c>
     </row>
     <row r="277">
@@ -9447,13 +14774,13 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>577</v>
+        <v>6098</v>
       </c>
       <c r="C277" t="n">
-        <v>10423</v>
+        <v>5357</v>
       </c>
       <c r="D277" t="n">
-        <v>11000</v>
+        <v>11455</v>
       </c>
     </row>
     <row r="278">
@@ -9463,13 +14790,13 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>577</v>
+        <v>6098</v>
       </c>
       <c r="C278" t="n">
-        <v>10371</v>
+        <v>5377</v>
       </c>
       <c r="D278" t="n">
-        <v>10948</v>
+        <v>11475</v>
       </c>
     </row>
     <row r="279">
@@ -9479,13 +14806,13 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>1429</v>
+        <v>6133</v>
       </c>
       <c r="C279" t="n">
-        <v>9500</v>
+        <v>5338</v>
       </c>
       <c r="D279" t="n">
-        <v>10929</v>
+        <v>11471</v>
       </c>
     </row>
     <row r="280">
@@ -9495,13 +14822,13 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>733</v>
+        <v>5061</v>
       </c>
       <c r="C280" t="n">
-        <v>10237</v>
+        <v>6463</v>
       </c>
       <c r="D280" t="n">
-        <v>10970</v>
+        <v>11524</v>
       </c>
     </row>
     <row r="281">
@@ -9511,13 +14838,13 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>1605</v>
+        <v>4499</v>
       </c>
       <c r="C281" t="n">
-        <v>9373</v>
+        <v>7026</v>
       </c>
       <c r="D281" t="n">
-        <v>10978</v>
+        <v>11525</v>
       </c>
     </row>
     <row r="282">
@@ -9527,13 +14854,13 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>788</v>
+        <v>2883</v>
       </c>
       <c r="C282" t="n">
-        <v>9972</v>
+        <v>8460</v>
       </c>
       <c r="D282" t="n">
-        <v>10760</v>
+        <v>11343</v>
       </c>
     </row>
     <row r="283">
@@ -9543,13 +14870,13 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>788</v>
+        <v>2883</v>
       </c>
       <c r="C283" t="n">
-        <v>10089</v>
+        <v>8561</v>
       </c>
       <c r="D283" t="n">
-        <v>10877</v>
+        <v>11444</v>
       </c>
     </row>
     <row r="284">
@@ -9559,13 +14886,13 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>788</v>
+        <v>1820</v>
       </c>
       <c r="C284" t="n">
-        <v>9952</v>
+        <v>9494</v>
       </c>
       <c r="D284" t="n">
-        <v>10740</v>
+        <v>11314</v>
       </c>
     </row>
     <row r="285">
@@ -9575,13 +14902,13 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>788</v>
+        <v>1820</v>
       </c>
       <c r="C285" t="n">
-        <v>9982</v>
+        <v>9564</v>
       </c>
       <c r="D285" t="n">
-        <v>10770</v>
+        <v>11384</v>
       </c>
     </row>
     <row r="286">
@@ -9591,13 +14918,13 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>788</v>
+        <v>1820</v>
       </c>
       <c r="C286" t="n">
-        <v>10096</v>
+        <v>9710</v>
       </c>
       <c r="D286" t="n">
-        <v>10884</v>
+        <v>11530</v>
       </c>
     </row>
     <row r="287">
@@ -9607,13 +14934,13 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>788</v>
+        <v>1820</v>
       </c>
       <c r="C287" t="n">
-        <v>10148</v>
+        <v>9759</v>
       </c>
       <c r="D287" t="n">
-        <v>10936</v>
+        <v>11579</v>
       </c>
     </row>
     <row r="288">
@@ -9623,13 +14950,13 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>788</v>
+        <v>1820</v>
       </c>
       <c r="C288" t="n">
-        <v>10252</v>
+        <v>9849</v>
       </c>
       <c r="D288" t="n">
-        <v>11040</v>
+        <v>11669</v>
       </c>
     </row>
     <row r="289">
@@ -9639,13 +14966,13 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>788</v>
+        <v>1820</v>
       </c>
       <c r="C289" t="n">
-        <v>10294</v>
+        <v>9905</v>
       </c>
       <c r="D289" t="n">
-        <v>11082</v>
+        <v>11725</v>
       </c>
     </row>
     <row r="290">
@@ -9655,13 +14982,13 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>762</v>
+        <v>7538</v>
       </c>
       <c r="C290" t="n">
-        <v>10419</v>
+        <v>4566</v>
       </c>
       <c r="D290" t="n">
-        <v>11181</v>
+        <v>12104</v>
       </c>
     </row>
     <row r="291">
@@ -9671,13 +14998,13 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>1659</v>
+        <v>7538</v>
       </c>
       <c r="C291" t="n">
-        <v>9549</v>
+        <v>4578</v>
       </c>
       <c r="D291" t="n">
-        <v>11208</v>
+        <v>12116</v>
       </c>
     </row>
     <row r="292">
@@ -9687,13 +15014,13 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>3358</v>
+        <v>7538</v>
       </c>
       <c r="C292" t="n">
-        <v>7860</v>
+        <v>4578</v>
       </c>
       <c r="D292" t="n">
-        <v>11218</v>
+        <v>12116</v>
       </c>
     </row>
     <row r="293">
@@ -9703,13 +15030,13 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>4200</v>
+        <v>7538</v>
       </c>
       <c r="C293" t="n">
-        <v>6986</v>
+        <v>4573</v>
       </c>
       <c r="D293" t="n">
-        <v>11186</v>
+        <v>12111</v>
       </c>
     </row>
     <row r="294">
@@ -9719,13 +15046,13 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>5163</v>
+        <v>7538</v>
       </c>
       <c r="C294" t="n">
-        <v>6035</v>
+        <v>4562</v>
       </c>
       <c r="D294" t="n">
-        <v>11198</v>
+        <v>12100</v>
       </c>
     </row>
     <row r="295">
@@ -9735,13 +15062,13 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>5163</v>
+        <v>7538</v>
       </c>
       <c r="C295" t="n">
-        <v>6035</v>
+        <v>4562</v>
       </c>
       <c r="D295" t="n">
-        <v>11198</v>
+        <v>12100</v>
       </c>
     </row>
     <row r="296">
@@ -9751,13 +15078,13 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>5163</v>
+        <v>7538</v>
       </c>
       <c r="C296" t="n">
-        <v>6021</v>
+        <v>4543</v>
       </c>
       <c r="D296" t="n">
-        <v>11184</v>
+        <v>12081</v>
       </c>
     </row>
     <row r="297">
@@ -9767,13 +15094,13 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>5163</v>
+        <v>7538</v>
       </c>
       <c r="C297" t="n">
-        <v>6118</v>
+        <v>4593</v>
       </c>
       <c r="D297" t="n">
-        <v>11281</v>
+        <v>12131</v>
       </c>
     </row>
     <row r="298">
@@ -9783,13 +15110,13 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>5163</v>
+        <v>7538</v>
       </c>
       <c r="C298" t="n">
-        <v>6101</v>
+        <v>4586</v>
       </c>
       <c r="D298" t="n">
-        <v>11264</v>
+        <v>12124</v>
       </c>
     </row>
     <row r="299">
@@ -9799,13 +15126,13 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>4253</v>
+        <v>7538</v>
       </c>
       <c r="C299" t="n">
-        <v>6964</v>
+        <v>4546</v>
       </c>
       <c r="D299" t="n">
-        <v>11217</v>
+        <v>12084</v>
       </c>
     </row>
     <row r="300">
@@ -9815,13 +15142,13 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>1359</v>
+        <v>6721</v>
       </c>
       <c r="C300" t="n">
-        <v>9866</v>
+        <v>5359</v>
       </c>
       <c r="D300" t="n">
-        <v>11225</v>
+        <v>12080</v>
       </c>
     </row>
     <row r="301">
@@ -9831,13 +15158,13 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>410</v>
+        <v>5914</v>
       </c>
       <c r="C301" t="n">
-        <v>10815</v>
+        <v>6162</v>
       </c>
       <c r="D301" t="n">
-        <v>11225</v>
+        <v>12076</v>
       </c>
     </row>
     <row r="302">
@@ -9847,13 +15174,13 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>410</v>
+        <v>5914</v>
       </c>
       <c r="C302" t="n">
-        <v>10846</v>
+        <v>6178</v>
       </c>
       <c r="D302" t="n">
-        <v>11256</v>
+        <v>12092</v>
       </c>
     </row>
     <row r="303">
@@ -9863,13 +15190,13 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>410</v>
+        <v>5100</v>
       </c>
       <c r="C303" t="n">
-        <v>10726</v>
+        <v>6925</v>
       </c>
       <c r="D303" t="n">
-        <v>11136</v>
+        <v>12025</v>
       </c>
     </row>
     <row r="304">
@@ -9879,13 +15206,13 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>410</v>
+        <v>4484</v>
       </c>
       <c r="C304" t="n">
-        <v>10613</v>
+        <v>7470</v>
       </c>
       <c r="D304" t="n">
-        <v>11023</v>
+        <v>11954</v>
       </c>
     </row>
     <row r="305">
@@ -9895,13 +15222,13 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>410</v>
+        <v>4484</v>
       </c>
       <c r="C305" t="n">
-        <v>10775</v>
+        <v>7553</v>
       </c>
       <c r="D305" t="n">
-        <v>11185</v>
+        <v>12037</v>
       </c>
     </row>
     <row r="306">
@@ -9911,13 +15238,13 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>1079</v>
+        <v>5150</v>
       </c>
       <c r="C306" t="n">
-        <v>10032</v>
+        <v>6851</v>
       </c>
       <c r="D306" t="n">
-        <v>11111</v>
+        <v>12001</v>
       </c>
     </row>
     <row r="307">
@@ -9927,13 +15254,13 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>141</v>
+        <v>5150</v>
       </c>
       <c r="C307" t="n">
-        <v>10919</v>
+        <v>6811</v>
       </c>
       <c r="D307" t="n">
-        <v>11060</v>
+        <v>11961</v>
       </c>
     </row>
     <row r="308">
@@ -9943,13 +15270,13 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>141</v>
+        <v>5150</v>
       </c>
       <c r="C308" t="n">
-        <v>10839</v>
+        <v>6729</v>
       </c>
       <c r="D308" t="n">
-        <v>10980</v>
+        <v>11879</v>
       </c>
     </row>
     <row r="309">
@@ -9959,13 +15286,1165 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>354</v>
+        <v>5150</v>
       </c>
       <c r="C309" t="n">
-        <v>10834</v>
+        <v>6823</v>
       </c>
       <c r="D309" t="n">
-        <v>11188</v>
+        <v>11973</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>08/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>7897</v>
+      </c>
+      <c r="C310" t="n">
+        <v>4617</v>
+      </c>
+      <c r="D310" t="n">
+        <v>12514</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>09/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>7897</v>
+      </c>
+      <c r="C311" t="n">
+        <v>4634</v>
+      </c>
+      <c r="D311" t="n">
+        <v>12531</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>10/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>7897</v>
+      </c>
+      <c r="C312" t="n">
+        <v>4700</v>
+      </c>
+      <c r="D312" t="n">
+        <v>12597</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>11/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>7897</v>
+      </c>
+      <c r="C313" t="n">
+        <v>4701</v>
+      </c>
+      <c r="D313" t="n">
+        <v>12598</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>12/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>7897</v>
+      </c>
+      <c r="C314" t="n">
+        <v>4745</v>
+      </c>
+      <c r="D314" t="n">
+        <v>12642</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>15/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>7897</v>
+      </c>
+      <c r="C315" t="n">
+        <v>4766</v>
+      </c>
+      <c r="D315" t="n">
+        <v>12663</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="inlineStr">
+        <is>
+          <t>16/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>7897</v>
+      </c>
+      <c r="C316" t="n">
+        <v>4778</v>
+      </c>
+      <c r="D316" t="n">
+        <v>12675</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="inlineStr">
+        <is>
+          <t>17/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>8684</v>
+      </c>
+      <c r="C317" t="n">
+        <v>3989</v>
+      </c>
+      <c r="D317" t="n">
+        <v>12673</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="inlineStr">
+        <is>
+          <t>18/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>8684</v>
+      </c>
+      <c r="C318" t="n">
+        <v>3971</v>
+      </c>
+      <c r="D318" t="n">
+        <v>12655</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="inlineStr">
+        <is>
+          <t>19/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>7030</v>
+      </c>
+      <c r="C319" t="n">
+        <v>5607</v>
+      </c>
+      <c r="D319" t="n">
+        <v>12637</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>22/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>5454</v>
+      </c>
+      <c r="C320" t="n">
+        <v>7197</v>
+      </c>
+      <c r="D320" t="n">
+        <v>12651</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>23/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>5454</v>
+      </c>
+      <c r="C321" t="n">
+        <v>7137</v>
+      </c>
+      <c r="D321" t="n">
+        <v>12591</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>24/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>5454</v>
+      </c>
+      <c r="C322" t="n">
+        <v>7200</v>
+      </c>
+      <c r="D322" t="n">
+        <v>12654</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>25/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>4683</v>
+      </c>
+      <c r="C323" t="n">
+        <v>8031</v>
+      </c>
+      <c r="D323" t="n">
+        <v>12714</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>26/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>4030</v>
+      </c>
+      <c r="C324" t="n">
+        <v>8824</v>
+      </c>
+      <c r="D324" t="n">
+        <v>12854</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="inlineStr">
+        <is>
+          <t>29/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>4030</v>
+      </c>
+      <c r="C325" t="n">
+        <v>8840</v>
+      </c>
+      <c r="D325" t="n">
+        <v>12870</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>30/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>4030</v>
+      </c>
+      <c r="C326" t="n">
+        <v>8804</v>
+      </c>
+      <c r="D326" t="n">
+        <v>12834</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>31/03/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>4030</v>
+      </c>
+      <c r="C327" t="n">
+        <v>8748</v>
+      </c>
+      <c r="D327" t="n">
+        <v>12778</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>01/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>4030</v>
+      </c>
+      <c r="C328" t="n">
+        <v>8810</v>
+      </c>
+      <c r="D328" t="n">
+        <v>12840</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>02/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>4030</v>
+      </c>
+      <c r="C329" t="n">
+        <v>8810</v>
+      </c>
+      <c r="D329" t="n">
+        <v>12840</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>05/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>4030</v>
+      </c>
+      <c r="C330" t="n">
+        <v>8854</v>
+      </c>
+      <c r="D330" t="n">
+        <v>12884</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>06/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>9024</v>
+      </c>
+      <c r="C331" t="n">
+        <v>4086</v>
+      </c>
+      <c r="D331" t="n">
+        <v>13110</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>07/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>9024</v>
+      </c>
+      <c r="C332" t="n">
+        <v>4085</v>
+      </c>
+      <c r="D332" t="n">
+        <v>13109</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>08/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>9024</v>
+      </c>
+      <c r="C333" t="n">
+        <v>4086</v>
+      </c>
+      <c r="D333" t="n">
+        <v>13110</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>09/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>9024</v>
+      </c>
+      <c r="C334" t="n">
+        <v>4102</v>
+      </c>
+      <c r="D334" t="n">
+        <v>13126</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>12/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>8219</v>
+      </c>
+      <c r="C335" t="n">
+        <v>4906</v>
+      </c>
+      <c r="D335" t="n">
+        <v>13125</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>13/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>8219</v>
+      </c>
+      <c r="C336" t="n">
+        <v>4909</v>
+      </c>
+      <c r="D336" t="n">
+        <v>13128</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>14/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>8219</v>
+      </c>
+      <c r="C337" t="n">
+        <v>4924</v>
+      </c>
+      <c r="D337" t="n">
+        <v>13143</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
+          <t>15/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>8219</v>
+      </c>
+      <c r="C338" t="n">
+        <v>4944</v>
+      </c>
+      <c r="D338" t="n">
+        <v>13163</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>16/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>8219</v>
+      </c>
+      <c r="C339" t="n">
+        <v>4977</v>
+      </c>
+      <c r="D339" t="n">
+        <v>13196</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="inlineStr">
+        <is>
+          <t>19/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>7365</v>
+      </c>
+      <c r="C340" t="n">
+        <v>5830</v>
+      </c>
+      <c r="D340" t="n">
+        <v>13195</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="inlineStr">
+        <is>
+          <t>20/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>6477</v>
+      </c>
+      <c r="C341" t="n">
+        <v>6695</v>
+      </c>
+      <c r="D341" t="n">
+        <v>13172</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="inlineStr">
+        <is>
+          <t>21/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>6477</v>
+      </c>
+      <c r="C342" t="n">
+        <v>6754</v>
+      </c>
+      <c r="D342" t="n">
+        <v>13231</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="inlineStr">
+        <is>
+          <t>22/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>5592</v>
+      </c>
+      <c r="C343" t="n">
+        <v>7544</v>
+      </c>
+      <c r="D343" t="n">
+        <v>13136</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="inlineStr">
+        <is>
+          <t>23/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>5592</v>
+      </c>
+      <c r="C344" t="n">
+        <v>7591</v>
+      </c>
+      <c r="D344" t="n">
+        <v>13183</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="inlineStr">
+        <is>
+          <t>26/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>5592</v>
+      </c>
+      <c r="C345" t="n">
+        <v>7578</v>
+      </c>
+      <c r="D345" t="n">
+        <v>13170</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="inlineStr">
+        <is>
+          <t>27/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>5592</v>
+      </c>
+      <c r="C346" t="n">
+        <v>7579</v>
+      </c>
+      <c r="D346" t="n">
+        <v>13171</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="inlineStr">
+        <is>
+          <t>28/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>5592</v>
+      </c>
+      <c r="C347" t="n">
+        <v>7580</v>
+      </c>
+      <c r="D347" t="n">
+        <v>13172</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="inlineStr">
+        <is>
+          <t>29/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>5592</v>
+      </c>
+      <c r="C348" t="n">
+        <v>7639</v>
+      </c>
+      <c r="D348" t="n">
+        <v>13231</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="inlineStr">
+        <is>
+          <t>30/04/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>5592</v>
+      </c>
+      <c r="C349" t="n">
+        <v>7602</v>
+      </c>
+      <c r="D349" t="n">
+        <v>13194</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="inlineStr">
+        <is>
+          <t>03/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>5592</v>
+      </c>
+      <c r="C350" t="n">
+        <v>7689</v>
+      </c>
+      <c r="D350" t="n">
+        <v>13281</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="inlineStr">
+        <is>
+          <t>04/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>5592</v>
+      </c>
+      <c r="C351" t="n">
+        <v>7697</v>
+      </c>
+      <c r="D351" t="n">
+        <v>13289</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="inlineStr">
+        <is>
+          <t>05/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>6537</v>
+      </c>
+      <c r="C352" t="n">
+        <v>6791</v>
+      </c>
+      <c r="D352" t="n">
+        <v>13328</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="inlineStr">
+        <is>
+          <t>06/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>8261</v>
+      </c>
+      <c r="C353" t="n">
+        <v>5100</v>
+      </c>
+      <c r="D353" t="n">
+        <v>13361</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="inlineStr">
+        <is>
+          <t>07/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>9223</v>
+      </c>
+      <c r="C354" t="n">
+        <v>4190</v>
+      </c>
+      <c r="D354" t="n">
+        <v>13413</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="inlineStr">
+        <is>
+          <t>10/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>9223</v>
+      </c>
+      <c r="C355" t="n">
+        <v>4198</v>
+      </c>
+      <c r="D355" t="n">
+        <v>13421</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="inlineStr">
+        <is>
+          <t>11/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>9223</v>
+      </c>
+      <c r="C356" t="n">
+        <v>4149</v>
+      </c>
+      <c r="D356" t="n">
+        <v>13372</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="inlineStr">
+        <is>
+          <t>12/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>9223</v>
+      </c>
+      <c r="C357" t="n">
+        <v>4105</v>
+      </c>
+      <c r="D357" t="n">
+        <v>13328</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="inlineStr">
+        <is>
+          <t>13/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>9223</v>
+      </c>
+      <c r="C358" t="n">
+        <v>4155</v>
+      </c>
+      <c r="D358" t="n">
+        <v>13378</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="inlineStr">
+        <is>
+          <t>14/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>9223</v>
+      </c>
+      <c r="C359" t="n">
+        <v>4163</v>
+      </c>
+      <c r="D359" t="n">
+        <v>13386</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="inlineStr">
+        <is>
+          <t>17/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>9223</v>
+      </c>
+      <c r="C360" t="n">
+        <v>4155</v>
+      </c>
+      <c r="D360" t="n">
+        <v>13378</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="inlineStr">
+        <is>
+          <t>18/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>9223</v>
+      </c>
+      <c r="C361" t="n">
+        <v>4129</v>
+      </c>
+      <c r="D361" t="n">
+        <v>13352</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="inlineStr">
+        <is>
+          <t>19/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>9223</v>
+      </c>
+      <c r="C362" t="n">
+        <v>4117</v>
+      </c>
+      <c r="D362" t="n">
+        <v>13340</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="inlineStr">
+        <is>
+          <t>20/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>9223</v>
+      </c>
+      <c r="C363" t="n">
+        <v>4145</v>
+      </c>
+      <c r="D363" t="n">
+        <v>13368</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="inlineStr">
+        <is>
+          <t>21/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>9223</v>
+      </c>
+      <c r="C364" t="n">
+        <v>4146</v>
+      </c>
+      <c r="D364" t="n">
+        <v>13369</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="inlineStr">
+        <is>
+          <t>24/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>9223</v>
+      </c>
+      <c r="C365" t="n">
+        <v>4160</v>
+      </c>
+      <c r="D365" t="n">
+        <v>13383</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="inlineStr">
+        <is>
+          <t>25/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>9223</v>
+      </c>
+      <c r="C366" t="n">
+        <v>4146</v>
+      </c>
+      <c r="D366" t="n">
+        <v>13369</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="inlineStr">
+        <is>
+          <t>26/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>9223</v>
+      </c>
+      <c r="C367" t="n">
+        <v>4132</v>
+      </c>
+      <c r="D367" t="n">
+        <v>13355</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="inlineStr">
+        <is>
+          <t>27/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>9223</v>
+      </c>
+      <c r="C368" t="n">
+        <v>4116</v>
+      </c>
+      <c r="D368" t="n">
+        <v>13339</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="inlineStr">
+        <is>
+          <t>28/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>9223</v>
+      </c>
+      <c r="C369" t="n">
+        <v>4115</v>
+      </c>
+      <c r="D369" t="n">
+        <v>13338</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="inlineStr">
+        <is>
+          <t>31/05/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>9223</v>
+      </c>
+      <c r="C370" t="n">
+        <v>4115</v>
+      </c>
+      <c r="D370" t="n">
+        <v>13338</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="inlineStr">
+        <is>
+          <t>01/06/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>9223</v>
+      </c>
+      <c r="C371" t="n">
+        <v>4089</v>
+      </c>
+      <c r="D371" t="n">
+        <v>13312</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="inlineStr">
+        <is>
+          <t>02/06/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>9223</v>
+      </c>
+      <c r="C372" t="n">
+        <v>4107</v>
+      </c>
+      <c r="D372" t="n">
+        <v>13330</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="inlineStr">
+        <is>
+          <t>03/06/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>9223</v>
+      </c>
+      <c r="C373" t="n">
+        <v>4119</v>
+      </c>
+      <c r="D373" t="n">
+        <v>13342</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="inlineStr">
+        <is>
+          <t>04/06/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>9223</v>
+      </c>
+      <c r="C374" t="n">
+        <v>4137</v>
+      </c>
+      <c r="D374" t="n">
+        <v>13360</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="inlineStr">
+        <is>
+          <t>07/06/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>8422</v>
+      </c>
+      <c r="C375" t="n">
+        <v>4925</v>
+      </c>
+      <c r="D375" t="n">
+        <v>13347</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="inlineStr">
+        <is>
+          <t>08/06/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>7583</v>
+      </c>
+      <c r="C376" t="n">
+        <v>5752</v>
+      </c>
+      <c r="D376" t="n">
+        <v>13335</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="inlineStr">
+        <is>
+          <t>09/06/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>7583</v>
+      </c>
+      <c r="C377" t="n">
+        <v>5769</v>
+      </c>
+      <c r="D377" t="n">
+        <v>13352</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="inlineStr">
+        <is>
+          <t>10/06/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>6119</v>
+      </c>
+      <c r="C378" t="n">
+        <v>7284</v>
+      </c>
+      <c r="D378" t="n">
+        <v>13403</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="inlineStr">
+        <is>
+          <t>11/06/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>4544</v>
+      </c>
+      <c r="C379" t="n">
+        <v>8835</v>
+      </c>
+      <c r="D379" t="n">
+        <v>13379</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="inlineStr">
+        <is>
+          <t>14/06/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>4544</v>
+      </c>
+      <c r="C380" t="n">
+        <v>8800</v>
+      </c>
+      <c r="D380" t="n">
+        <v>13344</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="inlineStr">
+        <is>
+          <t>15/06/2021 00:00:00</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>3737</v>
+      </c>
+      <c r="C381" t="n">
+        <v>9587</v>
+      </c>
+      <c r="D381" t="n">
+        <v>13324</v>
       </c>
     </row>
   </sheetData>
